--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="302">
   <si>
     <t>Group</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>BW</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
   </si>
   <si>
     <t>FAILSAFE</t>
@@ -1848,7 +1851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT111"/>
+  <dimension ref="A1:BW111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
@@ -1863,19 +1866,19 @@
     <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="69" width="5" style="1" customWidth="1"/>
-    <col min="70" max="70" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="200.7109375" style="1" customWidth="1"/>
-    <col min="73" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="72" width="5" style="1" customWidth="1"/>
+    <col min="73" max="73" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="200.7109375" style="1" customWidth="1"/>
+    <col min="76" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:75" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92"/>
       <c r="B1" s="94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C1" s="92"/>
       <c r="D1" s="92"/>
@@ -1947,8 +1950,11 @@
       <c r="BR1" s="92"/>
       <c r="BS1" s="92"/>
       <c r="BT1" s="92"/>
-    </row>
-    <row r="2" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BU1" s="92"/>
+      <c r="BV1" s="92"/>
+      <c r="BW1" s="92"/>
+    </row>
+    <row r="2" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="92"/>
@@ -2070,43 +2076,48 @@
       </c>
       <c r="BD2" s="64"/>
       <c r="BE2" s="63">
+        <v>2154</v>
+      </c>
+      <c r="BF2" s="76"/>
+      <c r="BG2" s="64"/>
+      <c r="BH2" s="63">
         <v>2160</v>
       </c>
-      <c r="BF2" s="64"/>
-      <c r="BG2" s="46">
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="46">
         <v>2162</v>
       </c>
-      <c r="BH2" s="46">
+      <c r="BK2" s="46">
         <v>205</v>
       </c>
-      <c r="BI2" s="46">
+      <c r="BL2" s="46">
         <v>215</v>
       </c>
-      <c r="BJ2" s="46">
+      <c r="BM2" s="46">
         <v>225</v>
       </c>
-      <c r="BK2" s="46">
+      <c r="BN2" s="46">
         <v>234</v>
       </c>
-      <c r="BL2" s="46">
+      <c r="BO2" s="46">
         <v>235</v>
       </c>
-      <c r="BM2" s="63">
+      <c r="BP2" s="63">
         <v>236</v>
       </c>
-      <c r="BN2" s="64"/>
-      <c r="BO2" s="63">
+      <c r="BQ2" s="64"/>
+      <c r="BR2" s="63">
         <v>245</v>
       </c>
-      <c r="BP2" s="64"/>
-      <c r="BQ2" s="46">
+      <c r="BS2" s="64"/>
+      <c r="BT2" s="46">
         <v>351</v>
       </c>
-      <c r="BR2" s="92"/>
-      <c r="BS2" s="92"/>
-      <c r="BT2" s="92"/>
-    </row>
-    <row r="3" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BU2" s="92"/>
+      <c r="BV2" s="92"/>
+      <c r="BW2" s="92"/>
+    </row>
+    <row r="3" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2127,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" s="47">
         <v>1</v>
@@ -2187,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" s="65">
         <v>1</v>
@@ -2202,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="AG3" s="65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH3" s="66">
         <v>4</v>
@@ -2247,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="AV3" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AW3" s="65">
         <v>1</v>
@@ -2259,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="AZ3" s="66" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BA3" s="65">
         <v>1</v>
@@ -2273,23 +2284,23 @@
       <c r="BD3" s="66">
         <v>3</v>
       </c>
-      <c r="BE3" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="BF3" s="66">
+      <c r="BE3" s="65">
+        <v>1</v>
+      </c>
+      <c r="BF3" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG3" s="66">
+        <v>5</v>
+      </c>
+      <c r="BH3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI3" s="66">
         <v>4</v>
       </c>
-      <c r="BG3" s="47">
+      <c r="BJ3" s="47">
         <v>1.2</v>
-      </c>
-      <c r="BH3" s="47">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="47">
-        <v>1</v>
-      </c>
-      <c r="BJ3" s="47">
-        <v>1</v>
       </c>
       <c r="BK3" s="47">
         <v>1</v>
@@ -2297,30 +2308,39 @@
       <c r="BL3" s="47">
         <v>1</v>
       </c>
-      <c r="BM3" s="65">
+      <c r="BM3" s="47">
         <v>1</v>
       </c>
-      <c r="BN3" s="66">
+      <c r="BN3" s="47">
+        <v>1</v>
+      </c>
+      <c r="BO3" s="47">
+        <v>1</v>
+      </c>
+      <c r="BP3" s="65">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="66">
         <v>2</v>
       </c>
-      <c r="BO3" s="65">
+      <c r="BR3" s="65">
         <v>1</v>
       </c>
-      <c r="BP3" s="66">
+      <c r="BS3" s="66">
         <v>2</v>
       </c>
-      <c r="BQ3" s="47">
+      <c r="BT3" s="47">
         <v>1</v>
       </c>
-      <c r="BR3" s="2" t="s">
+      <c r="BU3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BS3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT3" s="92"/>
-    </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BV3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BW3" s="92"/>
+    </row>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" s="92"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -2329,7 +2349,9 @@
         <v>6</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
@@ -2382,35 +2404,38 @@
       <c r="BC4" s="32"/>
       <c r="BD4" s="51"/>
       <c r="BE4" s="32"/>
-      <c r="BF4" s="51"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="51"/>
       <c r="BJ4" s="34"/>
       <c r="BK4" s="34"/>
       <c r="BL4" s="34"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="51"/>
-      <c r="BO4" s="32"/>
-      <c r="BP4" s="51"/>
-      <c r="BQ4" s="48"/>
-      <c r="BR4" s="5" t="s">
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34"/>
+      <c r="BO4" s="34"/>
+      <c r="BP4" s="32"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="32"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="48"/>
+      <c r="BU4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="BS4" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT4" s="92"/>
-    </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BV4" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="BW4" s="92"/>
+    </row>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="16"/>
       <c r="C5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="35"/>
@@ -2464,31 +2489,34 @@
       <c r="BC5" s="33"/>
       <c r="BD5" s="52"/>
       <c r="BE5" s="33"/>
-      <c r="BF5" s="52"/>
-      <c r="BG5" s="35"/>
-      <c r="BH5" s="35"/>
-      <c r="BI5" s="35"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="52"/>
+      <c r="BH5" s="33"/>
+      <c r="BI5" s="52"/>
       <c r="BJ5" s="35"/>
       <c r="BK5" s="35"/>
       <c r="BL5" s="35"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="52"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="52"/>
-      <c r="BQ5" s="35"/>
-      <c r="BR5" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="BS5" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="BT5" s="92"/>
-    </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="35"/>
+      <c r="BO5" s="35"/>
+      <c r="BP5" s="33"/>
+      <c r="BQ5" s="52"/>
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="52"/>
+      <c r="BT5" s="35"/>
+      <c r="BU5" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV5" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW5" s="92"/>
+    </row>
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A6" s="92"/>
       <c r="B6" s="16"/>
       <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -2544,31 +2572,34 @@
       <c r="BC6" s="61"/>
       <c r="BD6" s="52"/>
       <c r="BE6" s="33"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="35"/>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="35"/>
+      <c r="BF6" s="50"/>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="33"/>
+      <c r="BI6" s="52"/>
       <c r="BJ6" s="35"/>
       <c r="BK6" s="35"/>
       <c r="BL6" s="35"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="33"/>
-      <c r="BP6" s="52"/>
-      <c r="BQ6" s="35"/>
-      <c r="BR6" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS6" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT6" s="92"/>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM6" s="35"/>
+      <c r="BN6" s="35"/>
+      <c r="BO6" s="35"/>
+      <c r="BP6" s="33"/>
+      <c r="BQ6" s="52"/>
+      <c r="BR6" s="33"/>
+      <c r="BS6" s="52"/>
+      <c r="BT6" s="35"/>
+      <c r="BU6" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV6" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW6" s="92"/>
+    </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -2627,36 +2658,39 @@
       </c>
       <c r="BC7" s="61"/>
       <c r="BD7" s="52"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="52"/>
-      <c r="BG7" s="35"/>
-      <c r="BH7" s="35"/>
-      <c r="BI7" s="35"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="75"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="52"/>
       <c r="BJ7" s="35"/>
       <c r="BK7" s="35"/>
       <c r="BL7" s="35"/>
-      <c r="BM7" s="33"/>
-      <c r="BN7" s="52"/>
-      <c r="BO7" s="33"/>
-      <c r="BP7" s="52"/>
-      <c r="BQ7" s="35"/>
-      <c r="BR7" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="BS7" s="85" t="s">
-        <v>87</v>
-      </c>
-      <c r="BT7" s="92"/>
-    </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM7" s="35"/>
+      <c r="BN7" s="35"/>
+      <c r="BO7" s="35"/>
+      <c r="BP7" s="33"/>
+      <c r="BQ7" s="52"/>
+      <c r="BR7" s="33"/>
+      <c r="BS7" s="52"/>
+      <c r="BT7" s="35"/>
+      <c r="BU7" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV7" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW7" s="92"/>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" s="92"/>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="35"/>
@@ -2713,32 +2747,35 @@
       <c r="BB8" s="52"/>
       <c r="BC8" s="61"/>
       <c r="BD8" s="62"/>
-      <c r="BE8" s="33"/>
-      <c r="BF8" s="52"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="35"/>
+      <c r="BE8" s="61"/>
+      <c r="BF8" s="50"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="33"/>
+      <c r="BI8" s="52"/>
       <c r="BJ8" s="35"/>
       <c r="BK8" s="35"/>
       <c r="BL8" s="35"/>
-      <c r="BM8" s="33"/>
-      <c r="BN8" s="52"/>
-      <c r="BO8" s="33"/>
-      <c r="BP8" s="52"/>
-      <c r="BQ8" s="35"/>
-      <c r="BR8" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="BS8" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT8" s="92"/>
-    </row>
-    <row r="9" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BM8" s="35"/>
+      <c r="BN8" s="35"/>
+      <c r="BO8" s="35"/>
+      <c r="BP8" s="33"/>
+      <c r="BQ8" s="52"/>
+      <c r="BR8" s="33"/>
+      <c r="BS8" s="52"/>
+      <c r="BT8" s="35"/>
+      <c r="BU8" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV8" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="BW8" s="92"/>
+    </row>
+    <row r="9" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92"/>
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
@@ -2794,33 +2831,36 @@
       <c r="BC9" s="53"/>
       <c r="BD9" s="54"/>
       <c r="BE9" s="53"/>
-      <c r="BF9" s="54"/>
-      <c r="BG9" s="36"/>
-      <c r="BH9" s="36"/>
-      <c r="BI9" s="36"/>
+      <c r="BF9" s="73"/>
+      <c r="BG9" s="54"/>
+      <c r="BH9" s="53"/>
+      <c r="BI9" s="54"/>
       <c r="BJ9" s="36"/>
       <c r="BK9" s="36"/>
       <c r="BL9" s="36"/>
-      <c r="BM9" s="53"/>
-      <c r="BN9" s="54"/>
-      <c r="BO9" s="53"/>
-      <c r="BP9" s="54"/>
-      <c r="BQ9" s="36"/>
-      <c r="BR9" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="BS9" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT9" s="92"/>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM9" s="36"/>
+      <c r="BN9" s="36"/>
+      <c r="BO9" s="36"/>
+      <c r="BP9" s="53"/>
+      <c r="BQ9" s="54"/>
+      <c r="BR9" s="53"/>
+      <c r="BS9" s="54"/>
+      <c r="BT9" s="36"/>
+      <c r="BU9" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="BV9" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW9" s="92"/>
+    </row>
+    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" s="92"/>
       <c r="B10" s="29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -2876,34 +2916,37 @@
       <c r="BC10" s="37"/>
       <c r="BD10" s="57"/>
       <c r="BE10" s="37"/>
-      <c r="BF10" s="57"/>
-      <c r="BG10" s="39"/>
-      <c r="BH10" s="39"/>
-      <c r="BI10" s="39"/>
+      <c r="BF10" s="55"/>
+      <c r="BG10" s="57"/>
+      <c r="BH10" s="37"/>
+      <c r="BI10" s="57"/>
       <c r="BJ10" s="39"/>
       <c r="BK10" s="39"/>
       <c r="BL10" s="39"/>
-      <c r="BM10" s="80"/>
-      <c r="BN10" s="81"/>
-      <c r="BO10" s="37"/>
-      <c r="BP10" s="57"/>
-      <c r="BQ10" s="39"/>
-      <c r="BR10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="BS10" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="BT10" s="92"/>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM10" s="39"/>
+      <c r="BN10" s="39"/>
+      <c r="BO10" s="39"/>
+      <c r="BP10" s="80"/>
+      <c r="BQ10" s="81"/>
+      <c r="BR10" s="37"/>
+      <c r="BS10" s="57"/>
+      <c r="BT10" s="39"/>
+      <c r="BU10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV10" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="BW10" s="92"/>
+    </row>
+    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="30"/>
       <c r="C11" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
@@ -2958,35 +3001,38 @@
       <c r="BC11" s="61"/>
       <c r="BD11" s="58"/>
       <c r="BE11" s="61"/>
-      <c r="BF11" s="58"/>
-      <c r="BG11" s="40"/>
-      <c r="BH11" s="40"/>
-      <c r="BI11" s="40"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="42"/>
-      <c r="BL11" s="42"/>
-      <c r="BM11" s="61"/>
-      <c r="BN11" s="62"/>
-      <c r="BO11" s="61"/>
-      <c r="BP11" s="58"/>
-      <c r="BQ11" s="42"/>
-      <c r="BR11" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="BS11" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="BT11" s="92"/>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BF11" s="75"/>
+      <c r="BG11" s="58"/>
+      <c r="BH11" s="61"/>
+      <c r="BI11" s="58"/>
+      <c r="BJ11" s="40"/>
+      <c r="BK11" s="40"/>
+      <c r="BL11" s="40"/>
+      <c r="BM11" s="42"/>
+      <c r="BN11" s="42"/>
+      <c r="BO11" s="42"/>
+      <c r="BP11" s="61"/>
+      <c r="BQ11" s="62"/>
+      <c r="BR11" s="61"/>
+      <c r="BS11" s="58"/>
+      <c r="BT11" s="42"/>
+      <c r="BU11" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV11" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW11" s="92"/>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A12" s="92"/>
       <c r="B12" s="30"/>
       <c r="C12" s="23"/>
       <c r="D12" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="40"/>
@@ -3040,34 +3086,37 @@
       <c r="BC12" s="38"/>
       <c r="BD12" s="58"/>
       <c r="BE12" s="38"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="40"/>
-      <c r="BH12" s="40"/>
-      <c r="BI12" s="40"/>
+      <c r="BF12" s="56"/>
+      <c r="BG12" s="58"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="58"/>
       <c r="BJ12" s="40"/>
       <c r="BK12" s="40"/>
       <c r="BL12" s="40"/>
-      <c r="BM12" s="38"/>
-      <c r="BN12" s="58"/>
-      <c r="BO12" s="38"/>
-      <c r="BP12" s="58"/>
-      <c r="BQ12" s="40"/>
-      <c r="BR12" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="BS12" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="BT12" s="92"/>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM12" s="40"/>
+      <c r="BN12" s="40"/>
+      <c r="BO12" s="40"/>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="58"/>
+      <c r="BR12" s="38"/>
+      <c r="BS12" s="58"/>
+      <c r="BT12" s="40"/>
+      <c r="BU12" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="BV12" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="BW12" s="92"/>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="30"/>
       <c r="C13" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
@@ -3122,35 +3171,38 @@
       <c r="BC13" s="61"/>
       <c r="BD13" s="58"/>
       <c r="BE13" s="61"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="40"/>
-      <c r="BH13" s="42"/>
-      <c r="BI13" s="42"/>
+      <c r="BF13" s="75"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="61"/>
+      <c r="BI13" s="58"/>
       <c r="BJ13" s="40"/>
-      <c r="BK13" s="40"/>
-      <c r="BL13" s="40"/>
-      <c r="BM13" s="38"/>
-      <c r="BN13" s="58"/>
-      <c r="BO13" s="38"/>
-      <c r="BP13" s="62"/>
-      <c r="BQ13" s="40"/>
-      <c r="BR13" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="BS13" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT13" s="92"/>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BK13" s="42"/>
+      <c r="BL13" s="42"/>
+      <c r="BM13" s="40"/>
+      <c r="BN13" s="40"/>
+      <c r="BO13" s="40"/>
+      <c r="BP13" s="38"/>
+      <c r="BQ13" s="58"/>
+      <c r="BR13" s="38"/>
+      <c r="BS13" s="62"/>
+      <c r="BT13" s="40"/>
+      <c r="BU13" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="BV13" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="BW13" s="92"/>
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A14" s="92"/>
       <c r="B14" s="30"/>
       <c r="C14" s="23"/>
       <c r="D14" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="40"/>
@@ -3209,36 +3261,39 @@
       </c>
       <c r="BC14" s="38"/>
       <c r="BD14" s="58"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="58"/>
-      <c r="BG14" s="40"/>
-      <c r="BH14" s="40"/>
-      <c r="BI14" s="40"/>
+      <c r="BE14" s="38"/>
+      <c r="BF14" s="56"/>
+      <c r="BG14" s="58"/>
+      <c r="BH14" s="61"/>
+      <c r="BI14" s="58"/>
       <c r="BJ14" s="40"/>
       <c r="BK14" s="40"/>
       <c r="BL14" s="40"/>
-      <c r="BM14" s="38"/>
-      <c r="BN14" s="58"/>
-      <c r="BO14" s="38"/>
-      <c r="BP14" s="58"/>
-      <c r="BQ14" s="40"/>
-      <c r="BR14" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="BS14" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="BT14" s="92"/>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM14" s="40"/>
+      <c r="BN14" s="40"/>
+      <c r="BO14" s="40"/>
+      <c r="BP14" s="38"/>
+      <c r="BQ14" s="58"/>
+      <c r="BR14" s="38"/>
+      <c r="BS14" s="58"/>
+      <c r="BT14" s="40"/>
+      <c r="BU14" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV14" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW14" s="92"/>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="30"/>
       <c r="C15" s="23"/>
       <c r="D15" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="40"/>
@@ -3294,38 +3349,41 @@
       <c r="BC15" s="38"/>
       <c r="BD15" s="58"/>
       <c r="BE15" s="38"/>
-      <c r="BF15" s="58"/>
-      <c r="BG15" s="40"/>
-      <c r="BH15" s="40"/>
-      <c r="BI15" s="40"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="58"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="58"/>
       <c r="BJ15" s="40"/>
       <c r="BK15" s="40"/>
       <c r="BL15" s="40"/>
-      <c r="BM15" s="38"/>
-      <c r="BN15" s="58"/>
-      <c r="BO15" s="38"/>
-      <c r="BP15" s="58"/>
-      <c r="BQ15" s="40"/>
-      <c r="BR15" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="BS15" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT15" s="92"/>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM15" s="40"/>
+      <c r="BN15" s="40"/>
+      <c r="BO15" s="40"/>
+      <c r="BP15" s="38"/>
+      <c r="BQ15" s="58"/>
+      <c r="BR15" s="38"/>
+      <c r="BS15" s="58"/>
+      <c r="BT15" s="40"/>
+      <c r="BU15" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="BV15" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="BW15" s="92"/>
+    </row>
+    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A16" s="92"/>
       <c r="B16" s="30"/>
       <c r="C16" s="23"/>
       <c r="D16" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
@@ -3380,35 +3438,38 @@
       <c r="BC16" s="38"/>
       <c r="BD16" s="58"/>
       <c r="BE16" s="38"/>
-      <c r="BF16" s="58"/>
-      <c r="BG16" s="40"/>
-      <c r="BH16" s="40"/>
-      <c r="BI16" s="40"/>
+      <c r="BF16" s="56"/>
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="58"/>
       <c r="BJ16" s="40"/>
       <c r="BK16" s="40"/>
       <c r="BL16" s="40"/>
-      <c r="BM16" s="38"/>
-      <c r="BN16" s="58"/>
-      <c r="BO16" s="38"/>
-      <c r="BP16" s="58"/>
-      <c r="BQ16" s="40"/>
-      <c r="BR16" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="BS16" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT16" s="92"/>
-    </row>
-    <row r="17" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BM16" s="40"/>
+      <c r="BN16" s="40"/>
+      <c r="BO16" s="40"/>
+      <c r="BP16" s="38"/>
+      <c r="BQ16" s="58"/>
+      <c r="BR16" s="38"/>
+      <c r="BS16" s="58"/>
+      <c r="BT16" s="40"/>
+      <c r="BU16" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV16" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW16" s="92"/>
+    </row>
+    <row r="17" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="92"/>
       <c r="B17" s="31"/>
       <c r="C17" s="26"/>
       <c r="D17" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="41"/>
@@ -3467,39 +3528,42 @@
       </c>
       <c r="BC17" s="59"/>
       <c r="BD17" s="60"/>
-      <c r="BE17" s="78"/>
-      <c r="BF17" s="60"/>
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="41"/>
-      <c r="BI17" s="41"/>
+      <c r="BE17" s="59"/>
+      <c r="BF17" s="74"/>
+      <c r="BG17" s="60"/>
+      <c r="BH17" s="78"/>
+      <c r="BI17" s="60"/>
       <c r="BJ17" s="41"/>
       <c r="BK17" s="41"/>
       <c r="BL17" s="41"/>
-      <c r="BM17" s="59"/>
-      <c r="BN17" s="60"/>
-      <c r="BO17" s="59"/>
-      <c r="BP17" s="71">
+      <c r="BM17" s="41"/>
+      <c r="BN17" s="41"/>
+      <c r="BO17" s="41"/>
+      <c r="BP17" s="59"/>
+      <c r="BQ17" s="60"/>
+      <c r="BR17" s="59"/>
+      <c r="BS17" s="71">
         <v>7</v>
       </c>
-      <c r="BQ17" s="41"/>
-      <c r="BR17" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="BS17" s="91" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT17" s="92"/>
-    </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BT17" s="41"/>
+      <c r="BU17" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="BV17" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="BW17" s="92"/>
+    </row>
+    <row r="18" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A18" s="92"/>
       <c r="B18" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="8"/>
@@ -3553,33 +3617,36 @@
       <c r="BB18" s="51"/>
       <c r="BC18" s="32"/>
       <c r="BD18" s="51"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="51"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
+      <c r="BE18" s="80"/>
+      <c r="BF18" s="79"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="32"/>
+      <c r="BI18" s="51"/>
       <c r="BJ18" s="34"/>
       <c r="BK18" s="34"/>
       <c r="BL18" s="34"/>
-      <c r="BM18" s="32"/>
-      <c r="BN18" s="51"/>
-      <c r="BO18" s="32"/>
-      <c r="BP18" s="51"/>
-      <c r="BQ18" s="34"/>
-      <c r="BR18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS18" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT18" s="92"/>
-    </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM18" s="34"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="34"/>
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="51"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="51"/>
+      <c r="BT18" s="34"/>
+      <c r="BU18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BV18" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="BW18" s="92"/>
+    </row>
+    <row r="19" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A19" s="92"/>
       <c r="B19" s="16"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
@@ -3633,33 +3700,36 @@
       <c r="BB19" s="52"/>
       <c r="BC19" s="33"/>
       <c r="BD19" s="52"/>
-      <c r="BE19" s="33"/>
-      <c r="BF19" s="52"/>
-      <c r="BG19" s="35"/>
-      <c r="BH19" s="35"/>
-      <c r="BI19" s="35"/>
+      <c r="BE19" s="61"/>
+      <c r="BF19" s="75"/>
+      <c r="BG19" s="52"/>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="52"/>
       <c r="BJ19" s="35"/>
       <c r="BK19" s="35"/>
       <c r="BL19" s="35"/>
-      <c r="BM19" s="33"/>
-      <c r="BN19" s="52"/>
-      <c r="BO19" s="33"/>
-      <c r="BP19" s="52"/>
-      <c r="BQ19" s="35"/>
-      <c r="BR19" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="BS19" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="BT19" s="92"/>
-    </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM19" s="35"/>
+      <c r="BN19" s="35"/>
+      <c r="BO19" s="35"/>
+      <c r="BP19" s="33"/>
+      <c r="BQ19" s="52"/>
+      <c r="BR19" s="33"/>
+      <c r="BS19" s="52"/>
+      <c r="BT19" s="35"/>
+      <c r="BU19" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV19" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW19" s="92"/>
+    </row>
+    <row r="20" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A20" s="92"/>
       <c r="B20" s="16"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
@@ -3713,32 +3783,35 @@
       <c r="BB20" s="52"/>
       <c r="BC20" s="33"/>
       <c r="BD20" s="52"/>
-      <c r="BE20" s="33"/>
-      <c r="BF20" s="52"/>
-      <c r="BG20" s="35"/>
-      <c r="BH20" s="35"/>
-      <c r="BI20" s="35"/>
+      <c r="BE20" s="61"/>
+      <c r="BF20" s="75"/>
+      <c r="BG20" s="52"/>
+      <c r="BH20" s="33"/>
+      <c r="BI20" s="52"/>
       <c r="BJ20" s="35"/>
       <c r="BK20" s="35"/>
       <c r="BL20" s="35"/>
-      <c r="BM20" s="33"/>
-      <c r="BN20" s="52"/>
-      <c r="BO20" s="33"/>
-      <c r="BP20" s="52"/>
-      <c r="BQ20" s="35"/>
-      <c r="BR20" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="BS20" s="85" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT20" s="92"/>
-    </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM20" s="35"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="35"/>
+      <c r="BP20" s="33"/>
+      <c r="BQ20" s="52"/>
+      <c r="BR20" s="33"/>
+      <c r="BS20" s="52"/>
+      <c r="BT20" s="35"/>
+      <c r="BU20" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV20" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="BW20" s="92"/>
+    </row>
+    <row r="21" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A21" s="92"/>
       <c r="B21" s="16"/>
       <c r="C21" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -3794,31 +3867,34 @@
       <c r="BC21" s="33"/>
       <c r="BD21" s="52"/>
       <c r="BE21" s="61"/>
-      <c r="BF21" s="52"/>
-      <c r="BG21" s="35"/>
-      <c r="BH21" s="42"/>
-      <c r="BI21" s="35"/>
-      <c r="BJ21" s="42"/>
-      <c r="BK21" s="35"/>
+      <c r="BF21" s="75"/>
+      <c r="BG21" s="52"/>
+      <c r="BH21" s="61"/>
+      <c r="BI21" s="52"/>
+      <c r="BJ21" s="35"/>
+      <c r="BK21" s="42"/>
       <c r="BL21" s="35"/>
-      <c r="BM21" s="33"/>
-      <c r="BN21" s="62"/>
-      <c r="BO21" s="61"/>
-      <c r="BP21" s="62"/>
-      <c r="BQ21" s="35"/>
-      <c r="BR21" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="BS21" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="BT21" s="92"/>
-    </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM21" s="42"/>
+      <c r="BN21" s="35"/>
+      <c r="BO21" s="35"/>
+      <c r="BP21" s="33"/>
+      <c r="BQ21" s="62"/>
+      <c r="BR21" s="61"/>
+      <c r="BS21" s="62"/>
+      <c r="BT21" s="35"/>
+      <c r="BU21" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="BV21" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="BW21" s="92"/>
+    </row>
+    <row r="22" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A22" s="92"/>
       <c r="B22" s="16"/>
       <c r="C22" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -3874,34 +3950,37 @@
       <c r="BC22" s="33"/>
       <c r="BD22" s="52"/>
       <c r="BE22" s="33"/>
-      <c r="BF22" s="52"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
+      <c r="BF22" s="50"/>
+      <c r="BG22" s="52"/>
+      <c r="BH22" s="33"/>
+      <c r="BI22" s="52"/>
       <c r="BJ22" s="35"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="42"/>
-      <c r="BM22" s="61"/>
-      <c r="BN22" s="52"/>
-      <c r="BO22" s="33"/>
-      <c r="BP22" s="52"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS22" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="BT22" s="92"/>
-    </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BK22" s="35"/>
+      <c r="BL22" s="35"/>
+      <c r="BM22" s="35"/>
+      <c r="BN22" s="42"/>
+      <c r="BO22" s="42"/>
+      <c r="BP22" s="61"/>
+      <c r="BQ22" s="52"/>
+      <c r="BR22" s="33"/>
+      <c r="BS22" s="52"/>
+      <c r="BT22" s="35"/>
+      <c r="BU22" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV22" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW22" s="92"/>
+    </row>
+    <row r="23" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A23" s="92"/>
       <c r="B23" s="16"/>
       <c r="C23" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
@@ -3955,33 +4034,36 @@
       <c r="BB23" s="52"/>
       <c r="BC23" s="61"/>
       <c r="BD23" s="62"/>
-      <c r="BE23" s="33"/>
-      <c r="BF23" s="52"/>
-      <c r="BG23" s="35"/>
-      <c r="BH23" s="35"/>
-      <c r="BI23" s="35"/>
+      <c r="BE23" s="61"/>
+      <c r="BF23" s="75"/>
+      <c r="BG23" s="62"/>
+      <c r="BH23" s="33"/>
+      <c r="BI23" s="52"/>
       <c r="BJ23" s="35"/>
       <c r="BK23" s="35"/>
       <c r="BL23" s="35"/>
-      <c r="BM23" s="33"/>
-      <c r="BN23" s="52"/>
-      <c r="BO23" s="33"/>
-      <c r="BP23" s="52"/>
-      <c r="BQ23" s="42"/>
-      <c r="BR23" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="BS23" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="BT23" s="92"/>
-    </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM23" s="35"/>
+      <c r="BN23" s="35"/>
+      <c r="BO23" s="35"/>
+      <c r="BP23" s="33"/>
+      <c r="BQ23" s="52"/>
+      <c r="BR23" s="33"/>
+      <c r="BS23" s="52"/>
+      <c r="BT23" s="42"/>
+      <c r="BU23" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="BV23" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BW23" s="92"/>
+    </row>
+    <row r="24" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A24" s="92"/>
       <c r="B24" s="16"/>
       <c r="C24" s="10"/>
       <c r="D24" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
@@ -4035,33 +4117,36 @@
       <c r="BB24" s="52"/>
       <c r="BC24" s="61"/>
       <c r="BD24" s="62"/>
-      <c r="BE24" s="33"/>
-      <c r="BF24" s="52"/>
-      <c r="BG24" s="35"/>
-      <c r="BH24" s="35"/>
-      <c r="BI24" s="35"/>
+      <c r="BE24" s="61"/>
+      <c r="BF24" s="75"/>
+      <c r="BG24" s="62"/>
+      <c r="BH24" s="33"/>
+      <c r="BI24" s="52"/>
       <c r="BJ24" s="35"/>
       <c r="BK24" s="35"/>
       <c r="BL24" s="35"/>
-      <c r="BM24" s="33"/>
-      <c r="BN24" s="52"/>
-      <c r="BO24" s="33"/>
-      <c r="BP24" s="52"/>
-      <c r="BQ24" s="42"/>
-      <c r="BR24" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="BS24" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="BT24" s="92"/>
-    </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM24" s="35"/>
+      <c r="BN24" s="35"/>
+      <c r="BO24" s="35"/>
+      <c r="BP24" s="33"/>
+      <c r="BQ24" s="52"/>
+      <c r="BR24" s="33"/>
+      <c r="BS24" s="52"/>
+      <c r="BT24" s="42"/>
+      <c r="BU24" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="BV24" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="BW24" s="92"/>
+    </row>
+    <row r="25" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A25" s="92"/>
       <c r="B25" s="16"/>
       <c r="C25" s="10"/>
       <c r="D25" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
@@ -4115,33 +4200,36 @@
       <c r="BB25" s="52"/>
       <c r="BC25" s="61"/>
       <c r="BD25" s="62"/>
-      <c r="BE25" s="33"/>
-      <c r="BF25" s="52"/>
-      <c r="BG25" s="35"/>
-      <c r="BH25" s="35"/>
-      <c r="BI25" s="35"/>
+      <c r="BE25" s="61"/>
+      <c r="BF25" s="75"/>
+      <c r="BG25" s="62"/>
+      <c r="BH25" s="33"/>
+      <c r="BI25" s="52"/>
       <c r="BJ25" s="35"/>
       <c r="BK25" s="35"/>
       <c r="BL25" s="35"/>
-      <c r="BM25" s="33"/>
-      <c r="BN25" s="52"/>
-      <c r="BO25" s="33"/>
-      <c r="BP25" s="52"/>
-      <c r="BQ25" s="42"/>
-      <c r="BR25" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="BS25" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="BT25" s="92"/>
-    </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM25" s="35"/>
+      <c r="BN25" s="35"/>
+      <c r="BO25" s="35"/>
+      <c r="BP25" s="33"/>
+      <c r="BQ25" s="52"/>
+      <c r="BR25" s="33"/>
+      <c r="BS25" s="52"/>
+      <c r="BT25" s="42"/>
+      <c r="BU25" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV25" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW25" s="92"/>
+    </row>
+    <row r="26" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A26" s="92"/>
       <c r="B26" s="16"/>
       <c r="C26" s="10"/>
       <c r="D26" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
@@ -4195,33 +4283,36 @@
       <c r="BB26" s="52"/>
       <c r="BC26" s="61"/>
       <c r="BD26" s="62"/>
-      <c r="BE26" s="33"/>
-      <c r="BF26" s="52"/>
-      <c r="BG26" s="35"/>
-      <c r="BH26" s="35"/>
-      <c r="BI26" s="35"/>
+      <c r="BE26" s="61"/>
+      <c r="BF26" s="75"/>
+      <c r="BG26" s="62"/>
+      <c r="BH26" s="33"/>
+      <c r="BI26" s="52"/>
       <c r="BJ26" s="35"/>
       <c r="BK26" s="35"/>
       <c r="BL26" s="35"/>
-      <c r="BM26" s="33"/>
-      <c r="BN26" s="52"/>
-      <c r="BO26" s="33"/>
-      <c r="BP26" s="52"/>
-      <c r="BQ26" s="42"/>
-      <c r="BR26" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS26" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="BT26" s="92"/>
-    </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM26" s="35"/>
+      <c r="BN26" s="35"/>
+      <c r="BO26" s="35"/>
+      <c r="BP26" s="33"/>
+      <c r="BQ26" s="52"/>
+      <c r="BR26" s="33"/>
+      <c r="BS26" s="52"/>
+      <c r="BT26" s="42"/>
+      <c r="BU26" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV26" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="BW26" s="92"/>
+    </row>
+    <row r="27" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A27" s="92"/>
       <c r="B27" s="16"/>
       <c r="C27" s="10"/>
       <c r="D27" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
@@ -4275,33 +4366,36 @@
       <c r="BB27" s="52"/>
       <c r="BC27" s="61"/>
       <c r="BD27" s="62"/>
-      <c r="BE27" s="33"/>
-      <c r="BF27" s="52"/>
-      <c r="BG27" s="35"/>
-      <c r="BH27" s="35"/>
-      <c r="BI27" s="35"/>
+      <c r="BE27" s="61"/>
+      <c r="BF27" s="75"/>
+      <c r="BG27" s="62"/>
+      <c r="BH27" s="33"/>
+      <c r="BI27" s="52"/>
       <c r="BJ27" s="35"/>
       <c r="BK27" s="35"/>
       <c r="BL27" s="35"/>
-      <c r="BM27" s="33"/>
-      <c r="BN27" s="52"/>
-      <c r="BO27" s="33"/>
-      <c r="BP27" s="52"/>
-      <c r="BQ27" s="42"/>
-      <c r="BR27" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="BS27" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT27" s="92"/>
-    </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM27" s="35"/>
+      <c r="BN27" s="35"/>
+      <c r="BO27" s="35"/>
+      <c r="BP27" s="33"/>
+      <c r="BQ27" s="52"/>
+      <c r="BR27" s="33"/>
+      <c r="BS27" s="52"/>
+      <c r="BT27" s="42"/>
+      <c r="BU27" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="BV27" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="BW27" s="92"/>
+    </row>
+    <row r="28" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A28" s="92"/>
       <c r="B28" s="16"/>
       <c r="C28" s="10"/>
       <c r="D28" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
@@ -4355,33 +4449,36 @@
       <c r="BB28" s="52"/>
       <c r="BC28" s="61"/>
       <c r="BD28" s="62"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="52"/>
-      <c r="BG28" s="35"/>
-      <c r="BH28" s="35"/>
-      <c r="BI28" s="35"/>
+      <c r="BE28" s="61"/>
+      <c r="BF28" s="75"/>
+      <c r="BG28" s="62"/>
+      <c r="BH28" s="33"/>
+      <c r="BI28" s="52"/>
       <c r="BJ28" s="35"/>
       <c r="BK28" s="35"/>
       <c r="BL28" s="35"/>
-      <c r="BM28" s="33"/>
-      <c r="BN28" s="52"/>
-      <c r="BO28" s="33"/>
-      <c r="BP28" s="52"/>
-      <c r="BQ28" s="42"/>
-      <c r="BR28" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="BS28" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="BT28" s="92"/>
-    </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM28" s="35"/>
+      <c r="BN28" s="35"/>
+      <c r="BO28" s="35"/>
+      <c r="BP28" s="33"/>
+      <c r="BQ28" s="52"/>
+      <c r="BR28" s="33"/>
+      <c r="BS28" s="52"/>
+      <c r="BT28" s="42"/>
+      <c r="BU28" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="BV28" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW28" s="92"/>
+    </row>
+    <row r="29" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A29" s="92"/>
       <c r="B29" s="16"/>
       <c r="C29" s="10"/>
       <c r="D29" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
@@ -4435,33 +4532,36 @@
       <c r="BB29" s="52"/>
       <c r="BC29" s="61"/>
       <c r="BD29" s="62"/>
-      <c r="BE29" s="33"/>
-      <c r="BF29" s="52"/>
-      <c r="BG29" s="35"/>
-      <c r="BH29" s="35"/>
-      <c r="BI29" s="35"/>
+      <c r="BE29" s="61"/>
+      <c r="BF29" s="75"/>
+      <c r="BG29" s="62"/>
+      <c r="BH29" s="33"/>
+      <c r="BI29" s="52"/>
       <c r="BJ29" s="35"/>
       <c r="BK29" s="35"/>
       <c r="BL29" s="35"/>
-      <c r="BM29" s="33"/>
-      <c r="BN29" s="52"/>
-      <c r="BO29" s="33"/>
-      <c r="BP29" s="52"/>
-      <c r="BQ29" s="42"/>
-      <c r="BR29" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="BS29" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="BT29" s="92"/>
-    </row>
-    <row r="30" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM29" s="35"/>
+      <c r="BN29" s="35"/>
+      <c r="BO29" s="35"/>
+      <c r="BP29" s="33"/>
+      <c r="BQ29" s="52"/>
+      <c r="BR29" s="33"/>
+      <c r="BS29" s="52"/>
+      <c r="BT29" s="42"/>
+      <c r="BU29" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV29" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="BW29" s="92"/>
+    </row>
+    <row r="30" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A30" s="92"/>
       <c r="B30" s="16"/>
       <c r="C30" s="10"/>
       <c r="D30" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
@@ -4515,33 +4615,36 @@
       <c r="BB30" s="52"/>
       <c r="BC30" s="61"/>
       <c r="BD30" s="62"/>
-      <c r="BE30" s="33"/>
-      <c r="BF30" s="52"/>
-      <c r="BG30" s="35"/>
-      <c r="BH30" s="35"/>
-      <c r="BI30" s="35"/>
+      <c r="BE30" s="61"/>
+      <c r="BF30" s="75"/>
+      <c r="BG30" s="62"/>
+      <c r="BH30" s="33"/>
+      <c r="BI30" s="52"/>
       <c r="BJ30" s="35"/>
       <c r="BK30" s="35"/>
       <c r="BL30" s="35"/>
-      <c r="BM30" s="33"/>
-      <c r="BN30" s="52"/>
-      <c r="BO30" s="33"/>
-      <c r="BP30" s="52"/>
-      <c r="BQ30" s="42"/>
-      <c r="BR30" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="BS30" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="BT30" s="92"/>
-    </row>
-    <row r="31" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM30" s="35"/>
+      <c r="BN30" s="35"/>
+      <c r="BO30" s="35"/>
+      <c r="BP30" s="33"/>
+      <c r="BQ30" s="52"/>
+      <c r="BR30" s="33"/>
+      <c r="BS30" s="52"/>
+      <c r="BT30" s="42"/>
+      <c r="BU30" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="BV30" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="BW30" s="92"/>
+    </row>
+    <row r="31" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A31" s="92"/>
       <c r="B31" s="16"/>
       <c r="C31" s="10"/>
       <c r="D31" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
@@ -4595,33 +4698,36 @@
       <c r="BB31" s="52"/>
       <c r="BC31" s="61"/>
       <c r="BD31" s="62"/>
-      <c r="BE31" s="33"/>
-      <c r="BF31" s="52"/>
-      <c r="BG31" s="35"/>
-      <c r="BH31" s="35"/>
-      <c r="BI31" s="35"/>
+      <c r="BE31" s="61"/>
+      <c r="BF31" s="75"/>
+      <c r="BG31" s="62"/>
+      <c r="BH31" s="33"/>
+      <c r="BI31" s="52"/>
       <c r="BJ31" s="35"/>
       <c r="BK31" s="35"/>
       <c r="BL31" s="35"/>
-      <c r="BM31" s="33"/>
-      <c r="BN31" s="52"/>
-      <c r="BO31" s="33"/>
-      <c r="BP31" s="52"/>
-      <c r="BQ31" s="42"/>
-      <c r="BR31" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="BS31" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="BT31" s="92"/>
-    </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM31" s="35"/>
+      <c r="BN31" s="35"/>
+      <c r="BO31" s="35"/>
+      <c r="BP31" s="33"/>
+      <c r="BQ31" s="52"/>
+      <c r="BR31" s="33"/>
+      <c r="BS31" s="52"/>
+      <c r="BT31" s="42"/>
+      <c r="BU31" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="BV31" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="BW31" s="92"/>
+    </row>
+    <row r="32" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A32" s="92"/>
       <c r="B32" s="16"/>
       <c r="C32" s="10"/>
       <c r="D32" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
@@ -4675,33 +4781,36 @@
       <c r="BB32" s="52"/>
       <c r="BC32" s="61"/>
       <c r="BD32" s="62"/>
-      <c r="BE32" s="33"/>
-      <c r="BF32" s="52"/>
-      <c r="BG32" s="35"/>
-      <c r="BH32" s="35"/>
-      <c r="BI32" s="35"/>
+      <c r="BE32" s="61"/>
+      <c r="BF32" s="75"/>
+      <c r="BG32" s="62"/>
+      <c r="BH32" s="33"/>
+      <c r="BI32" s="52"/>
       <c r="BJ32" s="35"/>
       <c r="BK32" s="35"/>
       <c r="BL32" s="35"/>
-      <c r="BM32" s="33"/>
-      <c r="BN32" s="52"/>
-      <c r="BO32" s="33"/>
-      <c r="BP32" s="52"/>
-      <c r="BQ32" s="42"/>
-      <c r="BR32" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS32" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="BT32" s="92"/>
-    </row>
-    <row r="33" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM32" s="35"/>
+      <c r="BN32" s="35"/>
+      <c r="BO32" s="35"/>
+      <c r="BP32" s="33"/>
+      <c r="BQ32" s="52"/>
+      <c r="BR32" s="33"/>
+      <c r="BS32" s="52"/>
+      <c r="BT32" s="42"/>
+      <c r="BU32" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV32" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW32" s="92"/>
+    </row>
+    <row r="33" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A33" s="92"/>
       <c r="B33" s="16"/>
       <c r="C33" s="10"/>
       <c r="D33" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
@@ -4755,33 +4864,36 @@
       <c r="BB33" s="52"/>
       <c r="BC33" s="61"/>
       <c r="BD33" s="62"/>
-      <c r="BE33" s="33"/>
-      <c r="BF33" s="52"/>
-      <c r="BG33" s="35"/>
-      <c r="BH33" s="35"/>
-      <c r="BI33" s="35"/>
+      <c r="BE33" s="61"/>
+      <c r="BF33" s="75"/>
+      <c r="BG33" s="62"/>
+      <c r="BH33" s="33"/>
+      <c r="BI33" s="52"/>
       <c r="BJ33" s="35"/>
       <c r="BK33" s="35"/>
       <c r="BL33" s="35"/>
-      <c r="BM33" s="33"/>
-      <c r="BN33" s="52"/>
-      <c r="BO33" s="33"/>
-      <c r="BP33" s="52"/>
-      <c r="BQ33" s="42"/>
-      <c r="BR33" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="BS33" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="BT33" s="92"/>
-    </row>
-    <row r="34" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM33" s="35"/>
+      <c r="BN33" s="35"/>
+      <c r="BO33" s="35"/>
+      <c r="BP33" s="33"/>
+      <c r="BQ33" s="52"/>
+      <c r="BR33" s="33"/>
+      <c r="BS33" s="52"/>
+      <c r="BT33" s="42"/>
+      <c r="BU33" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="BV33" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="BW33" s="92"/>
+    </row>
+    <row r="34" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A34" s="92"/>
       <c r="B34" s="16"/>
       <c r="C34" s="10"/>
       <c r="D34" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
@@ -4835,33 +4947,36 @@
       <c r="BB34" s="52"/>
       <c r="BC34" s="61"/>
       <c r="BD34" s="62"/>
-      <c r="BE34" s="33"/>
-      <c r="BF34" s="52"/>
-      <c r="BG34" s="35"/>
-      <c r="BH34" s="35"/>
-      <c r="BI34" s="35"/>
+      <c r="BE34" s="61"/>
+      <c r="BF34" s="75"/>
+      <c r="BG34" s="62"/>
+      <c r="BH34" s="33"/>
+      <c r="BI34" s="52"/>
       <c r="BJ34" s="35"/>
       <c r="BK34" s="35"/>
       <c r="BL34" s="35"/>
-      <c r="BM34" s="33"/>
-      <c r="BN34" s="52"/>
-      <c r="BO34" s="33"/>
-      <c r="BP34" s="52"/>
-      <c r="BQ34" s="42"/>
-      <c r="BR34" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="BS34" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="BT34" s="92"/>
-    </row>
-    <row r="35" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM34" s="35"/>
+      <c r="BN34" s="35"/>
+      <c r="BO34" s="35"/>
+      <c r="BP34" s="33"/>
+      <c r="BQ34" s="52"/>
+      <c r="BR34" s="33"/>
+      <c r="BS34" s="52"/>
+      <c r="BT34" s="42"/>
+      <c r="BU34" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV34" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="BW34" s="92"/>
+    </row>
+    <row r="35" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A35" s="92"/>
       <c r="B35" s="16"/>
       <c r="C35" s="10"/>
       <c r="D35" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
@@ -4915,33 +5030,36 @@
       <c r="BB35" s="52"/>
       <c r="BC35" s="61"/>
       <c r="BD35" s="62"/>
-      <c r="BE35" s="33"/>
-      <c r="BF35" s="52"/>
-      <c r="BG35" s="35"/>
-      <c r="BH35" s="35"/>
-      <c r="BI35" s="35"/>
+      <c r="BE35" s="61"/>
+      <c r="BF35" s="75"/>
+      <c r="BG35" s="62"/>
+      <c r="BH35" s="33"/>
+      <c r="BI35" s="52"/>
       <c r="BJ35" s="35"/>
       <c r="BK35" s="35"/>
       <c r="BL35" s="35"/>
-      <c r="BM35" s="33"/>
-      <c r="BN35" s="52"/>
-      <c r="BO35" s="33"/>
-      <c r="BP35" s="52"/>
-      <c r="BQ35" s="42"/>
-      <c r="BR35" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="BS35" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="BT35" s="92"/>
-    </row>
-    <row r="36" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM35" s="35"/>
+      <c r="BN35" s="35"/>
+      <c r="BO35" s="35"/>
+      <c r="BP35" s="33"/>
+      <c r="BQ35" s="52"/>
+      <c r="BR35" s="33"/>
+      <c r="BS35" s="52"/>
+      <c r="BT35" s="42"/>
+      <c r="BU35" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="BV35" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="BW35" s="92"/>
+    </row>
+    <row r="36" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A36" s="92"/>
       <c r="B36" s="16"/>
       <c r="C36" s="10"/>
       <c r="D36" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
@@ -4995,33 +5113,36 @@
       <c r="BB36" s="52"/>
       <c r="BC36" s="61"/>
       <c r="BD36" s="62"/>
-      <c r="BE36" s="33"/>
-      <c r="BF36" s="52"/>
-      <c r="BG36" s="35"/>
-      <c r="BH36" s="35"/>
-      <c r="BI36" s="35"/>
+      <c r="BE36" s="61"/>
+      <c r="BF36" s="75"/>
+      <c r="BG36" s="62"/>
+      <c r="BH36" s="33"/>
+      <c r="BI36" s="52"/>
       <c r="BJ36" s="35"/>
       <c r="BK36" s="35"/>
       <c r="BL36" s="35"/>
-      <c r="BM36" s="33"/>
-      <c r="BN36" s="52"/>
-      <c r="BO36" s="33"/>
-      <c r="BP36" s="52"/>
-      <c r="BQ36" s="42"/>
-      <c r="BR36" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="BS36" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="BT36" s="92"/>
-    </row>
-    <row r="37" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM36" s="35"/>
+      <c r="BN36" s="35"/>
+      <c r="BO36" s="35"/>
+      <c r="BP36" s="33"/>
+      <c r="BQ36" s="52"/>
+      <c r="BR36" s="33"/>
+      <c r="BS36" s="52"/>
+      <c r="BT36" s="42"/>
+      <c r="BU36" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="BV36" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="BW36" s="92"/>
+    </row>
+    <row r="37" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A37" s="92"/>
       <c r="B37" s="16"/>
       <c r="C37" s="10"/>
       <c r="D37" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
@@ -5075,33 +5196,36 @@
       <c r="BB37" s="52"/>
       <c r="BC37" s="61"/>
       <c r="BD37" s="62"/>
-      <c r="BE37" s="33"/>
-      <c r="BF37" s="52"/>
-      <c r="BG37" s="35"/>
-      <c r="BH37" s="35"/>
-      <c r="BI37" s="35"/>
+      <c r="BE37" s="61"/>
+      <c r="BF37" s="75"/>
+      <c r="BG37" s="62"/>
+      <c r="BH37" s="33"/>
+      <c r="BI37" s="52"/>
       <c r="BJ37" s="35"/>
       <c r="BK37" s="35"/>
       <c r="BL37" s="35"/>
-      <c r="BM37" s="33"/>
-      <c r="BN37" s="52"/>
-      <c r="BO37" s="33"/>
-      <c r="BP37" s="52"/>
-      <c r="BQ37" s="42"/>
-      <c r="BR37" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="BS37" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="BT37" s="92"/>
-    </row>
-    <row r="38" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM37" s="35"/>
+      <c r="BN37" s="35"/>
+      <c r="BO37" s="35"/>
+      <c r="BP37" s="33"/>
+      <c r="BQ37" s="52"/>
+      <c r="BR37" s="33"/>
+      <c r="BS37" s="52"/>
+      <c r="BT37" s="42"/>
+      <c r="BU37" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="BV37" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="BW37" s="92"/>
+    </row>
+    <row r="38" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A38" s="92"/>
       <c r="B38" s="16"/>
       <c r="C38" s="10"/>
       <c r="D38" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
@@ -5155,32 +5279,35 @@
       <c r="BB38" s="52"/>
       <c r="BC38" s="61"/>
       <c r="BD38" s="62"/>
-      <c r="BE38" s="33"/>
-      <c r="BF38" s="52"/>
-      <c r="BG38" s="35"/>
-      <c r="BH38" s="35"/>
-      <c r="BI38" s="35"/>
+      <c r="BE38" s="61"/>
+      <c r="BF38" s="75"/>
+      <c r="BG38" s="62"/>
+      <c r="BH38" s="33"/>
+      <c r="BI38" s="52"/>
       <c r="BJ38" s="35"/>
       <c r="BK38" s="35"/>
       <c r="BL38" s="35"/>
-      <c r="BM38" s="33"/>
-      <c r="BN38" s="52"/>
-      <c r="BO38" s="33"/>
-      <c r="BP38" s="52"/>
-      <c r="BQ38" s="42"/>
-      <c r="BR38" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="BS38" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="BT38" s="92"/>
-    </row>
-    <row r="39" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM38" s="35"/>
+      <c r="BN38" s="35"/>
+      <c r="BO38" s="35"/>
+      <c r="BP38" s="33"/>
+      <c r="BQ38" s="52"/>
+      <c r="BR38" s="33"/>
+      <c r="BS38" s="52"/>
+      <c r="BT38" s="42"/>
+      <c r="BU38" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="BV38" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW38" s="92"/>
+    </row>
+    <row r="39" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A39" s="92"/>
       <c r="B39" s="16"/>
       <c r="C39" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -5236,31 +5363,34 @@
       <c r="BC39" s="33"/>
       <c r="BD39" s="52"/>
       <c r="BE39" s="33"/>
-      <c r="BF39" s="52"/>
-      <c r="BG39" s="35"/>
-      <c r="BH39" s="35"/>
-      <c r="BI39" s="35"/>
+      <c r="BF39" s="50"/>
+      <c r="BG39" s="52"/>
+      <c r="BH39" s="33"/>
+      <c r="BI39" s="52"/>
       <c r="BJ39" s="35"/>
       <c r="BK39" s="35"/>
       <c r="BL39" s="35"/>
-      <c r="BM39" s="33"/>
-      <c r="BN39" s="52"/>
-      <c r="BO39" s="33"/>
-      <c r="BP39" s="52"/>
-      <c r="BQ39" s="35"/>
-      <c r="BR39" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="BS39" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT39" s="92"/>
-    </row>
-    <row r="40" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM39" s="35"/>
+      <c r="BN39" s="35"/>
+      <c r="BO39" s="35"/>
+      <c r="BP39" s="33"/>
+      <c r="BQ39" s="52"/>
+      <c r="BR39" s="33"/>
+      <c r="BS39" s="52"/>
+      <c r="BT39" s="35"/>
+      <c r="BU39" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="BV39" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW39" s="92"/>
+    </row>
+    <row r="40" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A40" s="92"/>
       <c r="B40" s="16"/>
       <c r="C40" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -5316,31 +5446,34 @@
       <c r="BC40" s="33"/>
       <c r="BD40" s="52"/>
       <c r="BE40" s="33"/>
-      <c r="BF40" s="62"/>
-      <c r="BG40" s="42"/>
-      <c r="BH40" s="35"/>
-      <c r="BI40" s="35"/>
-      <c r="BJ40" s="35"/>
+      <c r="BF40" s="50"/>
+      <c r="BG40" s="52"/>
+      <c r="BH40" s="33"/>
+      <c r="BI40" s="62"/>
+      <c r="BJ40" s="42"/>
       <c r="BK40" s="35"/>
       <c r="BL40" s="35"/>
-      <c r="BM40" s="33"/>
-      <c r="BN40" s="52"/>
-      <c r="BO40" s="33"/>
-      <c r="BP40" s="52"/>
-      <c r="BQ40" s="35"/>
-      <c r="BR40" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS40" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT40" s="92"/>
-    </row>
-    <row r="41" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM40" s="35"/>
+      <c r="BN40" s="35"/>
+      <c r="BO40" s="35"/>
+      <c r="BP40" s="33"/>
+      <c r="BQ40" s="52"/>
+      <c r="BR40" s="33"/>
+      <c r="BS40" s="52"/>
+      <c r="BT40" s="35"/>
+      <c r="BU40" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="BV40" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW40" s="92"/>
+    </row>
+    <row r="41" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A41" s="92"/>
       <c r="B41" s="16"/>
       <c r="C41" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -5396,34 +5529,37 @@
       <c r="BC41" s="33"/>
       <c r="BD41" s="52"/>
       <c r="BE41" s="33"/>
-      <c r="BF41" s="52"/>
-      <c r="BG41" s="35"/>
-      <c r="BH41" s="35"/>
-      <c r="BI41" s="42"/>
+      <c r="BF41" s="50"/>
+      <c r="BG41" s="52"/>
+      <c r="BH41" s="33"/>
+      <c r="BI41" s="52"/>
       <c r="BJ41" s="35"/>
       <c r="BK41" s="35"/>
-      <c r="BL41" s="35"/>
-      <c r="BM41" s="33"/>
-      <c r="BN41" s="52"/>
-      <c r="BO41" s="33"/>
-      <c r="BP41" s="52"/>
-      <c r="BQ41" s="35"/>
-      <c r="BR41" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="BS41" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT41" s="92"/>
-    </row>
-    <row r="42" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BL41" s="42"/>
+      <c r="BM41" s="35"/>
+      <c r="BN41" s="35"/>
+      <c r="BO41" s="35"/>
+      <c r="BP41" s="33"/>
+      <c r="BQ41" s="52"/>
+      <c r="BR41" s="33"/>
+      <c r="BS41" s="52"/>
+      <c r="BT41" s="35"/>
+      <c r="BU41" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="BV41" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="BW41" s="92"/>
+    </row>
+    <row r="42" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A42" s="92"/>
       <c r="B42" s="16"/>
       <c r="C42" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
@@ -5480,36 +5616,39 @@
       <c r="BC42" s="61"/>
       <c r="BD42" s="62"/>
       <c r="BE42" s="61"/>
-      <c r="BF42" s="52"/>
-      <c r="BG42" s="35"/>
-      <c r="BH42" s="82">
+      <c r="BF42" s="75"/>
+      <c r="BG42" s="62"/>
+      <c r="BH42" s="61"/>
+      <c r="BI42" s="52"/>
+      <c r="BJ42" s="35"/>
+      <c r="BK42" s="82">
         <v>2</v>
       </c>
-      <c r="BI42" s="35"/>
-      <c r="BJ42" s="82">
+      <c r="BL42" s="35"/>
+      <c r="BM42" s="82">
         <v>4</v>
       </c>
-      <c r="BK42" s="35"/>
-      <c r="BL42" s="35"/>
-      <c r="BM42" s="33"/>
-      <c r="BN42" s="52"/>
-      <c r="BO42" s="61"/>
-      <c r="BP42" s="62"/>
-      <c r="BQ42" s="42"/>
-      <c r="BR42" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="BS42" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT42" s="92"/>
-    </row>
-    <row r="43" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BN42" s="35"/>
+      <c r="BO42" s="35"/>
+      <c r="BP42" s="33"/>
+      <c r="BQ42" s="52"/>
+      <c r="BR42" s="61"/>
+      <c r="BS42" s="62"/>
+      <c r="BT42" s="42"/>
+      <c r="BU42" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV42" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW42" s="92"/>
+    </row>
+    <row r="43" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A43" s="92"/>
       <c r="B43" s="16"/>
       <c r="C43" s="10"/>
       <c r="D43" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
@@ -5566,31 +5705,34 @@
       <c r="BC43" s="61"/>
       <c r="BD43" s="62"/>
       <c r="BE43" s="61"/>
-      <c r="BF43" s="52"/>
-      <c r="BG43" s="35"/>
-      <c r="BH43" s="42"/>
-      <c r="BI43" s="35"/>
-      <c r="BJ43" s="42"/>
-      <c r="BK43" s="35"/>
+      <c r="BF43" s="75"/>
+      <c r="BG43" s="62"/>
+      <c r="BH43" s="61"/>
+      <c r="BI43" s="52"/>
+      <c r="BJ43" s="35"/>
+      <c r="BK43" s="42"/>
       <c r="BL43" s="35"/>
-      <c r="BM43" s="33"/>
-      <c r="BN43" s="52"/>
-      <c r="BO43" s="61"/>
-      <c r="BP43" s="62"/>
-      <c r="BQ43" s="42"/>
-      <c r="BR43" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="BS43" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="BT43" s="92"/>
-    </row>
-    <row r="44" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM43" s="42"/>
+      <c r="BN43" s="35"/>
+      <c r="BO43" s="35"/>
+      <c r="BP43" s="33"/>
+      <c r="BQ43" s="52"/>
+      <c r="BR43" s="61"/>
+      <c r="BS43" s="62"/>
+      <c r="BT43" s="42"/>
+      <c r="BU43" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV43" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="BW43" s="92"/>
+    </row>
+    <row r="44" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A44" s="92"/>
       <c r="B44" s="16"/>
       <c r="C44" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -5646,34 +5788,37 @@
       <c r="BC44" s="33"/>
       <c r="BD44" s="52"/>
       <c r="BE44" s="33"/>
-      <c r="BF44" s="52"/>
-      <c r="BG44" s="35"/>
-      <c r="BH44" s="35"/>
-      <c r="BI44" s="35"/>
+      <c r="BF44" s="50"/>
+      <c r="BG44" s="52"/>
+      <c r="BH44" s="33"/>
+      <c r="BI44" s="52"/>
       <c r="BJ44" s="35"/>
       <c r="BK44" s="35"/>
       <c r="BL44" s="35"/>
-      <c r="BM44" s="33"/>
-      <c r="BN44" s="52"/>
-      <c r="BO44" s="33"/>
-      <c r="BP44" s="52"/>
-      <c r="BQ44" s="35"/>
-      <c r="BR44" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="BS44" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="BT44" s="92"/>
-    </row>
-    <row r="45" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM44" s="35"/>
+      <c r="BN44" s="35"/>
+      <c r="BO44" s="35"/>
+      <c r="BP44" s="33"/>
+      <c r="BQ44" s="52"/>
+      <c r="BR44" s="33"/>
+      <c r="BS44" s="52"/>
+      <c r="BT44" s="35"/>
+      <c r="BU44" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="BV44" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="BW44" s="92"/>
+    </row>
+    <row r="45" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A45" s="92"/>
       <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
@@ -5728,32 +5873,35 @@
       <c r="BC45" s="33"/>
       <c r="BD45" s="52"/>
       <c r="BE45" s="33"/>
-      <c r="BF45" s="52"/>
-      <c r="BG45" s="35"/>
-      <c r="BH45" s="35"/>
-      <c r="BI45" s="35"/>
+      <c r="BF45" s="50"/>
+      <c r="BG45" s="52"/>
+      <c r="BH45" s="33"/>
+      <c r="BI45" s="52"/>
       <c r="BJ45" s="35"/>
       <c r="BK45" s="35"/>
       <c r="BL45" s="35"/>
-      <c r="BM45" s="33"/>
-      <c r="BN45" s="52"/>
-      <c r="BO45" s="33"/>
-      <c r="BP45" s="52"/>
-      <c r="BQ45" s="35"/>
-      <c r="BR45" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="BS45" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="BT45" s="92"/>
-    </row>
-    <row r="46" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BM45" s="35"/>
+      <c r="BN45" s="35"/>
+      <c r="BO45" s="35"/>
+      <c r="BP45" s="33"/>
+      <c r="BQ45" s="52"/>
+      <c r="BR45" s="33"/>
+      <c r="BS45" s="52"/>
+      <c r="BT45" s="35"/>
+      <c r="BU45" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV45" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW45" s="92"/>
+    </row>
+    <row r="46" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="92"/>
       <c r="B46" s="17"/>
       <c r="C46" s="13"/>
       <c r="D46" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="14"/>
@@ -5808,33 +5956,36 @@
       <c r="BC46" s="53"/>
       <c r="BD46" s="54"/>
       <c r="BE46" s="53"/>
-      <c r="BF46" s="54"/>
-      <c r="BG46" s="36"/>
-      <c r="BH46" s="36"/>
-      <c r="BI46" s="36"/>
+      <c r="BF46" s="73"/>
+      <c r="BG46" s="54"/>
+      <c r="BH46" s="53"/>
+      <c r="BI46" s="54"/>
       <c r="BJ46" s="36"/>
       <c r="BK46" s="36"/>
       <c r="BL46" s="36"/>
-      <c r="BM46" s="53"/>
-      <c r="BN46" s="54"/>
-      <c r="BO46" s="53"/>
-      <c r="BP46" s="54"/>
-      <c r="BQ46" s="36"/>
-      <c r="BR46" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="BS46" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="BT46" s="92"/>
-    </row>
-    <row r="47" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM46" s="36"/>
+      <c r="BN46" s="36"/>
+      <c r="BO46" s="36"/>
+      <c r="BP46" s="53"/>
+      <c r="BQ46" s="54"/>
+      <c r="BR46" s="53"/>
+      <c r="BS46" s="54"/>
+      <c r="BT46" s="36"/>
+      <c r="BU46" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="BV46" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW46" s="92"/>
+    </row>
+    <row r="47" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A47" s="92"/>
       <c r="B47" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
@@ -5890,31 +6041,34 @@
       <c r="BC47" s="37"/>
       <c r="BD47" s="57"/>
       <c r="BE47" s="37"/>
-      <c r="BF47" s="57"/>
-      <c r="BG47" s="39"/>
-      <c r="BH47" s="39"/>
-      <c r="BI47" s="39"/>
+      <c r="BF47" s="55"/>
+      <c r="BG47" s="57"/>
+      <c r="BH47" s="37"/>
+      <c r="BI47" s="57"/>
       <c r="BJ47" s="39"/>
       <c r="BK47" s="39"/>
       <c r="BL47" s="39"/>
-      <c r="BM47" s="37"/>
-      <c r="BN47" s="57"/>
-      <c r="BO47" s="37"/>
-      <c r="BP47" s="57"/>
-      <c r="BQ47" s="39"/>
-      <c r="BR47" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="BS47" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="BT47" s="92"/>
-    </row>
-    <row r="48" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BM47" s="39"/>
+      <c r="BN47" s="39"/>
+      <c r="BO47" s="39"/>
+      <c r="BP47" s="37"/>
+      <c r="BQ47" s="57"/>
+      <c r="BR47" s="37"/>
+      <c r="BS47" s="57"/>
+      <c r="BT47" s="39"/>
+      <c r="BU47" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV47" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="BW47" s="92"/>
+    </row>
+    <row r="48" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="92"/>
       <c r="B48" s="31"/>
       <c r="C48" s="27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -5970,33 +6124,36 @@
       <c r="BC48" s="59"/>
       <c r="BD48" s="60"/>
       <c r="BE48" s="59"/>
-      <c r="BF48" s="60"/>
-      <c r="BG48" s="41"/>
-      <c r="BH48" s="41"/>
-      <c r="BI48" s="67"/>
+      <c r="BF48" s="74"/>
+      <c r="BG48" s="60"/>
+      <c r="BH48" s="59"/>
+      <c r="BI48" s="60"/>
       <c r="BJ48" s="41"/>
       <c r="BK48" s="41"/>
-      <c r="BL48" s="41"/>
-      <c r="BM48" s="59"/>
-      <c r="BN48" s="60"/>
-      <c r="BO48" s="59"/>
-      <c r="BP48" s="60"/>
-      <c r="BQ48" s="41"/>
-      <c r="BR48" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="BS48" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="BT48" s="92"/>
-    </row>
-    <row r="49" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BL48" s="67"/>
+      <c r="BM48" s="41"/>
+      <c r="BN48" s="41"/>
+      <c r="BO48" s="41"/>
+      <c r="BP48" s="59"/>
+      <c r="BQ48" s="60"/>
+      <c r="BR48" s="59"/>
+      <c r="BS48" s="60"/>
+      <c r="BT48" s="41"/>
+      <c r="BU48" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="BV48" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="BW48" s="92"/>
+    </row>
+    <row r="49" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A49" s="92"/>
       <c r="B49" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -6052,31 +6209,34 @@
       <c r="BC49" s="32"/>
       <c r="BD49" s="51"/>
       <c r="BE49" s="32"/>
-      <c r="BF49" s="51"/>
-      <c r="BG49" s="34"/>
-      <c r="BH49" s="34"/>
-      <c r="BI49" s="34"/>
+      <c r="BF49" s="49"/>
+      <c r="BG49" s="51"/>
+      <c r="BH49" s="32"/>
+      <c r="BI49" s="51"/>
       <c r="BJ49" s="34"/>
       <c r="BK49" s="34"/>
       <c r="BL49" s="34"/>
-      <c r="BM49" s="32"/>
-      <c r="BN49" s="51"/>
-      <c r="BO49" s="32"/>
-      <c r="BP49" s="51"/>
-      <c r="BQ49" s="34"/>
-      <c r="BR49" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="BS49" s="83" t="s">
-        <v>129</v>
-      </c>
-      <c r="BT49" s="92"/>
-    </row>
-    <row r="50" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BM49" s="34"/>
+      <c r="BN49" s="34"/>
+      <c r="BO49" s="34"/>
+      <c r="BP49" s="32"/>
+      <c r="BQ49" s="51"/>
+      <c r="BR49" s="32"/>
+      <c r="BS49" s="51"/>
+      <c r="BT49" s="34"/>
+      <c r="BU49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV49" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="BW49" s="92"/>
+    </row>
+    <row r="50" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="92"/>
       <c r="B50" s="17"/>
       <c r="C50" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
@@ -6132,33 +6292,36 @@
       <c r="BC50" s="53"/>
       <c r="BD50" s="54"/>
       <c r="BE50" s="53"/>
-      <c r="BF50" s="54"/>
-      <c r="BG50" s="36"/>
-      <c r="BH50" s="36"/>
-      <c r="BI50" s="36"/>
+      <c r="BF50" s="73"/>
+      <c r="BG50" s="54"/>
+      <c r="BH50" s="53"/>
+      <c r="BI50" s="54"/>
       <c r="BJ50" s="36"/>
       <c r="BK50" s="36"/>
       <c r="BL50" s="36"/>
-      <c r="BM50" s="53"/>
-      <c r="BN50" s="54"/>
-      <c r="BO50" s="53"/>
-      <c r="BP50" s="54"/>
-      <c r="BQ50" s="36"/>
-      <c r="BR50" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="BS50" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="BT50" s="92"/>
-    </row>
-    <row r="51" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM50" s="36"/>
+      <c r="BN50" s="36"/>
+      <c r="BO50" s="36"/>
+      <c r="BP50" s="53"/>
+      <c r="BQ50" s="54"/>
+      <c r="BR50" s="53"/>
+      <c r="BS50" s="54"/>
+      <c r="BT50" s="36"/>
+      <c r="BU50" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="BV50" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="BW50" s="92"/>
+    </row>
+    <row r="51" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A51" s="92"/>
       <c r="B51" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
@@ -6214,31 +6377,34 @@
       <c r="BC51" s="37"/>
       <c r="BD51" s="57"/>
       <c r="BE51" s="37"/>
-      <c r="BF51" s="57"/>
-      <c r="BG51" s="39"/>
-      <c r="BH51" s="39"/>
-      <c r="BI51" s="39"/>
+      <c r="BF51" s="55"/>
+      <c r="BG51" s="57"/>
+      <c r="BH51" s="37"/>
+      <c r="BI51" s="57"/>
       <c r="BJ51" s="39"/>
       <c r="BK51" s="39"/>
       <c r="BL51" s="39"/>
-      <c r="BM51" s="37"/>
-      <c r="BN51" s="57"/>
-      <c r="BO51" s="37"/>
-      <c r="BP51" s="57"/>
-      <c r="BQ51" s="39"/>
-      <c r="BR51" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="BS51" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="BT51" s="92"/>
-    </row>
-    <row r="52" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM51" s="39"/>
+      <c r="BN51" s="39"/>
+      <c r="BO51" s="39"/>
+      <c r="BP51" s="37"/>
+      <c r="BQ51" s="57"/>
+      <c r="BR51" s="37"/>
+      <c r="BS51" s="57"/>
+      <c r="BT51" s="39"/>
+      <c r="BU51" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BV51" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="BW51" s="92"/>
+    </row>
+    <row r="52" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A52" s="92"/>
       <c r="B52" s="30"/>
       <c r="C52" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
@@ -6294,31 +6460,34 @@
       <c r="BC52" s="38"/>
       <c r="BD52" s="58"/>
       <c r="BE52" s="38"/>
-      <c r="BF52" s="58"/>
-      <c r="BG52" s="40"/>
-      <c r="BH52" s="40"/>
-      <c r="BI52" s="40"/>
+      <c r="BF52" s="56"/>
+      <c r="BG52" s="58"/>
+      <c r="BH52" s="38"/>
+      <c r="BI52" s="58"/>
       <c r="BJ52" s="40"/>
       <c r="BK52" s="40"/>
       <c r="BL52" s="40"/>
-      <c r="BM52" s="38"/>
-      <c r="BN52" s="58"/>
-      <c r="BO52" s="38"/>
-      <c r="BP52" s="58"/>
-      <c r="BQ52" s="40"/>
-      <c r="BR52" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="BS52" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT52" s="92"/>
-    </row>
-    <row r="53" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM52" s="40"/>
+      <c r="BN52" s="40"/>
+      <c r="BO52" s="40"/>
+      <c r="BP52" s="38"/>
+      <c r="BQ52" s="58"/>
+      <c r="BR52" s="38"/>
+      <c r="BS52" s="58"/>
+      <c r="BT52" s="40"/>
+      <c r="BU52" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="BV52" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW52" s="92"/>
+    </row>
+    <row r="53" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A53" s="92"/>
       <c r="B53" s="30"/>
       <c r="C53" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
@@ -6374,31 +6543,34 @@
       <c r="BC53" s="38"/>
       <c r="BD53" s="58"/>
       <c r="BE53" s="38"/>
-      <c r="BF53" s="58"/>
-      <c r="BG53" s="40"/>
-      <c r="BH53" s="40"/>
-      <c r="BI53" s="40"/>
+      <c r="BF53" s="56"/>
+      <c r="BG53" s="58"/>
+      <c r="BH53" s="38"/>
+      <c r="BI53" s="58"/>
       <c r="BJ53" s="40"/>
       <c r="BK53" s="40"/>
       <c r="BL53" s="40"/>
-      <c r="BM53" s="38"/>
-      <c r="BN53" s="58"/>
-      <c r="BO53" s="38"/>
-      <c r="BP53" s="58"/>
-      <c r="BQ53" s="40"/>
-      <c r="BR53" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS53" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="BT53" s="92"/>
-    </row>
-    <row r="54" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BM53" s="40"/>
+      <c r="BN53" s="40"/>
+      <c r="BO53" s="40"/>
+      <c r="BP53" s="38"/>
+      <c r="BQ53" s="58"/>
+      <c r="BR53" s="38"/>
+      <c r="BS53" s="58"/>
+      <c r="BT53" s="40"/>
+      <c r="BU53" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV53" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BW53" s="92"/>
+    </row>
+    <row r="54" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="92"/>
       <c r="B54" s="31"/>
       <c r="C54" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
@@ -6454,33 +6626,36 @@
       <c r="BC54" s="59"/>
       <c r="BD54" s="60"/>
       <c r="BE54" s="59"/>
-      <c r="BF54" s="60"/>
-      <c r="BG54" s="41"/>
-      <c r="BH54" s="41"/>
-      <c r="BI54" s="41"/>
+      <c r="BF54" s="74"/>
+      <c r="BG54" s="60"/>
+      <c r="BH54" s="59"/>
+      <c r="BI54" s="60"/>
       <c r="BJ54" s="41"/>
       <c r="BK54" s="41"/>
       <c r="BL54" s="41"/>
-      <c r="BM54" s="59"/>
-      <c r="BN54" s="60"/>
-      <c r="BO54" s="59"/>
-      <c r="BP54" s="60"/>
-      <c r="BQ54" s="41"/>
-      <c r="BR54" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="BS54" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="BT54" s="92"/>
-    </row>
-    <row r="55" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM54" s="41"/>
+      <c r="BN54" s="41"/>
+      <c r="BO54" s="41"/>
+      <c r="BP54" s="59"/>
+      <c r="BQ54" s="60"/>
+      <c r="BR54" s="59"/>
+      <c r="BS54" s="60"/>
+      <c r="BT54" s="41"/>
+      <c r="BU54" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV54" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="BW54" s="92"/>
+    </row>
+    <row r="55" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A55" s="92"/>
       <c r="B55" s="15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
@@ -6536,31 +6711,34 @@
       <c r="BC55" s="32"/>
       <c r="BD55" s="51"/>
       <c r="BE55" s="32"/>
-      <c r="BF55" s="51"/>
-      <c r="BG55" s="34"/>
-      <c r="BH55" s="34"/>
-      <c r="BI55" s="34"/>
+      <c r="BF55" s="49"/>
+      <c r="BG55" s="51"/>
+      <c r="BH55" s="32"/>
+      <c r="BI55" s="51"/>
       <c r="BJ55" s="34"/>
       <c r="BK55" s="34"/>
       <c r="BL55" s="34"/>
-      <c r="BM55" s="32"/>
-      <c r="BN55" s="51"/>
-      <c r="BO55" s="32"/>
-      <c r="BP55" s="51"/>
-      <c r="BQ55" s="34"/>
-      <c r="BR55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS55" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT55" s="92"/>
-    </row>
-    <row r="56" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM55" s="34"/>
+      <c r="BN55" s="34"/>
+      <c r="BO55" s="34"/>
+      <c r="BP55" s="32"/>
+      <c r="BQ55" s="51"/>
+      <c r="BR55" s="32"/>
+      <c r="BS55" s="51"/>
+      <c r="BT55" s="34"/>
+      <c r="BU55" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV55" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW55" s="92"/>
+    </row>
+    <row r="56" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A56" s="92"/>
       <c r="B56" s="16"/>
       <c r="C56" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -6616,31 +6794,34 @@
       <c r="BC56" s="33"/>
       <c r="BD56" s="52"/>
       <c r="BE56" s="33"/>
-      <c r="BF56" s="52"/>
-      <c r="BG56" s="35"/>
-      <c r="BH56" s="35"/>
-      <c r="BI56" s="35"/>
+      <c r="BF56" s="50"/>
+      <c r="BG56" s="52"/>
+      <c r="BH56" s="33"/>
+      <c r="BI56" s="52"/>
       <c r="BJ56" s="35"/>
       <c r="BK56" s="35"/>
       <c r="BL56" s="35"/>
-      <c r="BM56" s="33"/>
-      <c r="BN56" s="52"/>
-      <c r="BO56" s="33"/>
-      <c r="BP56" s="52"/>
-      <c r="BQ56" s="35"/>
-      <c r="BR56" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="BS56" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT56" s="92"/>
-    </row>
-    <row r="57" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BM56" s="35"/>
+      <c r="BN56" s="35"/>
+      <c r="BO56" s="35"/>
+      <c r="BP56" s="33"/>
+      <c r="BQ56" s="52"/>
+      <c r="BR56" s="33"/>
+      <c r="BS56" s="52"/>
+      <c r="BT56" s="35"/>
+      <c r="BU56" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV56" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW56" s="92"/>
+    </row>
+    <row r="57" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="92"/>
       <c r="B57" s="17"/>
       <c r="C57" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
@@ -6696,33 +6877,36 @@
       <c r="BC57" s="53"/>
       <c r="BD57" s="54"/>
       <c r="BE57" s="53"/>
-      <c r="BF57" s="54"/>
-      <c r="BG57" s="36"/>
-      <c r="BH57" s="36"/>
-      <c r="BI57" s="36"/>
+      <c r="BF57" s="73"/>
+      <c r="BG57" s="54"/>
+      <c r="BH57" s="53"/>
+      <c r="BI57" s="54"/>
       <c r="BJ57" s="36"/>
       <c r="BK57" s="36"/>
       <c r="BL57" s="36"/>
-      <c r="BM57" s="53"/>
-      <c r="BN57" s="54"/>
-      <c r="BO57" s="53"/>
-      <c r="BP57" s="54"/>
-      <c r="BQ57" s="36"/>
-      <c r="BR57" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="BS57" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT57" s="92"/>
-    </row>
-    <row r="58" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM57" s="36"/>
+      <c r="BN57" s="36"/>
+      <c r="BO57" s="36"/>
+      <c r="BP57" s="53"/>
+      <c r="BQ57" s="54"/>
+      <c r="BR57" s="53"/>
+      <c r="BS57" s="54"/>
+      <c r="BT57" s="36"/>
+      <c r="BU57" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV57" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW57" s="92"/>
+    </row>
+    <row r="58" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A58" s="92"/>
       <c r="B58" s="29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
@@ -6778,31 +6962,34 @@
       <c r="BC58" s="37"/>
       <c r="BD58" s="57"/>
       <c r="BE58" s="37"/>
-      <c r="BF58" s="57"/>
-      <c r="BG58" s="39"/>
-      <c r="BH58" s="39"/>
-      <c r="BI58" s="39"/>
+      <c r="BF58" s="55"/>
+      <c r="BG58" s="57"/>
+      <c r="BH58" s="37"/>
+      <c r="BI58" s="57"/>
       <c r="BJ58" s="39"/>
       <c r="BK58" s="39"/>
       <c r="BL58" s="39"/>
-      <c r="BM58" s="37"/>
-      <c r="BN58" s="57"/>
-      <c r="BO58" s="37"/>
-      <c r="BP58" s="57"/>
-      <c r="BQ58" s="39"/>
-      <c r="BR58" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS58" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT58" s="92"/>
-    </row>
-    <row r="59" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM58" s="39"/>
+      <c r="BN58" s="39"/>
+      <c r="BO58" s="39"/>
+      <c r="BP58" s="37"/>
+      <c r="BQ58" s="57"/>
+      <c r="BR58" s="37"/>
+      <c r="BS58" s="57"/>
+      <c r="BT58" s="39"/>
+      <c r="BU58" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV58" s="88" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW58" s="92"/>
+    </row>
+    <row r="59" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A59" s="92"/>
       <c r="B59" s="30"/>
       <c r="C59" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -6858,31 +7045,34 @@
       <c r="BC59" s="38"/>
       <c r="BD59" s="58"/>
       <c r="BE59" s="38"/>
-      <c r="BF59" s="58"/>
-      <c r="BG59" s="40"/>
-      <c r="BH59" s="40"/>
-      <c r="BI59" s="40"/>
+      <c r="BF59" s="56"/>
+      <c r="BG59" s="58"/>
+      <c r="BH59" s="38"/>
+      <c r="BI59" s="58"/>
       <c r="BJ59" s="40"/>
       <c r="BK59" s="40"/>
       <c r="BL59" s="40"/>
-      <c r="BM59" s="38"/>
-      <c r="BN59" s="58"/>
-      <c r="BO59" s="38"/>
-      <c r="BP59" s="58"/>
-      <c r="BQ59" s="40"/>
-      <c r="BR59" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="BS59" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="BT59" s="92"/>
-    </row>
-    <row r="60" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BM59" s="40"/>
+      <c r="BN59" s="40"/>
+      <c r="BO59" s="40"/>
+      <c r="BP59" s="38"/>
+      <c r="BQ59" s="58"/>
+      <c r="BR59" s="38"/>
+      <c r="BS59" s="58"/>
+      <c r="BT59" s="40"/>
+      <c r="BU59" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="BV59" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW59" s="92"/>
+    </row>
+    <row r="60" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A60" s="92"/>
       <c r="B60" s="30"/>
       <c r="C60" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
@@ -6937,36 +7127,39 @@
       <c r="BB60" s="62"/>
       <c r="BC60" s="38"/>
       <c r="BD60" s="58"/>
-      <c r="BE60" s="61"/>
-      <c r="BF60" s="62"/>
-      <c r="BG60" s="42"/>
-      <c r="BH60" s="42"/>
-      <c r="BI60" s="42"/>
-      <c r="BJ60" s="40"/>
-      <c r="BK60" s="40"/>
-      <c r="BL60" s="40"/>
-      <c r="BM60" s="38"/>
-      <c r="BN60" s="58"/>
-      <c r="BO60" s="38"/>
-      <c r="BP60" s="62"/>
-      <c r="BQ60" s="40"/>
-      <c r="BR60" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="BS60" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT60" s="92"/>
-    </row>
-    <row r="61" spans="1:72" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BE60" s="38"/>
+      <c r="BF60" s="56"/>
+      <c r="BG60" s="58"/>
+      <c r="BH60" s="61"/>
+      <c r="BI60" s="62"/>
+      <c r="BJ60" s="42"/>
+      <c r="BK60" s="42"/>
+      <c r="BL60" s="42"/>
+      <c r="BM60" s="40"/>
+      <c r="BN60" s="40"/>
+      <c r="BO60" s="40"/>
+      <c r="BP60" s="38"/>
+      <c r="BQ60" s="58"/>
+      <c r="BR60" s="38"/>
+      <c r="BS60" s="62"/>
+      <c r="BT60" s="40"/>
+      <c r="BU60" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="BV60" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="BW60" s="92"/>
+    </row>
+    <row r="61" spans="1:75" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="92"/>
       <c r="B61" s="31"/>
       <c r="C61" s="27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D61" s="26"/>
       <c r="E61" s="27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="41"/>
@@ -7028,27 +7221,30 @@
       <c r="BC61" s="59"/>
       <c r="BD61" s="60"/>
       <c r="BE61" s="59"/>
-      <c r="BF61" s="60"/>
-      <c r="BG61" s="41"/>
-      <c r="BH61" s="41"/>
-      <c r="BI61" s="41"/>
+      <c r="BF61" s="74"/>
+      <c r="BG61" s="60"/>
+      <c r="BH61" s="59"/>
+      <c r="BI61" s="60"/>
       <c r="BJ61" s="41"/>
       <c r="BK61" s="41"/>
       <c r="BL61" s="41"/>
-      <c r="BM61" s="59"/>
-      <c r="BN61" s="60"/>
-      <c r="BO61" s="59"/>
-      <c r="BP61" s="60"/>
-      <c r="BQ61" s="41"/>
-      <c r="BR61" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="BS61" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="BT61" s="92"/>
-    </row>
-    <row r="62" spans="1:72" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BM61" s="41"/>
+      <c r="BN61" s="41"/>
+      <c r="BO61" s="41"/>
+      <c r="BP61" s="59"/>
+      <c r="BQ61" s="60"/>
+      <c r="BR61" s="59"/>
+      <c r="BS61" s="60"/>
+      <c r="BT61" s="41"/>
+      <c r="BU61" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV61" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW61" s="92"/>
+    </row>
+    <row r="62" spans="1:75" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="92"/>
       <c r="B62" s="92"/>
       <c r="C62" s="92"/>
@@ -7121,8 +7317,11 @@
       <c r="BR62" s="92"/>
       <c r="BS62" s="92"/>
       <c r="BT62" s="92"/>
-    </row>
-    <row r="63" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU62" s="92"/>
+      <c r="BV62" s="92"/>
+      <c r="BW62" s="92"/>
+    </row>
+    <row r="63" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A63" s="92"/>
       <c r="B63" s="92"/>
       <c r="C63" s="92"/>
@@ -7132,7 +7331,7 @@
       <c r="G63" s="92"/>
       <c r="H63" s="75"/>
       <c r="I63" s="93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J63" s="92"/>
       <c r="K63" s="92"/>
@@ -7141,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="N63" s="93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O63" s="92"/>
       <c r="P63" s="92"/>
@@ -7151,7 +7350,7 @@
       <c r="T63" s="92"/>
       <c r="U63" s="96"/>
       <c r="V63" s="93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W63" s="92"/>
       <c r="X63" s="92"/>
@@ -7203,8 +7402,11 @@
       <c r="BR63" s="92"/>
       <c r="BS63" s="92"/>
       <c r="BT63" s="92"/>
-    </row>
-    <row r="64" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU63" s="92"/>
+      <c r="BV63" s="92"/>
+      <c r="BW63" s="92"/>
+    </row>
+    <row r="64" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A64" s="92"/>
       <c r="B64" s="92"/>
       <c r="C64" s="92"/>
@@ -7277,8 +7479,11 @@
       <c r="BR64" s="92"/>
       <c r="BS64" s="92"/>
       <c r="BT64" s="92"/>
-    </row>
-    <row r="65" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU64" s="92"/>
+      <c r="BV64" s="92"/>
+      <c r="BW64" s="92"/>
+    </row>
+    <row r="65" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A65" s="92"/>
       <c r="B65" s="92"/>
       <c r="C65" s="92"/>
@@ -7351,8 +7556,11 @@
       <c r="BR65" s="92"/>
       <c r="BS65" s="92"/>
       <c r="BT65" s="92"/>
-    </row>
-    <row r="66" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU65" s="92"/>
+      <c r="BV65" s="92"/>
+      <c r="BW65" s="92"/>
+    </row>
+    <row r="66" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A66" s="92"/>
       <c r="B66" s="92"/>
       <c r="C66" s="92"/>
@@ -7425,8 +7633,11 @@
       <c r="BR66" s="92"/>
       <c r="BS66" s="92"/>
       <c r="BT66" s="92"/>
-    </row>
-    <row r="67" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU66" s="92"/>
+      <c r="BV66" s="92"/>
+      <c r="BW66" s="92"/>
+    </row>
+    <row r="67" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A67" s="92"/>
       <c r="B67" s="92"/>
       <c r="C67" s="92"/>
@@ -7499,8 +7710,11 @@
       <c r="BR67" s="92"/>
       <c r="BS67" s="92"/>
       <c r="BT67" s="92"/>
-    </row>
-    <row r="68" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU67" s="92"/>
+      <c r="BV67" s="92"/>
+      <c r="BW67" s="92"/>
+    </row>
+    <row r="68" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A68" s="92"/>
       <c r="B68" s="92"/>
       <c r="C68" s="92"/>
@@ -7573,8 +7787,11 @@
       <c r="BR68" s="92"/>
       <c r="BS68" s="92"/>
       <c r="BT68" s="92"/>
-    </row>
-    <row r="69" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU68" s="92"/>
+      <c r="BV68" s="92"/>
+      <c r="BW68" s="92"/>
+    </row>
+    <row r="69" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A69" s="92"/>
       <c r="B69" s="92"/>
       <c r="C69" s="92"/>
@@ -7647,8 +7864,11 @@
       <c r="BR69" s="92"/>
       <c r="BS69" s="92"/>
       <c r="BT69" s="92"/>
-    </row>
-    <row r="70" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU69" s="92"/>
+      <c r="BV69" s="92"/>
+      <c r="BW69" s="92"/>
+    </row>
+    <row r="70" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A70" s="92"/>
       <c r="B70" s="92"/>
       <c r="C70" s="92"/>
@@ -7721,8 +7941,11 @@
       <c r="BR70" s="92"/>
       <c r="BS70" s="92"/>
       <c r="BT70" s="92"/>
-    </row>
-    <row r="71" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU70" s="92"/>
+      <c r="BV70" s="92"/>
+      <c r="BW70" s="92"/>
+    </row>
+    <row r="71" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A71" s="92"/>
       <c r="B71" s="92"/>
       <c r="C71" s="92"/>
@@ -7795,8 +8018,11 @@
       <c r="BR71" s="92"/>
       <c r="BS71" s="92"/>
       <c r="BT71" s="92"/>
-    </row>
-    <row r="72" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU71" s="92"/>
+      <c r="BV71" s="92"/>
+      <c r="BW71" s="92"/>
+    </row>
+    <row r="72" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A72" s="92"/>
       <c r="B72" s="92"/>
       <c r="C72" s="92"/>
@@ -7869,8 +8095,11 @@
       <c r="BR72" s="92"/>
       <c r="BS72" s="92"/>
       <c r="BT72" s="92"/>
-    </row>
-    <row r="73" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU72" s="92"/>
+      <c r="BV72" s="92"/>
+      <c r="BW72" s="92"/>
+    </row>
+    <row r="73" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A73" s="92"/>
       <c r="B73" s="92"/>
       <c r="C73" s="92"/>
@@ -7943,8 +8172,11 @@
       <c r="BR73" s="92"/>
       <c r="BS73" s="92"/>
       <c r="BT73" s="92"/>
-    </row>
-    <row r="74" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU73" s="92"/>
+      <c r="BV73" s="92"/>
+      <c r="BW73" s="92"/>
+    </row>
+    <row r="74" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A74" s="92"/>
       <c r="B74" s="92"/>
       <c r="C74" s="92"/>
@@ -8017,8 +8249,11 @@
       <c r="BR74" s="92"/>
       <c r="BS74" s="92"/>
       <c r="BT74" s="92"/>
-    </row>
-    <row r="75" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU74" s="92"/>
+      <c r="BV74" s="92"/>
+      <c r="BW74" s="92"/>
+    </row>
+    <row r="75" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A75" s="92"/>
       <c r="B75" s="92"/>
       <c r="C75" s="92"/>
@@ -8091,8 +8326,11 @@
       <c r="BR75" s="92"/>
       <c r="BS75" s="92"/>
       <c r="BT75" s="92"/>
-    </row>
-    <row r="76" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU75" s="92"/>
+      <c r="BV75" s="92"/>
+      <c r="BW75" s="92"/>
+    </row>
+    <row r="76" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A76" s="92"/>
       <c r="B76" s="92"/>
       <c r="C76" s="92"/>
@@ -8165,8 +8403,11 @@
       <c r="BR76" s="92"/>
       <c r="BS76" s="92"/>
       <c r="BT76" s="92"/>
-    </row>
-    <row r="77" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU76" s="92"/>
+      <c r="BV76" s="92"/>
+      <c r="BW76" s="92"/>
+    </row>
+    <row r="77" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A77" s="92"/>
       <c r="B77" s="92"/>
       <c r="C77" s="92"/>
@@ -8239,8 +8480,11 @@
       <c r="BR77" s="92"/>
       <c r="BS77" s="92"/>
       <c r="BT77" s="92"/>
-    </row>
-    <row r="78" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU77" s="92"/>
+      <c r="BV77" s="92"/>
+      <c r="BW77" s="92"/>
+    </row>
+    <row r="78" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A78" s="92"/>
       <c r="B78" s="92"/>
       <c r="C78" s="92"/>
@@ -8313,8 +8557,11 @@
       <c r="BR78" s="92"/>
       <c r="BS78" s="92"/>
       <c r="BT78" s="92"/>
-    </row>
-    <row r="79" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU78" s="92"/>
+      <c r="BV78" s="92"/>
+      <c r="BW78" s="92"/>
+    </row>
+    <row r="79" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A79" s="92"/>
       <c r="B79" s="92"/>
       <c r="C79" s="92"/>
@@ -8387,8 +8634,11 @@
       <c r="BR79" s="92"/>
       <c r="BS79" s="92"/>
       <c r="BT79" s="92"/>
-    </row>
-    <row r="80" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU79" s="92"/>
+      <c r="BV79" s="92"/>
+      <c r="BW79" s="92"/>
+    </row>
+    <row r="80" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A80" s="92"/>
       <c r="B80" s="92"/>
       <c r="C80" s="92"/>
@@ -8461,8 +8711,11 @@
       <c r="BR80" s="92"/>
       <c r="BS80" s="92"/>
       <c r="BT80" s="92"/>
-    </row>
-    <row r="81" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU80" s="92"/>
+      <c r="BV80" s="92"/>
+      <c r="BW80" s="92"/>
+    </row>
+    <row r="81" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A81" s="92"/>
       <c r="B81" s="92"/>
       <c r="C81" s="92"/>
@@ -8535,8 +8788,11 @@
       <c r="BR81" s="92"/>
       <c r="BS81" s="92"/>
       <c r="BT81" s="92"/>
-    </row>
-    <row r="82" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU81" s="92"/>
+      <c r="BV81" s="92"/>
+      <c r="BW81" s="92"/>
+    </row>
+    <row r="82" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A82" s="92"/>
       <c r="B82" s="92"/>
       <c r="C82" s="92"/>
@@ -8609,8 +8865,11 @@
       <c r="BR82" s="92"/>
       <c r="BS82" s="92"/>
       <c r="BT82" s="92"/>
-    </row>
-    <row r="83" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU82" s="92"/>
+      <c r="BV82" s="92"/>
+      <c r="BW82" s="92"/>
+    </row>
+    <row r="83" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A83" s="92"/>
       <c r="B83" s="92"/>
       <c r="C83" s="92"/>
@@ -8683,8 +8942,11 @@
       <c r="BR83" s="92"/>
       <c r="BS83" s="92"/>
       <c r="BT83" s="92"/>
-    </row>
-    <row r="84" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU83" s="92"/>
+      <c r="BV83" s="92"/>
+      <c r="BW83" s="92"/>
+    </row>
+    <row r="84" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A84" s="92"/>
       <c r="B84" s="92"/>
       <c r="C84" s="92"/>
@@ -8757,8 +9019,11 @@
       <c r="BR84" s="92"/>
       <c r="BS84" s="92"/>
       <c r="BT84" s="92"/>
-    </row>
-    <row r="85" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU84" s="92"/>
+      <c r="BV84" s="92"/>
+      <c r="BW84" s="92"/>
+    </row>
+    <row r="85" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A85" s="92"/>
       <c r="B85" s="92"/>
       <c r="C85" s="92"/>
@@ -8831,8 +9096,11 @@
       <c r="BR85" s="92"/>
       <c r="BS85" s="92"/>
       <c r="BT85" s="92"/>
-    </row>
-    <row r="86" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU85" s="92"/>
+      <c r="BV85" s="92"/>
+      <c r="BW85" s="92"/>
+    </row>
+    <row r="86" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A86" s="92"/>
       <c r="B86" s="92"/>
       <c r="C86" s="92"/>
@@ -8905,8 +9173,11 @@
       <c r="BR86" s="92"/>
       <c r="BS86" s="92"/>
       <c r="BT86" s="92"/>
-    </row>
-    <row r="87" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU86" s="92"/>
+      <c r="BV86" s="92"/>
+      <c r="BW86" s="92"/>
+    </row>
+    <row r="87" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A87" s="92"/>
       <c r="B87" s="92"/>
       <c r="C87" s="92"/>
@@ -8979,8 +9250,11 @@
       <c r="BR87" s="92"/>
       <c r="BS87" s="92"/>
       <c r="BT87" s="92"/>
-    </row>
-    <row r="88" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU87" s="92"/>
+      <c r="BV87" s="92"/>
+      <c r="BW87" s="92"/>
+    </row>
+    <row r="88" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A88" s="92"/>
       <c r="B88" s="92"/>
       <c r="C88" s="92"/>
@@ -9053,8 +9327,11 @@
       <c r="BR88" s="92"/>
       <c r="BS88" s="92"/>
       <c r="BT88" s="92"/>
-    </row>
-    <row r="89" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU88" s="92"/>
+      <c r="BV88" s="92"/>
+      <c r="BW88" s="92"/>
+    </row>
+    <row r="89" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A89" s="92"/>
       <c r="B89" s="92"/>
       <c r="C89" s="92"/>
@@ -9127,8 +9404,11 @@
       <c r="BR89" s="92"/>
       <c r="BS89" s="92"/>
       <c r="BT89" s="92"/>
-    </row>
-    <row r="90" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU89" s="92"/>
+      <c r="BV89" s="92"/>
+      <c r="BW89" s="92"/>
+    </row>
+    <row r="90" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A90" s="92"/>
       <c r="B90" s="92"/>
       <c r="C90" s="92"/>
@@ -9201,8 +9481,11 @@
       <c r="BR90" s="92"/>
       <c r="BS90" s="92"/>
       <c r="BT90" s="92"/>
-    </row>
-    <row r="91" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU90" s="92"/>
+      <c r="BV90" s="92"/>
+      <c r="BW90" s="92"/>
+    </row>
+    <row r="91" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A91" s="92"/>
       <c r="B91" s="92"/>
       <c r="C91" s="92"/>
@@ -9275,8 +9558,11 @@
       <c r="BR91" s="92"/>
       <c r="BS91" s="92"/>
       <c r="BT91" s="92"/>
-    </row>
-    <row r="92" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU91" s="92"/>
+      <c r="BV91" s="92"/>
+      <c r="BW91" s="92"/>
+    </row>
+    <row r="92" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A92" s="92"/>
       <c r="B92" s="92"/>
       <c r="C92" s="92"/>
@@ -9349,8 +9635,11 @@
       <c r="BR92" s="92"/>
       <c r="BS92" s="92"/>
       <c r="BT92" s="92"/>
-    </row>
-    <row r="93" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU92" s="92"/>
+      <c r="BV92" s="92"/>
+      <c r="BW92" s="92"/>
+    </row>
+    <row r="93" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A93" s="92"/>
       <c r="B93" s="92"/>
       <c r="C93" s="92"/>
@@ -9423,8 +9712,11 @@
       <c r="BR93" s="92"/>
       <c r="BS93" s="92"/>
       <c r="BT93" s="92"/>
-    </row>
-    <row r="94" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU93" s="92"/>
+      <c r="BV93" s="92"/>
+      <c r="BW93" s="92"/>
+    </row>
+    <row r="94" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A94" s="92"/>
       <c r="B94" s="92"/>
       <c r="C94" s="92"/>
@@ -9497,8 +9789,11 @@
       <c r="BR94" s="92"/>
       <c r="BS94" s="92"/>
       <c r="BT94" s="92"/>
-    </row>
-    <row r="95" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU94" s="92"/>
+      <c r="BV94" s="92"/>
+      <c r="BW94" s="92"/>
+    </row>
+    <row r="95" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A95" s="92"/>
       <c r="B95" s="92"/>
       <c r="C95" s="92"/>
@@ -9571,8 +9866,11 @@
       <c r="BR95" s="92"/>
       <c r="BS95" s="92"/>
       <c r="BT95" s="92"/>
-    </row>
-    <row r="96" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU95" s="92"/>
+      <c r="BV95" s="92"/>
+      <c r="BW95" s="92"/>
+    </row>
+    <row r="96" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A96" s="92"/>
       <c r="B96" s="92"/>
       <c r="C96" s="92"/>
@@ -9645,8 +9943,11 @@
       <c r="BR96" s="92"/>
       <c r="BS96" s="92"/>
       <c r="BT96" s="92"/>
-    </row>
-    <row r="97" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU96" s="92"/>
+      <c r="BV96" s="92"/>
+      <c r="BW96" s="92"/>
+    </row>
+    <row r="97" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A97" s="92"/>
       <c r="B97" s="92"/>
       <c r="C97" s="92"/>
@@ -9719,8 +10020,11 @@
       <c r="BR97" s="92"/>
       <c r="BS97" s="92"/>
       <c r="BT97" s="92"/>
-    </row>
-    <row r="98" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU97" s="92"/>
+      <c r="BV97" s="92"/>
+      <c r="BW97" s="92"/>
+    </row>
+    <row r="98" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A98" s="92"/>
       <c r="B98" s="92"/>
       <c r="C98" s="92"/>
@@ -9793,8 +10097,11 @@
       <c r="BR98" s="92"/>
       <c r="BS98" s="92"/>
       <c r="BT98" s="92"/>
-    </row>
-    <row r="99" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU98" s="92"/>
+      <c r="BV98" s="92"/>
+      <c r="BW98" s="92"/>
+    </row>
+    <row r="99" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A99" s="92"/>
       <c r="B99" s="92"/>
       <c r="C99" s="92"/>
@@ -9867,8 +10174,11 @@
       <c r="BR99" s="92"/>
       <c r="BS99" s="92"/>
       <c r="BT99" s="92"/>
-    </row>
-    <row r="100" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU99" s="92"/>
+      <c r="BV99" s="92"/>
+      <c r="BW99" s="92"/>
+    </row>
+    <row r="100" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A100" s="92"/>
       <c r="B100" s="92"/>
       <c r="C100" s="92"/>
@@ -9941,8 +10251,11 @@
       <c r="BR100" s="92"/>
       <c r="BS100" s="92"/>
       <c r="BT100" s="92"/>
-    </row>
-    <row r="101" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU100" s="92"/>
+      <c r="BV100" s="92"/>
+      <c r="BW100" s="92"/>
+    </row>
+    <row r="101" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A101" s="92"/>
       <c r="B101" s="92"/>
       <c r="C101" s="92"/>
@@ -10015,8 +10328,11 @@
       <c r="BR101" s="92"/>
       <c r="BS101" s="92"/>
       <c r="BT101" s="92"/>
-    </row>
-    <row r="102" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU101" s="92"/>
+      <c r="BV101" s="92"/>
+      <c r="BW101" s="92"/>
+    </row>
+    <row r="102" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A102" s="92"/>
       <c r="B102" s="92"/>
       <c r="C102" s="92"/>
@@ -10089,8 +10405,11 @@
       <c r="BR102" s="92"/>
       <c r="BS102" s="92"/>
       <c r="BT102" s="92"/>
-    </row>
-    <row r="103" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU102" s="92"/>
+      <c r="BV102" s="92"/>
+      <c r="BW102" s="92"/>
+    </row>
+    <row r="103" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A103" s="92"/>
       <c r="B103" s="92"/>
       <c r="C103" s="92"/>
@@ -10163,8 +10482,11 @@
       <c r="BR103" s="92"/>
       <c r="BS103" s="92"/>
       <c r="BT103" s="92"/>
-    </row>
-    <row r="104" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU103" s="92"/>
+      <c r="BV103" s="92"/>
+      <c r="BW103" s="92"/>
+    </row>
+    <row r="104" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A104" s="92"/>
       <c r="B104" s="92"/>
       <c r="C104" s="92"/>
@@ -10237,8 +10559,11 @@
       <c r="BR104" s="92"/>
       <c r="BS104" s="92"/>
       <c r="BT104" s="92"/>
-    </row>
-    <row r="105" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU104" s="92"/>
+      <c r="BV104" s="92"/>
+      <c r="BW104" s="92"/>
+    </row>
+    <row r="105" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A105" s="92"/>
       <c r="B105" s="92"/>
       <c r="C105" s="92"/>
@@ -10311,8 +10636,11 @@
       <c r="BR105" s="92"/>
       <c r="BS105" s="92"/>
       <c r="BT105" s="92"/>
-    </row>
-    <row r="106" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU105" s="92"/>
+      <c r="BV105" s="92"/>
+      <c r="BW105" s="92"/>
+    </row>
+    <row r="106" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A106" s="92"/>
       <c r="B106" s="92"/>
       <c r="C106" s="92"/>
@@ -10385,8 +10713,11 @@
       <c r="BR106" s="92"/>
       <c r="BS106" s="92"/>
       <c r="BT106" s="92"/>
-    </row>
-    <row r="107" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU106" s="92"/>
+      <c r="BV106" s="92"/>
+      <c r="BW106" s="92"/>
+    </row>
+    <row r="107" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A107" s="92"/>
       <c r="B107" s="92"/>
       <c r="C107" s="92"/>
@@ -10459,8 +10790,11 @@
       <c r="BR107" s="92"/>
       <c r="BS107" s="92"/>
       <c r="BT107" s="92"/>
-    </row>
-    <row r="108" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU107" s="92"/>
+      <c r="BV107" s="92"/>
+      <c r="BW107" s="92"/>
+    </row>
+    <row r="108" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A108" s="92"/>
       <c r="B108" s="92"/>
       <c r="C108" s="92"/>
@@ -10533,8 +10867,11 @@
       <c r="BR108" s="92"/>
       <c r="BS108" s="92"/>
       <c r="BT108" s="92"/>
-    </row>
-    <row r="109" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU108" s="92"/>
+      <c r="BV108" s="92"/>
+      <c r="BW108" s="92"/>
+    </row>
+    <row r="109" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A109" s="92"/>
       <c r="B109" s="92"/>
       <c r="C109" s="92"/>
@@ -10607,8 +10944,11 @@
       <c r="BR109" s="92"/>
       <c r="BS109" s="92"/>
       <c r="BT109" s="92"/>
-    </row>
-    <row r="110" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU109" s="92"/>
+      <c r="BV109" s="92"/>
+      <c r="BW109" s="92"/>
+    </row>
+    <row r="110" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A110" s="92"/>
       <c r="B110" s="92"/>
       <c r="C110" s="92"/>
@@ -10681,8 +11021,11 @@
       <c r="BR110" s="92"/>
       <c r="BS110" s="92"/>
       <c r="BT110" s="92"/>
-    </row>
-    <row r="111" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="BU110" s="92"/>
+      <c r="BV110" s="92"/>
+      <c r="BW110" s="92"/>
+    </row>
+    <row r="111" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A111" s="92"/>
       <c r="B111" s="92"/>
       <c r="C111" s="92"/>
@@ -10755,15 +11098,19 @@
       <c r="BR111" s="92"/>
       <c r="BS111" s="92"/>
       <c r="BT111" s="92"/>
+      <c r="BU111" s="92"/>
+      <c r="BV111" s="92"/>
+      <c r="BW111" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="BR2:BS2"/>
     <mergeCell ref="AY2:AZ2"/>
     <mergeCell ref="BA2:BB2"/>
     <mergeCell ref="BC2:BD2"/>
-    <mergeCell ref="BE2:BF2"/>
-    <mergeCell ref="BM2:BN2"/>
-    <mergeCell ref="BO2:BP2"/>
+    <mergeCell ref="BE2:BG2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BP2:BQ2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AL2:AN2"/>
@@ -10778,13 +11125,13 @@
     <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM118"/>
+  <dimension ref="A1:BO118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
@@ -10797,17 +11144,17 @@
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="62" width="5" style="1" customWidth="1"/>
-    <col min="63" max="63" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="200.7109375" style="1" customWidth="1"/>
-    <col min="66" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="64" width="5" style="1" customWidth="1"/>
+    <col min="65" max="65" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="200.7109375" style="1" customWidth="1"/>
+    <col min="68" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:67" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92"/>
       <c r="B1" s="94" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C1" s="92"/>
       <c r="D1" s="92"/>
@@ -10872,8 +11219,10 @@
       <c r="BK1" s="92"/>
       <c r="BL1" s="92"/>
       <c r="BM1" s="92"/>
-    </row>
-    <row r="2" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BN1" s="92"/>
+      <c r="BO1" s="92"/>
+    </row>
+    <row r="2" spans="1:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="92"/>
@@ -10988,43 +11337,47 @@
       </c>
       <c r="AW2" s="64"/>
       <c r="AX2" s="63">
+        <v>2154</v>
+      </c>
+      <c r="AY2" s="64"/>
+      <c r="AZ2" s="63">
         <v>2160</v>
       </c>
-      <c r="AY2" s="64"/>
-      <c r="AZ2" s="46">
+      <c r="BA2" s="64"/>
+      <c r="BB2" s="46">
         <v>2162</v>
       </c>
-      <c r="BA2" s="46">
+      <c r="BC2" s="46">
         <v>205</v>
       </c>
-      <c r="BB2" s="46">
+      <c r="BD2" s="46">
         <v>215</v>
       </c>
-      <c r="BC2" s="46">
+      <c r="BE2" s="46">
         <v>225</v>
       </c>
-      <c r="BD2" s="46">
+      <c r="BF2" s="46">
         <v>234</v>
       </c>
-      <c r="BE2" s="46">
+      <c r="BG2" s="46">
         <v>235</v>
       </c>
-      <c r="BF2" s="63">
+      <c r="BH2" s="63">
         <v>236</v>
       </c>
-      <c r="BG2" s="64"/>
-      <c r="BH2" s="63">
+      <c r="BI2" s="64"/>
+      <c r="BJ2" s="63">
         <v>245</v>
       </c>
-      <c r="BI2" s="64"/>
-      <c r="BJ2" s="46">
+      <c r="BK2" s="64"/>
+      <c r="BL2" s="46">
         <v>351</v>
       </c>
-      <c r="BK2" s="92"/>
-      <c r="BL2" s="92"/>
       <c r="BM2" s="92"/>
-    </row>
-    <row r="3" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BN2" s="92"/>
+      <c r="BO2" s="92"/>
+    </row>
+    <row r="3" spans="1:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -11036,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="47">
         <v>1</v>
@@ -11093,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="X3" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" s="65">
         <v>1</v>
@@ -11108,7 +11461,7 @@
         <v>2</v>
       </c>
       <c r="AC3" s="65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD3" s="66">
         <v>4</v>
@@ -11147,7 +11500,7 @@
         <v>1</v>
       </c>
       <c r="AP3" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AQ3" s="65">
         <v>1</v>
@@ -11156,7 +11509,7 @@
         <v>2</v>
       </c>
       <c r="AS3" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT3" s="65">
         <v>1</v>
@@ -11174,16 +11527,16 @@
         <v>80</v>
       </c>
       <c r="AY3" s="66">
+        <v>5</v>
+      </c>
+      <c r="AZ3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA3" s="66">
         <v>4</v>
       </c>
-      <c r="AZ3" s="47">
+      <c r="BB3" s="47">
         <v>1.2</v>
-      </c>
-      <c r="BA3" s="47">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="47">
-        <v>1</v>
       </c>
       <c r="BC3" s="47">
         <v>1</v>
@@ -11194,11 +11547,11 @@
       <c r="BE3" s="47">
         <v>1</v>
       </c>
-      <c r="BF3" s="65">
+      <c r="BF3" s="47">
         <v>1</v>
       </c>
-      <c r="BG3" s="66">
-        <v>2</v>
+      <c r="BG3" s="47">
+        <v>1</v>
       </c>
       <c r="BH3" s="65">
         <v>1</v>
@@ -11206,24 +11559,30 @@
       <c r="BI3" s="66">
         <v>2</v>
       </c>
-      <c r="BJ3" s="47">
+      <c r="BJ3" s="65">
         <v>1</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BK3" s="66">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="47">
         <v>1</v>
       </c>
-      <c r="BL3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM3" s="92"/>
-    </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BM3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BO3" s="92"/>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="92"/>
       <c r="B4" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -11273,30 +11632,32 @@
       <c r="AW4" s="51"/>
       <c r="AX4" s="32"/>
       <c r="AY4" s="51"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="51"/>
       <c r="BB4" s="34"/>
       <c r="BC4" s="34"/>
       <c r="BD4" s="34"/>
       <c r="BE4" s="34"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="51"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
       <c r="BH4" s="32"/>
       <c r="BI4" s="51"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="BL4" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="BM4" s="92"/>
-    </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ4" s="32"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="34"/>
+      <c r="BM4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN4" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO4" s="92"/>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="16"/>
       <c r="C5" s="85" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -11346,30 +11707,32 @@
       <c r="AW5" s="52"/>
       <c r="AX5" s="33"/>
       <c r="AY5" s="52"/>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="35"/>
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="52"/>
       <c r="BB5" s="35"/>
       <c r="BC5" s="35"/>
       <c r="BD5" s="35"/>
       <c r="BE5" s="35"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="52"/>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="35"/>
       <c r="BH5" s="33"/>
       <c r="BI5" s="52"/>
-      <c r="BJ5" s="35"/>
-      <c r="BK5" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL5" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM5" s="92"/>
-    </row>
-    <row r="6" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BJ5" s="33"/>
+      <c r="BK5" s="52"/>
+      <c r="BL5" s="35"/>
+      <c r="BM5" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="BN5" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO5" s="92"/>
+    </row>
+    <row r="6" spans="1:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="92"/>
       <c r="B6" s="17"/>
       <c r="C6" s="87" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
@@ -11419,32 +11782,34 @@
       <c r="AW6" s="54"/>
       <c r="AX6" s="53"/>
       <c r="AY6" s="54"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="36"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="54"/>
       <c r="BB6" s="36"/>
       <c r="BC6" s="36"/>
       <c r="BD6" s="36"/>
       <c r="BE6" s="36"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="54"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
       <c r="BH6" s="53"/>
       <c r="BI6" s="54"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL6" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="BM6" s="92"/>
-    </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="54"/>
+      <c r="BL6" s="36"/>
+      <c r="BM6" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN6" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="BO6" s="92"/>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -11494,30 +11859,32 @@
       <c r="AW7" s="57"/>
       <c r="AX7" s="37"/>
       <c r="AY7" s="57"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
+      <c r="AZ7" s="37"/>
+      <c r="BA7" s="57"/>
       <c r="BB7" s="39"/>
       <c r="BC7" s="39"/>
       <c r="BD7" s="39"/>
       <c r="BE7" s="39"/>
-      <c r="BF7" s="37"/>
-      <c r="BG7" s="57"/>
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
       <c r="BH7" s="37"/>
       <c r="BI7" s="57"/>
-      <c r="BJ7" s="39"/>
-      <c r="BK7" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="BL7" s="88" t="s">
-        <v>219</v>
-      </c>
-      <c r="BM7" s="92"/>
-    </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ7" s="37"/>
+      <c r="BK7" s="57"/>
+      <c r="BL7" s="39"/>
+      <c r="BM7" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="BN7" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="BO7" s="92"/>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="92"/>
       <c r="B8" s="30"/>
       <c r="C8" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40"/>
@@ -11567,30 +11934,32 @@
       <c r="AW8" s="58"/>
       <c r="AX8" s="38"/>
       <c r="AY8" s="58"/>
-      <c r="AZ8" s="40"/>
-      <c r="BA8" s="40"/>
-      <c r="BB8" s="42"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="58"/>
+      <c r="BB8" s="40"/>
       <c r="BC8" s="40"/>
       <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="61"/>
-      <c r="BG8" s="58"/>
-      <c r="BH8" s="38"/>
+      <c r="BE8" s="40"/>
+      <c r="BF8" s="42"/>
+      <c r="BG8" s="42"/>
+      <c r="BH8" s="61"/>
       <c r="BI8" s="58"/>
-      <c r="BJ8" s="40"/>
-      <c r="BK8" s="89" t="s">
-        <v>152</v>
-      </c>
-      <c r="BL8" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="BM8" s="92"/>
-    </row>
-    <row r="9" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="58"/>
+      <c r="BL8" s="40"/>
+      <c r="BM8" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN8" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="BO8" s="92"/>
+    </row>
+    <row r="9" spans="1:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="92"/>
       <c r="B9" s="31"/>
       <c r="C9" s="91" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
@@ -11640,32 +12009,34 @@
       <c r="AW9" s="60"/>
       <c r="AX9" s="59"/>
       <c r="AY9" s="60"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="67"/>
+      <c r="AZ9" s="59"/>
+      <c r="BA9" s="60"/>
+      <c r="BB9" s="41"/>
       <c r="BC9" s="41"/>
       <c r="BD9" s="67"/>
-      <c r="BE9" s="67"/>
-      <c r="BF9" s="78"/>
-      <c r="BG9" s="60"/>
-      <c r="BH9" s="59"/>
+      <c r="BE9" s="41"/>
+      <c r="BF9" s="67"/>
+      <c r="BG9" s="67"/>
+      <c r="BH9" s="78"/>
       <c r="BI9" s="60"/>
-      <c r="BJ9" s="41"/>
-      <c r="BK9" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="BL9" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="BM9" s="92"/>
-    </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ9" s="59"/>
+      <c r="BK9" s="60"/>
+      <c r="BL9" s="41"/>
+      <c r="BM9" s="90" t="s">
+        <v>154</v>
+      </c>
+      <c r="BN9" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="BO9" s="92"/>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="92"/>
       <c r="B10" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -11715,30 +12086,32 @@
       <c r="AW10" s="51"/>
       <c r="AX10" s="80"/>
       <c r="AY10" s="51"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="48"/>
+      <c r="AZ10" s="80"/>
+      <c r="BA10" s="51"/>
       <c r="BB10" s="34"/>
-      <c r="BC10" s="34"/>
+      <c r="BC10" s="48"/>
       <c r="BD10" s="34"/>
       <c r="BE10" s="34"/>
-      <c r="BF10" s="32"/>
-      <c r="BG10" s="51"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
       <c r="BH10" s="32"/>
-      <c r="BI10" s="81"/>
-      <c r="BJ10" s="34"/>
-      <c r="BK10" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL10" s="83" t="s">
-        <v>222</v>
-      </c>
-      <c r="BM10" s="92"/>
-    </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BI10" s="51"/>
+      <c r="BJ10" s="32"/>
+      <c r="BK10" s="81"/>
+      <c r="BL10" s="34"/>
+      <c r="BM10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BN10" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="BO10" s="92"/>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="16"/>
       <c r="C11" s="85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -11798,40 +12171,42 @@
       </c>
       <c r="AV11" s="33"/>
       <c r="AW11" s="52"/>
-      <c r="AX11" s="61"/>
+      <c r="AX11" s="33"/>
       <c r="AY11" s="52"/>
-      <c r="AZ11" s="35"/>
-      <c r="BA11" s="82">
-        <v>2</v>
-      </c>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="52"/>
       <c r="BB11" s="35"/>
       <c r="BC11" s="82">
+        <v>2</v>
+      </c>
+      <c r="BD11" s="35"/>
+      <c r="BE11" s="82">
         <v>5</v>
       </c>
-      <c r="BD11" s="35"/>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="70">
+      <c r="BF11" s="35"/>
+      <c r="BG11" s="35"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="52"/>
+      <c r="BJ11" s="70">
         <v>5</v>
       </c>
-      <c r="BI11" s="72">
+      <c r="BK11" s="72">
         <v>5</v>
       </c>
-      <c r="BJ11" s="35"/>
-      <c r="BK11" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="BL11" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="BM11" s="92"/>
-    </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BL11" s="35"/>
+      <c r="BM11" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN11" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO11" s="92"/>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="92"/>
       <c r="B12" s="16"/>
       <c r="C12" s="85" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -11881,30 +12256,32 @@
       <c r="AW12" s="52"/>
       <c r="AX12" s="33"/>
       <c r="AY12" s="52"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="35"/>
-      <c r="BB12" s="35"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="42"/>
       <c r="BC12" s="35"/>
       <c r="BD12" s="35"/>
       <c r="BE12" s="35"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="52"/>
+      <c r="BF12" s="35"/>
+      <c r="BG12" s="35"/>
       <c r="BH12" s="33"/>
       <c r="BI12" s="52"/>
-      <c r="BJ12" s="35"/>
-      <c r="BK12" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="BL12" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM12" s="92"/>
-    </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="35"/>
+      <c r="BM12" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN12" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO12" s="92"/>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="92"/>
       <c r="B13" s="16"/>
       <c r="C13" s="85" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -11958,30 +12335,32 @@
       <c r="AW13" s="52"/>
       <c r="AX13" s="33"/>
       <c r="AY13" s="52"/>
-      <c r="AZ13" s="35"/>
-      <c r="BA13" s="35"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="52"/>
       <c r="BB13" s="35"/>
       <c r="BC13" s="35"/>
       <c r="BD13" s="35"/>
       <c r="BE13" s="35"/>
-      <c r="BF13" s="33"/>
-      <c r="BG13" s="52"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="35"/>
       <c r="BH13" s="33"/>
       <c r="BI13" s="52"/>
-      <c r="BJ13" s="35"/>
-      <c r="BK13" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="BL13" s="85" t="s">
-        <v>225</v>
-      </c>
-      <c r="BM13" s="92"/>
-    </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="52"/>
+      <c r="BL13" s="35"/>
+      <c r="BM13" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN13" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="BO13" s="92"/>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="92"/>
       <c r="B14" s="16"/>
       <c r="C14" s="85" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -12029,32 +12408,34 @@
       <c r="AU14" s="52"/>
       <c r="AV14" s="61"/>
       <c r="AW14" s="52"/>
-      <c r="AX14" s="33"/>
+      <c r="AX14" s="61"/>
       <c r="AY14" s="52"/>
-      <c r="AZ14" s="35"/>
-      <c r="BA14" s="35"/>
+      <c r="AZ14" s="33"/>
+      <c r="BA14" s="52"/>
       <c r="BB14" s="35"/>
       <c r="BC14" s="35"/>
       <c r="BD14" s="35"/>
       <c r="BE14" s="35"/>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="52"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="35"/>
       <c r="BH14" s="33"/>
       <c r="BI14" s="52"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL14" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="BM14" s="92"/>
-    </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ14" s="33"/>
+      <c r="BK14" s="52"/>
+      <c r="BL14" s="42"/>
+      <c r="BM14" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN14" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="BO14" s="92"/>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="16"/>
       <c r="C15" s="85" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
@@ -12116,30 +12497,32 @@
       <c r="AW15" s="52"/>
       <c r="AX15" s="33"/>
       <c r="AY15" s="52"/>
-      <c r="AZ15" s="35"/>
-      <c r="BA15" s="35"/>
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="52"/>
       <c r="BB15" s="35"/>
       <c r="BC15" s="35"/>
       <c r="BD15" s="35"/>
       <c r="BE15" s="35"/>
-      <c r="BF15" s="33"/>
-      <c r="BG15" s="52"/>
+      <c r="BF15" s="35"/>
+      <c r="BG15" s="35"/>
       <c r="BH15" s="33"/>
       <c r="BI15" s="52"/>
-      <c r="BJ15" s="35"/>
-      <c r="BK15" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="BL15" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="BM15" s="92"/>
-    </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ15" s="33"/>
+      <c r="BK15" s="52"/>
+      <c r="BL15" s="35"/>
+      <c r="BM15" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN15" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO15" s="92"/>
+    </row>
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="92"/>
       <c r="B16" s="16"/>
       <c r="C16" s="85" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -12195,32 +12578,34 @@
       <c r="AU16" s="52"/>
       <c r="AV16" s="33"/>
       <c r="AW16" s="52"/>
-      <c r="AX16" s="61"/>
+      <c r="AX16" s="33"/>
       <c r="AY16" s="52"/>
-      <c r="AZ16" s="35"/>
-      <c r="BA16" s="35"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="52"/>
       <c r="BB16" s="35"/>
       <c r="BC16" s="35"/>
       <c r="BD16" s="35"/>
       <c r="BE16" s="35"/>
-      <c r="BF16" s="33"/>
-      <c r="BG16" s="52"/>
+      <c r="BF16" s="35"/>
+      <c r="BG16" s="35"/>
       <c r="BH16" s="33"/>
       <c r="BI16" s="52"/>
-      <c r="BJ16" s="35"/>
-      <c r="BK16" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL16" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="BM16" s="92"/>
-    </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ16" s="33"/>
+      <c r="BK16" s="52"/>
+      <c r="BL16" s="35"/>
+      <c r="BM16" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN16" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="BO16" s="92"/>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" s="92"/>
       <c r="B17" s="16"/>
       <c r="C17" s="85" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -12270,32 +12655,34 @@
       <c r="AU17" s="52"/>
       <c r="AV17" s="33"/>
       <c r="AW17" s="52"/>
-      <c r="AX17" s="33"/>
+      <c r="AX17" s="61"/>
       <c r="AY17" s="52"/>
-      <c r="AZ17" s="35"/>
-      <c r="BA17" s="35"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="52"/>
       <c r="BB17" s="35"/>
       <c r="BC17" s="35"/>
       <c r="BD17" s="35"/>
       <c r="BE17" s="35"/>
-      <c r="BF17" s="33"/>
-      <c r="BG17" s="52"/>
+      <c r="BF17" s="35"/>
+      <c r="BG17" s="35"/>
       <c r="BH17" s="33"/>
       <c r="BI17" s="52"/>
-      <c r="BJ17" s="35"/>
-      <c r="BK17" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL17" s="85" t="s">
-        <v>229</v>
-      </c>
-      <c r="BM17" s="92"/>
-    </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ17" s="33"/>
+      <c r="BK17" s="52"/>
+      <c r="BL17" s="35"/>
+      <c r="BM17" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN17" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO17" s="92"/>
+    </row>
+    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" s="92"/>
       <c r="B18" s="16"/>
       <c r="C18" s="85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -12360,35 +12747,37 @@
       <c r="AV18" s="33"/>
       <c r="AW18" s="52"/>
       <c r="AX18" s="61"/>
-      <c r="AY18" s="62"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="35"/>
-      <c r="BB18" s="35"/>
-      <c r="BC18" s="82">
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="62"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="35"/>
+      <c r="BD18" s="35"/>
+      <c r="BE18" s="82">
         <v>8</v>
       </c>
-      <c r="BD18" s="35"/>
-      <c r="BE18" s="35"/>
-      <c r="BF18" s="61"/>
-      <c r="BG18" s="62"/>
-      <c r="BH18" s="70">
+      <c r="BF18" s="35"/>
+      <c r="BG18" s="35"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="62"/>
+      <c r="BJ18" s="70">
         <v>8</v>
       </c>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="35"/>
-      <c r="BK18" s="84" t="s">
-        <v>163</v>
-      </c>
-      <c r="BL18" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="BM18" s="92"/>
-    </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BK18" s="52"/>
+      <c r="BL18" s="35"/>
+      <c r="BM18" s="84" t="s">
+        <v>164</v>
+      </c>
+      <c r="BN18" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO18" s="92"/>
+    </row>
+    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" s="92"/>
       <c r="B19" s="16"/>
       <c r="C19" s="85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="35"/>
@@ -12437,31 +12826,33 @@
       <c r="AV19" s="33"/>
       <c r="AW19" s="52"/>
       <c r="AX19" s="61"/>
-      <c r="AY19" s="62"/>
-      <c r="AZ19" s="42"/>
-      <c r="BA19" s="42"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="62"/>
       <c r="BB19" s="42"/>
       <c r="BC19" s="42"/>
       <c r="BD19" s="42"/>
       <c r="BE19" s="42"/>
-      <c r="BF19" s="61"/>
-      <c r="BG19" s="62"/>
+      <c r="BF19" s="42"/>
+      <c r="BG19" s="42"/>
       <c r="BH19" s="61"/>
       <c r="BI19" s="62"/>
-      <c r="BJ19" s="35"/>
-      <c r="BK19" s="84" t="s">
-        <v>164</v>
-      </c>
-      <c r="BL19" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM19" s="92"/>
-    </row>
-    <row r="20" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BJ19" s="61"/>
+      <c r="BK19" s="62"/>
+      <c r="BL19" s="35"/>
+      <c r="BM19" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="BN19" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="BO19" s="92"/>
+    </row>
+    <row r="20" spans="1:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="92"/>
       <c r="B20" s="17"/>
       <c r="C20" s="87" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D20" s="98">
         <v>13</v>
@@ -12525,36 +12916,38 @@
       </c>
       <c r="AV20" s="53"/>
       <c r="AW20" s="54"/>
-      <c r="AX20" s="69">
+      <c r="AX20" s="53"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="69">
         <v>1</v>
       </c>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="36"/>
-      <c r="BA20" s="36"/>
+      <c r="BA20" s="54"/>
       <c r="BB20" s="36"/>
       <c r="BC20" s="36"/>
       <c r="BD20" s="36"/>
       <c r="BE20" s="36"/>
-      <c r="BF20" s="53"/>
-      <c r="BG20" s="54"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
       <c r="BH20" s="53"/>
       <c r="BI20" s="54"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="BL20" s="87" t="s">
-        <v>232</v>
-      </c>
-      <c r="BM20" s="92"/>
-    </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ20" s="53"/>
+      <c r="BK20" s="54"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN20" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="BO20" s="92"/>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A21" s="92"/>
       <c r="B21" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -12604,30 +12997,32 @@
       <c r="AW21" s="57"/>
       <c r="AX21" s="37"/>
       <c r="AY21" s="57"/>
-      <c r="AZ21" s="39"/>
-      <c r="BA21" s="39"/>
-      <c r="BB21" s="48"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="57"/>
+      <c r="BB21" s="39"/>
       <c r="BC21" s="39"/>
-      <c r="BD21" s="39"/>
+      <c r="BD21" s="48"/>
       <c r="BE21" s="39"/>
-      <c r="BF21" s="37"/>
-      <c r="BG21" s="57"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="39"/>
       <c r="BH21" s="37"/>
       <c r="BI21" s="57"/>
-      <c r="BJ21" s="39"/>
-      <c r="BK21" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="BL21" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="BM21" s="92"/>
-    </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ21" s="37"/>
+      <c r="BK21" s="57"/>
+      <c r="BL21" s="39"/>
+      <c r="BM21" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN21" s="88" t="s">
+        <v>234</v>
+      </c>
+      <c r="BO21" s="92"/>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" s="92"/>
       <c r="B22" s="30"/>
       <c r="C22" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -12677,30 +13072,32 @@
       <c r="AW22" s="58"/>
       <c r="AX22" s="38"/>
       <c r="AY22" s="58"/>
-      <c r="AZ22" s="40"/>
-      <c r="BA22" s="40"/>
-      <c r="BB22" s="99"/>
+      <c r="AZ22" s="38"/>
+      <c r="BA22" s="58"/>
+      <c r="BB22" s="40"/>
       <c r="BC22" s="40"/>
-      <c r="BD22" s="40"/>
+      <c r="BD22" s="99"/>
       <c r="BE22" s="40"/>
-      <c r="BF22" s="38"/>
-      <c r="BG22" s="58"/>
+      <c r="BF22" s="40"/>
+      <c r="BG22" s="40"/>
       <c r="BH22" s="38"/>
       <c r="BI22" s="58"/>
-      <c r="BJ22" s="40"/>
-      <c r="BK22" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="BL22" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="BM22" s="92"/>
-    </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="58"/>
+      <c r="BL22" s="40"/>
+      <c r="BM22" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="BN22" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="BO22" s="92"/>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" s="92"/>
       <c r="B23" s="30"/>
       <c r="C23" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -12750,30 +13147,32 @@
       <c r="AW23" s="58"/>
       <c r="AX23" s="38"/>
       <c r="AY23" s="58"/>
-      <c r="AZ23" s="40"/>
-      <c r="BA23" s="40"/>
-      <c r="BB23" s="99"/>
+      <c r="AZ23" s="38"/>
+      <c r="BA23" s="58"/>
+      <c r="BB23" s="40"/>
       <c r="BC23" s="40"/>
-      <c r="BD23" s="40"/>
+      <c r="BD23" s="99"/>
       <c r="BE23" s="40"/>
-      <c r="BF23" s="38"/>
-      <c r="BG23" s="58"/>
+      <c r="BF23" s="40"/>
+      <c r="BG23" s="40"/>
       <c r="BH23" s="38"/>
       <c r="BI23" s="58"/>
-      <c r="BJ23" s="40"/>
-      <c r="BK23" s="89" t="s">
-        <v>169</v>
-      </c>
-      <c r="BL23" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="BM23" s="92"/>
-    </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="58"/>
+      <c r="BL23" s="40"/>
+      <c r="BM23" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN23" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO23" s="92"/>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" s="92"/>
       <c r="B24" s="30"/>
       <c r="C24" s="25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -12823,30 +13222,32 @@
       <c r="AW24" s="58"/>
       <c r="AX24" s="38"/>
       <c r="AY24" s="58"/>
-      <c r="AZ24" s="40"/>
-      <c r="BA24" s="40"/>
-      <c r="BB24" s="99"/>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="58"/>
+      <c r="BB24" s="40"/>
       <c r="BC24" s="40"/>
-      <c r="BD24" s="40"/>
+      <c r="BD24" s="99"/>
       <c r="BE24" s="40"/>
-      <c r="BF24" s="38"/>
-      <c r="BG24" s="58"/>
+      <c r="BF24" s="40"/>
+      <c r="BG24" s="40"/>
       <c r="BH24" s="38"/>
       <c r="BI24" s="58"/>
-      <c r="BJ24" s="40"/>
-      <c r="BK24" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL24" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="BM24" s="92"/>
-    </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="58"/>
+      <c r="BL24" s="40"/>
+      <c r="BM24" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN24" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO24" s="92"/>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A25" s="92"/>
       <c r="B25" s="30"/>
       <c r="C25" s="25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -12896,30 +13297,32 @@
       <c r="AW25" s="58"/>
       <c r="AX25" s="38"/>
       <c r="AY25" s="58"/>
-      <c r="AZ25" s="40"/>
-      <c r="BA25" s="40"/>
-      <c r="BB25" s="99"/>
+      <c r="AZ25" s="38"/>
+      <c r="BA25" s="58"/>
+      <c r="BB25" s="40"/>
       <c r="BC25" s="40"/>
-      <c r="BD25" s="40"/>
+      <c r="BD25" s="99"/>
       <c r="BE25" s="40"/>
-      <c r="BF25" s="38"/>
-      <c r="BG25" s="58"/>
+      <c r="BF25" s="40"/>
+      <c r="BG25" s="40"/>
       <c r="BH25" s="38"/>
       <c r="BI25" s="58"/>
-      <c r="BJ25" s="40"/>
-      <c r="BK25" s="89" t="s">
-        <v>171</v>
-      </c>
-      <c r="BL25" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="BM25" s="92"/>
-    </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ25" s="38"/>
+      <c r="BK25" s="58"/>
+      <c r="BL25" s="40"/>
+      <c r="BM25" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN25" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="BO25" s="92"/>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" s="92"/>
       <c r="B26" s="30"/>
       <c r="C26" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
@@ -12969,30 +13372,32 @@
       <c r="AW26" s="58"/>
       <c r="AX26" s="38"/>
       <c r="AY26" s="58"/>
-      <c r="AZ26" s="40"/>
-      <c r="BA26" s="40"/>
+      <c r="AZ26" s="38"/>
+      <c r="BA26" s="58"/>
       <c r="BB26" s="40"/>
       <c r="BC26" s="40"/>
       <c r="BD26" s="40"/>
       <c r="BE26" s="40"/>
-      <c r="BF26" s="38"/>
-      <c r="BG26" s="58"/>
+      <c r="BF26" s="40"/>
+      <c r="BG26" s="40"/>
       <c r="BH26" s="38"/>
       <c r="BI26" s="58"/>
-      <c r="BJ26" s="40"/>
-      <c r="BK26" s="89" t="s">
-        <v>172</v>
-      </c>
-      <c r="BL26" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="BM26" s="92"/>
-    </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ26" s="38"/>
+      <c r="BK26" s="58"/>
+      <c r="BL26" s="40"/>
+      <c r="BM26" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN26" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="BO26" s="92"/>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="92"/>
       <c r="B27" s="30"/>
       <c r="C27" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
@@ -13042,30 +13447,32 @@
       <c r="AW27" s="58"/>
       <c r="AX27" s="38"/>
       <c r="AY27" s="58"/>
-      <c r="AZ27" s="40"/>
-      <c r="BA27" s="40"/>
+      <c r="AZ27" s="38"/>
+      <c r="BA27" s="58"/>
       <c r="BB27" s="40"/>
       <c r="BC27" s="40"/>
       <c r="BD27" s="40"/>
       <c r="BE27" s="40"/>
-      <c r="BF27" s="38"/>
-      <c r="BG27" s="58"/>
+      <c r="BF27" s="40"/>
+      <c r="BG27" s="40"/>
       <c r="BH27" s="38"/>
       <c r="BI27" s="58"/>
-      <c r="BJ27" s="40"/>
-      <c r="BK27" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="BL27" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="BM27" s="92"/>
-    </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ27" s="38"/>
+      <c r="BK27" s="58"/>
+      <c r="BL27" s="40"/>
+      <c r="BM27" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN27" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="BO27" s="92"/>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" s="92"/>
       <c r="B28" s="30"/>
       <c r="C28" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -13115,30 +13522,32 @@
       <c r="AW28" s="58"/>
       <c r="AX28" s="38"/>
       <c r="AY28" s="58"/>
-      <c r="AZ28" s="40"/>
-      <c r="BA28" s="40"/>
-      <c r="BB28" s="42"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="58"/>
+      <c r="BB28" s="40"/>
       <c r="BC28" s="40"/>
-      <c r="BD28" s="40"/>
+      <c r="BD28" s="42"/>
       <c r="BE28" s="40"/>
-      <c r="BF28" s="38"/>
-      <c r="BG28" s="58"/>
+      <c r="BF28" s="40"/>
+      <c r="BG28" s="40"/>
       <c r="BH28" s="38"/>
       <c r="BI28" s="58"/>
-      <c r="BJ28" s="40"/>
-      <c r="BK28" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="BL28" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="BM28" s="92"/>
-    </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="58"/>
+      <c r="BL28" s="40"/>
+      <c r="BM28" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN28" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="BO28" s="92"/>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A29" s="92"/>
       <c r="B29" s="30"/>
       <c r="C29" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -13188,30 +13597,32 @@
       <c r="AW29" s="58"/>
       <c r="AX29" s="38"/>
       <c r="AY29" s="58"/>
-      <c r="AZ29" s="40"/>
-      <c r="BA29" s="40"/>
-      <c r="BB29" s="99"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="58"/>
+      <c r="BB29" s="40"/>
       <c r="BC29" s="40"/>
-      <c r="BD29" s="40"/>
+      <c r="BD29" s="99"/>
       <c r="BE29" s="40"/>
-      <c r="BF29" s="38"/>
-      <c r="BG29" s="58"/>
+      <c r="BF29" s="40"/>
+      <c r="BG29" s="40"/>
       <c r="BH29" s="38"/>
       <c r="BI29" s="58"/>
-      <c r="BJ29" s="40"/>
-      <c r="BK29" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="BL29" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="BM29" s="92"/>
-    </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="58"/>
+      <c r="BL29" s="40"/>
+      <c r="BM29" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="BN29" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="BO29" s="92"/>
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" s="92"/>
       <c r="B30" s="30"/>
       <c r="C30" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -13261,30 +13672,32 @@
       <c r="AW30" s="58"/>
       <c r="AX30" s="38"/>
       <c r="AY30" s="58"/>
-      <c r="AZ30" s="40"/>
-      <c r="BA30" s="40"/>
-      <c r="BB30" s="99"/>
+      <c r="AZ30" s="38"/>
+      <c r="BA30" s="58"/>
+      <c r="BB30" s="40"/>
       <c r="BC30" s="40"/>
-      <c r="BD30" s="40"/>
+      <c r="BD30" s="99"/>
       <c r="BE30" s="40"/>
-      <c r="BF30" s="38"/>
-      <c r="BG30" s="58"/>
+      <c r="BF30" s="40"/>
+      <c r="BG30" s="40"/>
       <c r="BH30" s="38"/>
       <c r="BI30" s="58"/>
-      <c r="BJ30" s="40"/>
-      <c r="BK30" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL30" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="BM30" s="92"/>
-    </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ30" s="38"/>
+      <c r="BK30" s="58"/>
+      <c r="BL30" s="40"/>
+      <c r="BM30" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN30" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="BO30" s="92"/>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A31" s="92"/>
       <c r="B31" s="30"/>
       <c r="C31" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -13334,30 +13747,32 @@
       <c r="AW31" s="58"/>
       <c r="AX31" s="38"/>
       <c r="AY31" s="58"/>
-      <c r="AZ31" s="40"/>
-      <c r="BA31" s="40"/>
-      <c r="BB31" s="99"/>
+      <c r="AZ31" s="38"/>
+      <c r="BA31" s="58"/>
+      <c r="BB31" s="40"/>
       <c r="BC31" s="40"/>
-      <c r="BD31" s="40"/>
+      <c r="BD31" s="99"/>
       <c r="BE31" s="40"/>
-      <c r="BF31" s="38"/>
-      <c r="BG31" s="58"/>
+      <c r="BF31" s="40"/>
+      <c r="BG31" s="40"/>
       <c r="BH31" s="38"/>
       <c r="BI31" s="58"/>
-      <c r="BJ31" s="40"/>
-      <c r="BK31" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="BL31" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="BM31" s="92"/>
-    </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ31" s="38"/>
+      <c r="BK31" s="58"/>
+      <c r="BL31" s="40"/>
+      <c r="BM31" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="BN31" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="BO31" s="92"/>
+    </row>
+    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" s="92"/>
       <c r="B32" s="30"/>
       <c r="C32" s="25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -13407,30 +13822,32 @@
       <c r="AW32" s="58"/>
       <c r="AX32" s="38"/>
       <c r="AY32" s="58"/>
-      <c r="AZ32" s="40"/>
-      <c r="BA32" s="40"/>
+      <c r="AZ32" s="38"/>
+      <c r="BA32" s="58"/>
       <c r="BB32" s="40"/>
       <c r="BC32" s="40"/>
       <c r="BD32" s="40"/>
       <c r="BE32" s="40"/>
-      <c r="BF32" s="38"/>
-      <c r="BG32" s="58"/>
+      <c r="BF32" s="40"/>
+      <c r="BG32" s="40"/>
       <c r="BH32" s="38"/>
       <c r="BI32" s="58"/>
-      <c r="BJ32" s="40"/>
-      <c r="BK32" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="BL32" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="BM32" s="92"/>
-    </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ32" s="38"/>
+      <c r="BK32" s="58"/>
+      <c r="BL32" s="40"/>
+      <c r="BM32" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="BN32" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="BO32" s="92"/>
+    </row>
+    <row r="33" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A33" s="92"/>
       <c r="B33" s="30"/>
       <c r="C33" s="25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -13480,30 +13897,32 @@
       <c r="AW33" s="58"/>
       <c r="AX33" s="38"/>
       <c r="AY33" s="58"/>
-      <c r="AZ33" s="40"/>
-      <c r="BA33" s="40"/>
-      <c r="BB33" s="99"/>
+      <c r="AZ33" s="38"/>
+      <c r="BA33" s="58"/>
+      <c r="BB33" s="40"/>
       <c r="BC33" s="40"/>
-      <c r="BD33" s="40"/>
+      <c r="BD33" s="99"/>
       <c r="BE33" s="40"/>
-      <c r="BF33" s="38"/>
-      <c r="BG33" s="58"/>
+      <c r="BF33" s="40"/>
+      <c r="BG33" s="40"/>
       <c r="BH33" s="38"/>
       <c r="BI33" s="58"/>
-      <c r="BJ33" s="40"/>
-      <c r="BK33" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="BL33" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="BM33" s="92"/>
-    </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ33" s="38"/>
+      <c r="BK33" s="58"/>
+      <c r="BL33" s="40"/>
+      <c r="BM33" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="BN33" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="BO33" s="92"/>
+    </row>
+    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A34" s="92"/>
       <c r="B34" s="30"/>
       <c r="C34" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -13553,30 +13972,32 @@
       <c r="AW34" s="58"/>
       <c r="AX34" s="38"/>
       <c r="AY34" s="58"/>
-      <c r="AZ34" s="40"/>
-      <c r="BA34" s="40"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="58"/>
       <c r="BB34" s="40"/>
       <c r="BC34" s="40"/>
       <c r="BD34" s="40"/>
       <c r="BE34" s="40"/>
-      <c r="BF34" s="38"/>
-      <c r="BG34" s="58"/>
+      <c r="BF34" s="40"/>
+      <c r="BG34" s="40"/>
       <c r="BH34" s="38"/>
       <c r="BI34" s="58"/>
-      <c r="BJ34" s="40"/>
-      <c r="BK34" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="BL34" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="BM34" s="92"/>
-    </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ34" s="38"/>
+      <c r="BK34" s="58"/>
+      <c r="BL34" s="40"/>
+      <c r="BM34" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="BN34" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="BO34" s="92"/>
+    </row>
+    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A35" s="92"/>
       <c r="B35" s="30"/>
       <c r="C35" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -13626,30 +14047,32 @@
       <c r="AW35" s="58"/>
       <c r="AX35" s="38"/>
       <c r="AY35" s="58"/>
-      <c r="AZ35" s="40"/>
-      <c r="BA35" s="40"/>
-      <c r="BB35" s="99"/>
+      <c r="AZ35" s="38"/>
+      <c r="BA35" s="58"/>
+      <c r="BB35" s="40"/>
       <c r="BC35" s="40"/>
-      <c r="BD35" s="40"/>
+      <c r="BD35" s="99"/>
       <c r="BE35" s="40"/>
-      <c r="BF35" s="38"/>
-      <c r="BG35" s="58"/>
+      <c r="BF35" s="40"/>
+      <c r="BG35" s="40"/>
       <c r="BH35" s="38"/>
       <c r="BI35" s="58"/>
-      <c r="BJ35" s="40"/>
-      <c r="BK35" s="89" t="s">
-        <v>181</v>
-      </c>
-      <c r="BL35" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="BM35" s="92"/>
-    </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ35" s="38"/>
+      <c r="BK35" s="58"/>
+      <c r="BL35" s="40"/>
+      <c r="BM35" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="BN35" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="BO35" s="92"/>
+    </row>
+    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A36" s="92"/>
       <c r="B36" s="30"/>
       <c r="C36" s="25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -13699,30 +14122,32 @@
       <c r="AW36" s="58"/>
       <c r="AX36" s="38"/>
       <c r="AY36" s="58"/>
-      <c r="AZ36" s="40"/>
-      <c r="BA36" s="40"/>
-      <c r="BB36" s="42"/>
+      <c r="AZ36" s="38"/>
+      <c r="BA36" s="58"/>
+      <c r="BB36" s="40"/>
       <c r="BC36" s="40"/>
-      <c r="BD36" s="40"/>
+      <c r="BD36" s="42"/>
       <c r="BE36" s="40"/>
-      <c r="BF36" s="38"/>
-      <c r="BG36" s="58"/>
+      <c r="BF36" s="40"/>
+      <c r="BG36" s="40"/>
       <c r="BH36" s="38"/>
       <c r="BI36" s="58"/>
-      <c r="BJ36" s="40"/>
-      <c r="BK36" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL36" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="BM36" s="92"/>
-    </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ36" s="38"/>
+      <c r="BK36" s="58"/>
+      <c r="BL36" s="40"/>
+      <c r="BM36" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="BN36" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="BO36" s="92"/>
+    </row>
+    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A37" s="92"/>
       <c r="B37" s="30"/>
       <c r="C37" s="25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -13774,30 +14199,32 @@
       <c r="AW37" s="58"/>
       <c r="AX37" s="38"/>
       <c r="AY37" s="58"/>
-      <c r="AZ37" s="40"/>
-      <c r="BA37" s="40"/>
-      <c r="BB37" s="42"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="58"/>
+      <c r="BB37" s="40"/>
       <c r="BC37" s="40"/>
-      <c r="BD37" s="40"/>
+      <c r="BD37" s="42"/>
       <c r="BE37" s="40"/>
-      <c r="BF37" s="38"/>
-      <c r="BG37" s="58"/>
+      <c r="BF37" s="40"/>
+      <c r="BG37" s="40"/>
       <c r="BH37" s="38"/>
       <c r="BI37" s="58"/>
-      <c r="BJ37" s="40"/>
-      <c r="BK37" s="89" t="s">
-        <v>183</v>
-      </c>
-      <c r="BL37" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="BM37" s="92"/>
-    </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ37" s="38"/>
+      <c r="BK37" s="58"/>
+      <c r="BL37" s="40"/>
+      <c r="BM37" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="BN37" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="BO37" s="92"/>
+    </row>
+    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A38" s="92"/>
       <c r="B38" s="30"/>
       <c r="C38" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -13847,30 +14274,32 @@
       <c r="AW38" s="58"/>
       <c r="AX38" s="38"/>
       <c r="AY38" s="58"/>
-      <c r="AZ38" s="40"/>
-      <c r="BA38" s="40"/>
-      <c r="BB38" s="42"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="58"/>
+      <c r="BB38" s="40"/>
       <c r="BC38" s="40"/>
-      <c r="BD38" s="40"/>
+      <c r="BD38" s="42"/>
       <c r="BE38" s="40"/>
-      <c r="BF38" s="38"/>
-      <c r="BG38" s="58"/>
+      <c r="BF38" s="40"/>
+      <c r="BG38" s="40"/>
       <c r="BH38" s="38"/>
       <c r="BI38" s="58"/>
-      <c r="BJ38" s="40"/>
-      <c r="BK38" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="BL38" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="BM38" s="92"/>
-    </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ38" s="38"/>
+      <c r="BK38" s="58"/>
+      <c r="BL38" s="40"/>
+      <c r="BM38" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="BN38" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO38" s="92"/>
+    </row>
+    <row r="39" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A39" s="92"/>
       <c r="B39" s="30"/>
       <c r="C39" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -13919,31 +14348,33 @@
       <c r="AV39" s="38"/>
       <c r="AW39" s="58"/>
       <c r="AX39" s="105"/>
-      <c r="AY39" s="106"/>
-      <c r="AZ39" s="99"/>
-      <c r="BA39" s="99"/>
-      <c r="BB39" s="40"/>
-      <c r="BC39" s="40"/>
+      <c r="AY39" s="58"/>
+      <c r="AZ39" s="105"/>
+      <c r="BA39" s="106"/>
+      <c r="BB39" s="99"/>
+      <c r="BC39" s="99"/>
       <c r="BD39" s="40"/>
       <c r="BE39" s="40"/>
-      <c r="BF39" s="38"/>
-      <c r="BG39" s="58"/>
+      <c r="BF39" s="40"/>
+      <c r="BG39" s="40"/>
       <c r="BH39" s="38"/>
-      <c r="BI39" s="106"/>
-      <c r="BJ39" s="40"/>
-      <c r="BK39" s="89" t="s">
-        <v>185</v>
-      </c>
-      <c r="BL39" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="BM39" s="92"/>
-    </row>
-    <row r="40" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BI39" s="58"/>
+      <c r="BJ39" s="38"/>
+      <c r="BK39" s="106"/>
+      <c r="BL39" s="40"/>
+      <c r="BM39" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN39" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="BO39" s="92"/>
+    </row>
+    <row r="40" spans="1:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="92"/>
       <c r="B40" s="31"/>
       <c r="C40" s="91" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
@@ -13993,32 +14424,34 @@
       <c r="AW40" s="60"/>
       <c r="AX40" s="59"/>
       <c r="AY40" s="60"/>
-      <c r="AZ40" s="41"/>
-      <c r="BA40" s="41"/>
-      <c r="BB40" s="104"/>
+      <c r="AZ40" s="59"/>
+      <c r="BA40" s="60"/>
+      <c r="BB40" s="41"/>
       <c r="BC40" s="41"/>
-      <c r="BD40" s="41"/>
+      <c r="BD40" s="104"/>
       <c r="BE40" s="41"/>
-      <c r="BF40" s="59"/>
-      <c r="BG40" s="60"/>
+      <c r="BF40" s="41"/>
+      <c r="BG40" s="41"/>
       <c r="BH40" s="59"/>
       <c r="BI40" s="60"/>
-      <c r="BJ40" s="41"/>
-      <c r="BK40" s="90" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL40" s="91" t="s">
-        <v>252</v>
-      </c>
-      <c r="BM40" s="92"/>
-    </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ40" s="59"/>
+      <c r="BK40" s="60"/>
+      <c r="BL40" s="41"/>
+      <c r="BM40" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN40" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="BO40" s="92"/>
+    </row>
+    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A41" s="92"/>
       <c r="B41" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D41" s="34"/>
       <c r="E41" s="34"/>
@@ -14070,30 +14503,32 @@
       <c r="AW41" s="51"/>
       <c r="AX41" s="32"/>
       <c r="AY41" s="51"/>
-      <c r="AZ41" s="34"/>
-      <c r="BA41" s="34"/>
-      <c r="BB41" s="48"/>
+      <c r="AZ41" s="32"/>
+      <c r="BA41" s="51"/>
+      <c r="BB41" s="34"/>
       <c r="BC41" s="34"/>
-      <c r="BD41" s="34"/>
+      <c r="BD41" s="48"/>
       <c r="BE41" s="34"/>
-      <c r="BF41" s="32"/>
-      <c r="BG41" s="51"/>
+      <c r="BF41" s="34"/>
+      <c r="BG41" s="34"/>
       <c r="BH41" s="32"/>
       <c r="BI41" s="51"/>
-      <c r="BJ41" s="34"/>
-      <c r="BK41" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="BL41" s="83" t="s">
-        <v>253</v>
-      </c>
-      <c r="BM41" s="92"/>
-    </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ41" s="32"/>
+      <c r="BK41" s="51"/>
+      <c r="BL41" s="34"/>
+      <c r="BM41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN41" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="BO41" s="92"/>
+    </row>
+    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A42" s="92"/>
       <c r="B42" s="16"/>
       <c r="C42" s="85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -14143,30 +14578,32 @@
       <c r="AW42" s="52"/>
       <c r="AX42" s="33"/>
       <c r="AY42" s="52"/>
-      <c r="AZ42" s="35"/>
-      <c r="BA42" s="35"/>
-      <c r="BB42" s="99"/>
+      <c r="AZ42" s="33"/>
+      <c r="BA42" s="52"/>
+      <c r="BB42" s="35"/>
       <c r="BC42" s="35"/>
-      <c r="BD42" s="35"/>
+      <c r="BD42" s="99"/>
       <c r="BE42" s="35"/>
-      <c r="BF42" s="33"/>
-      <c r="BG42" s="52"/>
+      <c r="BF42" s="35"/>
+      <c r="BG42" s="35"/>
       <c r="BH42" s="33"/>
       <c r="BI42" s="52"/>
-      <c r="BJ42" s="35"/>
-      <c r="BK42" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="BL42" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="BM42" s="92"/>
-    </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ42" s="33"/>
+      <c r="BK42" s="52"/>
+      <c r="BL42" s="35"/>
+      <c r="BM42" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN42" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="BO42" s="92"/>
+    </row>
+    <row r="43" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A43" s="92"/>
       <c r="B43" s="16"/>
       <c r="C43" s="85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -14218,30 +14655,32 @@
       <c r="AW43" s="52"/>
       <c r="AX43" s="33"/>
       <c r="AY43" s="52"/>
-      <c r="AZ43" s="35"/>
-      <c r="BA43" s="35"/>
-      <c r="BB43" s="42"/>
+      <c r="AZ43" s="33"/>
+      <c r="BA43" s="52"/>
+      <c r="BB43" s="35"/>
       <c r="BC43" s="35"/>
-      <c r="BD43" s="35"/>
+      <c r="BD43" s="42"/>
       <c r="BE43" s="35"/>
-      <c r="BF43" s="33"/>
-      <c r="BG43" s="52"/>
+      <c r="BF43" s="35"/>
+      <c r="BG43" s="35"/>
       <c r="BH43" s="33"/>
       <c r="BI43" s="52"/>
-      <c r="BJ43" s="35"/>
-      <c r="BK43" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="BL43" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="BM43" s="92"/>
-    </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ43" s="33"/>
+      <c r="BK43" s="52"/>
+      <c r="BL43" s="35"/>
+      <c r="BM43" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN43" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO43" s="92"/>
+    </row>
+    <row r="44" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A44" s="92"/>
       <c r="B44" s="16"/>
       <c r="C44" s="85" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -14291,30 +14730,32 @@
       <c r="AW44" s="52"/>
       <c r="AX44" s="33"/>
       <c r="AY44" s="52"/>
-      <c r="AZ44" s="35"/>
-      <c r="BA44" s="35"/>
+      <c r="AZ44" s="33"/>
+      <c r="BA44" s="52"/>
       <c r="BB44" s="35"/>
       <c r="BC44" s="35"/>
       <c r="BD44" s="35"/>
       <c r="BE44" s="35"/>
-      <c r="BF44" s="33"/>
-      <c r="BG44" s="52"/>
+      <c r="BF44" s="35"/>
+      <c r="BG44" s="35"/>
       <c r="BH44" s="33"/>
       <c r="BI44" s="52"/>
-      <c r="BJ44" s="35"/>
-      <c r="BK44" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="BL44" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="BM44" s="92"/>
-    </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ44" s="33"/>
+      <c r="BK44" s="52"/>
+      <c r="BL44" s="35"/>
+      <c r="BM44" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN44" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="BO44" s="92"/>
+    </row>
+    <row r="45" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A45" s="92"/>
       <c r="B45" s="16"/>
       <c r="C45" s="85" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -14364,30 +14805,32 @@
       <c r="AW45" s="52"/>
       <c r="AX45" s="33"/>
       <c r="AY45" s="52"/>
-      <c r="AZ45" s="35"/>
-      <c r="BA45" s="35"/>
+      <c r="AZ45" s="33"/>
+      <c r="BA45" s="52"/>
       <c r="BB45" s="35"/>
       <c r="BC45" s="35"/>
       <c r="BD45" s="35"/>
       <c r="BE45" s="35"/>
-      <c r="BF45" s="33"/>
-      <c r="BG45" s="52"/>
+      <c r="BF45" s="35"/>
+      <c r="BG45" s="35"/>
       <c r="BH45" s="33"/>
       <c r="BI45" s="52"/>
-      <c r="BJ45" s="35"/>
-      <c r="BK45" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="BL45" s="85" t="s">
-        <v>257</v>
-      </c>
-      <c r="BM45" s="92"/>
-    </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ45" s="33"/>
+      <c r="BK45" s="52"/>
+      <c r="BL45" s="35"/>
+      <c r="BM45" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="BN45" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO45" s="92"/>
+    </row>
+    <row r="46" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A46" s="92"/>
       <c r="B46" s="16"/>
       <c r="C46" s="85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -14439,30 +14882,32 @@
       <c r="AW46" s="52"/>
       <c r="AX46" s="33"/>
       <c r="AY46" s="52"/>
-      <c r="AZ46" s="35"/>
-      <c r="BA46" s="35"/>
-      <c r="BB46" s="42"/>
+      <c r="AZ46" s="33"/>
+      <c r="BA46" s="52"/>
+      <c r="BB46" s="35"/>
       <c r="BC46" s="35"/>
-      <c r="BD46" s="35"/>
+      <c r="BD46" s="42"/>
       <c r="BE46" s="35"/>
-      <c r="BF46" s="33"/>
-      <c r="BG46" s="52"/>
+      <c r="BF46" s="35"/>
+      <c r="BG46" s="35"/>
       <c r="BH46" s="33"/>
       <c r="BI46" s="52"/>
-      <c r="BJ46" s="35"/>
-      <c r="BK46" s="84" t="s">
-        <v>193</v>
-      </c>
-      <c r="BL46" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="BM46" s="92"/>
-    </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ46" s="33"/>
+      <c r="BK46" s="52"/>
+      <c r="BL46" s="35"/>
+      <c r="BM46" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="BN46" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="BO46" s="92"/>
+    </row>
+    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A47" s="92"/>
       <c r="B47" s="16"/>
       <c r="C47" s="85" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -14512,30 +14957,32 @@
       <c r="AW47" s="52"/>
       <c r="AX47" s="33"/>
       <c r="AY47" s="52"/>
-      <c r="AZ47" s="35"/>
-      <c r="BA47" s="35"/>
+      <c r="AZ47" s="33"/>
+      <c r="BA47" s="52"/>
       <c r="BB47" s="35"/>
       <c r="BC47" s="35"/>
       <c r="BD47" s="35"/>
       <c r="BE47" s="35"/>
-      <c r="BF47" s="33"/>
-      <c r="BG47" s="52"/>
+      <c r="BF47" s="35"/>
+      <c r="BG47" s="35"/>
       <c r="BH47" s="33"/>
       <c r="BI47" s="52"/>
-      <c r="BJ47" s="35"/>
-      <c r="BK47" s="84" t="s">
-        <v>194</v>
-      </c>
-      <c r="BL47" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="BM47" s="92"/>
-    </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ47" s="33"/>
+      <c r="BK47" s="52"/>
+      <c r="BL47" s="35"/>
+      <c r="BM47" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="BN47" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="BO47" s="92"/>
+    </row>
+    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A48" s="92"/>
       <c r="B48" s="16"/>
       <c r="C48" s="85" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -14585,30 +15032,32 @@
       <c r="AW48" s="52"/>
       <c r="AX48" s="33"/>
       <c r="AY48" s="52"/>
-      <c r="AZ48" s="35"/>
-      <c r="BA48" s="35"/>
+      <c r="AZ48" s="33"/>
+      <c r="BA48" s="52"/>
       <c r="BB48" s="35"/>
       <c r="BC48" s="35"/>
       <c r="BD48" s="35"/>
       <c r="BE48" s="35"/>
-      <c r="BF48" s="33"/>
-      <c r="BG48" s="52"/>
+      <c r="BF48" s="35"/>
+      <c r="BG48" s="35"/>
       <c r="BH48" s="33"/>
       <c r="BI48" s="52"/>
-      <c r="BJ48" s="35"/>
-      <c r="BK48" s="84" t="s">
-        <v>195</v>
-      </c>
-      <c r="BL48" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM48" s="92"/>
-    </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ48" s="33"/>
+      <c r="BK48" s="52"/>
+      <c r="BL48" s="35"/>
+      <c r="BM48" s="84" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN48" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="BO48" s="92"/>
+    </row>
+    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A49" s="92"/>
       <c r="B49" s="16"/>
       <c r="C49" s="85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -14660,30 +15109,32 @@
       <c r="AW49" s="52"/>
       <c r="AX49" s="33"/>
       <c r="AY49" s="52"/>
-      <c r="AZ49" s="35"/>
-      <c r="BA49" s="35"/>
+      <c r="AZ49" s="33"/>
+      <c r="BA49" s="52"/>
       <c r="BB49" s="35"/>
       <c r="BC49" s="35"/>
       <c r="BD49" s="35"/>
       <c r="BE49" s="35"/>
-      <c r="BF49" s="33"/>
-      <c r="BG49" s="52"/>
+      <c r="BF49" s="35"/>
+      <c r="BG49" s="35"/>
       <c r="BH49" s="33"/>
       <c r="BI49" s="52"/>
-      <c r="BJ49" s="35"/>
-      <c r="BK49" s="84" t="s">
-        <v>196</v>
-      </c>
-      <c r="BL49" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM49" s="92"/>
-    </row>
-    <row r="50" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BJ49" s="33"/>
+      <c r="BK49" s="52"/>
+      <c r="BL49" s="35"/>
+      <c r="BM49" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN49" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO49" s="92"/>
+    </row>
+    <row r="50" spans="1:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="92"/>
       <c r="B50" s="17"/>
       <c r="C50" s="87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
@@ -14735,32 +15186,34 @@
       <c r="AW50" s="54"/>
       <c r="AX50" s="53"/>
       <c r="AY50" s="54"/>
-      <c r="AZ50" s="36"/>
-      <c r="BA50" s="36"/>
+      <c r="AZ50" s="53"/>
+      <c r="BA50" s="54"/>
       <c r="BB50" s="36"/>
       <c r="BC50" s="36"/>
       <c r="BD50" s="36"/>
       <c r="BE50" s="36"/>
-      <c r="BF50" s="53"/>
-      <c r="BG50" s="54"/>
+      <c r="BF50" s="36"/>
+      <c r="BG50" s="36"/>
       <c r="BH50" s="53"/>
       <c r="BI50" s="54"/>
-      <c r="BJ50" s="36"/>
-      <c r="BK50" s="86" t="s">
-        <v>197</v>
-      </c>
-      <c r="BL50" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="BM50" s="92"/>
-    </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ50" s="53"/>
+      <c r="BK50" s="54"/>
+      <c r="BL50" s="36"/>
+      <c r="BM50" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="BN50" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="BO50" s="92"/>
+    </row>
+    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A51" s="92"/>
       <c r="B51" s="29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C51" s="88" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="39"/>
@@ -14810,30 +15263,32 @@
       <c r="AW51" s="57"/>
       <c r="AX51" s="37"/>
       <c r="AY51" s="57"/>
-      <c r="AZ51" s="39"/>
-      <c r="BA51" s="39"/>
+      <c r="AZ51" s="37"/>
+      <c r="BA51" s="57"/>
       <c r="BB51" s="39"/>
       <c r="BC51" s="39"/>
-      <c r="BD51" s="48"/>
+      <c r="BD51" s="39"/>
       <c r="BE51" s="39"/>
-      <c r="BF51" s="80"/>
-      <c r="BG51" s="57"/>
-      <c r="BH51" s="37"/>
+      <c r="BF51" s="48"/>
+      <c r="BG51" s="39"/>
+      <c r="BH51" s="80"/>
       <c r="BI51" s="57"/>
-      <c r="BJ51" s="39"/>
-      <c r="BK51" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL51" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="BM51" s="92"/>
-    </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ51" s="37"/>
+      <c r="BK51" s="57"/>
+      <c r="BL51" s="39"/>
+      <c r="BM51" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="BN51" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="BO51" s="92"/>
+    </row>
+    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A52" s="92"/>
       <c r="B52" s="30"/>
       <c r="C52" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
@@ -14883,30 +15338,32 @@
       <c r="AW52" s="58"/>
       <c r="AX52" s="38"/>
       <c r="AY52" s="58"/>
-      <c r="AZ52" s="40"/>
-      <c r="BA52" s="40"/>
+      <c r="AZ52" s="38"/>
+      <c r="BA52" s="58"/>
       <c r="BB52" s="40"/>
       <c r="BC52" s="40"/>
       <c r="BD52" s="40"/>
       <c r="BE52" s="40"/>
-      <c r="BF52" s="38"/>
-      <c r="BG52" s="58"/>
+      <c r="BF52" s="40"/>
+      <c r="BG52" s="40"/>
       <c r="BH52" s="38"/>
       <c r="BI52" s="58"/>
-      <c r="BJ52" s="40"/>
-      <c r="BK52" s="89" t="s">
-        <v>200</v>
-      </c>
-      <c r="BL52" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="BM52" s="92"/>
-    </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ52" s="38"/>
+      <c r="BK52" s="58"/>
+      <c r="BL52" s="40"/>
+      <c r="BM52" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN52" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="BO52" s="92"/>
+    </row>
+    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A53" s="92"/>
       <c r="B53" s="30"/>
       <c r="C53" s="25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
@@ -14956,30 +15413,32 @@
       <c r="AW53" s="58"/>
       <c r="AX53" s="38"/>
       <c r="AY53" s="58"/>
-      <c r="AZ53" s="40"/>
-      <c r="BA53" s="40"/>
+      <c r="AZ53" s="38"/>
+      <c r="BA53" s="58"/>
       <c r="BB53" s="40"/>
       <c r="BC53" s="40"/>
       <c r="BD53" s="40"/>
       <c r="BE53" s="40"/>
-      <c r="BF53" s="38"/>
-      <c r="BG53" s="58"/>
+      <c r="BF53" s="40"/>
+      <c r="BG53" s="40"/>
       <c r="BH53" s="38"/>
       <c r="BI53" s="58"/>
-      <c r="BJ53" s="40"/>
-      <c r="BK53" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="BL53" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="BM53" s="92"/>
-    </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ53" s="38"/>
+      <c r="BK53" s="58"/>
+      <c r="BL53" s="40"/>
+      <c r="BM53" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="BN53" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="BO53" s="92"/>
+    </row>
+    <row r="54" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A54" s="92"/>
       <c r="B54" s="30"/>
       <c r="C54" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
@@ -15029,30 +15488,32 @@
       <c r="AW54" s="58"/>
       <c r="AX54" s="38"/>
       <c r="AY54" s="58"/>
-      <c r="AZ54" s="40"/>
-      <c r="BA54" s="40"/>
+      <c r="AZ54" s="38"/>
+      <c r="BA54" s="58"/>
       <c r="BB54" s="40"/>
       <c r="BC54" s="40"/>
       <c r="BD54" s="40"/>
       <c r="BE54" s="40"/>
-      <c r="BF54" s="38"/>
-      <c r="BG54" s="58"/>
+      <c r="BF54" s="40"/>
+      <c r="BG54" s="40"/>
       <c r="BH54" s="38"/>
       <c r="BI54" s="58"/>
-      <c r="BJ54" s="40"/>
-      <c r="BK54" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="BL54" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="BM54" s="92"/>
-    </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ54" s="38"/>
+      <c r="BK54" s="58"/>
+      <c r="BL54" s="40"/>
+      <c r="BM54" s="89" t="s">
+        <v>203</v>
+      </c>
+      <c r="BN54" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="BO54" s="92"/>
+    </row>
+    <row r="55" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A55" s="92"/>
       <c r="B55" s="30"/>
       <c r="C55" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
@@ -15102,30 +15563,32 @@
       <c r="AW55" s="58"/>
       <c r="AX55" s="38"/>
       <c r="AY55" s="58"/>
-      <c r="AZ55" s="40"/>
-      <c r="BA55" s="40"/>
+      <c r="AZ55" s="38"/>
+      <c r="BA55" s="58"/>
       <c r="BB55" s="40"/>
       <c r="BC55" s="40"/>
       <c r="BD55" s="40"/>
       <c r="BE55" s="40"/>
-      <c r="BF55" s="38"/>
-      <c r="BG55" s="58"/>
+      <c r="BF55" s="40"/>
+      <c r="BG55" s="40"/>
       <c r="BH55" s="38"/>
       <c r="BI55" s="58"/>
-      <c r="BJ55" s="40"/>
-      <c r="BK55" s="89" t="s">
-        <v>203</v>
-      </c>
-      <c r="BL55" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="BM55" s="92"/>
-    </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ55" s="38"/>
+      <c r="BK55" s="58"/>
+      <c r="BL55" s="40"/>
+      <c r="BM55" s="89" t="s">
+        <v>204</v>
+      </c>
+      <c r="BN55" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="BO55" s="92"/>
+    </row>
+    <row r="56" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A56" s="92"/>
       <c r="B56" s="30"/>
       <c r="C56" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
@@ -15175,30 +15638,32 @@
       <c r="AW56" s="58"/>
       <c r="AX56" s="38"/>
       <c r="AY56" s="58"/>
-      <c r="AZ56" s="40"/>
-      <c r="BA56" s="40"/>
+      <c r="AZ56" s="38"/>
+      <c r="BA56" s="58"/>
       <c r="BB56" s="40"/>
       <c r="BC56" s="40"/>
       <c r="BD56" s="40"/>
       <c r="BE56" s="40"/>
-      <c r="BF56" s="38"/>
-      <c r="BG56" s="58"/>
+      <c r="BF56" s="40"/>
+      <c r="BG56" s="40"/>
       <c r="BH56" s="38"/>
       <c r="BI56" s="58"/>
-      <c r="BJ56" s="40"/>
-      <c r="BK56" s="89" t="s">
-        <v>204</v>
-      </c>
-      <c r="BL56" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="BM56" s="92"/>
-    </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ56" s="38"/>
+      <c r="BK56" s="58"/>
+      <c r="BL56" s="40"/>
+      <c r="BM56" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN56" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="BO56" s="92"/>
+    </row>
+    <row r="57" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A57" s="92"/>
       <c r="B57" s="30"/>
       <c r="C57" s="25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
@@ -15248,30 +15713,32 @@
       <c r="AW57" s="58"/>
       <c r="AX57" s="38"/>
       <c r="AY57" s="58"/>
-      <c r="AZ57" s="40"/>
-      <c r="BA57" s="40"/>
+      <c r="AZ57" s="38"/>
+      <c r="BA57" s="58"/>
       <c r="BB57" s="40"/>
       <c r="BC57" s="40"/>
       <c r="BD57" s="40"/>
       <c r="BE57" s="40"/>
-      <c r="BF57" s="38"/>
-      <c r="BG57" s="58"/>
+      <c r="BF57" s="40"/>
+      <c r="BG57" s="40"/>
       <c r="BH57" s="38"/>
       <c r="BI57" s="58"/>
-      <c r="BJ57" s="40"/>
-      <c r="BK57" s="89" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL57" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="BM57" s="92"/>
-    </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ57" s="38"/>
+      <c r="BK57" s="58"/>
+      <c r="BL57" s="40"/>
+      <c r="BM57" s="89" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN57" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="BO57" s="92"/>
+    </row>
+    <row r="58" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A58" s="92"/>
       <c r="B58" s="30"/>
       <c r="C58" s="25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
@@ -15321,30 +15788,32 @@
       <c r="AW58" s="58"/>
       <c r="AX58" s="38"/>
       <c r="AY58" s="58"/>
-      <c r="AZ58" s="40"/>
-      <c r="BA58" s="40"/>
+      <c r="AZ58" s="38"/>
+      <c r="BA58" s="58"/>
       <c r="BB58" s="40"/>
       <c r="BC58" s="40"/>
       <c r="BD58" s="40"/>
-      <c r="BE58" s="42"/>
-      <c r="BF58" s="38"/>
-      <c r="BG58" s="58"/>
+      <c r="BE58" s="40"/>
+      <c r="BF58" s="40"/>
+      <c r="BG58" s="42"/>
       <c r="BH58" s="38"/>
       <c r="BI58" s="58"/>
-      <c r="BJ58" s="40"/>
-      <c r="BK58" s="89" t="s">
-        <v>206</v>
-      </c>
-      <c r="BL58" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="BM58" s="92"/>
-    </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ58" s="38"/>
+      <c r="BK58" s="58"/>
+      <c r="BL58" s="40"/>
+      <c r="BM58" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="BN58" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="BO58" s="92"/>
+    </row>
+    <row r="59" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A59" s="92"/>
       <c r="B59" s="30"/>
       <c r="C59" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
@@ -15394,30 +15863,32 @@
       <c r="AW59" s="58"/>
       <c r="AX59" s="38"/>
       <c r="AY59" s="58"/>
-      <c r="AZ59" s="40"/>
-      <c r="BA59" s="40"/>
+      <c r="AZ59" s="38"/>
+      <c r="BA59" s="58"/>
       <c r="BB59" s="40"/>
       <c r="BC59" s="40"/>
       <c r="BD59" s="40"/>
       <c r="BE59" s="40"/>
-      <c r="BF59" s="38"/>
-      <c r="BG59" s="58"/>
+      <c r="BF59" s="40"/>
+      <c r="BG59" s="40"/>
       <c r="BH59" s="38"/>
       <c r="BI59" s="58"/>
-      <c r="BJ59" s="40"/>
-      <c r="BK59" s="89" t="s">
-        <v>207</v>
-      </c>
-      <c r="BL59" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="BM59" s="92"/>
-    </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ59" s="38"/>
+      <c r="BK59" s="58"/>
+      <c r="BL59" s="40"/>
+      <c r="BM59" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="BN59" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="BO59" s="92"/>
+    </row>
+    <row r="60" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A60" s="92"/>
       <c r="B60" s="30"/>
       <c r="C60" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
@@ -15467,30 +15938,32 @@
       <c r="AW60" s="58"/>
       <c r="AX60" s="38"/>
       <c r="AY60" s="58"/>
-      <c r="AZ60" s="40"/>
-      <c r="BA60" s="40"/>
+      <c r="AZ60" s="38"/>
+      <c r="BA60" s="58"/>
       <c r="BB60" s="40"/>
       <c r="BC60" s="40"/>
       <c r="BD60" s="40"/>
       <c r="BE60" s="40"/>
-      <c r="BF60" s="38"/>
-      <c r="BG60" s="58"/>
+      <c r="BF60" s="40"/>
+      <c r="BG60" s="40"/>
       <c r="BH60" s="38"/>
       <c r="BI60" s="58"/>
-      <c r="BJ60" s="40"/>
-      <c r="BK60" s="89" t="s">
-        <v>208</v>
-      </c>
-      <c r="BL60" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="BM60" s="92"/>
-    </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ60" s="38"/>
+      <c r="BK60" s="58"/>
+      <c r="BL60" s="40"/>
+      <c r="BM60" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="BN60" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="BO60" s="92"/>
+    </row>
+    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A61" s="92"/>
       <c r="B61" s="30"/>
       <c r="C61" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
@@ -15540,30 +16013,32 @@
       <c r="AW61" s="58"/>
       <c r="AX61" s="38"/>
       <c r="AY61" s="58"/>
-      <c r="AZ61" s="40"/>
-      <c r="BA61" s="40"/>
+      <c r="AZ61" s="38"/>
+      <c r="BA61" s="58"/>
       <c r="BB61" s="40"/>
       <c r="BC61" s="40"/>
       <c r="BD61" s="40"/>
       <c r="BE61" s="40"/>
-      <c r="BF61" s="38"/>
-      <c r="BG61" s="58"/>
+      <c r="BF61" s="40"/>
+      <c r="BG61" s="40"/>
       <c r="BH61" s="38"/>
       <c r="BI61" s="58"/>
-      <c r="BJ61" s="40"/>
-      <c r="BK61" s="89" t="s">
-        <v>209</v>
-      </c>
-      <c r="BL61" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="BM61" s="92"/>
-    </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ61" s="38"/>
+      <c r="BK61" s="58"/>
+      <c r="BL61" s="40"/>
+      <c r="BM61" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="BN61" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="BO61" s="92"/>
+    </row>
+    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A62" s="92"/>
       <c r="B62" s="30"/>
       <c r="C62" s="25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
@@ -15613,30 +16088,32 @@
       <c r="AW62" s="58"/>
       <c r="AX62" s="38"/>
       <c r="AY62" s="58"/>
-      <c r="AZ62" s="40"/>
-      <c r="BA62" s="40"/>
+      <c r="AZ62" s="38"/>
+      <c r="BA62" s="58"/>
       <c r="BB62" s="40"/>
       <c r="BC62" s="40"/>
       <c r="BD62" s="40"/>
       <c r="BE62" s="40"/>
-      <c r="BF62" s="38"/>
-      <c r="BG62" s="58"/>
+      <c r="BF62" s="40"/>
+      <c r="BG62" s="40"/>
       <c r="BH62" s="38"/>
       <c r="BI62" s="58"/>
-      <c r="BJ62" s="40"/>
-      <c r="BK62" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="BL62" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="BM62" s="92"/>
-    </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ62" s="38"/>
+      <c r="BK62" s="58"/>
+      <c r="BL62" s="40"/>
+      <c r="BM62" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="BN62" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="BO62" s="92"/>
+    </row>
+    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A63" s="92"/>
       <c r="B63" s="30"/>
       <c r="C63" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
@@ -15686,30 +16163,32 @@
       <c r="AW63" s="58"/>
       <c r="AX63" s="38"/>
       <c r="AY63" s="58"/>
-      <c r="AZ63" s="40"/>
-      <c r="BA63" s="40"/>
+      <c r="AZ63" s="38"/>
+      <c r="BA63" s="58"/>
       <c r="BB63" s="40"/>
       <c r="BC63" s="40"/>
       <c r="BD63" s="40"/>
       <c r="BE63" s="40"/>
-      <c r="BF63" s="38"/>
-      <c r="BG63" s="58"/>
+      <c r="BF63" s="40"/>
+      <c r="BG63" s="40"/>
       <c r="BH63" s="38"/>
       <c r="BI63" s="58"/>
-      <c r="BJ63" s="40"/>
-      <c r="BK63" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="BL63" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="BM63" s="92"/>
-    </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ63" s="38"/>
+      <c r="BK63" s="58"/>
+      <c r="BL63" s="40"/>
+      <c r="BM63" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN63" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="BO63" s="92"/>
+    </row>
+    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A64" s="92"/>
       <c r="B64" s="30"/>
       <c r="C64" s="25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -15759,30 +16238,32 @@
       <c r="AW64" s="58"/>
       <c r="AX64" s="38"/>
       <c r="AY64" s="58"/>
-      <c r="AZ64" s="40"/>
-      <c r="BA64" s="40"/>
+      <c r="AZ64" s="38"/>
+      <c r="BA64" s="58"/>
       <c r="BB64" s="40"/>
       <c r="BC64" s="40"/>
       <c r="BD64" s="40"/>
       <c r="BE64" s="40"/>
-      <c r="BF64" s="38"/>
-      <c r="BG64" s="58"/>
+      <c r="BF64" s="40"/>
+      <c r="BG64" s="40"/>
       <c r="BH64" s="38"/>
       <c r="BI64" s="58"/>
-      <c r="BJ64" s="40"/>
-      <c r="BK64" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="BL64" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="BM64" s="92"/>
-    </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ64" s="38"/>
+      <c r="BK64" s="58"/>
+      <c r="BL64" s="40"/>
+      <c r="BM64" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN64" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="BO64" s="92"/>
+    </row>
+    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" s="92"/>
       <c r="B65" s="30"/>
       <c r="C65" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
@@ -15832,30 +16313,32 @@
       <c r="AW65" s="58"/>
       <c r="AX65" s="38"/>
       <c r="AY65" s="58"/>
-      <c r="AZ65" s="40"/>
-      <c r="BA65" s="40"/>
+      <c r="AZ65" s="38"/>
+      <c r="BA65" s="58"/>
       <c r="BB65" s="40"/>
       <c r="BC65" s="40"/>
       <c r="BD65" s="40"/>
       <c r="BE65" s="40"/>
-      <c r="BF65" s="61"/>
-      <c r="BG65" s="58"/>
-      <c r="BH65" s="38"/>
+      <c r="BF65" s="40"/>
+      <c r="BG65" s="40"/>
+      <c r="BH65" s="61"/>
       <c r="BI65" s="58"/>
-      <c r="BJ65" s="40"/>
-      <c r="BK65" s="89" t="s">
-        <v>213</v>
-      </c>
-      <c r="BL65" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="BM65" s="92"/>
-    </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ65" s="38"/>
+      <c r="BK65" s="58"/>
+      <c r="BL65" s="40"/>
+      <c r="BM65" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="BN65" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="BO65" s="92"/>
+    </row>
+    <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" s="92"/>
       <c r="B66" s="30"/>
       <c r="C66" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
@@ -15905,30 +16388,32 @@
       <c r="AW66" s="58"/>
       <c r="AX66" s="38"/>
       <c r="AY66" s="58"/>
-      <c r="AZ66" s="40"/>
-      <c r="BA66" s="40"/>
+      <c r="AZ66" s="38"/>
+      <c r="BA66" s="58"/>
       <c r="BB66" s="40"/>
       <c r="BC66" s="40"/>
-      <c r="BD66" s="42"/>
+      <c r="BD66" s="40"/>
       <c r="BE66" s="40"/>
-      <c r="BF66" s="61"/>
-      <c r="BG66" s="58"/>
-      <c r="BH66" s="38"/>
+      <c r="BF66" s="42"/>
+      <c r="BG66" s="40"/>
+      <c r="BH66" s="61"/>
       <c r="BI66" s="58"/>
-      <c r="BJ66" s="40"/>
-      <c r="BK66" s="89" t="s">
-        <v>214</v>
-      </c>
-      <c r="BL66" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="BM66" s="92"/>
-    </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BJ66" s="38"/>
+      <c r="BK66" s="58"/>
+      <c r="BL66" s="40"/>
+      <c r="BM66" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="BN66" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="BO66" s="92"/>
+    </row>
+    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A67" s="92"/>
       <c r="B67" s="30"/>
       <c r="C67" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
@@ -15978,30 +16463,32 @@
       <c r="AW67" s="58"/>
       <c r="AX67" s="38"/>
       <c r="AY67" s="58"/>
-      <c r="AZ67" s="40"/>
-      <c r="BA67" s="40"/>
+      <c r="AZ67" s="38"/>
+      <c r="BA67" s="58"/>
       <c r="BB67" s="40"/>
       <c r="BC67" s="40"/>
       <c r="BD67" s="40"/>
       <c r="BE67" s="40"/>
-      <c r="BF67" s="61"/>
-      <c r="BG67" s="58"/>
-      <c r="BH67" s="38"/>
+      <c r="BF67" s="40"/>
+      <c r="BG67" s="40"/>
+      <c r="BH67" s="61"/>
       <c r="BI67" s="58"/>
-      <c r="BJ67" s="40"/>
-      <c r="BK67" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="BL67" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="BM67" s="92"/>
-    </row>
-    <row r="68" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BJ67" s="38"/>
+      <c r="BK67" s="58"/>
+      <c r="BL67" s="40"/>
+      <c r="BM67" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="BN67" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO67" s="92"/>
+    </row>
+    <row r="68" spans="1:67" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="92"/>
       <c r="B68" s="31"/>
       <c r="C68" s="91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
@@ -16051,26 +16538,28 @@
       <c r="AW68" s="60"/>
       <c r="AX68" s="59"/>
       <c r="AY68" s="60"/>
-      <c r="AZ68" s="41"/>
-      <c r="BA68" s="41"/>
+      <c r="AZ68" s="59"/>
+      <c r="BA68" s="60"/>
       <c r="BB68" s="41"/>
       <c r="BC68" s="41"/>
       <c r="BD68" s="41"/>
       <c r="BE68" s="41"/>
-      <c r="BF68" s="59"/>
-      <c r="BG68" s="60"/>
+      <c r="BF68" s="41"/>
+      <c r="BG68" s="41"/>
       <c r="BH68" s="59"/>
       <c r="BI68" s="60"/>
-      <c r="BJ68" s="41"/>
-      <c r="BK68" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="BL68" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="BM68" s="92"/>
-    </row>
-    <row r="69" spans="1:65" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BJ68" s="59"/>
+      <c r="BK68" s="60"/>
+      <c r="BL68" s="41"/>
+      <c r="BM68" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="BN68" s="91" t="s">
+        <v>281</v>
+      </c>
+      <c r="BO68" s="92"/>
+    </row>
+    <row r="69" spans="1:67" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="92"/>
       <c r="B69" s="92"/>
       <c r="C69" s="92"/>
@@ -16136,15 +16625,17 @@
       <c r="BK69" s="92"/>
       <c r="BL69" s="92"/>
       <c r="BM69" s="92"/>
-    </row>
-    <row r="70" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN69" s="92"/>
+      <c r="BO69" s="92"/>
+    </row>
+    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A70" s="92"/>
       <c r="B70" s="92"/>
       <c r="C70" s="92"/>
       <c r="D70" s="92"/>
       <c r="E70" s="75"/>
       <c r="F70" s="93" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G70" s="92"/>
       <c r="H70" s="92"/>
@@ -16153,7 +16644,7 @@
         <v>3</v>
       </c>
       <c r="K70" s="93" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L70" s="92"/>
       <c r="M70" s="92"/>
@@ -16163,7 +16654,7 @@
       <c r="Q70" s="92"/>
       <c r="R70" s="96"/>
       <c r="S70" s="93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T70" s="92"/>
       <c r="U70" s="92"/>
@@ -16211,8 +16702,10 @@
       <c r="BK70" s="92"/>
       <c r="BL70" s="92"/>
       <c r="BM70" s="92"/>
-    </row>
-    <row r="71" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN70" s="92"/>
+      <c r="BO70" s="92"/>
+    </row>
+    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A71" s="92"/>
       <c r="B71" s="92"/>
       <c r="C71" s="92"/>
@@ -16278,8 +16771,10 @@
       <c r="BK71" s="92"/>
       <c r="BL71" s="92"/>
       <c r="BM71" s="92"/>
-    </row>
-    <row r="72" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN71" s="92"/>
+      <c r="BO71" s="92"/>
+    </row>
+    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A72" s="92"/>
       <c r="B72" s="92"/>
       <c r="C72" s="92"/>
@@ -16345,8 +16840,10 @@
       <c r="BK72" s="92"/>
       <c r="BL72" s="92"/>
       <c r="BM72" s="92"/>
-    </row>
-    <row r="73" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN72" s="92"/>
+      <c r="BO72" s="92"/>
+    </row>
+    <row r="73" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A73" s="92"/>
       <c r="B73" s="92"/>
       <c r="C73" s="92"/>
@@ -16412,8 +16909,10 @@
       <c r="BK73" s="92"/>
       <c r="BL73" s="92"/>
       <c r="BM73" s="92"/>
-    </row>
-    <row r="74" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN73" s="92"/>
+      <c r="BO73" s="92"/>
+    </row>
+    <row r="74" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A74" s="92"/>
       <c r="B74" s="92"/>
       <c r="C74" s="92"/>
@@ -16479,8 +16978,10 @@
       <c r="BK74" s="92"/>
       <c r="BL74" s="92"/>
       <c r="BM74" s="92"/>
-    </row>
-    <row r="75" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN74" s="92"/>
+      <c r="BO74" s="92"/>
+    </row>
+    <row r="75" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A75" s="92"/>
       <c r="B75" s="92"/>
       <c r="C75" s="92"/>
@@ -16546,8 +17047,10 @@
       <c r="BK75" s="92"/>
       <c r="BL75" s="92"/>
       <c r="BM75" s="92"/>
-    </row>
-    <row r="76" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN75" s="92"/>
+      <c r="BO75" s="92"/>
+    </row>
+    <row r="76" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A76" s="92"/>
       <c r="B76" s="92"/>
       <c r="C76" s="92"/>
@@ -16613,8 +17116,10 @@
       <c r="BK76" s="92"/>
       <c r="BL76" s="92"/>
       <c r="BM76" s="92"/>
-    </row>
-    <row r="77" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN76" s="92"/>
+      <c r="BO76" s="92"/>
+    </row>
+    <row r="77" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A77" s="92"/>
       <c r="B77" s="92"/>
       <c r="C77" s="92"/>
@@ -16680,8 +17185,10 @@
       <c r="BK77" s="92"/>
       <c r="BL77" s="92"/>
       <c r="BM77" s="92"/>
-    </row>
-    <row r="78" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN77" s="92"/>
+      <c r="BO77" s="92"/>
+    </row>
+    <row r="78" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A78" s="92"/>
       <c r="B78" s="92"/>
       <c r="C78" s="92"/>
@@ -16747,8 +17254,10 @@
       <c r="BK78" s="92"/>
       <c r="BL78" s="92"/>
       <c r="BM78" s="92"/>
-    </row>
-    <row r="79" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN78" s="92"/>
+      <c r="BO78" s="92"/>
+    </row>
+    <row r="79" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A79" s="92"/>
       <c r="B79" s="92"/>
       <c r="C79" s="92"/>
@@ -16814,8 +17323,10 @@
       <c r="BK79" s="92"/>
       <c r="BL79" s="92"/>
       <c r="BM79" s="92"/>
-    </row>
-    <row r="80" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN79" s="92"/>
+      <c r="BO79" s="92"/>
+    </row>
+    <row r="80" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A80" s="92"/>
       <c r="B80" s="92"/>
       <c r="C80" s="92"/>
@@ -16881,8 +17392,10 @@
       <c r="BK80" s="92"/>
       <c r="BL80" s="92"/>
       <c r="BM80" s="92"/>
-    </row>
-    <row r="81" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN80" s="92"/>
+      <c r="BO80" s="92"/>
+    </row>
+    <row r="81" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A81" s="92"/>
       <c r="B81" s="92"/>
       <c r="C81" s="92"/>
@@ -16948,8 +17461,10 @@
       <c r="BK81" s="92"/>
       <c r="BL81" s="92"/>
       <c r="BM81" s="92"/>
-    </row>
-    <row r="82" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN81" s="92"/>
+      <c r="BO81" s="92"/>
+    </row>
+    <row r="82" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A82" s="92"/>
       <c r="B82" s="92"/>
       <c r="C82" s="92"/>
@@ -17015,8 +17530,10 @@
       <c r="BK82" s="92"/>
       <c r="BL82" s="92"/>
       <c r="BM82" s="92"/>
-    </row>
-    <row r="83" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN82" s="92"/>
+      <c r="BO82" s="92"/>
+    </row>
+    <row r="83" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A83" s="92"/>
       <c r="B83" s="92"/>
       <c r="C83" s="92"/>
@@ -17082,8 +17599,10 @@
       <c r="BK83" s="92"/>
       <c r="BL83" s="92"/>
       <c r="BM83" s="92"/>
-    </row>
-    <row r="84" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN83" s="92"/>
+      <c r="BO83" s="92"/>
+    </row>
+    <row r="84" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A84" s="92"/>
       <c r="B84" s="92"/>
       <c r="C84" s="92"/>
@@ -17149,8 +17668,10 @@
       <c r="BK84" s="92"/>
       <c r="BL84" s="92"/>
       <c r="BM84" s="92"/>
-    </row>
-    <row r="85" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN84" s="92"/>
+      <c r="BO84" s="92"/>
+    </row>
+    <row r="85" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A85" s="92"/>
       <c r="B85" s="92"/>
       <c r="C85" s="92"/>
@@ -17216,8 +17737,10 @@
       <c r="BK85" s="92"/>
       <c r="BL85" s="92"/>
       <c r="BM85" s="92"/>
-    </row>
-    <row r="86" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN85" s="92"/>
+      <c r="BO85" s="92"/>
+    </row>
+    <row r="86" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A86" s="92"/>
       <c r="B86" s="92"/>
       <c r="C86" s="92"/>
@@ -17283,8 +17806,10 @@
       <c r="BK86" s="92"/>
       <c r="BL86" s="92"/>
       <c r="BM86" s="92"/>
-    </row>
-    <row r="87" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN86" s="92"/>
+      <c r="BO86" s="92"/>
+    </row>
+    <row r="87" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A87" s="92"/>
       <c r="B87" s="92"/>
       <c r="C87" s="92"/>
@@ -17350,8 +17875,10 @@
       <c r="BK87" s="92"/>
       <c r="BL87" s="92"/>
       <c r="BM87" s="92"/>
-    </row>
-    <row r="88" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN87" s="92"/>
+      <c r="BO87" s="92"/>
+    </row>
+    <row r="88" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A88" s="92"/>
       <c r="B88" s="92"/>
       <c r="C88" s="92"/>
@@ -17417,8 +17944,10 @@
       <c r="BK88" s="92"/>
       <c r="BL88" s="92"/>
       <c r="BM88" s="92"/>
-    </row>
-    <row r="89" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN88" s="92"/>
+      <c r="BO88" s="92"/>
+    </row>
+    <row r="89" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A89" s="92"/>
       <c r="B89" s="92"/>
       <c r="C89" s="92"/>
@@ -17484,8 +18013,10 @@
       <c r="BK89" s="92"/>
       <c r="BL89" s="92"/>
       <c r="BM89" s="92"/>
-    </row>
-    <row r="90" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN89" s="92"/>
+      <c r="BO89" s="92"/>
+    </row>
+    <row r="90" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A90" s="92"/>
       <c r="B90" s="92"/>
       <c r="C90" s="92"/>
@@ -17551,8 +18082,10 @@
       <c r="BK90" s="92"/>
       <c r="BL90" s="92"/>
       <c r="BM90" s="92"/>
-    </row>
-    <row r="91" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN90" s="92"/>
+      <c r="BO90" s="92"/>
+    </row>
+    <row r="91" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A91" s="92"/>
       <c r="B91" s="92"/>
       <c r="C91" s="92"/>
@@ -17618,8 +18151,10 @@
       <c r="BK91" s="92"/>
       <c r="BL91" s="92"/>
       <c r="BM91" s="92"/>
-    </row>
-    <row r="92" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN91" s="92"/>
+      <c r="BO91" s="92"/>
+    </row>
+    <row r="92" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A92" s="92"/>
       <c r="B92" s="92"/>
       <c r="C92" s="92"/>
@@ -17685,8 +18220,10 @@
       <c r="BK92" s="92"/>
       <c r="BL92" s="92"/>
       <c r="BM92" s="92"/>
-    </row>
-    <row r="93" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN92" s="92"/>
+      <c r="BO92" s="92"/>
+    </row>
+    <row r="93" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A93" s="92"/>
       <c r="B93" s="92"/>
       <c r="C93" s="92"/>
@@ -17752,8 +18289,10 @@
       <c r="BK93" s="92"/>
       <c r="BL93" s="92"/>
       <c r="BM93" s="92"/>
-    </row>
-    <row r="94" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN93" s="92"/>
+      <c r="BO93" s="92"/>
+    </row>
+    <row r="94" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A94" s="92"/>
       <c r="B94" s="92"/>
       <c r="C94" s="92"/>
@@ -17819,8 +18358,10 @@
       <c r="BK94" s="92"/>
       <c r="BL94" s="92"/>
       <c r="BM94" s="92"/>
-    </row>
-    <row r="95" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN94" s="92"/>
+      <c r="BO94" s="92"/>
+    </row>
+    <row r="95" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A95" s="92"/>
       <c r="B95" s="92"/>
       <c r="C95" s="92"/>
@@ -17886,8 +18427,10 @@
       <c r="BK95" s="92"/>
       <c r="BL95" s="92"/>
       <c r="BM95" s="92"/>
-    </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN95" s="92"/>
+      <c r="BO95" s="92"/>
+    </row>
+    <row r="96" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A96" s="92"/>
       <c r="B96" s="92"/>
       <c r="C96" s="92"/>
@@ -17953,8 +18496,10 @@
       <c r="BK96" s="92"/>
       <c r="BL96" s="92"/>
       <c r="BM96" s="92"/>
-    </row>
-    <row r="97" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN96" s="92"/>
+      <c r="BO96" s="92"/>
+    </row>
+    <row r="97" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A97" s="92"/>
       <c r="B97" s="92"/>
       <c r="C97" s="92"/>
@@ -18020,8 +18565,10 @@
       <c r="BK97" s="92"/>
       <c r="BL97" s="92"/>
       <c r="BM97" s="92"/>
-    </row>
-    <row r="98" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN97" s="92"/>
+      <c r="BO97" s="92"/>
+    </row>
+    <row r="98" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A98" s="92"/>
       <c r="B98" s="92"/>
       <c r="C98" s="92"/>
@@ -18087,8 +18634,10 @@
       <c r="BK98" s="92"/>
       <c r="BL98" s="92"/>
       <c r="BM98" s="92"/>
-    </row>
-    <row r="99" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN98" s="92"/>
+      <c r="BO98" s="92"/>
+    </row>
+    <row r="99" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A99" s="92"/>
       <c r="B99" s="92"/>
       <c r="C99" s="92"/>
@@ -18154,8 +18703,10 @@
       <c r="BK99" s="92"/>
       <c r="BL99" s="92"/>
       <c r="BM99" s="92"/>
-    </row>
-    <row r="100" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN99" s="92"/>
+      <c r="BO99" s="92"/>
+    </row>
+    <row r="100" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A100" s="92"/>
       <c r="B100" s="92"/>
       <c r="C100" s="92"/>
@@ -18221,8 +18772,10 @@
       <c r="BK100" s="92"/>
       <c r="BL100" s="92"/>
       <c r="BM100" s="92"/>
-    </row>
-    <row r="101" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN100" s="92"/>
+      <c r="BO100" s="92"/>
+    </row>
+    <row r="101" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A101" s="92"/>
       <c r="B101" s="92"/>
       <c r="C101" s="92"/>
@@ -18288,8 +18841,10 @@
       <c r="BK101" s="92"/>
       <c r="BL101" s="92"/>
       <c r="BM101" s="92"/>
-    </row>
-    <row r="102" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN101" s="92"/>
+      <c r="BO101" s="92"/>
+    </row>
+    <row r="102" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A102" s="92"/>
       <c r="B102" s="92"/>
       <c r="C102" s="92"/>
@@ -18355,8 +18910,10 @@
       <c r="BK102" s="92"/>
       <c r="BL102" s="92"/>
       <c r="BM102" s="92"/>
-    </row>
-    <row r="103" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN102" s="92"/>
+      <c r="BO102" s="92"/>
+    </row>
+    <row r="103" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A103" s="92"/>
       <c r="B103" s="92"/>
       <c r="C103" s="92"/>
@@ -18422,8 +18979,10 @@
       <c r="BK103" s="92"/>
       <c r="BL103" s="92"/>
       <c r="BM103" s="92"/>
-    </row>
-    <row r="104" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN103" s="92"/>
+      <c r="BO103" s="92"/>
+    </row>
+    <row r="104" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A104" s="92"/>
       <c r="B104" s="92"/>
       <c r="C104" s="92"/>
@@ -18489,8 +19048,10 @@
       <c r="BK104" s="92"/>
       <c r="BL104" s="92"/>
       <c r="BM104" s="92"/>
-    </row>
-    <row r="105" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN104" s="92"/>
+      <c r="BO104" s="92"/>
+    </row>
+    <row r="105" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A105" s="92"/>
       <c r="B105" s="92"/>
       <c r="C105" s="92"/>
@@ -18556,8 +19117,10 @@
       <c r="BK105" s="92"/>
       <c r="BL105" s="92"/>
       <c r="BM105" s="92"/>
-    </row>
-    <row r="106" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN105" s="92"/>
+      <c r="BO105" s="92"/>
+    </row>
+    <row r="106" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A106" s="92"/>
       <c r="B106" s="92"/>
       <c r="C106" s="92"/>
@@ -18623,8 +19186,10 @@
       <c r="BK106" s="92"/>
       <c r="BL106" s="92"/>
       <c r="BM106" s="92"/>
-    </row>
-    <row r="107" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN106" s="92"/>
+      <c r="BO106" s="92"/>
+    </row>
+    <row r="107" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A107" s="92"/>
       <c r="B107" s="92"/>
       <c r="C107" s="92"/>
@@ -18690,8 +19255,10 @@
       <c r="BK107" s="92"/>
       <c r="BL107" s="92"/>
       <c r="BM107" s="92"/>
-    </row>
-    <row r="108" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN107" s="92"/>
+      <c r="BO107" s="92"/>
+    </row>
+    <row r="108" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A108" s="92"/>
       <c r="B108" s="92"/>
       <c r="C108" s="92"/>
@@ -18757,8 +19324,10 @@
       <c r="BK108" s="92"/>
       <c r="BL108" s="92"/>
       <c r="BM108" s="92"/>
-    </row>
-    <row r="109" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN108" s="92"/>
+      <c r="BO108" s="92"/>
+    </row>
+    <row r="109" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A109" s="92"/>
       <c r="B109" s="92"/>
       <c r="C109" s="92"/>
@@ -18824,8 +19393,10 @@
       <c r="BK109" s="92"/>
       <c r="BL109" s="92"/>
       <c r="BM109" s="92"/>
-    </row>
-    <row r="110" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN109" s="92"/>
+      <c r="BO109" s="92"/>
+    </row>
+    <row r="110" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A110" s="92"/>
       <c r="B110" s="92"/>
       <c r="C110" s="92"/>
@@ -18891,8 +19462,10 @@
       <c r="BK110" s="92"/>
       <c r="BL110" s="92"/>
       <c r="BM110" s="92"/>
-    </row>
-    <row r="111" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN110" s="92"/>
+      <c r="BO110" s="92"/>
+    </row>
+    <row r="111" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A111" s="92"/>
       <c r="B111" s="92"/>
       <c r="C111" s="92"/>
@@ -18958,8 +19531,10 @@
       <c r="BK111" s="92"/>
       <c r="BL111" s="92"/>
       <c r="BM111" s="92"/>
-    </row>
-    <row r="112" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN111" s="92"/>
+      <c r="BO111" s="92"/>
+    </row>
+    <row r="112" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A112" s="92"/>
       <c r="B112" s="92"/>
       <c r="C112" s="92"/>
@@ -19025,8 +19600,10 @@
       <c r="BK112" s="92"/>
       <c r="BL112" s="92"/>
       <c r="BM112" s="92"/>
-    </row>
-    <row r="113" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN112" s="92"/>
+      <c r="BO112" s="92"/>
+    </row>
+    <row r="113" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A113" s="92"/>
       <c r="B113" s="92"/>
       <c r="C113" s="92"/>
@@ -19092,8 +19669,10 @@
       <c r="BK113" s="92"/>
       <c r="BL113" s="92"/>
       <c r="BM113" s="92"/>
-    </row>
-    <row r="114" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN113" s="92"/>
+      <c r="BO113" s="92"/>
+    </row>
+    <row r="114" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A114" s="92"/>
       <c r="B114" s="92"/>
       <c r="C114" s="92"/>
@@ -19159,8 +19738,10 @@
       <c r="BK114" s="92"/>
       <c r="BL114" s="92"/>
       <c r="BM114" s="92"/>
-    </row>
-    <row r="115" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN114" s="92"/>
+      <c r="BO114" s="92"/>
+    </row>
+    <row r="115" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A115" s="92"/>
       <c r="B115" s="92"/>
       <c r="C115" s="92"/>
@@ -19226,8 +19807,10 @@
       <c r="BK115" s="92"/>
       <c r="BL115" s="92"/>
       <c r="BM115" s="92"/>
-    </row>
-    <row r="116" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN115" s="92"/>
+      <c r="BO115" s="92"/>
+    </row>
+    <row r="116" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A116" s="92"/>
       <c r="B116" s="92"/>
       <c r="C116" s="92"/>
@@ -19293,8 +19876,10 @@
       <c r="BK116" s="92"/>
       <c r="BL116" s="92"/>
       <c r="BM116" s="92"/>
-    </row>
-    <row r="117" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN116" s="92"/>
+      <c r="BO116" s="92"/>
+    </row>
+    <row r="117" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A117" s="92"/>
       <c r="B117" s="92"/>
       <c r="C117" s="92"/>
@@ -19360,8 +19945,10 @@
       <c r="BK117" s="92"/>
       <c r="BL117" s="92"/>
       <c r="BM117" s="92"/>
-    </row>
-    <row r="118" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN117" s="92"/>
+      <c r="BO117" s="92"/>
+    </row>
+    <row r="118" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A118" s="92"/>
       <c r="B118" s="92"/>
       <c r="C118" s="92"/>
@@ -19427,13 +20014,16 @@
       <c r="BK118" s="92"/>
       <c r="BL118" s="92"/>
       <c r="BM118" s="92"/>
+      <c r="BN118" s="92"/>
+      <c r="BO118" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="AZ2:BA2"/>
     <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BJ2:BK2"/>
     <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="AJ2:AK2"/>
@@ -19471,7 +20061,7 @@
     <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92"/>
       <c r="B1" s="94" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C1" s="92"/>
       <c r="D1" s="92"/>
@@ -19542,7 +20132,7 @@
       <c r="K3" s="117"/>
       <c r="L3" s="117"/>
       <c r="M3" s="118" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N3" s="117"/>
       <c r="O3" s="92"/>
@@ -19551,10 +20141,10 @@
     <row r="4" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92"/>
       <c r="B4" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D4" s="45">
         <v>1</v>
@@ -19590,17 +20180,17 @@
         <v>1</v>
       </c>
       <c r="O4" s="119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P4" s="92"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D5" s="100">
         <v>700</v>
@@ -19636,7 +20226,7 @@
         <v>20</v>
       </c>
       <c r="O5" s="120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P5" s="92"/>
     </row>
@@ -19644,7 +20234,7 @@
       <c r="A6" s="92"/>
       <c r="B6" s="109"/>
       <c r="C6" s="85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D6" s="102">
         <v>950</v>
@@ -19680,7 +20270,7 @@
         <v>36</v>
       </c>
       <c r="O6" s="121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P6" s="92"/>
     </row>
@@ -19688,7 +20278,7 @@
       <c r="A7" s="92"/>
       <c r="B7" s="109"/>
       <c r="C7" s="85" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D7" s="102">
         <v>2150</v>
@@ -19724,7 +20314,7 @@
         <v>1002</v>
       </c>
       <c r="O7" s="121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P7" s="92"/>
     </row>
@@ -19732,7 +20322,7 @@
       <c r="A8" s="92"/>
       <c r="B8" s="110"/>
       <c r="C8" s="87" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D8" s="97">
         <v>2300</v>
@@ -19768,17 +20358,17 @@
         <v>1180</v>
       </c>
       <c r="O8" s="122" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P8" s="92"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="92"/>
       <c r="B9" s="29" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C9" s="88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D9" s="113">
         <v>-27</v>
@@ -19814,7 +20404,7 @@
         <v>-15</v>
       </c>
       <c r="O9" s="123" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P9" s="92"/>
     </row>
@@ -19822,7 +20412,7 @@
       <c r="A10" s="92"/>
       <c r="B10" s="111"/>
       <c r="C10" s="91" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D10" s="114">
         <v>20</v>
@@ -19858,17 +20448,17 @@
         <v>31.5</v>
       </c>
       <c r="O10" s="124" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P10" s="92"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="92"/>
       <c r="B11" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D11" s="100">
         <v>8.7999999999999995E-2</v>
@@ -19904,7 +20494,7 @@
         <v>4.6875</v>
       </c>
       <c r="O11" s="120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P11" s="92"/>
     </row>
@@ -19912,7 +20502,7 @@
       <c r="A12" s="92"/>
       <c r="B12" s="109"/>
       <c r="C12" s="85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D12" s="102">
         <v>8.7999999999999995E-2</v>
@@ -19948,7 +20538,7 @@
         <v>4.6875</v>
       </c>
       <c r="O12" s="121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P12" s="92"/>
     </row>
@@ -19956,7 +20546,7 @@
       <c r="A13" s="92"/>
       <c r="B13" s="109"/>
       <c r="C13" s="85" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D13" s="102">
         <v>45</v>
@@ -19992,7 +20582,7 @@
         <v>9.375</v>
       </c>
       <c r="O13" s="121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P13" s="92"/>
     </row>
@@ -20000,7 +20590,7 @@
       <c r="A14" s="92"/>
       <c r="B14" s="110"/>
       <c r="C14" s="87" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D14" s="97">
         <v>45</v>
@@ -20036,17 +20626,17 @@
         <v>9.375</v>
       </c>
       <c r="O14" s="122" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P14" s="92"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="92"/>
       <c r="B15" s="29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D15" s="113">
         <v>8.7999999999999995E-2</v>
@@ -20082,7 +20672,7 @@
         <v>0.1</v>
       </c>
       <c r="O15" s="123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P15" s="92"/>
     </row>
@@ -20090,7 +20680,7 @@
       <c r="A16" s="92"/>
       <c r="B16" s="112"/>
       <c r="C16" s="25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D16" s="115">
         <v>8.7999999999999995E-2</v>
@@ -20126,7 +20716,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="125" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P16" s="92"/>
     </row>
@@ -20134,7 +20724,7 @@
       <c r="A17" s="92"/>
       <c r="B17" s="112"/>
       <c r="C17" s="25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D17" s="115">
         <v>45</v>
@@ -20170,7 +20760,7 @@
         <v>10.937499000000001</v>
       </c>
       <c r="O17" s="125" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P17" s="92"/>
     </row>
@@ -20178,7 +20768,7 @@
       <c r="A18" s="92"/>
       <c r="B18" s="111"/>
       <c r="C18" s="91" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D18" s="114">
         <v>45</v>
@@ -20214,7 +20804,7 @@
         <v>10.937499000000001</v>
       </c>
       <c r="O18" s="124" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P18" s="92"/>
     </row>
@@ -21143,7 +21733,7 @@
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92"/>
       <c r="B1" s="94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C1" s="92"/>
       <c r="D1" s="92"/>
@@ -21181,7 +21771,7 @@
         <v>2137</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J2" s="46">
         <v>2138</v>
@@ -21199,7 +21789,7 @@
         <v>236</v>
       </c>
       <c r="O2" s="46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P2" s="92"/>
       <c r="Q2" s="92"/>
@@ -21226,10 +21816,10 @@
     <row r="4" spans="1:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="92"/>
       <c r="B4" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D4" s="45">
         <v>1</v>
@@ -21253,7 +21843,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="47">
         <v>1</v>
@@ -21268,17 +21858,17 @@
         <v>1</v>
       </c>
       <c r="P4" s="119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="92"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="92"/>
       <c r="B5" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D5" s="100">
         <v>950</v>
@@ -21317,7 +21907,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="92"/>
     </row>
@@ -21325,7 +21915,7 @@
       <c r="A6" s="92"/>
       <c r="B6" s="109"/>
       <c r="C6" s="85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D6" s="102">
         <v>950</v>
@@ -21364,7 +21954,7 @@
         <v>44</v>
       </c>
       <c r="P6" s="121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q6" s="92"/>
     </row>
@@ -21372,7 +21962,7 @@
       <c r="A7" s="92"/>
       <c r="B7" s="109"/>
       <c r="C7" s="85" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D7" s="102">
         <v>2150</v>
@@ -21411,7 +22001,7 @@
         <v>1002</v>
       </c>
       <c r="P7" s="121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="92"/>
     </row>
@@ -21419,7 +22009,7 @@
       <c r="A8" s="92"/>
       <c r="B8" s="110"/>
       <c r="C8" s="87" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D8" s="97">
         <v>2150</v>
@@ -21458,7 +22048,7 @@
         <v>1002</v>
       </c>
       <c r="P8" s="122" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="92"/>
     </row>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="354">
   <si>
     <t>Group</t>
   </si>
@@ -653,6 +653,9 @@
     <t>TX_ATSC</t>
   </si>
   <si>
+    <t>TX_ATSC3</t>
+  </si>
+  <si>
     <t>TX_CMMB</t>
   </si>
   <si>
@@ -876,6 +879,9 @@
   </si>
   <si>
     <t>ATSC 8-VSB modulation</t>
+  </si>
+  <si>
+    <t>ATSC3.0 modulation</t>
   </si>
   <si>
     <t>CMMB modulation</t>
@@ -17279,7 +17285,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM126"/>
+  <dimension ref="A1:CM127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
@@ -17302,7 +17308,7 @@
     <row r="1" spans="1:91" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -17770,7 +17776,7 @@
         <v>93</v>
       </c>
       <c r="BF3" s="77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BG3" s="66">
         <v>8</v>
@@ -17788,7 +17794,7 @@
         <v>93</v>
       </c>
       <c r="BL3" s="77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BM3" s="66">
         <v>8</v>
@@ -17967,7 +17973,7 @@
         <v>183</v>
       </c>
       <c r="CL4" s="84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="CM4" s="93"/>
     </row>
@@ -18165,7 +18171,7 @@
         <v>185</v>
       </c>
       <c r="CL6" s="88" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="CM6" s="93"/>
     </row>
@@ -18266,7 +18272,7 @@
         <v>187</v>
       </c>
       <c r="CL7" s="89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CM7" s="93"/>
     </row>
@@ -18365,7 +18371,7 @@
         <v>188</v>
       </c>
       <c r="CL8" s="25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="CM8" s="93"/>
     </row>
@@ -18464,7 +18470,7 @@
         <v>189</v>
       </c>
       <c r="CL9" s="92" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CM9" s="93"/>
     </row>
@@ -18567,7 +18573,7 @@
         <v>191</v>
       </c>
       <c r="CL10" s="84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="CM10" s="93"/>
     </row>
@@ -18666,7 +18672,7 @@
         <v>192</v>
       </c>
       <c r="CL11" s="86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CM11" s="93"/>
     </row>
@@ -18787,7 +18793,7 @@
         <v>193</v>
       </c>
       <c r="CL12" s="86" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CM12" s="93"/>
     </row>
@@ -18886,7 +18892,7 @@
         <v>194</v>
       </c>
       <c r="CL13" s="86" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="CM13" s="93"/>
     </row>
@@ -18993,7 +18999,7 @@
         <v>195</v>
       </c>
       <c r="CL14" s="86" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="CM14" s="93"/>
     </row>
@@ -19092,7 +19098,7 @@
         <v>196</v>
       </c>
       <c r="CL15" s="86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="CM15" s="93"/>
     </row>
@@ -19197,7 +19203,7 @@
         <v>197</v>
       </c>
       <c r="CL16" s="86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="CM16" s="93"/>
     </row>
@@ -19308,7 +19314,7 @@
         <v>198</v>
       </c>
       <c r="CL17" s="86" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="CM17" s="93"/>
     </row>
@@ -19411,7 +19417,7 @@
         <v>199</v>
       </c>
       <c r="CL18" s="86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="CM18" s="93"/>
     </row>
@@ -19518,7 +19524,7 @@
         <v>200</v>
       </c>
       <c r="CL19" s="86" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="CM19" s="93"/>
     </row>
@@ -19621,7 +19627,7 @@
         <v>201</v>
       </c>
       <c r="CL20" s="86" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CM20" s="93"/>
     </row>
@@ -19752,7 +19758,7 @@
         <v>202</v>
       </c>
       <c r="CL21" s="86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="CM21" s="93"/>
     </row>
@@ -19853,7 +19859,7 @@
         <v>203</v>
       </c>
       <c r="CL22" s="86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="CM22" s="93"/>
     </row>
@@ -19970,7 +19976,7 @@
         <v>204</v>
       </c>
       <c r="CL23" s="86" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="CM23" s="93"/>
     </row>
@@ -20069,7 +20075,7 @@
         <v>205</v>
       </c>
       <c r="CL24" s="88" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="CM24" s="93"/>
     </row>
@@ -20170,7 +20176,7 @@
         <v>207</v>
       </c>
       <c r="CL25" s="89" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CM25" s="93"/>
     </row>
@@ -20189,15 +20195,15 @@
       <c r="J26" s="40"/>
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
-      <c r="M26" s="98"/>
+      <c r="M26" s="40"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="104"/>
+      <c r="O26" s="58"/>
       <c r="P26" s="38"/>
-      <c r="Q26" s="104"/>
+      <c r="Q26" s="58"/>
       <c r="R26" s="38"/>
-      <c r="S26" s="104"/>
+      <c r="S26" s="58"/>
       <c r="T26" s="38"/>
-      <c r="U26" s="104"/>
+      <c r="U26" s="58"/>
       <c r="V26" s="40"/>
       <c r="W26" s="40"/>
       <c r="X26" s="40"/>
@@ -20208,7 +20214,7 @@
       <c r="AC26" s="38"/>
       <c r="AD26" s="58"/>
       <c r="AE26" s="40"/>
-      <c r="AF26" s="98"/>
+      <c r="AF26" s="40"/>
       <c r="AG26" s="98"/>
       <c r="AH26" s="40"/>
       <c r="AI26" s="38"/>
@@ -20247,7 +20253,7 @@
       <c r="BP26" s="56"/>
       <c r="BQ26" s="58"/>
       <c r="BR26" s="40"/>
-      <c r="BS26" s="98"/>
+      <c r="BS26" s="40"/>
       <c r="BT26" s="40"/>
       <c r="BU26" s="40"/>
       <c r="BV26" s="40"/>
@@ -20269,7 +20275,7 @@
         <v>208</v>
       </c>
       <c r="CL26" s="25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CM26" s="93"/>
     </row>
@@ -20306,7 +20312,7 @@
       <c r="AB27" s="58"/>
       <c r="AC27" s="38"/>
       <c r="AD27" s="58"/>
-      <c r="AE27" s="98"/>
+      <c r="AE27" s="40"/>
       <c r="AF27" s="98"/>
       <c r="AG27" s="98"/>
       <c r="AH27" s="40"/>
@@ -20368,7 +20374,7 @@
         <v>209</v>
       </c>
       <c r="CL27" s="25" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CM27" s="93"/>
     </row>
@@ -20405,7 +20411,7 @@
       <c r="AB28" s="58"/>
       <c r="AC28" s="38"/>
       <c r="AD28" s="58"/>
-      <c r="AE28" s="40"/>
+      <c r="AE28" s="98"/>
       <c r="AF28" s="98"/>
       <c r="AG28" s="98"/>
       <c r="AH28" s="40"/>
@@ -20467,7 +20473,7 @@
         <v>210</v>
       </c>
       <c r="CL28" s="25" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="CM28" s="93"/>
     </row>
@@ -20566,7 +20572,7 @@
         <v>211</v>
       </c>
       <c r="CL29" s="25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="CM29" s="93"/>
     </row>
@@ -20583,17 +20589,17 @@
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="42"/>
+      <c r="K30" s="40"/>
       <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
+      <c r="M30" s="98"/>
       <c r="N30" s="38"/>
-      <c r="O30" s="58"/>
+      <c r="O30" s="104"/>
       <c r="P30" s="38"/>
-      <c r="Q30" s="58"/>
+      <c r="Q30" s="104"/>
       <c r="R30" s="38"/>
-      <c r="S30" s="58"/>
+      <c r="S30" s="104"/>
       <c r="T30" s="38"/>
-      <c r="U30" s="58"/>
+      <c r="U30" s="104"/>
       <c r="V30" s="40"/>
       <c r="W30" s="40"/>
       <c r="X30" s="40"/>
@@ -20603,9 +20609,9 @@
       <c r="AB30" s="58"/>
       <c r="AC30" s="38"/>
       <c r="AD30" s="58"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="42"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="98"/>
       <c r="AH30" s="40"/>
       <c r="AI30" s="38"/>
       <c r="AJ30" s="58"/>
@@ -20643,7 +20649,7 @@
       <c r="BP30" s="56"/>
       <c r="BQ30" s="58"/>
       <c r="BR30" s="40"/>
-      <c r="BS30" s="40"/>
+      <c r="BS30" s="98"/>
       <c r="BT30" s="40"/>
       <c r="BU30" s="40"/>
       <c r="BV30" s="40"/>
@@ -20655,17 +20661,17 @@
       <c r="CB30" s="58"/>
       <c r="CC30" s="38"/>
       <c r="CD30" s="58"/>
-      <c r="CE30" s="42"/>
-      <c r="CF30" s="42"/>
-      <c r="CG30" s="42"/>
-      <c r="CH30" s="42"/>
+      <c r="CE30" s="98"/>
+      <c r="CF30" s="98"/>
+      <c r="CG30" s="98"/>
+      <c r="CH30" s="98"/>
       <c r="CI30" s="40"/>
       <c r="CJ30" s="40"/>
       <c r="CK30" s="90" t="s">
         <v>212</v>
       </c>
       <c r="CL30" s="25" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="CM30" s="93"/>
     </row>
@@ -20682,7 +20688,7 @@
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="98"/>
+      <c r="K31" s="42"/>
       <c r="L31" s="40"/>
       <c r="M31" s="40"/>
       <c r="N31" s="38"/>
@@ -20764,7 +20770,7 @@
         <v>213</v>
       </c>
       <c r="CL31" s="25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="CM31" s="93"/>
     </row>
@@ -20781,7 +20787,7 @@
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="K32" s="98"/>
       <c r="L32" s="40"/>
       <c r="M32" s="40"/>
       <c r="N32" s="38"/>
@@ -20801,9 +20807,9 @@
       <c r="AB32" s="58"/>
       <c r="AC32" s="38"/>
       <c r="AD32" s="58"/>
-      <c r="AE32" s="40"/>
+      <c r="AE32" s="42"/>
       <c r="AF32" s="40"/>
-      <c r="AG32" s="98"/>
+      <c r="AG32" s="42"/>
       <c r="AH32" s="40"/>
       <c r="AI32" s="38"/>
       <c r="AJ32" s="58"/>
@@ -20853,17 +20859,17 @@
       <c r="CB32" s="58"/>
       <c r="CC32" s="38"/>
       <c r="CD32" s="58"/>
-      <c r="CE32" s="98"/>
-      <c r="CF32" s="98"/>
-      <c r="CG32" s="98"/>
-      <c r="CH32" s="98"/>
+      <c r="CE32" s="42"/>
+      <c r="CF32" s="42"/>
+      <c r="CG32" s="42"/>
+      <c r="CH32" s="42"/>
       <c r="CI32" s="40"/>
       <c r="CJ32" s="40"/>
       <c r="CK32" s="90" t="s">
         <v>214</v>
       </c>
       <c r="CL32" s="25" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="CM32" s="93"/>
     </row>
@@ -20882,15 +20888,15 @@
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
       <c r="L33" s="40"/>
-      <c r="M33" s="42"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="38"/>
-      <c r="O33" s="62"/>
+      <c r="O33" s="58"/>
       <c r="P33" s="38"/>
-      <c r="Q33" s="62"/>
+      <c r="Q33" s="58"/>
       <c r="R33" s="38"/>
-      <c r="S33" s="62"/>
+      <c r="S33" s="58"/>
       <c r="T33" s="38"/>
-      <c r="U33" s="62"/>
+      <c r="U33" s="58"/>
       <c r="V33" s="40"/>
       <c r="W33" s="40"/>
       <c r="X33" s="40"/>
@@ -20900,9 +20906,9 @@
       <c r="AB33" s="58"/>
       <c r="AC33" s="38"/>
       <c r="AD33" s="58"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="40"/>
+      <c r="AG33" s="98"/>
       <c r="AH33" s="40"/>
       <c r="AI33" s="38"/>
       <c r="AJ33" s="58"/>
@@ -20940,7 +20946,7 @@
       <c r="BP33" s="56"/>
       <c r="BQ33" s="58"/>
       <c r="BR33" s="40"/>
-      <c r="BS33" s="42"/>
+      <c r="BS33" s="40"/>
       <c r="BT33" s="40"/>
       <c r="BU33" s="40"/>
       <c r="BV33" s="40"/>
@@ -20952,17 +20958,17 @@
       <c r="CB33" s="58"/>
       <c r="CC33" s="38"/>
       <c r="CD33" s="58"/>
-      <c r="CE33" s="42"/>
-      <c r="CF33" s="42"/>
-      <c r="CG33" s="42"/>
-      <c r="CH33" s="42"/>
+      <c r="CE33" s="98"/>
+      <c r="CF33" s="98"/>
+      <c r="CG33" s="98"/>
+      <c r="CH33" s="98"/>
       <c r="CI33" s="40"/>
       <c r="CJ33" s="40"/>
       <c r="CK33" s="90" t="s">
         <v>215</v>
       </c>
       <c r="CL33" s="25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CM33" s="93"/>
     </row>
@@ -20981,15 +20987,15 @@
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
       <c r="L34" s="40"/>
-      <c r="M34" s="98"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="38"/>
-      <c r="O34" s="104"/>
+      <c r="O34" s="62"/>
       <c r="P34" s="38"/>
-      <c r="Q34" s="104"/>
+      <c r="Q34" s="62"/>
       <c r="R34" s="38"/>
-      <c r="S34" s="104"/>
+      <c r="S34" s="62"/>
       <c r="T34" s="38"/>
-      <c r="U34" s="104"/>
+      <c r="U34" s="62"/>
       <c r="V34" s="40"/>
       <c r="W34" s="40"/>
       <c r="X34" s="40"/>
@@ -20999,9 +21005,9 @@
       <c r="AB34" s="58"/>
       <c r="AC34" s="38"/>
       <c r="AD34" s="58"/>
-      <c r="AE34" s="98"/>
-      <c r="AF34" s="98"/>
-      <c r="AG34" s="98"/>
+      <c r="AE34" s="42"/>
+      <c r="AF34" s="42"/>
+      <c r="AG34" s="42"/>
       <c r="AH34" s="40"/>
       <c r="AI34" s="38"/>
       <c r="AJ34" s="58"/>
@@ -21039,7 +21045,7 @@
       <c r="BP34" s="56"/>
       <c r="BQ34" s="58"/>
       <c r="BR34" s="40"/>
-      <c r="BS34" s="98"/>
+      <c r="BS34" s="42"/>
       <c r="BT34" s="40"/>
       <c r="BU34" s="40"/>
       <c r="BV34" s="40"/>
@@ -21051,17 +21057,17 @@
       <c r="CB34" s="58"/>
       <c r="CC34" s="38"/>
       <c r="CD34" s="58"/>
-      <c r="CE34" s="98"/>
-      <c r="CF34" s="98"/>
-      <c r="CG34" s="98"/>
-      <c r="CH34" s="98"/>
+      <c r="CE34" s="42"/>
+      <c r="CF34" s="42"/>
+      <c r="CG34" s="42"/>
+      <c r="CH34" s="42"/>
       <c r="CI34" s="40"/>
       <c r="CJ34" s="40"/>
       <c r="CK34" s="90" t="s">
         <v>216</v>
       </c>
       <c r="CL34" s="25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="CM34" s="93"/>
     </row>
@@ -21082,13 +21088,13 @@
       <c r="L35" s="40"/>
       <c r="M35" s="98"/>
       <c r="N35" s="38"/>
-      <c r="O35" s="58"/>
+      <c r="O35" s="104"/>
       <c r="P35" s="38"/>
       <c r="Q35" s="104"/>
       <c r="R35" s="38"/>
-      <c r="S35" s="58"/>
+      <c r="S35" s="104"/>
       <c r="T35" s="38"/>
-      <c r="U35" s="58"/>
+      <c r="U35" s="104"/>
       <c r="V35" s="40"/>
       <c r="W35" s="40"/>
       <c r="X35" s="40"/>
@@ -21098,7 +21104,7 @@
       <c r="AB35" s="58"/>
       <c r="AC35" s="38"/>
       <c r="AD35" s="58"/>
-      <c r="AE35" s="40"/>
+      <c r="AE35" s="98"/>
       <c r="AF35" s="98"/>
       <c r="AG35" s="98"/>
       <c r="AH35" s="40"/>
@@ -21160,7 +21166,7 @@
         <v>217</v>
       </c>
       <c r="CL35" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="CM35" s="93"/>
     </row>
@@ -21181,13 +21187,13 @@
       <c r="L36" s="40"/>
       <c r="M36" s="98"/>
       <c r="N36" s="38"/>
-      <c r="O36" s="104"/>
+      <c r="O36" s="58"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="104"/>
       <c r="R36" s="38"/>
-      <c r="S36" s="104"/>
+      <c r="S36" s="58"/>
       <c r="T36" s="38"/>
-      <c r="U36" s="104"/>
+      <c r="U36" s="58"/>
       <c r="V36" s="40"/>
       <c r="W36" s="40"/>
       <c r="X36" s="40"/>
@@ -21197,7 +21203,7 @@
       <c r="AB36" s="58"/>
       <c r="AC36" s="38"/>
       <c r="AD36" s="58"/>
-      <c r="AE36" s="98"/>
+      <c r="AE36" s="40"/>
       <c r="AF36" s="98"/>
       <c r="AG36" s="98"/>
       <c r="AH36" s="40"/>
@@ -21259,7 +21265,7 @@
         <v>218</v>
       </c>
       <c r="CL36" s="25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="CM36" s="93"/>
     </row>
@@ -21276,17 +21282,17 @@
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="98"/>
+      <c r="K37" s="40"/>
       <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
+      <c r="M37" s="98"/>
       <c r="N37" s="38"/>
-      <c r="O37" s="58"/>
+      <c r="O37" s="104"/>
       <c r="P37" s="38"/>
-      <c r="Q37" s="58"/>
+      <c r="Q37" s="104"/>
       <c r="R37" s="38"/>
-      <c r="S37" s="58"/>
+      <c r="S37" s="104"/>
       <c r="T37" s="38"/>
-      <c r="U37" s="58"/>
+      <c r="U37" s="104"/>
       <c r="V37" s="40"/>
       <c r="W37" s="40"/>
       <c r="X37" s="40"/>
@@ -21297,7 +21303,7 @@
       <c r="AC37" s="38"/>
       <c r="AD37" s="58"/>
       <c r="AE37" s="98"/>
-      <c r="AF37" s="40"/>
+      <c r="AF37" s="98"/>
       <c r="AG37" s="98"/>
       <c r="AH37" s="40"/>
       <c r="AI37" s="38"/>
@@ -21336,7 +21342,7 @@
       <c r="BP37" s="56"/>
       <c r="BQ37" s="58"/>
       <c r="BR37" s="40"/>
-      <c r="BS37" s="40"/>
+      <c r="BS37" s="98"/>
       <c r="BT37" s="40"/>
       <c r="BU37" s="40"/>
       <c r="BV37" s="40"/>
@@ -21358,7 +21364,7 @@
         <v>219</v>
       </c>
       <c r="CL37" s="25" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="CM37" s="93"/>
     </row>
@@ -21375,17 +21381,17 @@
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
+      <c r="K38" s="98"/>
       <c r="L38" s="40"/>
-      <c r="M38" s="98"/>
+      <c r="M38" s="40"/>
       <c r="N38" s="38"/>
-      <c r="O38" s="104"/>
+      <c r="O38" s="58"/>
       <c r="P38" s="38"/>
-      <c r="Q38" s="104"/>
+      <c r="Q38" s="58"/>
       <c r="R38" s="38"/>
-      <c r="S38" s="104"/>
+      <c r="S38" s="58"/>
       <c r="T38" s="38"/>
-      <c r="U38" s="104"/>
+      <c r="U38" s="58"/>
       <c r="V38" s="40"/>
       <c r="W38" s="40"/>
       <c r="X38" s="40"/>
@@ -21396,7 +21402,7 @@
       <c r="AC38" s="38"/>
       <c r="AD38" s="58"/>
       <c r="AE38" s="98"/>
-      <c r="AF38" s="98"/>
+      <c r="AF38" s="40"/>
       <c r="AG38" s="98"/>
       <c r="AH38" s="40"/>
       <c r="AI38" s="38"/>
@@ -21435,7 +21441,7 @@
       <c r="BP38" s="56"/>
       <c r="BQ38" s="58"/>
       <c r="BR38" s="40"/>
-      <c r="BS38" s="98"/>
+      <c r="BS38" s="40"/>
       <c r="BT38" s="40"/>
       <c r="BU38" s="40"/>
       <c r="BV38" s="40"/>
@@ -21457,7 +21463,7 @@
         <v>220</v>
       </c>
       <c r="CL38" s="25" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="CM38" s="93"/>
     </row>
@@ -21556,7 +21562,7 @@
         <v>221</v>
       </c>
       <c r="CL39" s="25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="CM39" s="93"/>
     </row>
@@ -21593,7 +21599,7 @@
       <c r="AB40" s="58"/>
       <c r="AC40" s="38"/>
       <c r="AD40" s="58"/>
-      <c r="AE40" s="40"/>
+      <c r="AE40" s="98"/>
       <c r="AF40" s="98"/>
       <c r="AG40" s="98"/>
       <c r="AH40" s="40"/>
@@ -21655,7 +21661,7 @@
         <v>222</v>
       </c>
       <c r="CL40" s="25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="CM40" s="93"/>
     </row>
@@ -21673,16 +21679,16 @@
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
       <c r="K41" s="40"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="98"/>
       <c r="N41" s="38"/>
-      <c r="O41" s="62"/>
+      <c r="O41" s="104"/>
       <c r="P41" s="38"/>
-      <c r="Q41" s="62"/>
+      <c r="Q41" s="104"/>
       <c r="R41" s="38"/>
-      <c r="S41" s="62"/>
+      <c r="S41" s="104"/>
       <c r="T41" s="38"/>
-      <c r="U41" s="62"/>
+      <c r="U41" s="104"/>
       <c r="V41" s="40"/>
       <c r="W41" s="40"/>
       <c r="X41" s="40"/>
@@ -21693,8 +21699,8 @@
       <c r="AC41" s="38"/>
       <c r="AD41" s="58"/>
       <c r="AE41" s="40"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="42"/>
+      <c r="AF41" s="98"/>
+      <c r="AG41" s="98"/>
       <c r="AH41" s="40"/>
       <c r="AI41" s="38"/>
       <c r="AJ41" s="58"/>
@@ -21732,7 +21738,7 @@
       <c r="BP41" s="56"/>
       <c r="BQ41" s="58"/>
       <c r="BR41" s="40"/>
-      <c r="BS41" s="42"/>
+      <c r="BS41" s="98"/>
       <c r="BT41" s="40"/>
       <c r="BU41" s="40"/>
       <c r="BV41" s="40"/>
@@ -21744,17 +21750,17 @@
       <c r="CB41" s="58"/>
       <c r="CC41" s="38"/>
       <c r="CD41" s="58"/>
-      <c r="CE41" s="42"/>
-      <c r="CF41" s="42"/>
-      <c r="CG41" s="42"/>
-      <c r="CH41" s="42"/>
+      <c r="CE41" s="98"/>
+      <c r="CF41" s="98"/>
+      <c r="CG41" s="98"/>
+      <c r="CH41" s="98"/>
       <c r="CI41" s="40"/>
       <c r="CJ41" s="40"/>
       <c r="CK41" s="90" t="s">
         <v>223</v>
       </c>
       <c r="CL41" s="25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="CM41" s="93"/>
     </row>
@@ -21772,14 +21778,12 @@
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
       <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
+      <c r="L42" s="42"/>
       <c r="M42" s="42"/>
       <c r="N42" s="38"/>
       <c r="O42" s="62"/>
       <c r="P42" s="38"/>
-      <c r="Q42" s="71">
-        <v>1</v>
-      </c>
+      <c r="Q42" s="62"/>
       <c r="R42" s="38"/>
       <c r="S42" s="62"/>
       <c r="T42" s="38"/>
@@ -21855,7 +21859,7 @@
         <v>224</v>
       </c>
       <c r="CL42" s="25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="CM42" s="93"/>
     </row>
@@ -21873,12 +21877,14 @@
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
       <c r="K43" s="40"/>
-      <c r="L43" s="42"/>
+      <c r="L43" s="40"/>
       <c r="M43" s="42"/>
       <c r="N43" s="38"/>
       <c r="O43" s="62"/>
       <c r="P43" s="38"/>
-      <c r="Q43" s="62"/>
+      <c r="Q43" s="71">
+        <v>1</v>
+      </c>
       <c r="R43" s="38"/>
       <c r="S43" s="62"/>
       <c r="T43" s="38"/>
@@ -21954,7 +21960,7 @@
         <v>225</v>
       </c>
       <c r="CL43" s="25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="CM43" s="93"/>
     </row>
@@ -21972,16 +21978,16 @@
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
       <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="40"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
       <c r="N44" s="38"/>
-      <c r="O44" s="58"/>
+      <c r="O44" s="62"/>
       <c r="P44" s="38"/>
-      <c r="Q44" s="58"/>
+      <c r="Q44" s="62"/>
       <c r="R44" s="38"/>
-      <c r="S44" s="58"/>
+      <c r="S44" s="62"/>
       <c r="T44" s="38"/>
-      <c r="U44" s="58"/>
+      <c r="U44" s="62"/>
       <c r="V44" s="40"/>
       <c r="W44" s="40"/>
       <c r="X44" s="40"/>
@@ -21992,8 +21998,8 @@
       <c r="AC44" s="38"/>
       <c r="AD44" s="58"/>
       <c r="AE44" s="40"/>
-      <c r="AF44" s="98"/>
-      <c r="AG44" s="98"/>
+      <c r="AF44" s="42"/>
+      <c r="AG44" s="42"/>
       <c r="AH44" s="40"/>
       <c r="AI44" s="38"/>
       <c r="AJ44" s="58"/>
@@ -22031,7 +22037,7 @@
       <c r="BP44" s="56"/>
       <c r="BQ44" s="58"/>
       <c r="BR44" s="40"/>
-      <c r="BS44" s="40"/>
+      <c r="BS44" s="42"/>
       <c r="BT44" s="40"/>
       <c r="BU44" s="40"/>
       <c r="BV44" s="40"/>
@@ -22043,17 +22049,17 @@
       <c r="CB44" s="58"/>
       <c r="CC44" s="38"/>
       <c r="CD44" s="58"/>
-      <c r="CE44" s="40"/>
-      <c r="CF44" s="40"/>
-      <c r="CG44" s="40"/>
-      <c r="CH44" s="40"/>
+      <c r="CE44" s="42"/>
+      <c r="CF44" s="42"/>
+      <c r="CG44" s="42"/>
+      <c r="CH44" s="42"/>
       <c r="CI44" s="40"/>
       <c r="CJ44" s="40"/>
       <c r="CK44" s="90" t="s">
         <v>226</v>
       </c>
       <c r="CL44" s="25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="CM44" s="93"/>
     </row>
@@ -22067,71 +22073,69 @@
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
       <c r="G45" s="40"/>
-      <c r="H45" s="98"/>
+      <c r="H45" s="40"/>
       <c r="I45" s="40"/>
-      <c r="J45" s="98"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="40"/>
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
-      <c r="N45" s="103"/>
+      <c r="N45" s="38"/>
       <c r="O45" s="58"/>
-      <c r="P45" s="103"/>
+      <c r="P45" s="38"/>
       <c r="Q45" s="58"/>
-      <c r="R45" s="103"/>
+      <c r="R45" s="38"/>
       <c r="S45" s="58"/>
-      <c r="T45" s="103"/>
+      <c r="T45" s="38"/>
       <c r="U45" s="58"/>
       <c r="V45" s="40"/>
       <c r="W45" s="40"/>
       <c r="X45" s="40"/>
       <c r="Y45" s="38"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="103"/>
-      <c r="AB45" s="104"/>
-      <c r="AC45" s="103"/>
-      <c r="AD45" s="104"/>
+      <c r="Z45" s="58"/>
+      <c r="AA45" s="38"/>
+      <c r="AB45" s="58"/>
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="58"/>
       <c r="AE45" s="40"/>
-      <c r="AF45" s="40"/>
-      <c r="AG45" s="40"/>
+      <c r="AF45" s="98"/>
+      <c r="AG45" s="98"/>
       <c r="AH45" s="40"/>
       <c r="AI45" s="38"/>
       <c r="AJ45" s="58"/>
       <c r="AK45" s="38"/>
-      <c r="AL45" s="104"/>
+      <c r="AL45" s="58"/>
       <c r="AM45" s="38"/>
       <c r="AN45" s="56"/>
-      <c r="AO45" s="104"/>
+      <c r="AO45" s="58"/>
       <c r="AP45" s="38"/>
       <c r="AQ45" s="56"/>
-      <c r="AR45" s="104"/>
+      <c r="AR45" s="58"/>
       <c r="AS45" s="40"/>
       <c r="AT45" s="40"/>
       <c r="AU45" s="40"/>
       <c r="AV45" s="38"/>
       <c r="AW45" s="58"/>
-      <c r="AX45" s="98"/>
-      <c r="AY45" s="98"/>
-      <c r="AZ45" s="103"/>
-      <c r="BA45" s="104"/>
-      <c r="BB45" s="107">
-        <v>2</v>
-      </c>
+      <c r="AX45" s="40"/>
+      <c r="AY45" s="40"/>
+      <c r="AZ45" s="38"/>
+      <c r="BA45" s="58"/>
+      <c r="BB45" s="38"/>
       <c r="BC45" s="56"/>
       <c r="BD45" s="58"/>
-      <c r="BE45" s="103"/>
+      <c r="BE45" s="38"/>
       <c r="BF45" s="56"/>
       <c r="BG45" s="58"/>
-      <c r="BH45" s="103"/>
-      <c r="BI45" s="104"/>
-      <c r="BJ45" s="98"/>
-      <c r="BK45" s="103"/>
+      <c r="BH45" s="38"/>
+      <c r="BI45" s="58"/>
+      <c r="BJ45" s="40"/>
+      <c r="BK45" s="38"/>
       <c r="BL45" s="56"/>
       <c r="BM45" s="58"/>
-      <c r="BN45" s="103"/>
+      <c r="BN45" s="38"/>
       <c r="BO45" s="56"/>
       <c r="BP45" s="56"/>
       <c r="BQ45" s="58"/>
-      <c r="BR45" s="98"/>
+      <c r="BR45" s="40"/>
       <c r="BS45" s="40"/>
       <c r="BT45" s="40"/>
       <c r="BU45" s="40"/>
@@ -22143,7 +22147,7 @@
       <c r="CA45" s="38"/>
       <c r="CB45" s="58"/>
       <c r="CC45" s="38"/>
-      <c r="CD45" s="104"/>
+      <c r="CD45" s="58"/>
       <c r="CE45" s="40"/>
       <c r="CF45" s="40"/>
       <c r="CG45" s="40"/>
@@ -22154,308 +22158,310 @@
         <v>227</v>
       </c>
       <c r="CL45" s="25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="CM45" s="93"/>
     </row>
-    <row r="46" spans="1:91" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A46" s="93"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="92" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="102"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="105"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="105"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="105"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="105"/>
-      <c r="V46" s="41"/>
-      <c r="W46" s="41"/>
-      <c r="X46" s="41"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="60"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="60"/>
-      <c r="AC46" s="59"/>
-      <c r="AD46" s="60"/>
-      <c r="AE46" s="41"/>
-      <c r="AF46" s="102"/>
-      <c r="AG46" s="67"/>
-      <c r="AH46" s="41"/>
-      <c r="AI46" s="59"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="59"/>
-      <c r="AL46" s="60"/>
-      <c r="AM46" s="59"/>
-      <c r="AN46" s="74"/>
-      <c r="AO46" s="60"/>
-      <c r="AP46" s="59"/>
-      <c r="AQ46" s="74"/>
-      <c r="AR46" s="60"/>
-      <c r="AS46" s="41"/>
-      <c r="AT46" s="41"/>
-      <c r="AU46" s="41"/>
-      <c r="AV46" s="59"/>
-      <c r="AW46" s="60"/>
-      <c r="AX46" s="41"/>
-      <c r="AY46" s="41"/>
-      <c r="AZ46" s="59"/>
-      <c r="BA46" s="60"/>
-      <c r="BB46" s="59"/>
-      <c r="BC46" s="74"/>
-      <c r="BD46" s="60"/>
-      <c r="BE46" s="59"/>
-      <c r="BF46" s="74"/>
-      <c r="BG46" s="60"/>
-      <c r="BH46" s="59"/>
-      <c r="BI46" s="60"/>
-      <c r="BJ46" s="41"/>
-      <c r="BK46" s="59"/>
-      <c r="BL46" s="74"/>
-      <c r="BM46" s="60"/>
-      <c r="BN46" s="59"/>
-      <c r="BO46" s="74"/>
-      <c r="BP46" s="74"/>
-      <c r="BQ46" s="60"/>
-      <c r="BR46" s="41"/>
-      <c r="BS46" s="102"/>
-      <c r="BT46" s="41"/>
-      <c r="BU46" s="41"/>
-      <c r="BV46" s="41"/>
-      <c r="BW46" s="59"/>
-      <c r="BX46" s="60"/>
-      <c r="BY46" s="59"/>
-      <c r="BZ46" s="60"/>
-      <c r="CA46" s="59"/>
-      <c r="CB46" s="60"/>
-      <c r="CC46" s="59"/>
-      <c r="CD46" s="60"/>
-      <c r="CE46" s="102"/>
-      <c r="CF46" s="102"/>
-      <c r="CG46" s="102"/>
-      <c r="CH46" s="102"/>
-      <c r="CI46" s="41"/>
-      <c r="CJ46" s="41"/>
-      <c r="CK46" s="91" t="s">
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="103"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="103"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="38"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="103"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="103"/>
+      <c r="AD46" s="104"/>
+      <c r="AE46" s="40"/>
+      <c r="AF46" s="40"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="40"/>
+      <c r="AI46" s="38"/>
+      <c r="AJ46" s="58"/>
+      <c r="AK46" s="38"/>
+      <c r="AL46" s="104"/>
+      <c r="AM46" s="38"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="104"/>
+      <c r="AP46" s="38"/>
+      <c r="AQ46" s="56"/>
+      <c r="AR46" s="104"/>
+      <c r="AS46" s="40"/>
+      <c r="AT46" s="40"/>
+      <c r="AU46" s="40"/>
+      <c r="AV46" s="38"/>
+      <c r="AW46" s="58"/>
+      <c r="AX46" s="98"/>
+      <c r="AY46" s="98"/>
+      <c r="AZ46" s="103"/>
+      <c r="BA46" s="104"/>
+      <c r="BB46" s="107">
+        <v>2</v>
+      </c>
+      <c r="BC46" s="56"/>
+      <c r="BD46" s="58"/>
+      <c r="BE46" s="103"/>
+      <c r="BF46" s="56"/>
+      <c r="BG46" s="58"/>
+      <c r="BH46" s="103"/>
+      <c r="BI46" s="104"/>
+      <c r="BJ46" s="98"/>
+      <c r="BK46" s="103"/>
+      <c r="BL46" s="56"/>
+      <c r="BM46" s="58"/>
+      <c r="BN46" s="103"/>
+      <c r="BO46" s="56"/>
+      <c r="BP46" s="56"/>
+      <c r="BQ46" s="58"/>
+      <c r="BR46" s="98"/>
+      <c r="BS46" s="40"/>
+      <c r="BT46" s="40"/>
+      <c r="BU46" s="40"/>
+      <c r="BV46" s="40"/>
+      <c r="BW46" s="38"/>
+      <c r="BX46" s="58"/>
+      <c r="BY46" s="38"/>
+      <c r="BZ46" s="58"/>
+      <c r="CA46" s="38"/>
+      <c r="CB46" s="58"/>
+      <c r="CC46" s="38"/>
+      <c r="CD46" s="104"/>
+      <c r="CE46" s="40"/>
+      <c r="CF46" s="40"/>
+      <c r="CG46" s="40"/>
+      <c r="CH46" s="40"/>
+      <c r="CI46" s="40"/>
+      <c r="CJ46" s="40"/>
+      <c r="CK46" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="CL46" s="92" t="s">
-        <v>303</v>
+      <c r="CL46" s="25" t="s">
+        <v>304</v>
       </c>
       <c r="CM46" s="93"/>
     </row>
-    <row r="47" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:91" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="93"/>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="31"/>
+      <c r="C47" s="92" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="84" t="s">
-        <v>230</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="100">
-        <v>3</v>
-      </c>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="51"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="51"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="51"/>
-      <c r="AE47" s="48"/>
-      <c r="AF47" s="48"/>
-      <c r="AG47" s="48"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="51"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="51"/>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="49"/>
-      <c r="AO47" s="51"/>
-      <c r="AP47" s="32"/>
-      <c r="AQ47" s="49"/>
-      <c r="AR47" s="51"/>
-      <c r="AS47" s="34"/>
-      <c r="AT47" s="34"/>
-      <c r="AU47" s="34"/>
-      <c r="AV47" s="32"/>
-      <c r="AW47" s="51"/>
-      <c r="AX47" s="34"/>
-      <c r="AY47" s="34"/>
-      <c r="AZ47" s="32"/>
-      <c r="BA47" s="51"/>
-      <c r="BB47" s="32"/>
-      <c r="BC47" s="49"/>
-      <c r="BD47" s="51"/>
-      <c r="BE47" s="32"/>
-      <c r="BF47" s="49"/>
-      <c r="BG47" s="51"/>
-      <c r="BH47" s="32"/>
-      <c r="BI47" s="51"/>
-      <c r="BJ47" s="34"/>
-      <c r="BK47" s="32"/>
-      <c r="BL47" s="49"/>
-      <c r="BM47" s="51"/>
-      <c r="BN47" s="32"/>
-      <c r="BO47" s="49"/>
-      <c r="BP47" s="49"/>
-      <c r="BQ47" s="51"/>
-      <c r="BR47" s="34"/>
-      <c r="BS47" s="48"/>
-      <c r="BT47" s="34"/>
-      <c r="BU47" s="34"/>
-      <c r="BV47" s="34"/>
-      <c r="BW47" s="32"/>
-      <c r="BX47" s="51"/>
-      <c r="BY47" s="32"/>
-      <c r="BZ47" s="51"/>
-      <c r="CA47" s="32"/>
-      <c r="CB47" s="51"/>
-      <c r="CC47" s="32"/>
-      <c r="CD47" s="51"/>
-      <c r="CE47" s="48"/>
-      <c r="CF47" s="48"/>
-      <c r="CG47" s="48"/>
-      <c r="CH47" s="48"/>
-      <c r="CI47" s="34"/>
-      <c r="CJ47" s="34"/>
-      <c r="CK47" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL47" s="84" t="s">
-        <v>304</v>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="105"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="105"/>
+      <c r="T47" s="59"/>
+      <c r="U47" s="105"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="60"/>
+      <c r="AA47" s="59"/>
+      <c r="AB47" s="60"/>
+      <c r="AC47" s="59"/>
+      <c r="AD47" s="60"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="102"/>
+      <c r="AG47" s="67"/>
+      <c r="AH47" s="41"/>
+      <c r="AI47" s="59"/>
+      <c r="AJ47" s="60"/>
+      <c r="AK47" s="59"/>
+      <c r="AL47" s="60"/>
+      <c r="AM47" s="59"/>
+      <c r="AN47" s="74"/>
+      <c r="AO47" s="60"/>
+      <c r="AP47" s="59"/>
+      <c r="AQ47" s="74"/>
+      <c r="AR47" s="60"/>
+      <c r="AS47" s="41"/>
+      <c r="AT47" s="41"/>
+      <c r="AU47" s="41"/>
+      <c r="AV47" s="59"/>
+      <c r="AW47" s="60"/>
+      <c r="AX47" s="41"/>
+      <c r="AY47" s="41"/>
+      <c r="AZ47" s="59"/>
+      <c r="BA47" s="60"/>
+      <c r="BB47" s="59"/>
+      <c r="BC47" s="74"/>
+      <c r="BD47" s="60"/>
+      <c r="BE47" s="59"/>
+      <c r="BF47" s="74"/>
+      <c r="BG47" s="60"/>
+      <c r="BH47" s="59"/>
+      <c r="BI47" s="60"/>
+      <c r="BJ47" s="41"/>
+      <c r="BK47" s="59"/>
+      <c r="BL47" s="74"/>
+      <c r="BM47" s="60"/>
+      <c r="BN47" s="59"/>
+      <c r="BO47" s="74"/>
+      <c r="BP47" s="74"/>
+      <c r="BQ47" s="60"/>
+      <c r="BR47" s="41"/>
+      <c r="BS47" s="102"/>
+      <c r="BT47" s="41"/>
+      <c r="BU47" s="41"/>
+      <c r="BV47" s="41"/>
+      <c r="BW47" s="59"/>
+      <c r="BX47" s="60"/>
+      <c r="BY47" s="59"/>
+      <c r="BZ47" s="60"/>
+      <c r="CA47" s="59"/>
+      <c r="CB47" s="60"/>
+      <c r="CC47" s="59"/>
+      <c r="CD47" s="60"/>
+      <c r="CE47" s="67"/>
+      <c r="CF47" s="67"/>
+      <c r="CG47" s="67"/>
+      <c r="CH47" s="67"/>
+      <c r="CI47" s="41"/>
+      <c r="CJ47" s="41"/>
+      <c r="CK47" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL47" s="92" t="s">
+        <v>305</v>
       </c>
       <c r="CM47" s="93"/>
     </row>
     <row r="48" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A48" s="93"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="86" t="s">
+      <c r="B48" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="104"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="104"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="104"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="104"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="52"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="98"/>
-      <c r="AF48" s="98"/>
-      <c r="AG48" s="98"/>
-      <c r="AH48" s="35"/>
-      <c r="AI48" s="33"/>
-      <c r="AJ48" s="52"/>
-      <c r="AK48" s="33"/>
-      <c r="AL48" s="52"/>
-      <c r="AM48" s="33"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="52"/>
-      <c r="AP48" s="33"/>
-      <c r="AQ48" s="50"/>
-      <c r="AR48" s="52"/>
-      <c r="AS48" s="35"/>
-      <c r="AT48" s="35"/>
-      <c r="AU48" s="35"/>
-      <c r="AV48" s="33"/>
-      <c r="AW48" s="52"/>
-      <c r="AX48" s="35"/>
-      <c r="AY48" s="35"/>
-      <c r="AZ48" s="33"/>
-      <c r="BA48" s="52"/>
-      <c r="BB48" s="33"/>
-      <c r="BC48" s="50"/>
-      <c r="BD48" s="52"/>
-      <c r="BE48" s="33"/>
-      <c r="BF48" s="50"/>
-      <c r="BG48" s="52"/>
-      <c r="BH48" s="33"/>
-      <c r="BI48" s="52"/>
-      <c r="BJ48" s="35"/>
-      <c r="BK48" s="33"/>
-      <c r="BL48" s="50"/>
-      <c r="BM48" s="52"/>
-      <c r="BN48" s="33"/>
-      <c r="BO48" s="50"/>
-      <c r="BP48" s="50"/>
-      <c r="BQ48" s="52"/>
-      <c r="BR48" s="35"/>
-      <c r="BS48" s="98"/>
-      <c r="BT48" s="35"/>
-      <c r="BU48" s="35"/>
-      <c r="BV48" s="35"/>
-      <c r="BW48" s="33"/>
-      <c r="BX48" s="52"/>
-      <c r="BY48" s="33"/>
-      <c r="BZ48" s="52"/>
-      <c r="CA48" s="33"/>
-      <c r="CB48" s="52"/>
-      <c r="CC48" s="33"/>
-      <c r="CD48" s="52"/>
-      <c r="CE48" s="98"/>
-      <c r="CF48" s="98"/>
-      <c r="CG48" s="98"/>
-      <c r="CH48" s="98"/>
-      <c r="CI48" s="35"/>
-      <c r="CJ48" s="35"/>
-      <c r="CK48" s="85" t="s">
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="100">
+        <v>3</v>
+      </c>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="48"/>
+      <c r="AF48" s="48"/>
+      <c r="AG48" s="48"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="32"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="32"/>
+      <c r="AN48" s="49"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="32"/>
+      <c r="AQ48" s="49"/>
+      <c r="AR48" s="51"/>
+      <c r="AS48" s="34"/>
+      <c r="AT48" s="34"/>
+      <c r="AU48" s="34"/>
+      <c r="AV48" s="32"/>
+      <c r="AW48" s="51"/>
+      <c r="AX48" s="34"/>
+      <c r="AY48" s="34"/>
+      <c r="AZ48" s="32"/>
+      <c r="BA48" s="51"/>
+      <c r="BB48" s="32"/>
+      <c r="BC48" s="49"/>
+      <c r="BD48" s="51"/>
+      <c r="BE48" s="32"/>
+      <c r="BF48" s="49"/>
+      <c r="BG48" s="51"/>
+      <c r="BH48" s="32"/>
+      <c r="BI48" s="51"/>
+      <c r="BJ48" s="34"/>
+      <c r="BK48" s="32"/>
+      <c r="BL48" s="49"/>
+      <c r="BM48" s="51"/>
+      <c r="BN48" s="32"/>
+      <c r="BO48" s="49"/>
+      <c r="BP48" s="49"/>
+      <c r="BQ48" s="51"/>
+      <c r="BR48" s="34"/>
+      <c r="BS48" s="48"/>
+      <c r="BT48" s="34"/>
+      <c r="BU48" s="34"/>
+      <c r="BV48" s="34"/>
+      <c r="BW48" s="32"/>
+      <c r="BX48" s="51"/>
+      <c r="BY48" s="32"/>
+      <c r="BZ48" s="51"/>
+      <c r="CA48" s="32"/>
+      <c r="CB48" s="51"/>
+      <c r="CC48" s="32"/>
+      <c r="CD48" s="51"/>
+      <c r="CE48" s="48"/>
+      <c r="CF48" s="48"/>
+      <c r="CG48" s="48"/>
+      <c r="CH48" s="48"/>
+      <c r="CI48" s="34"/>
+      <c r="CJ48" s="34"/>
+      <c r="CK48" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="CL48" s="86" t="s">
-        <v>305</v>
+      <c r="CL48" s="84" t="s">
+        <v>306</v>
       </c>
       <c r="CM48" s="93"/>
     </row>
@@ -22474,17 +22480,15 @@
       <c r="J49" s="35"/>
       <c r="K49" s="35"/>
       <c r="L49" s="35"/>
-      <c r="M49" s="42"/>
+      <c r="M49" s="98"/>
       <c r="N49" s="33"/>
-      <c r="O49" s="62"/>
+      <c r="O49" s="104"/>
       <c r="P49" s="33"/>
-      <c r="Q49" s="71">
-        <v>1</v>
-      </c>
+      <c r="Q49" s="104"/>
       <c r="R49" s="33"/>
-      <c r="S49" s="62"/>
+      <c r="S49" s="104"/>
       <c r="T49" s="33"/>
-      <c r="U49" s="62"/>
+      <c r="U49" s="104"/>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
@@ -22494,9 +22498,9 @@
       <c r="AB49" s="52"/>
       <c r="AC49" s="33"/>
       <c r="AD49" s="52"/>
-      <c r="AE49" s="42"/>
-      <c r="AF49" s="42"/>
-      <c r="AG49" s="42"/>
+      <c r="AE49" s="98"/>
+      <c r="AF49" s="98"/>
+      <c r="AG49" s="98"/>
       <c r="AH49" s="35"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="52"/>
@@ -22534,7 +22538,7 @@
       <c r="BP49" s="50"/>
       <c r="BQ49" s="52"/>
       <c r="BR49" s="35"/>
-      <c r="BS49" s="42"/>
+      <c r="BS49" s="98"/>
       <c r="BT49" s="35"/>
       <c r="BU49" s="35"/>
       <c r="BV49" s="35"/>
@@ -22546,17 +22550,17 @@
       <c r="CB49" s="52"/>
       <c r="CC49" s="33"/>
       <c r="CD49" s="52"/>
-      <c r="CE49" s="42"/>
-      <c r="CF49" s="42"/>
-      <c r="CG49" s="42"/>
-      <c r="CH49" s="42"/>
+      <c r="CE49" s="98"/>
+      <c r="CF49" s="98"/>
+      <c r="CG49" s="98"/>
+      <c r="CH49" s="98"/>
       <c r="CI49" s="35"/>
       <c r="CJ49" s="35"/>
       <c r="CK49" s="85" t="s">
         <v>232</v>
       </c>
       <c r="CL49" s="86" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="CM49" s="93"/>
     </row>
@@ -22575,11 +22579,13 @@
       <c r="J50" s="35"/>
       <c r="K50" s="35"/>
       <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
+      <c r="M50" s="42"/>
       <c r="N50" s="33"/>
-      <c r="O50" s="52"/>
+      <c r="O50" s="62"/>
       <c r="P50" s="33"/>
-      <c r="Q50" s="52"/>
+      <c r="Q50" s="71">
+        <v>1</v>
+      </c>
       <c r="R50" s="33"/>
       <c r="S50" s="62"/>
       <c r="T50" s="33"/>
@@ -22593,9 +22599,9 @@
       <c r="AB50" s="52"/>
       <c r="AC50" s="33"/>
       <c r="AD50" s="52"/>
-      <c r="AE50" s="35"/>
-      <c r="AF50" s="35"/>
-      <c r="AG50" s="35"/>
+      <c r="AE50" s="42"/>
+      <c r="AF50" s="42"/>
+      <c r="AG50" s="42"/>
       <c r="AH50" s="35"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="52"/>
@@ -22633,7 +22639,7 @@
       <c r="BP50" s="50"/>
       <c r="BQ50" s="52"/>
       <c r="BR50" s="35"/>
-      <c r="BS50" s="35"/>
+      <c r="BS50" s="42"/>
       <c r="BT50" s="35"/>
       <c r="BU50" s="35"/>
       <c r="BV50" s="35"/>
@@ -22645,17 +22651,17 @@
       <c r="CB50" s="52"/>
       <c r="CC50" s="33"/>
       <c r="CD50" s="52"/>
-      <c r="CE50" s="35"/>
-      <c r="CF50" s="35"/>
-      <c r="CG50" s="35"/>
-      <c r="CH50" s="35"/>
+      <c r="CE50" s="42"/>
+      <c r="CF50" s="42"/>
+      <c r="CG50" s="42"/>
+      <c r="CH50" s="42"/>
       <c r="CI50" s="35"/>
       <c r="CJ50" s="35"/>
       <c r="CK50" s="85" t="s">
         <v>233</v>
       </c>
       <c r="CL50" s="86" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="CM50" s="93"/>
     </row>
@@ -22680,9 +22686,9 @@
       <c r="P51" s="33"/>
       <c r="Q51" s="52"/>
       <c r="R51" s="33"/>
-      <c r="S51" s="52"/>
+      <c r="S51" s="62"/>
       <c r="T51" s="33"/>
-      <c r="U51" s="52"/>
+      <c r="U51" s="62"/>
       <c r="V51" s="35"/>
       <c r="W51" s="35"/>
       <c r="X51" s="35"/>
@@ -22694,7 +22700,7 @@
       <c r="AD51" s="52"/>
       <c r="AE51" s="35"/>
       <c r="AF51" s="35"/>
-      <c r="AG51" s="42"/>
+      <c r="AG51" s="35"/>
       <c r="AH51" s="35"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="52"/>
@@ -22754,7 +22760,7 @@
         <v>234</v>
       </c>
       <c r="CL51" s="86" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="CM51" s="93"/>
     </row>
@@ -22779,9 +22785,9 @@
       <c r="P52" s="33"/>
       <c r="Q52" s="52"/>
       <c r="R52" s="33"/>
-      <c r="S52" s="62"/>
+      <c r="S52" s="52"/>
       <c r="T52" s="33"/>
-      <c r="U52" s="62"/>
+      <c r="U52" s="52"/>
       <c r="V52" s="35"/>
       <c r="W52" s="35"/>
       <c r="X52" s="35"/>
@@ -22793,7 +22799,7 @@
       <c r="AD52" s="52"/>
       <c r="AE52" s="35"/>
       <c r="AF52" s="35"/>
-      <c r="AG52" s="35"/>
+      <c r="AG52" s="42"/>
       <c r="AH52" s="35"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="52"/>
@@ -22853,7 +22859,7 @@
         <v>235</v>
       </c>
       <c r="CL52" s="86" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="CM52" s="93"/>
     </row>
@@ -22870,15 +22876,13 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
       <c r="J53" s="35"/>
-      <c r="K53" s="42"/>
+      <c r="K53" s="35"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="42"/>
+      <c r="M53" s="35"/>
       <c r="N53" s="33"/>
-      <c r="O53" s="62"/>
+      <c r="O53" s="52"/>
       <c r="P53" s="33"/>
-      <c r="Q53" s="71">
-        <v>1</v>
-      </c>
+      <c r="Q53" s="52"/>
       <c r="R53" s="33"/>
       <c r="S53" s="62"/>
       <c r="T53" s="33"/>
@@ -22892,9 +22896,9 @@
       <c r="AB53" s="52"/>
       <c r="AC53" s="33"/>
       <c r="AD53" s="52"/>
-      <c r="AE53" s="42"/>
-      <c r="AF53" s="42"/>
-      <c r="AG53" s="42"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35"/>
+      <c r="AG53" s="35"/>
       <c r="AH53" s="35"/>
       <c r="AI53" s="33"/>
       <c r="AJ53" s="52"/>
@@ -22932,7 +22936,7 @@
       <c r="BP53" s="50"/>
       <c r="BQ53" s="52"/>
       <c r="BR53" s="35"/>
-      <c r="BS53" s="42"/>
+      <c r="BS53" s="35"/>
       <c r="BT53" s="35"/>
       <c r="BU53" s="35"/>
       <c r="BV53" s="35"/>
@@ -22944,17 +22948,17 @@
       <c r="CB53" s="52"/>
       <c r="CC53" s="33"/>
       <c r="CD53" s="52"/>
-      <c r="CE53" s="42"/>
-      <c r="CF53" s="42"/>
-      <c r="CG53" s="42"/>
-      <c r="CH53" s="42"/>
+      <c r="CE53" s="35"/>
+      <c r="CF53" s="35"/>
+      <c r="CG53" s="35"/>
+      <c r="CH53" s="35"/>
       <c r="CI53" s="35"/>
       <c r="CJ53" s="35"/>
       <c r="CK53" s="85" t="s">
         <v>236</v>
       </c>
       <c r="CL53" s="86" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="CM53" s="93"/>
     </row>
@@ -22967,21 +22971,23 @@
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
-      <c r="G54" s="42"/>
+      <c r="G54" s="35"/>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
       <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
+      <c r="K54" s="42"/>
       <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
+      <c r="M54" s="42"/>
       <c r="N54" s="33"/>
-      <c r="O54" s="52"/>
+      <c r="O54" s="62"/>
       <c r="P54" s="33"/>
-      <c r="Q54" s="52"/>
+      <c r="Q54" s="71">
+        <v>1</v>
+      </c>
       <c r="R54" s="33"/>
-      <c r="S54" s="52"/>
+      <c r="S54" s="62"/>
       <c r="T54" s="33"/>
-      <c r="U54" s="52"/>
+      <c r="U54" s="62"/>
       <c r="V54" s="35"/>
       <c r="W54" s="35"/>
       <c r="X54" s="35"/>
@@ -22992,18 +22998,18 @@
       <c r="AC54" s="33"/>
       <c r="AD54" s="52"/>
       <c r="AE54" s="42"/>
-      <c r="AF54" s="35"/>
+      <c r="AF54" s="42"/>
       <c r="AG54" s="42"/>
       <c r="AH54" s="35"/>
       <c r="AI54" s="33"/>
       <c r="AJ54" s="52"/>
       <c r="AK54" s="33"/>
       <c r="AL54" s="52"/>
-      <c r="AM54" s="61"/>
-      <c r="AN54" s="75"/>
+      <c r="AM54" s="33"/>
+      <c r="AN54" s="50"/>
       <c r="AO54" s="52"/>
-      <c r="AP54" s="61"/>
-      <c r="AQ54" s="75"/>
+      <c r="AP54" s="33"/>
+      <c r="AQ54" s="50"/>
       <c r="AR54" s="52"/>
       <c r="AS54" s="35"/>
       <c r="AT54" s="35"/>
@@ -23031,7 +23037,7 @@
       <c r="BP54" s="50"/>
       <c r="BQ54" s="52"/>
       <c r="BR54" s="35"/>
-      <c r="BS54" s="35"/>
+      <c r="BS54" s="42"/>
       <c r="BT54" s="35"/>
       <c r="BU54" s="35"/>
       <c r="BV54" s="35"/>
@@ -23053,7 +23059,7 @@
         <v>237</v>
       </c>
       <c r="CL54" s="86" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="CM54" s="93"/>
     </row>
@@ -23099,10 +23105,10 @@
       <c r="AK55" s="33"/>
       <c r="AL55" s="52"/>
       <c r="AM55" s="61"/>
-      <c r="AN55" s="50"/>
+      <c r="AN55" s="75"/>
       <c r="AO55" s="52"/>
       <c r="AP55" s="61"/>
-      <c r="AQ55" s="50"/>
+      <c r="AQ55" s="75"/>
       <c r="AR55" s="52"/>
       <c r="AS55" s="35"/>
       <c r="AT55" s="35"/>
@@ -23152,7 +23158,7 @@
         <v>238</v>
       </c>
       <c r="CL55" s="86" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="CM55" s="93"/>
     </row>
@@ -23165,13 +23171,11 @@
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
       <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
       <c r="J56" s="35"/>
-      <c r="K56" s="101">
-        <v>3</v>
-      </c>
+      <c r="K56" s="35"/>
       <c r="L56" s="35"/>
       <c r="M56" s="35"/>
       <c r="N56" s="33"/>
@@ -23191,18 +23195,18 @@
       <c r="AB56" s="52"/>
       <c r="AC56" s="33"/>
       <c r="AD56" s="52"/>
-      <c r="AE56" s="98"/>
+      <c r="AE56" s="42"/>
       <c r="AF56" s="35"/>
-      <c r="AG56" s="98"/>
+      <c r="AG56" s="42"/>
       <c r="AH56" s="35"/>
       <c r="AI56" s="33"/>
       <c r="AJ56" s="52"/>
       <c r="AK56" s="33"/>
       <c r="AL56" s="52"/>
-      <c r="AM56" s="33"/>
+      <c r="AM56" s="61"/>
       <c r="AN56" s="50"/>
       <c r="AO56" s="52"/>
-      <c r="AP56" s="33"/>
+      <c r="AP56" s="61"/>
       <c r="AQ56" s="50"/>
       <c r="AR56" s="52"/>
       <c r="AS56" s="35"/>
@@ -23243,17 +23247,17 @@
       <c r="CB56" s="52"/>
       <c r="CC56" s="33"/>
       <c r="CD56" s="52"/>
-      <c r="CE56" s="98"/>
-      <c r="CF56" s="98"/>
-      <c r="CG56" s="98"/>
-      <c r="CH56" s="98"/>
+      <c r="CE56" s="42"/>
+      <c r="CF56" s="42"/>
+      <c r="CG56" s="42"/>
+      <c r="CH56" s="42"/>
       <c r="CI56" s="35"/>
       <c r="CJ56" s="35"/>
       <c r="CK56" s="85" t="s">
         <v>239</v>
       </c>
       <c r="CL56" s="86" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="CM56" s="93"/>
     </row>
@@ -23270,7 +23274,9 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
+      <c r="K57" s="101">
+        <v>3</v>
+      </c>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
       <c r="N57" s="33"/>
@@ -23290,11 +23296,9 @@
       <c r="AB57" s="52"/>
       <c r="AC57" s="33"/>
       <c r="AD57" s="52"/>
-      <c r="AE57" s="35"/>
-      <c r="AF57" s="101">
-        <v>2</v>
-      </c>
-      <c r="AG57" s="35"/>
+      <c r="AE57" s="98"/>
+      <c r="AF57" s="35"/>
+      <c r="AG57" s="98"/>
       <c r="AH57" s="35"/>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="52"/>
@@ -23344,316 +23348,318 @@
       <c r="CB57" s="52"/>
       <c r="CC57" s="33"/>
       <c r="CD57" s="52"/>
-      <c r="CE57" s="35"/>
-      <c r="CF57" s="35"/>
-      <c r="CG57" s="35"/>
-      <c r="CH57" s="35"/>
+      <c r="CE57" s="98"/>
+      <c r="CF57" s="98"/>
+      <c r="CG57" s="98"/>
+      <c r="CH57" s="98"/>
       <c r="CI57" s="35"/>
       <c r="CJ57" s="35"/>
       <c r="CK57" s="85" t="s">
         <v>240</v>
       </c>
       <c r="CL57" s="86" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="CM57" s="93"/>
     </row>
-    <row r="58" spans="1:91" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="88" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="36"/>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="53"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="53"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="53"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="53"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="36"/>
-      <c r="AF58" s="36"/>
-      <c r="AG58" s="36"/>
-      <c r="AH58" s="36"/>
-      <c r="AI58" s="53"/>
-      <c r="AJ58" s="54"/>
-      <c r="AK58" s="53"/>
-      <c r="AL58" s="54"/>
-      <c r="AM58" s="53"/>
-      <c r="AN58" s="73"/>
-      <c r="AO58" s="54"/>
-      <c r="AP58" s="53"/>
-      <c r="AQ58" s="73"/>
-      <c r="AR58" s="54"/>
-      <c r="AS58" s="36"/>
-      <c r="AT58" s="36"/>
-      <c r="AU58" s="36"/>
-      <c r="AV58" s="53"/>
-      <c r="AW58" s="54"/>
-      <c r="AX58" s="36"/>
-      <c r="AY58" s="36"/>
-      <c r="AZ58" s="53"/>
-      <c r="BA58" s="54"/>
-      <c r="BB58" s="53"/>
-      <c r="BC58" s="73"/>
-      <c r="BD58" s="54"/>
-      <c r="BE58" s="53"/>
-      <c r="BF58" s="73"/>
-      <c r="BG58" s="54"/>
-      <c r="BH58" s="53"/>
-      <c r="BI58" s="54"/>
-      <c r="BJ58" s="36"/>
-      <c r="BK58" s="53"/>
-      <c r="BL58" s="73"/>
-      <c r="BM58" s="54"/>
-      <c r="BN58" s="53"/>
-      <c r="BO58" s="73"/>
-      <c r="BP58" s="73"/>
-      <c r="BQ58" s="54"/>
-      <c r="BR58" s="36"/>
-      <c r="BS58" s="36"/>
-      <c r="BT58" s="36"/>
-      <c r="BU58" s="36"/>
-      <c r="BV58" s="36"/>
-      <c r="BW58" s="53"/>
-      <c r="BX58" s="54"/>
-      <c r="BY58" s="53"/>
-      <c r="BZ58" s="54"/>
-      <c r="CA58" s="53"/>
-      <c r="CB58" s="54"/>
-      <c r="CC58" s="53"/>
-      <c r="CD58" s="54"/>
-      <c r="CE58" s="36"/>
-      <c r="CF58" s="36"/>
-      <c r="CG58" s="36"/>
-      <c r="CH58" s="36"/>
-      <c r="CI58" s="36"/>
-      <c r="CJ58" s="36"/>
-      <c r="CK58" s="87" t="s">
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="52"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="52"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="52"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="52"/>
+      <c r="AE58" s="35"/>
+      <c r="AF58" s="101">
+        <v>2</v>
+      </c>
+      <c r="AG58" s="35"/>
+      <c r="AH58" s="35"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="52"/>
+      <c r="AK58" s="33"/>
+      <c r="AL58" s="52"/>
+      <c r="AM58" s="33"/>
+      <c r="AN58" s="50"/>
+      <c r="AO58" s="52"/>
+      <c r="AP58" s="33"/>
+      <c r="AQ58" s="50"/>
+      <c r="AR58" s="52"/>
+      <c r="AS58" s="35"/>
+      <c r="AT58" s="35"/>
+      <c r="AU58" s="35"/>
+      <c r="AV58" s="33"/>
+      <c r="AW58" s="52"/>
+      <c r="AX58" s="35"/>
+      <c r="AY58" s="35"/>
+      <c r="AZ58" s="33"/>
+      <c r="BA58" s="52"/>
+      <c r="BB58" s="33"/>
+      <c r="BC58" s="50"/>
+      <c r="BD58" s="52"/>
+      <c r="BE58" s="33"/>
+      <c r="BF58" s="50"/>
+      <c r="BG58" s="52"/>
+      <c r="BH58" s="33"/>
+      <c r="BI58" s="52"/>
+      <c r="BJ58" s="35"/>
+      <c r="BK58" s="33"/>
+      <c r="BL58" s="50"/>
+      <c r="BM58" s="52"/>
+      <c r="BN58" s="33"/>
+      <c r="BO58" s="50"/>
+      <c r="BP58" s="50"/>
+      <c r="BQ58" s="52"/>
+      <c r="BR58" s="35"/>
+      <c r="BS58" s="35"/>
+      <c r="BT58" s="35"/>
+      <c r="BU58" s="35"/>
+      <c r="BV58" s="35"/>
+      <c r="BW58" s="33"/>
+      <c r="BX58" s="52"/>
+      <c r="BY58" s="33"/>
+      <c r="BZ58" s="52"/>
+      <c r="CA58" s="33"/>
+      <c r="CB58" s="52"/>
+      <c r="CC58" s="33"/>
+      <c r="CD58" s="52"/>
+      <c r="CE58" s="35"/>
+      <c r="CF58" s="35"/>
+      <c r="CG58" s="35"/>
+      <c r="CH58" s="35"/>
+      <c r="CI58" s="35"/>
+      <c r="CJ58" s="35"/>
+      <c r="CK58" s="85" t="s">
         <v>241</v>
       </c>
-      <c r="CL58" s="88" t="s">
-        <v>315</v>
+      <c r="CL58" s="86" t="s">
+        <v>316</v>
       </c>
       <c r="CM58" s="93"/>
     </row>
-    <row r="59" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:91" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="93"/>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="17"/>
+      <c r="C59" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="89" t="s">
-        <v>243</v>
-      </c>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="37"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="37"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="37"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="37"/>
-      <c r="Z59" s="57"/>
-      <c r="AA59" s="37"/>
-      <c r="AB59" s="57"/>
-      <c r="AC59" s="37"/>
-      <c r="AD59" s="57"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="37"/>
-      <c r="AJ59" s="57"/>
-      <c r="AK59" s="37"/>
-      <c r="AL59" s="57"/>
-      <c r="AM59" s="37"/>
-      <c r="AN59" s="55"/>
-      <c r="AO59" s="57"/>
-      <c r="AP59" s="37"/>
-      <c r="AQ59" s="55"/>
-      <c r="AR59" s="57"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="39"/>
-      <c r="AU59" s="39"/>
-      <c r="AV59" s="37"/>
-      <c r="AW59" s="57"/>
-      <c r="AX59" s="39"/>
-      <c r="AY59" s="39"/>
-      <c r="AZ59" s="37"/>
-      <c r="BA59" s="57"/>
-      <c r="BB59" s="37"/>
-      <c r="BC59" s="55"/>
-      <c r="BD59" s="57"/>
-      <c r="BE59" s="37"/>
-      <c r="BF59" s="55"/>
-      <c r="BG59" s="57"/>
-      <c r="BH59" s="37"/>
-      <c r="BI59" s="57"/>
-      <c r="BJ59" s="39"/>
-      <c r="BK59" s="37"/>
-      <c r="BL59" s="55"/>
-      <c r="BM59" s="57"/>
-      <c r="BN59" s="37"/>
-      <c r="BO59" s="55"/>
-      <c r="BP59" s="55"/>
-      <c r="BQ59" s="57"/>
-      <c r="BR59" s="39"/>
-      <c r="BS59" s="39"/>
-      <c r="BT59" s="39"/>
-      <c r="BU59" s="48"/>
-      <c r="BV59" s="39"/>
-      <c r="BW59" s="80"/>
-      <c r="BX59" s="57"/>
-      <c r="BY59" s="80"/>
-      <c r="BZ59" s="57"/>
-      <c r="CA59" s="37"/>
-      <c r="CB59" s="57"/>
-      <c r="CC59" s="37"/>
-      <c r="CD59" s="57"/>
-      <c r="CE59" s="39"/>
-      <c r="CF59" s="39"/>
-      <c r="CG59" s="39"/>
-      <c r="CH59" s="39"/>
-      <c r="CI59" s="39"/>
-      <c r="CJ59" s="39"/>
-      <c r="CK59" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="CL59" s="89" t="s">
-        <v>316</v>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="36"/>
+      <c r="W59" s="36"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="53"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="36"/>
+      <c r="AF59" s="36"/>
+      <c r="AG59" s="36"/>
+      <c r="AH59" s="36"/>
+      <c r="AI59" s="53"/>
+      <c r="AJ59" s="54"/>
+      <c r="AK59" s="53"/>
+      <c r="AL59" s="54"/>
+      <c r="AM59" s="53"/>
+      <c r="AN59" s="73"/>
+      <c r="AO59" s="54"/>
+      <c r="AP59" s="53"/>
+      <c r="AQ59" s="73"/>
+      <c r="AR59" s="54"/>
+      <c r="AS59" s="36"/>
+      <c r="AT59" s="36"/>
+      <c r="AU59" s="36"/>
+      <c r="AV59" s="53"/>
+      <c r="AW59" s="54"/>
+      <c r="AX59" s="36"/>
+      <c r="AY59" s="36"/>
+      <c r="AZ59" s="53"/>
+      <c r="BA59" s="54"/>
+      <c r="BB59" s="53"/>
+      <c r="BC59" s="73"/>
+      <c r="BD59" s="54"/>
+      <c r="BE59" s="53"/>
+      <c r="BF59" s="73"/>
+      <c r="BG59" s="54"/>
+      <c r="BH59" s="53"/>
+      <c r="BI59" s="54"/>
+      <c r="BJ59" s="36"/>
+      <c r="BK59" s="53"/>
+      <c r="BL59" s="73"/>
+      <c r="BM59" s="54"/>
+      <c r="BN59" s="53"/>
+      <c r="BO59" s="73"/>
+      <c r="BP59" s="73"/>
+      <c r="BQ59" s="54"/>
+      <c r="BR59" s="36"/>
+      <c r="BS59" s="36"/>
+      <c r="BT59" s="36"/>
+      <c r="BU59" s="36"/>
+      <c r="BV59" s="36"/>
+      <c r="BW59" s="53"/>
+      <c r="BX59" s="54"/>
+      <c r="BY59" s="53"/>
+      <c r="BZ59" s="54"/>
+      <c r="CA59" s="53"/>
+      <c r="CB59" s="54"/>
+      <c r="CC59" s="53"/>
+      <c r="CD59" s="54"/>
+      <c r="CE59" s="36"/>
+      <c r="CF59" s="36"/>
+      <c r="CG59" s="36"/>
+      <c r="CH59" s="36"/>
+      <c r="CI59" s="36"/>
+      <c r="CJ59" s="36"/>
+      <c r="CK59" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="CL59" s="88" t="s">
+        <v>317</v>
       </c>
       <c r="CM59" s="93"/>
     </row>
     <row r="60" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A60" s="93"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="25" t="s">
+      <c r="B60" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="40"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="38"/>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="58"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="58"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="40"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="58"/>
-      <c r="AA60" s="38"/>
-      <c r="AB60" s="58"/>
-      <c r="AC60" s="38"/>
-      <c r="AD60" s="58"/>
-      <c r="AE60" s="40"/>
-      <c r="AF60" s="40"/>
-      <c r="AG60" s="40"/>
-      <c r="AH60" s="40"/>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="58"/>
-      <c r="AK60" s="38"/>
-      <c r="AL60" s="58"/>
-      <c r="AM60" s="38"/>
-      <c r="AN60" s="56"/>
-      <c r="AO60" s="58"/>
-      <c r="AP60" s="38"/>
-      <c r="AQ60" s="56"/>
-      <c r="AR60" s="58"/>
-      <c r="AS60" s="40"/>
-      <c r="AT60" s="40"/>
-      <c r="AU60" s="40"/>
-      <c r="AV60" s="38"/>
-      <c r="AW60" s="58"/>
-      <c r="AX60" s="40"/>
-      <c r="AY60" s="40"/>
-      <c r="AZ60" s="38"/>
-      <c r="BA60" s="58"/>
-      <c r="BB60" s="38"/>
-      <c r="BC60" s="56"/>
-      <c r="BD60" s="58"/>
-      <c r="BE60" s="38"/>
-      <c r="BF60" s="56"/>
-      <c r="BG60" s="58"/>
-      <c r="BH60" s="38"/>
-      <c r="BI60" s="58"/>
-      <c r="BJ60" s="40"/>
-      <c r="BK60" s="38"/>
-      <c r="BL60" s="56"/>
-      <c r="BM60" s="58"/>
-      <c r="BN60" s="38"/>
-      <c r="BO60" s="56"/>
-      <c r="BP60" s="56"/>
-      <c r="BQ60" s="58"/>
-      <c r="BR60" s="40"/>
-      <c r="BS60" s="40"/>
-      <c r="BT60" s="40"/>
-      <c r="BU60" s="40"/>
-      <c r="BV60" s="40"/>
-      <c r="BW60" s="38"/>
-      <c r="BX60" s="58"/>
-      <c r="BY60" s="38"/>
-      <c r="BZ60" s="58"/>
-      <c r="CA60" s="38"/>
-      <c r="CB60" s="58"/>
-      <c r="CC60" s="38"/>
-      <c r="CD60" s="58"/>
-      <c r="CE60" s="40"/>
-      <c r="CF60" s="40"/>
-      <c r="CG60" s="40"/>
-      <c r="CH60" s="40"/>
-      <c r="CI60" s="40"/>
-      <c r="CJ60" s="40"/>
-      <c r="CK60" s="90" t="s">
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="39"/>
+      <c r="W60" s="39"/>
+      <c r="X60" s="39"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="39"/>
+      <c r="AF60" s="39"/>
+      <c r="AG60" s="39"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="37"/>
+      <c r="AJ60" s="57"/>
+      <c r="AK60" s="37"/>
+      <c r="AL60" s="57"/>
+      <c r="AM60" s="37"/>
+      <c r="AN60" s="55"/>
+      <c r="AO60" s="57"/>
+      <c r="AP60" s="37"/>
+      <c r="AQ60" s="55"/>
+      <c r="AR60" s="57"/>
+      <c r="AS60" s="39"/>
+      <c r="AT60" s="39"/>
+      <c r="AU60" s="39"/>
+      <c r="AV60" s="37"/>
+      <c r="AW60" s="57"/>
+      <c r="AX60" s="39"/>
+      <c r="AY60" s="39"/>
+      <c r="AZ60" s="37"/>
+      <c r="BA60" s="57"/>
+      <c r="BB60" s="37"/>
+      <c r="BC60" s="55"/>
+      <c r="BD60" s="57"/>
+      <c r="BE60" s="37"/>
+      <c r="BF60" s="55"/>
+      <c r="BG60" s="57"/>
+      <c r="BH60" s="37"/>
+      <c r="BI60" s="57"/>
+      <c r="BJ60" s="39"/>
+      <c r="BK60" s="37"/>
+      <c r="BL60" s="55"/>
+      <c r="BM60" s="57"/>
+      <c r="BN60" s="37"/>
+      <c r="BO60" s="55"/>
+      <c r="BP60" s="55"/>
+      <c r="BQ60" s="57"/>
+      <c r="BR60" s="39"/>
+      <c r="BS60" s="39"/>
+      <c r="BT60" s="39"/>
+      <c r="BU60" s="48"/>
+      <c r="BV60" s="39"/>
+      <c r="BW60" s="80"/>
+      <c r="BX60" s="57"/>
+      <c r="BY60" s="80"/>
+      <c r="BZ60" s="57"/>
+      <c r="CA60" s="37"/>
+      <c r="CB60" s="57"/>
+      <c r="CC60" s="37"/>
+      <c r="CD60" s="57"/>
+      <c r="CE60" s="39"/>
+      <c r="CF60" s="39"/>
+      <c r="CG60" s="39"/>
+      <c r="CH60" s="39"/>
+      <c r="CI60" s="39"/>
+      <c r="CJ60" s="39"/>
+      <c r="CK60" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="CL60" s="25" t="s">
-        <v>317</v>
+      <c r="CL60" s="89" t="s">
+        <v>318</v>
       </c>
       <c r="CM60" s="93"/>
     </row>
@@ -23693,7 +23699,7 @@
       <c r="AE61" s="40"/>
       <c r="AF61" s="40"/>
       <c r="AG61" s="40"/>
-      <c r="AH61" s="42"/>
+      <c r="AH61" s="40"/>
       <c r="AI61" s="38"/>
       <c r="AJ61" s="58"/>
       <c r="AK61" s="38"/>
@@ -23752,7 +23758,7 @@
         <v>245</v>
       </c>
       <c r="CL61" s="25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="CM61" s="93"/>
     </row>
@@ -23792,7 +23798,7 @@
       <c r="AE62" s="40"/>
       <c r="AF62" s="40"/>
       <c r="AG62" s="40"/>
-      <c r="AH62" s="40"/>
+      <c r="AH62" s="42"/>
       <c r="AI62" s="38"/>
       <c r="AJ62" s="58"/>
       <c r="AK62" s="38"/>
@@ -23851,7 +23857,7 @@
         <v>246</v>
       </c>
       <c r="CL62" s="25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CM62" s="93"/>
     </row>
@@ -23891,9 +23897,9 @@
       <c r="AE63" s="40"/>
       <c r="AF63" s="40"/>
       <c r="AG63" s="40"/>
-      <c r="AH63" s="42"/>
+      <c r="AH63" s="40"/>
       <c r="AI63" s="38"/>
-      <c r="AJ63" s="62"/>
+      <c r="AJ63" s="58"/>
       <c r="AK63" s="38"/>
       <c r="AL63" s="58"/>
       <c r="AM63" s="38"/>
@@ -23902,8 +23908,8 @@
       <c r="AP63" s="38"/>
       <c r="AQ63" s="56"/>
       <c r="AR63" s="58"/>
-      <c r="AS63" s="42"/>
-      <c r="AT63" s="42"/>
+      <c r="AS63" s="40"/>
+      <c r="AT63" s="40"/>
       <c r="AU63" s="40"/>
       <c r="AV63" s="38"/>
       <c r="AW63" s="58"/>
@@ -23936,7 +23942,7 @@
       <c r="BX63" s="58"/>
       <c r="BY63" s="38"/>
       <c r="BZ63" s="58"/>
-      <c r="CA63" s="61"/>
+      <c r="CA63" s="38"/>
       <c r="CB63" s="58"/>
       <c r="CC63" s="38"/>
       <c r="CD63" s="58"/>
@@ -23950,7 +23956,7 @@
         <v>247</v>
       </c>
       <c r="CL63" s="25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="CM63" s="93"/>
     </row>
@@ -23963,7 +23969,7 @@
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
       <c r="F64" s="40"/>
-      <c r="G64" s="42"/>
+      <c r="G64" s="40"/>
       <c r="H64" s="40"/>
       <c r="I64" s="40"/>
       <c r="J64" s="40"/>
@@ -23990,19 +23996,19 @@
       <c r="AE64" s="40"/>
       <c r="AF64" s="40"/>
       <c r="AG64" s="40"/>
-      <c r="AH64" s="40"/>
+      <c r="AH64" s="42"/>
       <c r="AI64" s="38"/>
-      <c r="AJ64" s="58"/>
+      <c r="AJ64" s="62"/>
       <c r="AK64" s="38"/>
       <c r="AL64" s="58"/>
-      <c r="AM64" s="61"/>
-      <c r="AN64" s="75"/>
+      <c r="AM64" s="38"/>
+      <c r="AN64" s="56"/>
       <c r="AO64" s="58"/>
-      <c r="AP64" s="61"/>
-      <c r="AQ64" s="75"/>
+      <c r="AP64" s="38"/>
+      <c r="AQ64" s="56"/>
       <c r="AR64" s="58"/>
-      <c r="AS64" s="40"/>
-      <c r="AT64" s="40"/>
+      <c r="AS64" s="42"/>
+      <c r="AT64" s="42"/>
       <c r="AU64" s="40"/>
       <c r="AV64" s="38"/>
       <c r="AW64" s="58"/>
@@ -24035,7 +24041,7 @@
       <c r="BX64" s="58"/>
       <c r="BY64" s="38"/>
       <c r="BZ64" s="58"/>
-      <c r="CA64" s="38"/>
+      <c r="CA64" s="61"/>
       <c r="CB64" s="58"/>
       <c r="CC64" s="38"/>
       <c r="CD64" s="58"/>
@@ -24049,7 +24055,7 @@
         <v>248</v>
       </c>
       <c r="CL64" s="25" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CM64" s="93"/>
     </row>
@@ -24148,7 +24154,7 @@
         <v>249</v>
       </c>
       <c r="CL65" s="25" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="CM65" s="93"/>
     </row>
@@ -24161,7 +24167,7 @@
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
+      <c r="G66" s="42"/>
       <c r="H66" s="40"/>
       <c r="I66" s="40"/>
       <c r="J66" s="40"/>
@@ -24188,19 +24194,19 @@
       <c r="AE66" s="40"/>
       <c r="AF66" s="40"/>
       <c r="AG66" s="40"/>
-      <c r="AH66" s="42"/>
-      <c r="AI66" s="61"/>
+      <c r="AH66" s="40"/>
+      <c r="AI66" s="38"/>
       <c r="AJ66" s="58"/>
       <c r="AK66" s="38"/>
       <c r="AL66" s="58"/>
-      <c r="AM66" s="38"/>
-      <c r="AN66" s="56"/>
+      <c r="AM66" s="61"/>
+      <c r="AN66" s="75"/>
       <c r="AO66" s="58"/>
-      <c r="AP66" s="38"/>
-      <c r="AQ66" s="56"/>
+      <c r="AP66" s="61"/>
+      <c r="AQ66" s="75"/>
       <c r="AR66" s="58"/>
-      <c r="AS66" s="42"/>
-      <c r="AT66" s="42"/>
+      <c r="AS66" s="40"/>
+      <c r="AT66" s="40"/>
       <c r="AU66" s="40"/>
       <c r="AV66" s="38"/>
       <c r="AW66" s="58"/>
@@ -24228,12 +24234,12 @@
       <c r="BS66" s="40"/>
       <c r="BT66" s="40"/>
       <c r="BU66" s="40"/>
-      <c r="BV66" s="42"/>
+      <c r="BV66" s="40"/>
       <c r="BW66" s="38"/>
       <c r="BX66" s="58"/>
       <c r="BY66" s="38"/>
       <c r="BZ66" s="58"/>
-      <c r="CA66" s="61"/>
+      <c r="CA66" s="38"/>
       <c r="CB66" s="58"/>
       <c r="CC66" s="38"/>
       <c r="CD66" s="58"/>
@@ -24247,7 +24253,7 @@
         <v>250</v>
       </c>
       <c r="CL66" s="25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="CM66" s="93"/>
     </row>
@@ -24288,8 +24294,8 @@
       <c r="AF67" s="40"/>
       <c r="AG67" s="40"/>
       <c r="AH67" s="42"/>
-      <c r="AI67" s="38"/>
-      <c r="AJ67" s="62"/>
+      <c r="AI67" s="61"/>
+      <c r="AJ67" s="58"/>
       <c r="AK67" s="38"/>
       <c r="AL67" s="58"/>
       <c r="AM67" s="38"/>
@@ -24327,7 +24333,7 @@
       <c r="BS67" s="40"/>
       <c r="BT67" s="40"/>
       <c r="BU67" s="40"/>
-      <c r="BV67" s="40"/>
+      <c r="BV67" s="42"/>
       <c r="BW67" s="38"/>
       <c r="BX67" s="58"/>
       <c r="BY67" s="38"/>
@@ -24346,7 +24352,7 @@
         <v>251</v>
       </c>
       <c r="CL67" s="25" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CM67" s="93"/>
     </row>
@@ -24386,9 +24392,9 @@
       <c r="AE68" s="40"/>
       <c r="AF68" s="40"/>
       <c r="AG68" s="40"/>
-      <c r="AH68" s="98"/>
+      <c r="AH68" s="42"/>
       <c r="AI68" s="38"/>
-      <c r="AJ68" s="104"/>
+      <c r="AJ68" s="62"/>
       <c r="AK68" s="38"/>
       <c r="AL68" s="58"/>
       <c r="AM68" s="38"/>
@@ -24397,8 +24403,8 @@
       <c r="AP68" s="38"/>
       <c r="AQ68" s="56"/>
       <c r="AR68" s="58"/>
-      <c r="AS68" s="40"/>
-      <c r="AT68" s="40"/>
+      <c r="AS68" s="42"/>
+      <c r="AT68" s="42"/>
       <c r="AU68" s="40"/>
       <c r="AV68" s="38"/>
       <c r="AW68" s="58"/>
@@ -24431,7 +24437,7 @@
       <c r="BX68" s="58"/>
       <c r="BY68" s="38"/>
       <c r="BZ68" s="58"/>
-      <c r="CA68" s="38"/>
+      <c r="CA68" s="61"/>
       <c r="CB68" s="58"/>
       <c r="CC68" s="38"/>
       <c r="CD68" s="58"/>
@@ -24445,7 +24451,7 @@
         <v>252</v>
       </c>
       <c r="CL68" s="25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="CM68" s="93"/>
     </row>
@@ -24487,7 +24493,7 @@
       <c r="AG69" s="40"/>
       <c r="AH69" s="98"/>
       <c r="AI69" s="38"/>
-      <c r="AJ69" s="58"/>
+      <c r="AJ69" s="104"/>
       <c r="AK69" s="38"/>
       <c r="AL69" s="58"/>
       <c r="AM69" s="38"/>
@@ -24544,7 +24550,7 @@
         <v>253</v>
       </c>
       <c r="CL69" s="25" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="CM69" s="93"/>
     </row>
@@ -24584,7 +24590,7 @@
       <c r="AE70" s="40"/>
       <c r="AF70" s="40"/>
       <c r="AG70" s="40"/>
-      <c r="AH70" s="40"/>
+      <c r="AH70" s="98"/>
       <c r="AI70" s="38"/>
       <c r="AJ70" s="58"/>
       <c r="AK70" s="38"/>
@@ -24643,7 +24649,7 @@
         <v>254</v>
       </c>
       <c r="CL70" s="25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="CM70" s="93"/>
     </row>
@@ -24683,7 +24689,7 @@
       <c r="AE71" s="40"/>
       <c r="AF71" s="40"/>
       <c r="AG71" s="40"/>
-      <c r="AH71" s="42"/>
+      <c r="AH71" s="40"/>
       <c r="AI71" s="38"/>
       <c r="AJ71" s="58"/>
       <c r="AK71" s="38"/>
@@ -24695,7 +24701,7 @@
       <c r="AQ71" s="56"/>
       <c r="AR71" s="58"/>
       <c r="AS71" s="40"/>
-      <c r="AT71" s="42"/>
+      <c r="AT71" s="40"/>
       <c r="AU71" s="40"/>
       <c r="AV71" s="38"/>
       <c r="AW71" s="58"/>
@@ -24728,7 +24734,7 @@
       <c r="BX71" s="58"/>
       <c r="BY71" s="38"/>
       <c r="BZ71" s="58"/>
-      <c r="CA71" s="61"/>
+      <c r="CA71" s="38"/>
       <c r="CB71" s="58"/>
       <c r="CC71" s="38"/>
       <c r="CD71" s="58"/>
@@ -24742,7 +24748,7 @@
         <v>255</v>
       </c>
       <c r="CL71" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CM71" s="93"/>
     </row>
@@ -24782,7 +24788,7 @@
       <c r="AE72" s="40"/>
       <c r="AF72" s="40"/>
       <c r="AG72" s="40"/>
-      <c r="AH72" s="40"/>
+      <c r="AH72" s="42"/>
       <c r="AI72" s="38"/>
       <c r="AJ72" s="58"/>
       <c r="AK72" s="38"/>
@@ -24794,7 +24800,7 @@
       <c r="AQ72" s="56"/>
       <c r="AR72" s="58"/>
       <c r="AS72" s="40"/>
-      <c r="AT72" s="40"/>
+      <c r="AT72" s="42"/>
       <c r="AU72" s="40"/>
       <c r="AV72" s="38"/>
       <c r="AW72" s="58"/>
@@ -24827,7 +24833,7 @@
       <c r="BX72" s="58"/>
       <c r="BY72" s="38"/>
       <c r="BZ72" s="58"/>
-      <c r="CA72" s="38"/>
+      <c r="CA72" s="61"/>
       <c r="CB72" s="58"/>
       <c r="CC72" s="38"/>
       <c r="CD72" s="58"/>
@@ -24841,7 +24847,7 @@
         <v>256</v>
       </c>
       <c r="CL72" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="CM72" s="93"/>
     </row>
@@ -24884,7 +24890,7 @@
       <c r="AH73" s="40"/>
       <c r="AI73" s="38"/>
       <c r="AJ73" s="58"/>
-      <c r="AK73" s="61"/>
+      <c r="AK73" s="38"/>
       <c r="AL73" s="58"/>
       <c r="AM73" s="38"/>
       <c r="AN73" s="56"/>
@@ -24892,9 +24898,9 @@
       <c r="AP73" s="38"/>
       <c r="AQ73" s="56"/>
       <c r="AR73" s="58"/>
-      <c r="AS73" s="42"/>
-      <c r="AT73" s="42"/>
-      <c r="AU73" s="42"/>
+      <c r="AS73" s="40"/>
+      <c r="AT73" s="40"/>
+      <c r="AU73" s="40"/>
       <c r="AV73" s="38"/>
       <c r="AW73" s="58"/>
       <c r="AX73" s="40"/>
@@ -24922,11 +24928,11 @@
       <c r="BT73" s="40"/>
       <c r="BU73" s="40"/>
       <c r="BV73" s="40"/>
-      <c r="BW73" s="61"/>
+      <c r="BW73" s="38"/>
       <c r="BX73" s="58"/>
-      <c r="BY73" s="61"/>
+      <c r="BY73" s="38"/>
       <c r="BZ73" s="58"/>
-      <c r="CA73" s="61"/>
+      <c r="CA73" s="38"/>
       <c r="CB73" s="58"/>
       <c r="CC73" s="38"/>
       <c r="CD73" s="58"/>
@@ -24940,7 +24946,7 @@
         <v>257</v>
       </c>
       <c r="CL73" s="25" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="CM73" s="93"/>
     </row>
@@ -24991,8 +24997,8 @@
       <c r="AP74" s="38"/>
       <c r="AQ74" s="56"/>
       <c r="AR74" s="58"/>
-      <c r="AS74" s="40"/>
-      <c r="AT74" s="40"/>
+      <c r="AS74" s="42"/>
+      <c r="AT74" s="42"/>
       <c r="AU74" s="42"/>
       <c r="AV74" s="38"/>
       <c r="AW74" s="58"/>
@@ -25019,13 +25025,13 @@
       <c r="BR74" s="40"/>
       <c r="BS74" s="40"/>
       <c r="BT74" s="40"/>
-      <c r="BU74" s="42"/>
+      <c r="BU74" s="40"/>
       <c r="BV74" s="40"/>
       <c r="BW74" s="61"/>
       <c r="BX74" s="58"/>
       <c r="BY74" s="61"/>
       <c r="BZ74" s="58"/>
-      <c r="CA74" s="38"/>
+      <c r="CA74" s="61"/>
       <c r="CB74" s="58"/>
       <c r="CC74" s="38"/>
       <c r="CD74" s="58"/>
@@ -25039,7 +25045,7 @@
         <v>258</v>
       </c>
       <c r="CL74" s="25" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="CM74" s="93"/>
     </row>
@@ -25118,7 +25124,7 @@
       <c r="BR75" s="40"/>
       <c r="BS75" s="40"/>
       <c r="BT75" s="40"/>
-      <c r="BU75" s="40"/>
+      <c r="BU75" s="42"/>
       <c r="BV75" s="40"/>
       <c r="BW75" s="61"/>
       <c r="BX75" s="58"/>
@@ -25138,230 +25144,228 @@
         <v>259</v>
       </c>
       <c r="CL75" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="CM75" s="93"/>
     </row>
-    <row r="76" spans="1:91" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A76" s="93"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="92" t="s">
+      <c r="B76" s="30"/>
+      <c r="C76" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="60"/>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="60"/>
-      <c r="R76" s="59"/>
-      <c r="S76" s="60"/>
-      <c r="T76" s="59"/>
-      <c r="U76" s="60"/>
-      <c r="V76" s="41"/>
-      <c r="W76" s="41"/>
-      <c r="X76" s="41"/>
-      <c r="Y76" s="59"/>
-      <c r="Z76" s="60"/>
-      <c r="AA76" s="59"/>
-      <c r="AB76" s="60"/>
-      <c r="AC76" s="59"/>
-      <c r="AD76" s="60"/>
-      <c r="AE76" s="41"/>
-      <c r="AF76" s="41"/>
-      <c r="AG76" s="41"/>
-      <c r="AH76" s="102"/>
-      <c r="AI76" s="59"/>
-      <c r="AJ76" s="105"/>
-      <c r="AK76" s="59"/>
-      <c r="AL76" s="60"/>
-      <c r="AM76" s="59"/>
-      <c r="AN76" s="74"/>
-      <c r="AO76" s="60"/>
-      <c r="AP76" s="59"/>
-      <c r="AQ76" s="74"/>
-      <c r="AR76" s="60"/>
-      <c r="AS76" s="41"/>
-      <c r="AT76" s="41"/>
-      <c r="AU76" s="41"/>
-      <c r="AV76" s="59"/>
-      <c r="AW76" s="60"/>
-      <c r="AX76" s="41"/>
-      <c r="AY76" s="41"/>
-      <c r="AZ76" s="59"/>
-      <c r="BA76" s="60"/>
-      <c r="BB76" s="59"/>
-      <c r="BC76" s="74"/>
-      <c r="BD76" s="60"/>
-      <c r="BE76" s="59"/>
-      <c r="BF76" s="74"/>
-      <c r="BG76" s="60"/>
-      <c r="BH76" s="59"/>
-      <c r="BI76" s="60"/>
-      <c r="BJ76" s="41"/>
-      <c r="BK76" s="59"/>
-      <c r="BL76" s="74"/>
-      <c r="BM76" s="60"/>
-      <c r="BN76" s="59"/>
-      <c r="BO76" s="74"/>
-      <c r="BP76" s="74"/>
-      <c r="BQ76" s="60"/>
-      <c r="BR76" s="41"/>
-      <c r="BS76" s="41"/>
-      <c r="BT76" s="41"/>
-      <c r="BU76" s="41"/>
-      <c r="BV76" s="41"/>
-      <c r="BW76" s="59"/>
-      <c r="BX76" s="60"/>
-      <c r="BY76" s="59"/>
-      <c r="BZ76" s="60"/>
-      <c r="CA76" s="59"/>
-      <c r="CB76" s="60"/>
-      <c r="CC76" s="59"/>
-      <c r="CD76" s="60"/>
-      <c r="CE76" s="41"/>
-      <c r="CF76" s="41"/>
-      <c r="CG76" s="41"/>
-      <c r="CH76" s="41"/>
-      <c r="CI76" s="41"/>
-      <c r="CJ76" s="41"/>
-      <c r="CK76" s="91" t="s">
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="38"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="38"/>
+      <c r="Q76" s="58"/>
+      <c r="R76" s="38"/>
+      <c r="S76" s="58"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="58"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
+      <c r="X76" s="40"/>
+      <c r="Y76" s="38"/>
+      <c r="Z76" s="58"/>
+      <c r="AA76" s="38"/>
+      <c r="AB76" s="58"/>
+      <c r="AC76" s="38"/>
+      <c r="AD76" s="58"/>
+      <c r="AE76" s="40"/>
+      <c r="AF76" s="40"/>
+      <c r="AG76" s="40"/>
+      <c r="AH76" s="40"/>
+      <c r="AI76" s="38"/>
+      <c r="AJ76" s="58"/>
+      <c r="AK76" s="61"/>
+      <c r="AL76" s="58"/>
+      <c r="AM76" s="38"/>
+      <c r="AN76" s="56"/>
+      <c r="AO76" s="58"/>
+      <c r="AP76" s="38"/>
+      <c r="AQ76" s="56"/>
+      <c r="AR76" s="58"/>
+      <c r="AS76" s="40"/>
+      <c r="AT76" s="40"/>
+      <c r="AU76" s="42"/>
+      <c r="AV76" s="38"/>
+      <c r="AW76" s="58"/>
+      <c r="AX76" s="40"/>
+      <c r="AY76" s="40"/>
+      <c r="AZ76" s="38"/>
+      <c r="BA76" s="58"/>
+      <c r="BB76" s="38"/>
+      <c r="BC76" s="56"/>
+      <c r="BD76" s="58"/>
+      <c r="BE76" s="38"/>
+      <c r="BF76" s="56"/>
+      <c r="BG76" s="58"/>
+      <c r="BH76" s="38"/>
+      <c r="BI76" s="58"/>
+      <c r="BJ76" s="40"/>
+      <c r="BK76" s="38"/>
+      <c r="BL76" s="56"/>
+      <c r="BM76" s="58"/>
+      <c r="BN76" s="38"/>
+      <c r="BO76" s="56"/>
+      <c r="BP76" s="56"/>
+      <c r="BQ76" s="58"/>
+      <c r="BR76" s="40"/>
+      <c r="BS76" s="40"/>
+      <c r="BT76" s="40"/>
+      <c r="BU76" s="40"/>
+      <c r="BV76" s="40"/>
+      <c r="BW76" s="61"/>
+      <c r="BX76" s="58"/>
+      <c r="BY76" s="61"/>
+      <c r="BZ76" s="58"/>
+      <c r="CA76" s="38"/>
+      <c r="CB76" s="58"/>
+      <c r="CC76" s="38"/>
+      <c r="CD76" s="58"/>
+      <c r="CE76" s="40"/>
+      <c r="CF76" s="40"/>
+      <c r="CG76" s="40"/>
+      <c r="CH76" s="40"/>
+      <c r="CI76" s="40"/>
+      <c r="CJ76" s="40"/>
+      <c r="CK76" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="CL76" s="92" t="s">
-        <v>333</v>
+      <c r="CL76" s="25" t="s">
+        <v>334</v>
       </c>
       <c r="CM76" s="93"/>
     </row>
-    <row r="77" spans="1:91" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:91" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="93"/>
-      <c r="B77" s="93"/>
-      <c r="C77" s="93"/>
-      <c r="D77" s="93"/>
-      <c r="E77" s="93"/>
-      <c r="F77" s="93"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="93"/>
-      <c r="I77" s="93"/>
-      <c r="J77" s="93"/>
-      <c r="K77" s="93"/>
-      <c r="L77" s="93"/>
-      <c r="M77" s="93"/>
-      <c r="N77" s="93"/>
-      <c r="O77" s="93"/>
-      <c r="P77" s="93"/>
-      <c r="Q77" s="93"/>
-      <c r="R77" s="93"/>
-      <c r="S77" s="93"/>
-      <c r="T77" s="93"/>
-      <c r="U77" s="93"/>
-      <c r="V77" s="93"/>
-      <c r="W77" s="93"/>
-      <c r="X77" s="93"/>
-      <c r="Y77" s="93"/>
-      <c r="Z77" s="93"/>
-      <c r="AA77" s="93"/>
-      <c r="AB77" s="93"/>
-      <c r="AC77" s="93"/>
-      <c r="AD77" s="93"/>
-      <c r="AE77" s="93"/>
-      <c r="AF77" s="93"/>
-      <c r="AG77" s="93"/>
-      <c r="AH77" s="93"/>
-      <c r="AI77" s="93"/>
-      <c r="AJ77" s="93"/>
-      <c r="AK77" s="93"/>
-      <c r="AL77" s="93"/>
-      <c r="AM77" s="93"/>
-      <c r="AN77" s="93"/>
-      <c r="AO77" s="93"/>
-      <c r="AP77" s="93"/>
-      <c r="AQ77" s="93"/>
-      <c r="AR77" s="93"/>
-      <c r="AS77" s="93"/>
-      <c r="AT77" s="93"/>
-      <c r="AU77" s="93"/>
-      <c r="AV77" s="93"/>
-      <c r="AW77" s="93"/>
-      <c r="AX77" s="93"/>
-      <c r="AY77" s="93"/>
-      <c r="AZ77" s="93"/>
-      <c r="BA77" s="93"/>
-      <c r="BB77" s="93"/>
-      <c r="BC77" s="93"/>
-      <c r="BD77" s="93"/>
-      <c r="BE77" s="93"/>
-      <c r="BF77" s="93"/>
-      <c r="BG77" s="93"/>
-      <c r="BH77" s="93"/>
-      <c r="BI77" s="93"/>
-      <c r="BJ77" s="93"/>
-      <c r="BK77" s="93"/>
-      <c r="BL77" s="93"/>
-      <c r="BM77" s="93"/>
-      <c r="BN77" s="93"/>
-      <c r="BO77" s="93"/>
-      <c r="BP77" s="93"/>
-      <c r="BQ77" s="93"/>
-      <c r="BR77" s="93"/>
-      <c r="BS77" s="93"/>
-      <c r="BT77" s="93"/>
-      <c r="BU77" s="93"/>
-      <c r="BV77" s="93"/>
-      <c r="BW77" s="93"/>
-      <c r="BX77" s="93"/>
-      <c r="BY77" s="93"/>
-      <c r="BZ77" s="93"/>
-      <c r="CA77" s="93"/>
-      <c r="CB77" s="93"/>
-      <c r="CC77" s="93"/>
-      <c r="CD77" s="93"/>
-      <c r="CE77" s="93"/>
-      <c r="CF77" s="93"/>
-      <c r="CG77" s="93"/>
-      <c r="CH77" s="93"/>
-      <c r="CI77" s="93"/>
-      <c r="CJ77" s="93"/>
-      <c r="CK77" s="93"/>
-      <c r="CL77" s="93"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="60"/>
+      <c r="R77" s="59"/>
+      <c r="S77" s="60"/>
+      <c r="T77" s="59"/>
+      <c r="U77" s="60"/>
+      <c r="V77" s="41"/>
+      <c r="W77" s="41"/>
+      <c r="X77" s="41"/>
+      <c r="Y77" s="59"/>
+      <c r="Z77" s="60"/>
+      <c r="AA77" s="59"/>
+      <c r="AB77" s="60"/>
+      <c r="AC77" s="59"/>
+      <c r="AD77" s="60"/>
+      <c r="AE77" s="41"/>
+      <c r="AF77" s="41"/>
+      <c r="AG77" s="41"/>
+      <c r="AH77" s="102"/>
+      <c r="AI77" s="59"/>
+      <c r="AJ77" s="105"/>
+      <c r="AK77" s="59"/>
+      <c r="AL77" s="60"/>
+      <c r="AM77" s="59"/>
+      <c r="AN77" s="74"/>
+      <c r="AO77" s="60"/>
+      <c r="AP77" s="59"/>
+      <c r="AQ77" s="74"/>
+      <c r="AR77" s="60"/>
+      <c r="AS77" s="41"/>
+      <c r="AT77" s="41"/>
+      <c r="AU77" s="41"/>
+      <c r="AV77" s="59"/>
+      <c r="AW77" s="60"/>
+      <c r="AX77" s="41"/>
+      <c r="AY77" s="41"/>
+      <c r="AZ77" s="59"/>
+      <c r="BA77" s="60"/>
+      <c r="BB77" s="59"/>
+      <c r="BC77" s="74"/>
+      <c r="BD77" s="60"/>
+      <c r="BE77" s="59"/>
+      <c r="BF77" s="74"/>
+      <c r="BG77" s="60"/>
+      <c r="BH77" s="59"/>
+      <c r="BI77" s="60"/>
+      <c r="BJ77" s="41"/>
+      <c r="BK77" s="59"/>
+      <c r="BL77" s="74"/>
+      <c r="BM77" s="60"/>
+      <c r="BN77" s="59"/>
+      <c r="BO77" s="74"/>
+      <c r="BP77" s="74"/>
+      <c r="BQ77" s="60"/>
+      <c r="BR77" s="41"/>
+      <c r="BS77" s="41"/>
+      <c r="BT77" s="41"/>
+      <c r="BU77" s="41"/>
+      <c r="BV77" s="41"/>
+      <c r="BW77" s="59"/>
+      <c r="BX77" s="60"/>
+      <c r="BY77" s="59"/>
+      <c r="BZ77" s="60"/>
+      <c r="CA77" s="59"/>
+      <c r="CB77" s="60"/>
+      <c r="CC77" s="59"/>
+      <c r="CD77" s="60"/>
+      <c r="CE77" s="41"/>
+      <c r="CF77" s="41"/>
+      <c r="CG77" s="41"/>
+      <c r="CH77" s="41"/>
+      <c r="CI77" s="41"/>
+      <c r="CJ77" s="41"/>
+      <c r="CK77" s="91" t="s">
+        <v>261</v>
+      </c>
+      <c r="CL77" s="92" t="s">
+        <v>335</v>
+      </c>
       <c r="CM77" s="93"/>
     </row>
-    <row r="78" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:91" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="93"/>
       <c r="B78" s="93"/>
       <c r="C78" s="93"/>
       <c r="D78" s="93"/>
-      <c r="E78" s="75"/>
-      <c r="F78" s="94" t="s">
-        <v>179</v>
-      </c>
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
       <c r="G78" s="93"/>
       <c r="H78" s="93"/>
       <c r="I78" s="93"/>
-      <c r="J78" s="82">
-        <v>3</v>
-      </c>
-      <c r="K78" s="94" t="s">
-        <v>180</v>
-      </c>
+      <c r="J78" s="93"/>
+      <c r="K78" s="93"/>
       <c r="L78" s="93"/>
       <c r="M78" s="93"/>
       <c r="N78" s="93"/>
       <c r="O78" s="93"/>
       <c r="P78" s="93"/>
       <c r="Q78" s="93"/>
-      <c r="R78" s="96"/>
-      <c r="S78" s="94" t="s">
-        <v>181</v>
-      </c>
+      <c r="R78" s="93"/>
+      <c r="S78" s="93"/>
       <c r="T78" s="93"/>
       <c r="U78" s="93"/>
       <c r="V78" s="93"/>
@@ -25440,21 +25444,29 @@
       <c r="B79" s="93"/>
       <c r="C79" s="93"/>
       <c r="D79" s="93"/>
-      <c r="E79" s="93"/>
-      <c r="F79" s="93"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="94" t="s">
+        <v>179</v>
+      </c>
       <c r="G79" s="93"/>
       <c r="H79" s="93"/>
       <c r="I79" s="93"/>
-      <c r="J79" s="93"/>
-      <c r="K79" s="93"/>
+      <c r="J79" s="82">
+        <v>3</v>
+      </c>
+      <c r="K79" s="94" t="s">
+        <v>180</v>
+      </c>
       <c r="L79" s="93"/>
       <c r="M79" s="93"/>
       <c r="N79" s="93"/>
       <c r="O79" s="93"/>
       <c r="P79" s="93"/>
       <c r="Q79" s="93"/>
-      <c r="R79" s="93"/>
-      <c r="S79" s="93"/>
+      <c r="R79" s="96"/>
+      <c r="S79" s="94" t="s">
+        <v>181</v>
+      </c>
       <c r="T79" s="93"/>
       <c r="U79" s="93"/>
       <c r="V79" s="93"/>
@@ -29899,6 +29911,99 @@
       <c r="CL126" s="93"/>
       <c r="CM126" s="93"/>
     </row>
+    <row r="127" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="A127" s="93"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="93"/>
+      <c r="D127" s="93"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="93"/>
+      <c r="G127" s="93"/>
+      <c r="H127" s="93"/>
+      <c r="I127" s="93"/>
+      <c r="J127" s="93"/>
+      <c r="K127" s="93"/>
+      <c r="L127" s="93"/>
+      <c r="M127" s="93"/>
+      <c r="N127" s="93"/>
+      <c r="O127" s="93"/>
+      <c r="P127" s="93"/>
+      <c r="Q127" s="93"/>
+      <c r="R127" s="93"/>
+      <c r="S127" s="93"/>
+      <c r="T127" s="93"/>
+      <c r="U127" s="93"/>
+      <c r="V127" s="93"/>
+      <c r="W127" s="93"/>
+      <c r="X127" s="93"/>
+      <c r="Y127" s="93"/>
+      <c r="Z127" s="93"/>
+      <c r="AA127" s="93"/>
+      <c r="AB127" s="93"/>
+      <c r="AC127" s="93"/>
+      <c r="AD127" s="93"/>
+      <c r="AE127" s="93"/>
+      <c r="AF127" s="93"/>
+      <c r="AG127" s="93"/>
+      <c r="AH127" s="93"/>
+      <c r="AI127" s="93"/>
+      <c r="AJ127" s="93"/>
+      <c r="AK127" s="93"/>
+      <c r="AL127" s="93"/>
+      <c r="AM127" s="93"/>
+      <c r="AN127" s="93"/>
+      <c r="AO127" s="93"/>
+      <c r="AP127" s="93"/>
+      <c r="AQ127" s="93"/>
+      <c r="AR127" s="93"/>
+      <c r="AS127" s="93"/>
+      <c r="AT127" s="93"/>
+      <c r="AU127" s="93"/>
+      <c r="AV127" s="93"/>
+      <c r="AW127" s="93"/>
+      <c r="AX127" s="93"/>
+      <c r="AY127" s="93"/>
+      <c r="AZ127" s="93"/>
+      <c r="BA127" s="93"/>
+      <c r="BB127" s="93"/>
+      <c r="BC127" s="93"/>
+      <c r="BD127" s="93"/>
+      <c r="BE127" s="93"/>
+      <c r="BF127" s="93"/>
+      <c r="BG127" s="93"/>
+      <c r="BH127" s="93"/>
+      <c r="BI127" s="93"/>
+      <c r="BJ127" s="93"/>
+      <c r="BK127" s="93"/>
+      <c r="BL127" s="93"/>
+      <c r="BM127" s="93"/>
+      <c r="BN127" s="93"/>
+      <c r="BO127" s="93"/>
+      <c r="BP127" s="93"/>
+      <c r="BQ127" s="93"/>
+      <c r="BR127" s="93"/>
+      <c r="BS127" s="93"/>
+      <c r="BT127" s="93"/>
+      <c r="BU127" s="93"/>
+      <c r="BV127" s="93"/>
+      <c r="BW127" s="93"/>
+      <c r="BX127" s="93"/>
+      <c r="BY127" s="93"/>
+      <c r="BZ127" s="93"/>
+      <c r="CA127" s="93"/>
+      <c r="CB127" s="93"/>
+      <c r="CC127" s="93"/>
+      <c r="CD127" s="93"/>
+      <c r="CE127" s="93"/>
+      <c r="CF127" s="93"/>
+      <c r="CG127" s="93"/>
+      <c r="CH127" s="93"/>
+      <c r="CI127" s="93"/>
+      <c r="CJ127" s="93"/>
+      <c r="CK127" s="93"/>
+      <c r="CL127" s="93"/>
+      <c r="CM127" s="93"/>
+    </row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="BW2:BX2"/>
@@ -29948,7 +30053,7 @@
     <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -30039,7 +30144,7 @@
       <c r="K3" s="118"/>
       <c r="L3" s="118"/>
       <c r="M3" s="119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N3" s="118"/>
       <c r="O3" s="118"/>
@@ -30053,10 +30158,10 @@
     <row r="4" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
       <c r="B4" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D4" s="45">
         <v>1</v>
@@ -30107,17 +30212,17 @@
         <v>1</v>
       </c>
       <c r="T4" s="120" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U4" s="93"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D5" s="99">
         <v>700</v>
@@ -30168,7 +30273,7 @@
         <v>36</v>
       </c>
       <c r="T5" s="121" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U5" s="93"/>
     </row>
@@ -30176,7 +30281,7 @@
       <c r="A6" s="93"/>
       <c r="B6" s="109"/>
       <c r="C6" s="86" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D6" s="97">
         <v>950</v>
@@ -30227,7 +30332,7 @@
         <v>36</v>
       </c>
       <c r="T6" s="122" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U6" s="93"/>
     </row>
@@ -30235,7 +30340,7 @@
       <c r="A7" s="93"/>
       <c r="B7" s="109"/>
       <c r="C7" s="86" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D7" s="97">
         <v>2150</v>
@@ -30286,7 +30391,7 @@
         <v>2150</v>
       </c>
       <c r="T7" s="122" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U7" s="93"/>
     </row>
@@ -30294,7 +30399,7 @@
       <c r="A8" s="93"/>
       <c r="B8" s="110"/>
       <c r="C8" s="88" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D8" s="113">
         <v>2300</v>
@@ -30345,17 +30450,17 @@
         <v>2250</v>
       </c>
       <c r="T8" s="123" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U8" s="93"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="93"/>
       <c r="B9" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="89" t="s">
         <v>342</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>340</v>
       </c>
       <c r="D9" s="114">
         <v>-27</v>
@@ -30406,7 +30511,7 @@
         <v>-25</v>
       </c>
       <c r="T9" s="124" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="U9" s="93"/>
     </row>
@@ -30414,7 +30519,7 @@
       <c r="A10" s="93"/>
       <c r="B10" s="111"/>
       <c r="C10" s="92" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D10" s="115">
         <v>20</v>
@@ -30465,17 +30570,17 @@
         <v>20</v>
       </c>
       <c r="T10" s="125" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="U10" s="93"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
       <c r="B11" s="15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D11" s="99">
         <v>8.7999999999999995E-2</v>
@@ -30526,7 +30631,7 @@
         <v>0.08</v>
       </c>
       <c r="T11" s="121" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U11" s="93"/>
     </row>
@@ -30534,7 +30639,7 @@
       <c r="A12" s="93"/>
       <c r="B12" s="109"/>
       <c r="C12" s="86" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D12" s="97">
         <v>8.7999999999999995E-2</v>
@@ -30585,7 +30690,7 @@
         <v>0.08</v>
       </c>
       <c r="T12" s="122" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U12" s="93"/>
     </row>
@@ -30593,7 +30698,7 @@
       <c r="A13" s="93"/>
       <c r="B13" s="109"/>
       <c r="C13" s="86" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D13" s="97">
         <v>45</v>
@@ -30644,7 +30749,7 @@
         <v>70</v>
       </c>
       <c r="T13" s="122" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U13" s="93"/>
     </row>
@@ -30652,7 +30757,7 @@
       <c r="A14" s="93"/>
       <c r="B14" s="110"/>
       <c r="C14" s="88" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D14" s="113">
         <v>45</v>
@@ -30703,17 +30808,17 @@
         <v>70</v>
       </c>
       <c r="T14" s="123" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U14" s="93"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="29" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D15" s="114">
         <v>8.7999999999999995E-2</v>
@@ -30764,7 +30869,7 @@
         <v>0.08</v>
       </c>
       <c r="T15" s="124" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U15" s="93"/>
     </row>
@@ -30772,7 +30877,7 @@
       <c r="A16" s="93"/>
       <c r="B16" s="112"/>
       <c r="C16" s="25" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D16" s="116">
         <v>8.7999999999999995E-2</v>
@@ -30823,7 +30928,7 @@
         <v>0.08</v>
       </c>
       <c r="T16" s="126" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U16" s="93"/>
     </row>
@@ -30831,7 +30936,7 @@
       <c r="A17" s="93"/>
       <c r="B17" s="112"/>
       <c r="C17" s="25" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D17" s="116">
         <v>45</v>
@@ -30882,7 +30987,7 @@
         <v>70</v>
       </c>
       <c r="T17" s="126" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U17" s="93"/>
     </row>
@@ -30890,7 +30995,7 @@
       <c r="A18" s="93"/>
       <c r="B18" s="111"/>
       <c r="C18" s="92" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D18" s="115">
         <v>45</v>
@@ -30941,7 +31046,7 @@
         <v>70</v>
       </c>
       <c r="T18" s="125" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="U18" s="93"/>
     </row>
@@ -32120,7 +32225,7 @@
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -32213,10 +32318,10 @@
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
       <c r="B4" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D4" s="45">
         <v>1</v>
@@ -32261,17 +32366,17 @@
         <v>1</v>
       </c>
       <c r="R4" s="120" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="S4" s="93"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="15" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D5" s="99">
         <v>950</v>
@@ -32316,7 +32421,7 @@
         <v>42</v>
       </c>
       <c r="R5" s="121" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="S5" s="93"/>
     </row>
@@ -32324,7 +32429,7 @@
       <c r="A6" s="93"/>
       <c r="B6" s="109"/>
       <c r="C6" s="86" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D6" s="97">
         <v>950</v>
@@ -32369,7 +32474,7 @@
         <v>42</v>
       </c>
       <c r="R6" s="122" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="S6" s="93"/>
     </row>
@@ -32377,7 +32482,7 @@
       <c r="A7" s="93"/>
       <c r="B7" s="109"/>
       <c r="C7" s="86" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D7" s="97">
         <v>2150</v>
@@ -32422,7 +32527,7 @@
         <v>1002</v>
       </c>
       <c r="R7" s="122" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="S7" s="93"/>
     </row>
@@ -32430,7 +32535,7 @@
       <c r="A8" s="93"/>
       <c r="B8" s="110"/>
       <c r="C8" s="88" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D8" s="113">
         <v>2150</v>
@@ -32475,7 +32580,7 @@
         <v>1002</v>
       </c>
       <c r="R8" s="123" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="S8" s="93"/>
     </row>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="390">
   <si>
     <t>Group</t>
   </si>
@@ -365,6 +365,9 @@
     <t>236A</t>
   </si>
   <si>
+    <t>245B</t>
+  </si>
+  <si>
     <t>315FW0</t>
   </si>
   <si>
@@ -830,6 +833,9 @@
     <t>RX_ATSC</t>
   </si>
   <si>
+    <t>RX_ATSC3</t>
+  </si>
+  <si>
     <t>RX_CMMB</t>
   </si>
   <si>
@@ -1077,6 +1083,9 @@
   </si>
   <si>
     <t>ATSC 8-VSB reception</t>
+  </si>
+  <si>
+    <t>ATSC3.0 reception</t>
   </si>
   <si>
     <t>CMMB reception</t>
@@ -2115,7 +2124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DS129"/>
+  <dimension ref="A1:DU129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
@@ -2132,17 +2141,17 @@
     <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="120" width="9.5703125" style="1" customWidth="1"/>
-    <col min="121" max="121" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="200.7109375" style="1" customWidth="1"/>
-    <col min="124" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="122" width="9.5703125" style="1" customWidth="1"/>
+    <col min="123" max="123" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="200.7109375" style="1" customWidth="1"/>
+    <col min="126" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:123" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:125" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -2265,8 +2274,10 @@
       <c r="DQ1" s="93"/>
       <c r="DR1" s="93"/>
       <c r="DS1" s="93"/>
-    </row>
-    <row r="2" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT1" s="93"/>
+      <c r="DU1" s="93"/>
+    </row>
+    <row r="2" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -2489,29 +2500,33 @@
         <v>245</v>
       </c>
       <c r="DJ2" s="64"/>
-      <c r="DK2" s="46" t="s">
+      <c r="DK2" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="DL2" s="46" t="s">
+      <c r="DL2" s="64"/>
+      <c r="DM2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="DM2" s="46" t="s">
+      <c r="DN2" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="DN2" s="46" t="s">
+      <c r="DO2" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="DO2" s="46">
+      <c r="DP2" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="DQ2" s="46">
         <v>350</v>
       </c>
-      <c r="DP2" s="46">
+      <c r="DR2" s="46">
         <v>351</v>
       </c>
-      <c r="DQ2" s="93"/>
-      <c r="DR2" s="93"/>
       <c r="DS2" s="93"/>
-    </row>
-    <row r="3" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT2" s="93"/>
+      <c r="DU2" s="93"/>
+    </row>
+    <row r="3" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2852,11 +2867,11 @@
       <c r="DJ3" s="66">
         <v>2</v>
       </c>
-      <c r="DK3" s="47">
+      <c r="DK3" s="65">
         <v>1</v>
       </c>
-      <c r="DL3" s="47">
-        <v>1</v>
+      <c r="DL3" s="66">
+        <v>2</v>
       </c>
       <c r="DM3" s="47">
         <v>1</v>
@@ -2870,15 +2885,21 @@
       <c r="DP3" s="47">
         <v>1</v>
       </c>
-      <c r="DQ3" s="2" t="s">
+      <c r="DQ3" s="47">
+        <v>1</v>
+      </c>
+      <c r="DR3" s="47">
+        <v>1</v>
+      </c>
+      <c r="DS3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="DR3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="DS3" s="93"/>
-    </row>
-    <row r="4" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="DU3" s="93"/>
+    </row>
+    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -2999,21 +3020,23 @@
       <c r="DH4" s="51"/>
       <c r="DI4" s="32"/>
       <c r="DJ4" s="51"/>
-      <c r="DK4" s="34"/>
-      <c r="DL4" s="34"/>
+      <c r="DK4" s="32"/>
+      <c r="DL4" s="51"/>
       <c r="DM4" s="34"/>
       <c r="DN4" s="34"/>
       <c r="DO4" s="34"/>
-      <c r="DP4" s="48"/>
-      <c r="DQ4" s="5" t="s">
+      <c r="DP4" s="34"/>
+      <c r="DQ4" s="34"/>
+      <c r="DR4" s="48"/>
+      <c r="DS4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="DR4" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS4" s="93"/>
-    </row>
-    <row r="5" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT4" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU4" s="93"/>
+    </row>
+    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="16"/>
       <c r="C5" s="9" t="s">
@@ -3132,21 +3155,23 @@
       <c r="DH5" s="52"/>
       <c r="DI5" s="33"/>
       <c r="DJ5" s="52"/>
-      <c r="DK5" s="35"/>
-      <c r="DL5" s="35"/>
+      <c r="DK5" s="33"/>
+      <c r="DL5" s="52"/>
       <c r="DM5" s="35"/>
       <c r="DN5" s="35"/>
       <c r="DO5" s="35"/>
       <c r="DP5" s="35"/>
-      <c r="DQ5" s="85" t="s">
+      <c r="DQ5" s="35"/>
+      <c r="DR5" s="35"/>
+      <c r="DS5" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="DR5" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="DS5" s="93"/>
-    </row>
-    <row r="6" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT5" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="DU5" s="93"/>
+    </row>
+    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A6" s="93"/>
       <c r="B6" s="16"/>
       <c r="C6" s="9" t="s">
@@ -3263,21 +3288,23 @@
       <c r="DH6" s="52"/>
       <c r="DI6" s="33"/>
       <c r="DJ6" s="52"/>
-      <c r="DK6" s="35"/>
-      <c r="DL6" s="35"/>
+      <c r="DK6" s="33"/>
+      <c r="DL6" s="52"/>
       <c r="DM6" s="35"/>
       <c r="DN6" s="35"/>
       <c r="DO6" s="35"/>
       <c r="DP6" s="35"/>
-      <c r="DQ6" s="85" t="s">
+      <c r="DQ6" s="35"/>
+      <c r="DR6" s="35"/>
+      <c r="DS6" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="DR6" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="DS6" s="93"/>
-    </row>
-    <row r="7" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT6" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU6" s="93"/>
+    </row>
+    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A7" s="93"/>
       <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
@@ -3398,21 +3425,23 @@
       <c r="DH7" s="52"/>
       <c r="DI7" s="33"/>
       <c r="DJ7" s="52"/>
-      <c r="DK7" s="35"/>
-      <c r="DL7" s="35"/>
+      <c r="DK7" s="33"/>
+      <c r="DL7" s="52"/>
       <c r="DM7" s="35"/>
       <c r="DN7" s="35"/>
       <c r="DO7" s="35"/>
       <c r="DP7" s="35"/>
-      <c r="DQ7" s="85" t="s">
+      <c r="DQ7" s="35"/>
+      <c r="DR7" s="35"/>
+      <c r="DS7" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="DR7" s="86" t="s">
-        <v>120</v>
-      </c>
-      <c r="DS7" s="93"/>
-    </row>
-    <row r="8" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT7" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU7" s="93"/>
+    </row>
+    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A8" s="93"/>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
@@ -3533,21 +3562,23 @@
       <c r="DH8" s="52"/>
       <c r="DI8" s="33"/>
       <c r="DJ8" s="52"/>
-      <c r="DK8" s="35"/>
-      <c r="DL8" s="35"/>
+      <c r="DK8" s="33"/>
+      <c r="DL8" s="52"/>
       <c r="DM8" s="35"/>
       <c r="DN8" s="35"/>
       <c r="DO8" s="35"/>
       <c r="DP8" s="35"/>
-      <c r="DQ8" s="85" t="s">
+      <c r="DQ8" s="35"/>
+      <c r="DR8" s="35"/>
+      <c r="DS8" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="DR8" s="86" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS8" s="93"/>
-    </row>
-    <row r="9" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT8" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU8" s="93"/>
+    </row>
+    <row r="9" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93"/>
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
@@ -3664,21 +3695,23 @@
       <c r="DH9" s="54"/>
       <c r="DI9" s="53"/>
       <c r="DJ9" s="54"/>
-      <c r="DK9" s="36"/>
-      <c r="DL9" s="36"/>
+      <c r="DK9" s="53"/>
+      <c r="DL9" s="54"/>
       <c r="DM9" s="36"/>
       <c r="DN9" s="36"/>
       <c r="DO9" s="36"/>
       <c r="DP9" s="36"/>
-      <c r="DQ9" s="87" t="s">
+      <c r="DQ9" s="36"/>
+      <c r="DR9" s="36"/>
+      <c r="DS9" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="DR9" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS9" s="93"/>
-    </row>
-    <row r="10" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT9" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="DU9" s="93"/>
+    </row>
+    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A10" s="93"/>
       <c r="B10" s="29" t="s">
         <v>14</v>
@@ -3797,21 +3830,23 @@
       <c r="DH10" s="82"/>
       <c r="DI10" s="37"/>
       <c r="DJ10" s="57"/>
-      <c r="DK10" s="39"/>
-      <c r="DL10" s="39"/>
+      <c r="DK10" s="37"/>
+      <c r="DL10" s="57"/>
       <c r="DM10" s="39"/>
       <c r="DN10" s="39"/>
       <c r="DO10" s="39"/>
       <c r="DP10" s="39"/>
-      <c r="DQ10" s="18" t="s">
+      <c r="DQ10" s="39"/>
+      <c r="DR10" s="39"/>
+      <c r="DS10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="DR10" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="DS10" s="93"/>
-    </row>
-    <row r="11" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT10" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="DU10" s="93"/>
+    </row>
+    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
       <c r="B11" s="30"/>
       <c r="C11" s="22" t="s">
@@ -3930,21 +3965,23 @@
       <c r="DH11" s="62"/>
       <c r="DI11" s="61"/>
       <c r="DJ11" s="58"/>
-      <c r="DK11" s="40"/>
-      <c r="DL11" s="40"/>
+      <c r="DK11" s="61"/>
+      <c r="DL11" s="58"/>
       <c r="DM11" s="40"/>
       <c r="DN11" s="40"/>
       <c r="DO11" s="40"/>
-      <c r="DP11" s="42"/>
-      <c r="DQ11" s="90" t="s">
+      <c r="DP11" s="40"/>
+      <c r="DQ11" s="40"/>
+      <c r="DR11" s="42"/>
+      <c r="DS11" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="DR11" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="DS11" s="93"/>
-    </row>
-    <row r="12" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT11" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="DU11" s="93"/>
+    </row>
+    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A12" s="93"/>
       <c r="B12" s="30"/>
       <c r="C12" s="23"/>
@@ -4063,21 +4100,23 @@
       <c r="DH12" s="58"/>
       <c r="DI12" s="38"/>
       <c r="DJ12" s="58"/>
-      <c r="DK12" s="40"/>
-      <c r="DL12" s="40"/>
+      <c r="DK12" s="38"/>
+      <c r="DL12" s="58"/>
       <c r="DM12" s="40"/>
       <c r="DN12" s="40"/>
       <c r="DO12" s="40"/>
       <c r="DP12" s="40"/>
-      <c r="DQ12" s="90" t="s">
+      <c r="DQ12" s="40"/>
+      <c r="DR12" s="40"/>
+      <c r="DS12" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="DR12" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="DS12" s="93"/>
-    </row>
-    <row r="13" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT12" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="DU12" s="93"/>
+    </row>
+    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A13" s="93"/>
       <c r="B13" s="30"/>
       <c r="C13" s="22" t="s">
@@ -4198,21 +4237,23 @@
       <c r="DH13" s="58"/>
       <c r="DI13" s="38"/>
       <c r="DJ13" s="58"/>
-      <c r="DK13" s="40"/>
-      <c r="DL13" s="40"/>
+      <c r="DK13" s="38"/>
+      <c r="DL13" s="58"/>
       <c r="DM13" s="40"/>
       <c r="DN13" s="40"/>
       <c r="DO13" s="40"/>
       <c r="DP13" s="40"/>
-      <c r="DQ13" s="90" t="s">
+      <c r="DQ13" s="40"/>
+      <c r="DR13" s="40"/>
+      <c r="DS13" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="DR13" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="DS13" s="93"/>
-    </row>
-    <row r="14" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT13" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="DU13" s="93"/>
+    </row>
+    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A14" s="93"/>
       <c r="B14" s="30"/>
       <c r="C14" s="22" t="s">
@@ -4333,21 +4374,23 @@
       <c r="DH14" s="58"/>
       <c r="DI14" s="38"/>
       <c r="DJ14" s="58"/>
-      <c r="DK14" s="40"/>
-      <c r="DL14" s="40"/>
+      <c r="DK14" s="38"/>
+      <c r="DL14" s="58"/>
       <c r="DM14" s="40"/>
       <c r="DN14" s="40"/>
       <c r="DO14" s="40"/>
       <c r="DP14" s="40"/>
-      <c r="DQ14" s="90" t="s">
+      <c r="DQ14" s="40"/>
+      <c r="DR14" s="40"/>
+      <c r="DS14" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="DR14" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="DS14" s="93"/>
-    </row>
-    <row r="15" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT14" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="DU14" s="93"/>
+    </row>
+    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="30"/>
       <c r="C15" s="22" t="s">
@@ -4468,21 +4511,23 @@
       <c r="DH15" s="58"/>
       <c r="DI15" s="38"/>
       <c r="DJ15" s="62"/>
-      <c r="DK15" s="42"/>
-      <c r="DL15" s="42"/>
+      <c r="DK15" s="38"/>
+      <c r="DL15" s="62"/>
       <c r="DM15" s="42"/>
       <c r="DN15" s="42"/>
       <c r="DO15" s="42"/>
-      <c r="DP15" s="40"/>
-      <c r="DQ15" s="90" t="s">
+      <c r="DP15" s="42"/>
+      <c r="DQ15" s="42"/>
+      <c r="DR15" s="40"/>
+      <c r="DS15" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="DR15" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="DS15" s="93"/>
-    </row>
-    <row r="16" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT15" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="DU15" s="93"/>
+    </row>
+    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
       <c r="B16" s="30"/>
       <c r="C16" s="23"/>
@@ -4617,21 +4662,23 @@
       <c r="DH16" s="58"/>
       <c r="DI16" s="38"/>
       <c r="DJ16" s="58"/>
-      <c r="DK16" s="40"/>
-      <c r="DL16" s="40"/>
+      <c r="DK16" s="38"/>
+      <c r="DL16" s="58"/>
       <c r="DM16" s="40"/>
       <c r="DN16" s="40"/>
       <c r="DO16" s="40"/>
       <c r="DP16" s="40"/>
-      <c r="DQ16" s="90" t="s">
+      <c r="DQ16" s="40"/>
+      <c r="DR16" s="40"/>
+      <c r="DS16" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="DR16" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="DS16" s="93"/>
-    </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT16" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="DU16" s="93"/>
+    </row>
+    <row r="17" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A17" s="93"/>
       <c r="B17" s="30"/>
       <c r="C17" s="23"/>
@@ -4754,21 +4801,23 @@
       <c r="DH17" s="58"/>
       <c r="DI17" s="38"/>
       <c r="DJ17" s="58"/>
-      <c r="DK17" s="40"/>
-      <c r="DL17" s="40"/>
+      <c r="DK17" s="38"/>
+      <c r="DL17" s="58"/>
       <c r="DM17" s="40"/>
       <c r="DN17" s="40"/>
       <c r="DO17" s="40"/>
       <c r="DP17" s="40"/>
-      <c r="DQ17" s="90" t="s">
+      <c r="DQ17" s="40"/>
+      <c r="DR17" s="40"/>
+      <c r="DS17" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="DR17" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="DS17" s="93"/>
-    </row>
-    <row r="18" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT17" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="DU17" s="93"/>
+    </row>
+    <row r="18" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A18" s="93"/>
       <c r="B18" s="30"/>
       <c r="C18" s="23"/>
@@ -4893,21 +4942,23 @@
       <c r="DH18" s="58"/>
       <c r="DI18" s="38"/>
       <c r="DJ18" s="58"/>
-      <c r="DK18" s="40"/>
-      <c r="DL18" s="40"/>
+      <c r="DK18" s="38"/>
+      <c r="DL18" s="58"/>
       <c r="DM18" s="40"/>
       <c r="DN18" s="40"/>
       <c r="DO18" s="40"/>
       <c r="DP18" s="40"/>
-      <c r="DQ18" s="90" t="s">
+      <c r="DQ18" s="40"/>
+      <c r="DR18" s="40"/>
+      <c r="DS18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="DR18" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="DS18" s="93"/>
-    </row>
-    <row r="19" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT18" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="DU18" s="93"/>
+    </row>
+    <row r="19" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93"/>
       <c r="B19" s="31"/>
       <c r="C19" s="26"/>
@@ -5034,21 +5085,23 @@
       <c r="DJ19" s="70">
         <v>7</v>
       </c>
-      <c r="DK19" s="41"/>
-      <c r="DL19" s="41"/>
+      <c r="DK19" s="59"/>
+      <c r="DL19" s="68"/>
       <c r="DM19" s="41"/>
       <c r="DN19" s="41"/>
       <c r="DO19" s="41"/>
       <c r="DP19" s="41"/>
-      <c r="DQ19" s="91" t="s">
+      <c r="DQ19" s="41"/>
+      <c r="DR19" s="41"/>
+      <c r="DS19" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="DR19" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="DS19" s="93"/>
-    </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT19" s="92" t="s">
+        <v>133</v>
+      </c>
+      <c r="DU19" s="93"/>
+    </row>
+    <row r="20" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A20" s="93"/>
       <c r="B20" s="15" t="s">
         <v>27</v>
@@ -5169,21 +5222,23 @@
       <c r="DH20" s="51"/>
       <c r="DI20" s="32"/>
       <c r="DJ20" s="51"/>
-      <c r="DK20" s="34"/>
-      <c r="DL20" s="34"/>
+      <c r="DK20" s="32"/>
+      <c r="DL20" s="51"/>
       <c r="DM20" s="34"/>
       <c r="DN20" s="34"/>
       <c r="DO20" s="34"/>
       <c r="DP20" s="34"/>
-      <c r="DQ20" s="5" t="s">
+      <c r="DQ20" s="34"/>
+      <c r="DR20" s="34"/>
+      <c r="DS20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="DR20" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="DS20" s="93"/>
-    </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT20" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="DU20" s="93"/>
+    </row>
+    <row r="21" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A21" s="93"/>
       <c r="B21" s="16"/>
       <c r="C21" s="10"/>
@@ -5304,21 +5359,23 @@
       <c r="DH21" s="52"/>
       <c r="DI21" s="33"/>
       <c r="DJ21" s="52"/>
-      <c r="DK21" s="35"/>
-      <c r="DL21" s="35"/>
+      <c r="DK21" s="33"/>
+      <c r="DL21" s="52"/>
       <c r="DM21" s="35"/>
       <c r="DN21" s="35"/>
       <c r="DO21" s="35"/>
       <c r="DP21" s="35"/>
-      <c r="DQ21" s="85" t="s">
+      <c r="DQ21" s="35"/>
+      <c r="DR21" s="35"/>
+      <c r="DS21" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="DR21" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="DS21" s="93"/>
-    </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT21" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="DU21" s="93"/>
+    </row>
+    <row r="22" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A22" s="93"/>
       <c r="B22" s="16"/>
       <c r="C22" s="10"/>
@@ -5435,21 +5492,23 @@
       <c r="DH22" s="52"/>
       <c r="DI22" s="33"/>
       <c r="DJ22" s="52"/>
-      <c r="DK22" s="35"/>
-      <c r="DL22" s="35"/>
+      <c r="DK22" s="33"/>
+      <c r="DL22" s="52"/>
       <c r="DM22" s="35"/>
       <c r="DN22" s="35"/>
       <c r="DO22" s="35"/>
       <c r="DP22" s="35"/>
-      <c r="DQ22" s="85" t="s">
+      <c r="DQ22" s="35"/>
+      <c r="DR22" s="35"/>
+      <c r="DS22" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="DR22" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="DS22" s="93"/>
-    </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT22" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="DU22" s="93"/>
+    </row>
+    <row r="23" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A23" s="93"/>
       <c r="B23" s="16"/>
       <c r="C23" s="10"/>
@@ -5570,21 +5629,23 @@
       <c r="DH23" s="52"/>
       <c r="DI23" s="33"/>
       <c r="DJ23" s="52"/>
-      <c r="DK23" s="35"/>
-      <c r="DL23" s="35"/>
+      <c r="DK23" s="33"/>
+      <c r="DL23" s="52"/>
       <c r="DM23" s="35"/>
       <c r="DN23" s="35"/>
       <c r="DO23" s="35"/>
       <c r="DP23" s="35"/>
-      <c r="DQ23" s="85" t="s">
+      <c r="DQ23" s="35"/>
+      <c r="DR23" s="35"/>
+      <c r="DS23" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="DR23" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="DS23" s="93"/>
-    </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT23" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="DU23" s="93"/>
+    </row>
+    <row r="24" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A24" s="93"/>
       <c r="B24" s="16"/>
       <c r="C24" s="10"/>
@@ -5701,21 +5762,23 @@
       <c r="DH24" s="52"/>
       <c r="DI24" s="33"/>
       <c r="DJ24" s="52"/>
-      <c r="DK24" s="35"/>
-      <c r="DL24" s="35"/>
+      <c r="DK24" s="33"/>
+      <c r="DL24" s="52"/>
       <c r="DM24" s="35"/>
       <c r="DN24" s="35"/>
       <c r="DO24" s="35"/>
       <c r="DP24" s="35"/>
-      <c r="DQ24" s="85" t="s">
+      <c r="DQ24" s="35"/>
+      <c r="DR24" s="35"/>
+      <c r="DS24" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="DR24" s="86" t="s">
-        <v>137</v>
-      </c>
-      <c r="DS24" s="93"/>
-    </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT24" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="DU24" s="93"/>
+    </row>
+    <row r="25" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A25" s="93"/>
       <c r="B25" s="16"/>
       <c r="C25" s="10"/>
@@ -5836,21 +5899,23 @@
       <c r="DH25" s="52"/>
       <c r="DI25" s="33"/>
       <c r="DJ25" s="52"/>
-      <c r="DK25" s="35"/>
-      <c r="DL25" s="35"/>
+      <c r="DK25" s="33"/>
+      <c r="DL25" s="52"/>
       <c r="DM25" s="35"/>
       <c r="DN25" s="35"/>
       <c r="DO25" s="35"/>
       <c r="DP25" s="35"/>
-      <c r="DQ25" s="85" t="s">
+      <c r="DQ25" s="35"/>
+      <c r="DR25" s="35"/>
+      <c r="DS25" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="DR25" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="DS25" s="93"/>
-    </row>
-    <row r="26" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT25" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU25" s="93"/>
+    </row>
+    <row r="26" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A26" s="93"/>
       <c r="B26" s="16"/>
       <c r="C26" s="9" t="s">
@@ -5969,21 +6034,23 @@
       <c r="DH26" s="62"/>
       <c r="DI26" s="61"/>
       <c r="DJ26" s="62"/>
-      <c r="DK26" s="35"/>
-      <c r="DL26" s="35"/>
+      <c r="DK26" s="61"/>
+      <c r="DL26" s="62"/>
       <c r="DM26" s="35"/>
       <c r="DN26" s="35"/>
       <c r="DO26" s="35"/>
       <c r="DP26" s="35"/>
-      <c r="DQ26" s="85" t="s">
+      <c r="DQ26" s="35"/>
+      <c r="DR26" s="35"/>
+      <c r="DS26" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="DR26" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="DS26" s="93"/>
-    </row>
-    <row r="27" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT26" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="DU26" s="93"/>
+    </row>
+    <row r="27" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A27" s="93"/>
       <c r="B27" s="16"/>
       <c r="C27" s="9" t="s">
@@ -6100,21 +6167,23 @@
       <c r="DH27" s="52"/>
       <c r="DI27" s="33"/>
       <c r="DJ27" s="52"/>
-      <c r="DK27" s="35"/>
-      <c r="DL27" s="35"/>
+      <c r="DK27" s="33"/>
+      <c r="DL27" s="52"/>
       <c r="DM27" s="35"/>
       <c r="DN27" s="35"/>
       <c r="DO27" s="35"/>
       <c r="DP27" s="35"/>
-      <c r="DQ27" s="85" t="s">
+      <c r="DQ27" s="35"/>
+      <c r="DR27" s="35"/>
+      <c r="DS27" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="DR27" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="DS27" s="93"/>
-    </row>
-    <row r="28" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT27" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="DU27" s="93"/>
+    </row>
+    <row r="28" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A28" s="93"/>
       <c r="B28" s="16"/>
       <c r="C28" s="9" t="s">
@@ -6231,21 +6300,23 @@
       <c r="DH28" s="52"/>
       <c r="DI28" s="33"/>
       <c r="DJ28" s="52"/>
-      <c r="DK28" s="35"/>
-      <c r="DL28" s="35"/>
+      <c r="DK28" s="33"/>
+      <c r="DL28" s="52"/>
       <c r="DM28" s="35"/>
       <c r="DN28" s="35"/>
       <c r="DO28" s="35"/>
       <c r="DP28" s="35"/>
-      <c r="DQ28" s="85" t="s">
+      <c r="DQ28" s="35"/>
+      <c r="DR28" s="35"/>
+      <c r="DS28" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="DR28" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="DS28" s="93"/>
-    </row>
-    <row r="29" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT28" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="DU28" s="93"/>
+    </row>
+    <row r="29" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A29" s="93"/>
       <c r="B29" s="16"/>
       <c r="C29" s="9" t="s">
@@ -6364,21 +6435,23 @@
       <c r="DH29" s="52"/>
       <c r="DI29" s="33"/>
       <c r="DJ29" s="52"/>
-      <c r="DK29" s="35"/>
-      <c r="DL29" s="35"/>
+      <c r="DK29" s="33"/>
+      <c r="DL29" s="52"/>
       <c r="DM29" s="35"/>
       <c r="DN29" s="35"/>
       <c r="DO29" s="35"/>
       <c r="DP29" s="35"/>
-      <c r="DQ29" s="85" t="s">
+      <c r="DQ29" s="35"/>
+      <c r="DR29" s="35"/>
+      <c r="DS29" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="DR29" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="DS29" s="93"/>
-    </row>
-    <row r="30" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT29" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="DU29" s="93"/>
+    </row>
+    <row r="30" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A30" s="93"/>
       <c r="B30" s="16"/>
       <c r="C30" s="9" t="s">
@@ -6495,21 +6568,23 @@
       <c r="DH30" s="52"/>
       <c r="DI30" s="33"/>
       <c r="DJ30" s="52"/>
-      <c r="DK30" s="35"/>
-      <c r="DL30" s="35"/>
+      <c r="DK30" s="33"/>
+      <c r="DL30" s="52"/>
       <c r="DM30" s="35"/>
       <c r="DN30" s="35"/>
       <c r="DO30" s="35"/>
       <c r="DP30" s="35"/>
-      <c r="DQ30" s="85" t="s">
+      <c r="DQ30" s="35"/>
+      <c r="DR30" s="35"/>
+      <c r="DS30" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="DR30" s="86" t="s">
+      <c r="DT30" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="DS30" s="93"/>
-    </row>
-    <row r="31" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DU30" s="93"/>
+    </row>
+    <row r="31" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A31" s="93"/>
       <c r="B31" s="16"/>
       <c r="C31" s="9" t="s">
@@ -6628,21 +6703,23 @@
       <c r="DH31" s="52"/>
       <c r="DI31" s="33"/>
       <c r="DJ31" s="52"/>
-      <c r="DK31" s="35"/>
-      <c r="DL31" s="35"/>
+      <c r="DK31" s="33"/>
+      <c r="DL31" s="52"/>
       <c r="DM31" s="35"/>
       <c r="DN31" s="35"/>
-      <c r="DO31" s="42"/>
-      <c r="DP31" s="42"/>
-      <c r="DQ31" s="85" t="s">
+      <c r="DO31" s="35"/>
+      <c r="DP31" s="35"/>
+      <c r="DQ31" s="42"/>
+      <c r="DR31" s="42"/>
+      <c r="DS31" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="DR31" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="DS31" s="93"/>
-    </row>
-    <row r="32" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT31" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="DU31" s="93"/>
+    </row>
+    <row r="32" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A32" s="93"/>
       <c r="B32" s="16"/>
       <c r="C32" s="10"/>
@@ -6759,21 +6836,23 @@
       <c r="DH32" s="52"/>
       <c r="DI32" s="33"/>
       <c r="DJ32" s="52"/>
-      <c r="DK32" s="35"/>
-      <c r="DL32" s="35"/>
+      <c r="DK32" s="33"/>
+      <c r="DL32" s="52"/>
       <c r="DM32" s="35"/>
       <c r="DN32" s="35"/>
-      <c r="DO32" s="42"/>
-      <c r="DP32" s="42"/>
-      <c r="DQ32" s="85" t="s">
+      <c r="DO32" s="35"/>
+      <c r="DP32" s="35"/>
+      <c r="DQ32" s="42"/>
+      <c r="DR32" s="42"/>
+      <c r="DS32" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="DR32" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="DS32" s="93"/>
-    </row>
-    <row r="33" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT32" s="86" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU32" s="93"/>
+    </row>
+    <row r="33" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
       <c r="B33" s="16"/>
       <c r="C33" s="10"/>
@@ -6890,21 +6969,23 @@
       <c r="DH33" s="52"/>
       <c r="DI33" s="33"/>
       <c r="DJ33" s="52"/>
-      <c r="DK33" s="35"/>
-      <c r="DL33" s="35"/>
+      <c r="DK33" s="33"/>
+      <c r="DL33" s="52"/>
       <c r="DM33" s="35"/>
       <c r="DN33" s="35"/>
-      <c r="DO33" s="42"/>
-      <c r="DP33" s="42"/>
-      <c r="DQ33" s="85" t="s">
+      <c r="DO33" s="35"/>
+      <c r="DP33" s="35"/>
+      <c r="DQ33" s="42"/>
+      <c r="DR33" s="42"/>
+      <c r="DS33" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="DR33" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="DS33" s="93"/>
-    </row>
-    <row r="34" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT33" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="DU33" s="93"/>
+    </row>
+    <row r="34" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
       <c r="B34" s="16"/>
       <c r="C34" s="10"/>
@@ -7021,21 +7102,23 @@
       <c r="DH34" s="52"/>
       <c r="DI34" s="33"/>
       <c r="DJ34" s="52"/>
-      <c r="DK34" s="35"/>
-      <c r="DL34" s="35"/>
+      <c r="DK34" s="33"/>
+      <c r="DL34" s="52"/>
       <c r="DM34" s="35"/>
       <c r="DN34" s="35"/>
-      <c r="DO34" s="42"/>
-      <c r="DP34" s="42"/>
-      <c r="DQ34" s="85" t="s">
+      <c r="DO34" s="35"/>
+      <c r="DP34" s="35"/>
+      <c r="DQ34" s="42"/>
+      <c r="DR34" s="42"/>
+      <c r="DS34" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="DR34" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="DS34" s="93"/>
-    </row>
-    <row r="35" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT34" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="DU34" s="93"/>
+    </row>
+    <row r="35" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A35" s="93"/>
       <c r="B35" s="16"/>
       <c r="C35" s="10"/>
@@ -7152,21 +7235,23 @@
       <c r="DH35" s="52"/>
       <c r="DI35" s="33"/>
       <c r="DJ35" s="52"/>
-      <c r="DK35" s="35"/>
-      <c r="DL35" s="35"/>
+      <c r="DK35" s="33"/>
+      <c r="DL35" s="52"/>
       <c r="DM35" s="35"/>
       <c r="DN35" s="35"/>
-      <c r="DO35" s="42"/>
-      <c r="DP35" s="42"/>
-      <c r="DQ35" s="85" t="s">
+      <c r="DO35" s="35"/>
+      <c r="DP35" s="35"/>
+      <c r="DQ35" s="42"/>
+      <c r="DR35" s="42"/>
+      <c r="DS35" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="DR35" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="DS35" s="93"/>
-    </row>
-    <row r="36" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT35" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="DU35" s="93"/>
+    </row>
+    <row r="36" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
       <c r="B36" s="16"/>
       <c r="C36" s="10"/>
@@ -7283,21 +7368,23 @@
       <c r="DH36" s="52"/>
       <c r="DI36" s="33"/>
       <c r="DJ36" s="52"/>
-      <c r="DK36" s="35"/>
-      <c r="DL36" s="35"/>
+      <c r="DK36" s="33"/>
+      <c r="DL36" s="52"/>
       <c r="DM36" s="35"/>
       <c r="DN36" s="35"/>
-      <c r="DO36" s="42"/>
-      <c r="DP36" s="42"/>
-      <c r="DQ36" s="85" t="s">
+      <c r="DO36" s="35"/>
+      <c r="DP36" s="35"/>
+      <c r="DQ36" s="42"/>
+      <c r="DR36" s="42"/>
+      <c r="DS36" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="DR36" s="86" t="s">
-        <v>148</v>
-      </c>
-      <c r="DS36" s="93"/>
-    </row>
-    <row r="37" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT36" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="DU36" s="93"/>
+    </row>
+    <row r="37" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
       <c r="B37" s="16"/>
       <c r="C37" s="10"/>
@@ -7414,21 +7501,23 @@
       <c r="DH37" s="52"/>
       <c r="DI37" s="33"/>
       <c r="DJ37" s="52"/>
-      <c r="DK37" s="35"/>
-      <c r="DL37" s="35"/>
+      <c r="DK37" s="33"/>
+      <c r="DL37" s="52"/>
       <c r="DM37" s="35"/>
       <c r="DN37" s="35"/>
-      <c r="DO37" s="42"/>
-      <c r="DP37" s="42"/>
-      <c r="DQ37" s="85" t="s">
+      <c r="DO37" s="35"/>
+      <c r="DP37" s="35"/>
+      <c r="DQ37" s="42"/>
+      <c r="DR37" s="42"/>
+      <c r="DS37" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="DR37" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="DS37" s="93"/>
-    </row>
-    <row r="38" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT37" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU37" s="93"/>
+    </row>
+    <row r="38" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
       <c r="B38" s="16"/>
       <c r="C38" s="10"/>
@@ -7545,21 +7634,23 @@
       <c r="DH38" s="52"/>
       <c r="DI38" s="33"/>
       <c r="DJ38" s="52"/>
-      <c r="DK38" s="35"/>
-      <c r="DL38" s="35"/>
+      <c r="DK38" s="33"/>
+      <c r="DL38" s="52"/>
       <c r="DM38" s="35"/>
       <c r="DN38" s="35"/>
-      <c r="DO38" s="42"/>
-      <c r="DP38" s="42"/>
-      <c r="DQ38" s="85" t="s">
+      <c r="DO38" s="35"/>
+      <c r="DP38" s="35"/>
+      <c r="DQ38" s="42"/>
+      <c r="DR38" s="42"/>
+      <c r="DS38" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="DR38" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="DS38" s="93"/>
-    </row>
-    <row r="39" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT38" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="DU38" s="93"/>
+    </row>
+    <row r="39" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A39" s="93"/>
       <c r="B39" s="16"/>
       <c r="C39" s="10"/>
@@ -7690,21 +7781,23 @@
       <c r="DH39" s="52"/>
       <c r="DI39" s="33"/>
       <c r="DJ39" s="52"/>
-      <c r="DK39" s="35"/>
-      <c r="DL39" s="35"/>
+      <c r="DK39" s="33"/>
+      <c r="DL39" s="52"/>
       <c r="DM39" s="35"/>
       <c r="DN39" s="35"/>
       <c r="DO39" s="35"/>
-      <c r="DP39" s="42"/>
-      <c r="DQ39" s="85" t="s">
+      <c r="DP39" s="35"/>
+      <c r="DQ39" s="35"/>
+      <c r="DR39" s="42"/>
+      <c r="DS39" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="DR39" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="DS39" s="93"/>
-    </row>
-    <row r="40" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT39" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="DU39" s="93"/>
+    </row>
+    <row r="40" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A40" s="93"/>
       <c r="B40" s="16"/>
       <c r="C40" s="10"/>
@@ -7835,21 +7928,23 @@
       <c r="DH40" s="52"/>
       <c r="DI40" s="33"/>
       <c r="DJ40" s="52"/>
-      <c r="DK40" s="35"/>
-      <c r="DL40" s="35"/>
+      <c r="DK40" s="33"/>
+      <c r="DL40" s="52"/>
       <c r="DM40" s="35"/>
       <c r="DN40" s="35"/>
       <c r="DO40" s="35"/>
-      <c r="DP40" s="42"/>
-      <c r="DQ40" s="85" t="s">
+      <c r="DP40" s="35"/>
+      <c r="DQ40" s="35"/>
+      <c r="DR40" s="42"/>
+      <c r="DS40" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="DR40" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="DS40" s="93"/>
-    </row>
-    <row r="41" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT40" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU40" s="93"/>
+    </row>
+    <row r="41" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
       <c r="B41" s="16"/>
       <c r="C41" s="10"/>
@@ -7980,21 +8075,23 @@
       <c r="DH41" s="52"/>
       <c r="DI41" s="33"/>
       <c r="DJ41" s="52"/>
-      <c r="DK41" s="35"/>
-      <c r="DL41" s="35"/>
+      <c r="DK41" s="33"/>
+      <c r="DL41" s="52"/>
       <c r="DM41" s="35"/>
       <c r="DN41" s="35"/>
       <c r="DO41" s="35"/>
-      <c r="DP41" s="42"/>
-      <c r="DQ41" s="85" t="s">
+      <c r="DP41" s="35"/>
+      <c r="DQ41" s="35"/>
+      <c r="DR41" s="42"/>
+      <c r="DS41" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="DR41" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="DS41" s="93"/>
-    </row>
-    <row r="42" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT41" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="DU41" s="93"/>
+    </row>
+    <row r="42" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
       <c r="B42" s="16"/>
       <c r="C42" s="10"/>
@@ -8125,21 +8222,23 @@
       <c r="DH42" s="52"/>
       <c r="DI42" s="33"/>
       <c r="DJ42" s="52"/>
-      <c r="DK42" s="35"/>
-      <c r="DL42" s="35"/>
+      <c r="DK42" s="33"/>
+      <c r="DL42" s="52"/>
       <c r="DM42" s="35"/>
       <c r="DN42" s="35"/>
       <c r="DO42" s="35"/>
-      <c r="DP42" s="42"/>
-      <c r="DQ42" s="85" t="s">
+      <c r="DP42" s="35"/>
+      <c r="DQ42" s="35"/>
+      <c r="DR42" s="42"/>
+      <c r="DS42" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="DR42" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="DS42" s="93"/>
-    </row>
-    <row r="43" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT42" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="DU42" s="93"/>
+    </row>
+    <row r="43" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>
       <c r="B43" s="16"/>
       <c r="C43" s="10"/>
@@ -8270,21 +8369,23 @@
       <c r="DH43" s="52"/>
       <c r="DI43" s="33"/>
       <c r="DJ43" s="52"/>
-      <c r="DK43" s="35"/>
-      <c r="DL43" s="35"/>
+      <c r="DK43" s="33"/>
+      <c r="DL43" s="52"/>
       <c r="DM43" s="35"/>
       <c r="DN43" s="35"/>
       <c r="DO43" s="35"/>
-      <c r="DP43" s="42"/>
-      <c r="DQ43" s="85" t="s">
+      <c r="DP43" s="35"/>
+      <c r="DQ43" s="35"/>
+      <c r="DR43" s="42"/>
+      <c r="DS43" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="DR43" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="DS43" s="93"/>
-    </row>
-    <row r="44" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT43" s="86" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU43" s="93"/>
+    </row>
+    <row r="44" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
       <c r="B44" s="16"/>
       <c r="C44" s="10"/>
@@ -8401,21 +8502,23 @@
       <c r="DH44" s="52"/>
       <c r="DI44" s="33"/>
       <c r="DJ44" s="52"/>
-      <c r="DK44" s="35"/>
-      <c r="DL44" s="35"/>
+      <c r="DK44" s="33"/>
+      <c r="DL44" s="52"/>
       <c r="DM44" s="35"/>
       <c r="DN44" s="35"/>
-      <c r="DO44" s="42"/>
-      <c r="DP44" s="42"/>
-      <c r="DQ44" s="85" t="s">
+      <c r="DO44" s="35"/>
+      <c r="DP44" s="35"/>
+      <c r="DQ44" s="42"/>
+      <c r="DR44" s="42"/>
+      <c r="DS44" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="DR44" s="86" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS44" s="93"/>
-    </row>
-    <row r="45" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT44" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="DU44" s="93"/>
+    </row>
+    <row r="45" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
       <c r="B45" s="16"/>
       <c r="C45" s="10"/>
@@ -8532,21 +8635,23 @@
       <c r="DH45" s="52"/>
       <c r="DI45" s="33"/>
       <c r="DJ45" s="52"/>
-      <c r="DK45" s="35"/>
-      <c r="DL45" s="35"/>
+      <c r="DK45" s="33"/>
+      <c r="DL45" s="52"/>
       <c r="DM45" s="35"/>
       <c r="DN45" s="35"/>
-      <c r="DO45" s="42"/>
-      <c r="DP45" s="42"/>
-      <c r="DQ45" s="85" t="s">
+      <c r="DO45" s="35"/>
+      <c r="DP45" s="35"/>
+      <c r="DQ45" s="42"/>
+      <c r="DR45" s="42"/>
+      <c r="DS45" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="DR45" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS45" s="93"/>
-    </row>
-    <row r="46" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT45" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="DU45" s="93"/>
+    </row>
+    <row r="46" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A46" s="93"/>
       <c r="B46" s="16"/>
       <c r="C46" s="10"/>
@@ -8663,21 +8768,23 @@
       <c r="DH46" s="52"/>
       <c r="DI46" s="33"/>
       <c r="DJ46" s="52"/>
-      <c r="DK46" s="35"/>
-      <c r="DL46" s="35"/>
+      <c r="DK46" s="33"/>
+      <c r="DL46" s="52"/>
       <c r="DM46" s="35"/>
       <c r="DN46" s="35"/>
-      <c r="DO46" s="42"/>
-      <c r="DP46" s="42"/>
-      <c r="DQ46" s="85" t="s">
+      <c r="DO46" s="35"/>
+      <c r="DP46" s="35"/>
+      <c r="DQ46" s="42"/>
+      <c r="DR46" s="42"/>
+      <c r="DS46" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="DR46" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="DS46" s="93"/>
-    </row>
-    <row r="47" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT46" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="DU46" s="93"/>
+    </row>
+    <row r="47" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A47" s="93"/>
       <c r="B47" s="16"/>
       <c r="C47" s="10"/>
@@ -8794,21 +8901,23 @@
       <c r="DH47" s="52"/>
       <c r="DI47" s="33"/>
       <c r="DJ47" s="52"/>
-      <c r="DK47" s="35"/>
-      <c r="DL47" s="35"/>
+      <c r="DK47" s="33"/>
+      <c r="DL47" s="52"/>
       <c r="DM47" s="35"/>
       <c r="DN47" s="35"/>
-      <c r="DO47" s="42"/>
-      <c r="DP47" s="42"/>
-      <c r="DQ47" s="85" t="s">
+      <c r="DO47" s="35"/>
+      <c r="DP47" s="35"/>
+      <c r="DQ47" s="42"/>
+      <c r="DR47" s="42"/>
+      <c r="DS47" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="DR47" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="DS47" s="93"/>
-    </row>
-    <row r="48" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT47" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="DU47" s="93"/>
+    </row>
+    <row r="48" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A48" s="93"/>
       <c r="B48" s="16"/>
       <c r="C48" s="10"/>
@@ -8925,21 +9034,23 @@
       <c r="DH48" s="52"/>
       <c r="DI48" s="33"/>
       <c r="DJ48" s="52"/>
-      <c r="DK48" s="35"/>
-      <c r="DL48" s="35"/>
+      <c r="DK48" s="33"/>
+      <c r="DL48" s="52"/>
       <c r="DM48" s="35"/>
       <c r="DN48" s="35"/>
-      <c r="DO48" s="42"/>
-      <c r="DP48" s="42"/>
-      <c r="DQ48" s="85" t="s">
+      <c r="DO48" s="35"/>
+      <c r="DP48" s="35"/>
+      <c r="DQ48" s="42"/>
+      <c r="DR48" s="42"/>
+      <c r="DS48" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="DR48" s="86" t="s">
-        <v>160</v>
-      </c>
-      <c r="DS48" s="93"/>
-    </row>
-    <row r="49" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT48" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="DU48" s="93"/>
+    </row>
+    <row r="49" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A49" s="93"/>
       <c r="B49" s="16"/>
       <c r="C49" s="10"/>
@@ -9056,21 +9167,23 @@
       <c r="DH49" s="52"/>
       <c r="DI49" s="33"/>
       <c r="DJ49" s="52"/>
-      <c r="DK49" s="35"/>
-      <c r="DL49" s="35"/>
+      <c r="DK49" s="33"/>
+      <c r="DL49" s="52"/>
       <c r="DM49" s="35"/>
       <c r="DN49" s="35"/>
-      <c r="DO49" s="42"/>
-      <c r="DP49" s="42"/>
-      <c r="DQ49" s="85" t="s">
+      <c r="DO49" s="35"/>
+      <c r="DP49" s="35"/>
+      <c r="DQ49" s="42"/>
+      <c r="DR49" s="42"/>
+      <c r="DS49" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="DR49" s="86" t="s">
-        <v>161</v>
-      </c>
-      <c r="DS49" s="93"/>
-    </row>
-    <row r="50" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT49" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="DU49" s="93"/>
+    </row>
+    <row r="50" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A50" s="93"/>
       <c r="B50" s="16"/>
       <c r="C50" s="10"/>
@@ -9187,21 +9300,23 @@
       <c r="DH50" s="52"/>
       <c r="DI50" s="33"/>
       <c r="DJ50" s="52"/>
-      <c r="DK50" s="35"/>
-      <c r="DL50" s="35"/>
+      <c r="DK50" s="33"/>
+      <c r="DL50" s="52"/>
       <c r="DM50" s="35"/>
       <c r="DN50" s="35"/>
-      <c r="DO50" s="42"/>
-      <c r="DP50" s="42"/>
-      <c r="DQ50" s="85" t="s">
+      <c r="DO50" s="35"/>
+      <c r="DP50" s="35"/>
+      <c r="DQ50" s="42"/>
+      <c r="DR50" s="42"/>
+      <c r="DS50" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="DR50" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="DS50" s="93"/>
-    </row>
-    <row r="51" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT50" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="DU50" s="93"/>
+    </row>
+    <row r="51" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A51" s="93"/>
       <c r="B51" s="16"/>
       <c r="C51" s="10"/>
@@ -9318,21 +9433,23 @@
       <c r="DH51" s="52"/>
       <c r="DI51" s="33"/>
       <c r="DJ51" s="52"/>
-      <c r="DK51" s="35"/>
-      <c r="DL51" s="35"/>
+      <c r="DK51" s="33"/>
+      <c r="DL51" s="52"/>
       <c r="DM51" s="35"/>
       <c r="DN51" s="35"/>
-      <c r="DO51" s="42"/>
-      <c r="DP51" s="42"/>
-      <c r="DQ51" s="85" t="s">
+      <c r="DO51" s="35"/>
+      <c r="DP51" s="35"/>
+      <c r="DQ51" s="42"/>
+      <c r="DR51" s="42"/>
+      <c r="DS51" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="DR51" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS51" s="93"/>
-    </row>
-    <row r="52" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT51" s="86" t="s">
+        <v>164</v>
+      </c>
+      <c r="DU51" s="93"/>
+    </row>
+    <row r="52" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A52" s="93"/>
       <c r="B52" s="16"/>
       <c r="C52" s="9" t="s">
@@ -9449,21 +9566,23 @@
       <c r="DH52" s="52"/>
       <c r="DI52" s="33"/>
       <c r="DJ52" s="52"/>
-      <c r="DK52" s="35"/>
-      <c r="DL52" s="35"/>
+      <c r="DK52" s="33"/>
+      <c r="DL52" s="52"/>
       <c r="DM52" s="35"/>
       <c r="DN52" s="35"/>
       <c r="DO52" s="35"/>
       <c r="DP52" s="35"/>
-      <c r="DQ52" s="85" t="s">
+      <c r="DQ52" s="35"/>
+      <c r="DR52" s="35"/>
+      <c r="DS52" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="DR52" s="86" t="s">
-        <v>164</v>
-      </c>
-      <c r="DS52" s="93"/>
-    </row>
-    <row r="53" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT52" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="DU52" s="93"/>
+    </row>
+    <row r="53" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A53" s="93"/>
       <c r="B53" s="16"/>
       <c r="C53" s="9" t="s">
@@ -9580,21 +9699,23 @@
       <c r="DH53" s="52"/>
       <c r="DI53" s="33"/>
       <c r="DJ53" s="52"/>
-      <c r="DK53" s="35"/>
-      <c r="DL53" s="35"/>
+      <c r="DK53" s="33"/>
+      <c r="DL53" s="52"/>
       <c r="DM53" s="35"/>
       <c r="DN53" s="35"/>
       <c r="DO53" s="35"/>
       <c r="DP53" s="35"/>
-      <c r="DQ53" s="85" t="s">
+      <c r="DQ53" s="35"/>
+      <c r="DR53" s="35"/>
+      <c r="DS53" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="DR53" s="86" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS53" s="93"/>
-    </row>
-    <row r="54" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT53" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="DU53" s="93"/>
+    </row>
+    <row r="54" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
       <c r="B54" s="16"/>
       <c r="C54" s="9" t="s">
@@ -9711,21 +9832,23 @@
       <c r="DH54" s="52"/>
       <c r="DI54" s="33"/>
       <c r="DJ54" s="52"/>
-      <c r="DK54" s="42"/>
-      <c r="DL54" s="42"/>
+      <c r="DK54" s="33"/>
+      <c r="DL54" s="52"/>
       <c r="DM54" s="42"/>
       <c r="DN54" s="42"/>
-      <c r="DO54" s="35"/>
-      <c r="DP54" s="35"/>
-      <c r="DQ54" s="85" t="s">
+      <c r="DO54" s="42"/>
+      <c r="DP54" s="42"/>
+      <c r="DQ54" s="35"/>
+      <c r="DR54" s="35"/>
+      <c r="DS54" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="DR54" s="86" t="s">
-        <v>166</v>
-      </c>
-      <c r="DS54" s="93"/>
-    </row>
-    <row r="55" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT54" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="DU54" s="93"/>
+    </row>
+    <row r="55" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A55" s="93"/>
       <c r="B55" s="16"/>
       <c r="C55" s="9" t="s">
@@ -9844,21 +9967,23 @@
       <c r="DH55" s="52"/>
       <c r="DI55" s="33"/>
       <c r="DJ55" s="52"/>
-      <c r="DK55" s="35"/>
-      <c r="DL55" s="35"/>
+      <c r="DK55" s="33"/>
+      <c r="DL55" s="52"/>
       <c r="DM55" s="35"/>
       <c r="DN55" s="35"/>
       <c r="DO55" s="35"/>
       <c r="DP55" s="35"/>
-      <c r="DQ55" s="85" t="s">
+      <c r="DQ55" s="35"/>
+      <c r="DR55" s="35"/>
+      <c r="DS55" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="DR55" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="DS55" s="93"/>
-    </row>
-    <row r="56" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT55" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="DU55" s="93"/>
+    </row>
+    <row r="56" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A56" s="93"/>
       <c r="B56" s="16"/>
       <c r="C56" s="9" t="s">
@@ -9975,21 +10100,23 @@
       <c r="DH56" s="52"/>
       <c r="DI56" s="33"/>
       <c r="DJ56" s="52"/>
-      <c r="DK56" s="35"/>
-      <c r="DL56" s="35"/>
+      <c r="DK56" s="33"/>
+      <c r="DL56" s="52"/>
       <c r="DM56" s="35"/>
       <c r="DN56" s="35"/>
       <c r="DO56" s="35"/>
       <c r="DP56" s="35"/>
-      <c r="DQ56" s="85" t="s">
+      <c r="DQ56" s="35"/>
+      <c r="DR56" s="35"/>
+      <c r="DS56" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="DR56" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="DS56" s="93"/>
-    </row>
-    <row r="57" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT56" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="DU56" s="93"/>
+    </row>
+    <row r="57" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A57" s="93"/>
       <c r="B57" s="16"/>
       <c r="C57" s="9" t="s">
@@ -10106,21 +10233,23 @@
       <c r="DH57" s="52"/>
       <c r="DI57" s="33"/>
       <c r="DJ57" s="52"/>
-      <c r="DK57" s="35"/>
-      <c r="DL57" s="35"/>
+      <c r="DK57" s="33"/>
+      <c r="DL57" s="52"/>
       <c r="DM57" s="35"/>
       <c r="DN57" s="35"/>
       <c r="DO57" s="35"/>
       <c r="DP57" s="35"/>
-      <c r="DQ57" s="85" t="s">
+      <c r="DQ57" s="35"/>
+      <c r="DR57" s="35"/>
+      <c r="DS57" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="DR57" s="86" t="s">
-        <v>169</v>
-      </c>
-      <c r="DS57" s="93"/>
-    </row>
-    <row r="58" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT57" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="DU57" s="93"/>
+    </row>
+    <row r="58" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
       <c r="B58" s="16"/>
       <c r="C58" s="9" t="s">
@@ -10247,21 +10376,23 @@
       <c r="DH58" s="52"/>
       <c r="DI58" s="61"/>
       <c r="DJ58" s="62"/>
-      <c r="DK58" s="35"/>
-      <c r="DL58" s="35"/>
+      <c r="DK58" s="61"/>
+      <c r="DL58" s="62"/>
       <c r="DM58" s="35"/>
       <c r="DN58" s="35"/>
-      <c r="DO58" s="42"/>
-      <c r="DP58" s="42"/>
-      <c r="DQ58" s="85" t="s">
+      <c r="DO58" s="35"/>
+      <c r="DP58" s="35"/>
+      <c r="DQ58" s="42"/>
+      <c r="DR58" s="42"/>
+      <c r="DS58" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="DR58" s="86" t="s">
-        <v>170</v>
-      </c>
-      <c r="DS58" s="93"/>
-    </row>
-    <row r="59" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT58" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="DU58" s="93"/>
+    </row>
+    <row r="59" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A59" s="93"/>
       <c r="B59" s="16"/>
       <c r="C59" s="10"/>
@@ -10382,21 +10513,23 @@
       <c r="DH59" s="52"/>
       <c r="DI59" s="61"/>
       <c r="DJ59" s="62"/>
-      <c r="DK59" s="35"/>
-      <c r="DL59" s="35"/>
+      <c r="DK59" s="61"/>
+      <c r="DL59" s="62"/>
       <c r="DM59" s="35"/>
       <c r="DN59" s="35"/>
-      <c r="DO59" s="42"/>
-      <c r="DP59" s="42"/>
-      <c r="DQ59" s="85" t="s">
+      <c r="DO59" s="35"/>
+      <c r="DP59" s="35"/>
+      <c r="DQ59" s="42"/>
+      <c r="DR59" s="42"/>
+      <c r="DS59" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="DR59" s="86" t="s">
-        <v>171</v>
-      </c>
-      <c r="DS59" s="93"/>
-    </row>
-    <row r="60" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT59" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="DU59" s="93"/>
+    </row>
+    <row r="60" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A60" s="93"/>
       <c r="B60" s="16"/>
       <c r="C60" s="9" t="s">
@@ -10513,21 +10646,23 @@
       <c r="DH60" s="52"/>
       <c r="DI60" s="33"/>
       <c r="DJ60" s="52"/>
-      <c r="DK60" s="35"/>
-      <c r="DL60" s="35"/>
+      <c r="DK60" s="33"/>
+      <c r="DL60" s="52"/>
       <c r="DM60" s="35"/>
       <c r="DN60" s="35"/>
       <c r="DO60" s="35"/>
       <c r="DP60" s="35"/>
-      <c r="DQ60" s="85" t="s">
+      <c r="DQ60" s="35"/>
+      <c r="DR60" s="35"/>
+      <c r="DS60" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="DR60" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="DS60" s="93"/>
-    </row>
-    <row r="61" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT60" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="DU60" s="93"/>
+    </row>
+    <row r="61" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A61" s="93"/>
       <c r="B61" s="16"/>
       <c r="C61" s="9" t="s">
@@ -10646,21 +10781,23 @@
       <c r="DH61" s="52"/>
       <c r="DI61" s="33"/>
       <c r="DJ61" s="52"/>
-      <c r="DK61" s="35"/>
-      <c r="DL61" s="35"/>
+      <c r="DK61" s="33"/>
+      <c r="DL61" s="52"/>
       <c r="DM61" s="35"/>
       <c r="DN61" s="35"/>
       <c r="DO61" s="35"/>
       <c r="DP61" s="35"/>
-      <c r="DQ61" s="85" t="s">
+      <c r="DQ61" s="35"/>
+      <c r="DR61" s="35"/>
+      <c r="DS61" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="DR61" s="86" t="s">
-        <v>173</v>
-      </c>
-      <c r="DS61" s="93"/>
-    </row>
-    <row r="62" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT61" s="86" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU61" s="93"/>
+    </row>
+    <row r="62" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="93"/>
       <c r="B62" s="17"/>
       <c r="C62" s="13"/>
@@ -10777,21 +10914,23 @@
       <c r="DH62" s="54"/>
       <c r="DI62" s="53"/>
       <c r="DJ62" s="54"/>
-      <c r="DK62" s="36"/>
-      <c r="DL62" s="36"/>
+      <c r="DK62" s="53"/>
+      <c r="DL62" s="54"/>
       <c r="DM62" s="36"/>
       <c r="DN62" s="36"/>
       <c r="DO62" s="36"/>
       <c r="DP62" s="36"/>
-      <c r="DQ62" s="87" t="s">
+      <c r="DQ62" s="36"/>
+      <c r="DR62" s="36"/>
+      <c r="DS62" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="DR62" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="DS62" s="93"/>
-    </row>
-    <row r="63" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT62" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="DU62" s="93"/>
+    </row>
+    <row r="63" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A63" s="93"/>
       <c r="B63" s="29" t="s">
         <v>75</v>
@@ -10910,21 +11049,23 @@
       <c r="DH63" s="57"/>
       <c r="DI63" s="37"/>
       <c r="DJ63" s="57"/>
-      <c r="DK63" s="48"/>
-      <c r="DL63" s="48"/>
+      <c r="DK63" s="37"/>
+      <c r="DL63" s="57"/>
       <c r="DM63" s="48"/>
       <c r="DN63" s="48"/>
-      <c r="DO63" s="39"/>
-      <c r="DP63" s="39"/>
-      <c r="DQ63" s="18" t="s">
+      <c r="DO63" s="48"/>
+      <c r="DP63" s="48"/>
+      <c r="DQ63" s="39"/>
+      <c r="DR63" s="39"/>
+      <c r="DS63" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="DR63" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="DS63" s="93"/>
-    </row>
-    <row r="64" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT63" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="DU63" s="93"/>
+    </row>
+    <row r="64" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="93"/>
       <c r="B64" s="31"/>
       <c r="C64" s="27" t="s">
@@ -11041,21 +11182,23 @@
       <c r="DH64" s="60"/>
       <c r="DI64" s="59"/>
       <c r="DJ64" s="60"/>
-      <c r="DK64" s="67"/>
-      <c r="DL64" s="67"/>
+      <c r="DK64" s="59"/>
+      <c r="DL64" s="60"/>
       <c r="DM64" s="67"/>
       <c r="DN64" s="67"/>
-      <c r="DO64" s="41"/>
-      <c r="DP64" s="41"/>
-      <c r="DQ64" s="91" t="s">
+      <c r="DO64" s="67"/>
+      <c r="DP64" s="67"/>
+      <c r="DQ64" s="41"/>
+      <c r="DR64" s="41"/>
+      <c r="DS64" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="DR64" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="DS64" s="93"/>
-    </row>
-    <row r="65" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT64" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU64" s="93"/>
+    </row>
+    <row r="65" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A65" s="93"/>
       <c r="B65" s="15" t="s">
         <v>78</v>
@@ -11174,21 +11317,23 @@
       <c r="DH65" s="51"/>
       <c r="DI65" s="32"/>
       <c r="DJ65" s="51"/>
-      <c r="DK65" s="34"/>
-      <c r="DL65" s="34"/>
+      <c r="DK65" s="32"/>
+      <c r="DL65" s="51"/>
       <c r="DM65" s="34"/>
       <c r="DN65" s="34"/>
       <c r="DO65" s="34"/>
       <c r="DP65" s="34"/>
-      <c r="DQ65" s="5" t="s">
+      <c r="DQ65" s="34"/>
+      <c r="DR65" s="34"/>
+      <c r="DS65" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="DR65" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="DS65" s="93"/>
-    </row>
-    <row r="66" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT65" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="DU65" s="93"/>
+    </row>
+    <row r="66" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="93"/>
       <c r="B66" s="17"/>
       <c r="C66" s="12" t="s">
@@ -11305,21 +11450,23 @@
       <c r="DH66" s="54"/>
       <c r="DI66" s="53"/>
       <c r="DJ66" s="54"/>
-      <c r="DK66" s="67"/>
-      <c r="DL66" s="67"/>
+      <c r="DK66" s="53"/>
+      <c r="DL66" s="54"/>
       <c r="DM66" s="67"/>
       <c r="DN66" s="67"/>
-      <c r="DO66" s="36"/>
-      <c r="DP66" s="36"/>
-      <c r="DQ66" s="87" t="s">
+      <c r="DO66" s="67"/>
+      <c r="DP66" s="67"/>
+      <c r="DQ66" s="36"/>
+      <c r="DR66" s="36"/>
+      <c r="DS66" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="DR66" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="DS66" s="93"/>
-    </row>
-    <row r="67" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT66" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="DU66" s="93"/>
+    </row>
+    <row r="67" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A67" s="93"/>
       <c r="B67" s="29" t="s">
         <v>81</v>
@@ -11438,21 +11585,23 @@
       <c r="DH67" s="57"/>
       <c r="DI67" s="37"/>
       <c r="DJ67" s="57"/>
-      <c r="DK67" s="39"/>
-      <c r="DL67" s="39"/>
+      <c r="DK67" s="37"/>
+      <c r="DL67" s="57"/>
       <c r="DM67" s="39"/>
       <c r="DN67" s="39"/>
       <c r="DO67" s="39"/>
       <c r="DP67" s="39"/>
-      <c r="DQ67" s="18" t="s">
+      <c r="DQ67" s="39"/>
+      <c r="DR67" s="39"/>
+      <c r="DS67" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="DR67" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS67" s="93"/>
-    </row>
-    <row r="68" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT67" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="DU67" s="93"/>
+    </row>
+    <row r="68" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93"/>
       <c r="B68" s="31"/>
       <c r="C68" s="27" t="s">
@@ -11569,21 +11718,23 @@
       <c r="DH68" s="60"/>
       <c r="DI68" s="59"/>
       <c r="DJ68" s="60"/>
-      <c r="DK68" s="41"/>
-      <c r="DL68" s="41"/>
+      <c r="DK68" s="59"/>
+      <c r="DL68" s="60"/>
       <c r="DM68" s="41"/>
       <c r="DN68" s="41"/>
       <c r="DO68" s="41"/>
       <c r="DP68" s="41"/>
-      <c r="DQ68" s="91" t="s">
+      <c r="DQ68" s="41"/>
+      <c r="DR68" s="41"/>
+      <c r="DS68" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="DR68" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="DS68" s="93"/>
-    </row>
-    <row r="69" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT68" s="92" t="s">
+        <v>181</v>
+      </c>
+      <c r="DU68" s="93"/>
+    </row>
+    <row r="69" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A69" s="93"/>
       <c r="B69" s="15" t="s">
         <v>84</v>
@@ -11702,21 +11853,23 @@
       <c r="DH69" s="51"/>
       <c r="DI69" s="32"/>
       <c r="DJ69" s="51"/>
-      <c r="DK69" s="34"/>
-      <c r="DL69" s="34"/>
+      <c r="DK69" s="32"/>
+      <c r="DL69" s="51"/>
       <c r="DM69" s="34"/>
       <c r="DN69" s="34"/>
       <c r="DO69" s="34"/>
       <c r="DP69" s="34"/>
-      <c r="DQ69" s="5" t="s">
+      <c r="DQ69" s="34"/>
+      <c r="DR69" s="34"/>
+      <c r="DS69" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="DR69" s="84" t="s">
-        <v>181</v>
-      </c>
-      <c r="DS69" s="93"/>
-    </row>
-    <row r="70" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT69" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="DU69" s="93"/>
+    </row>
+    <row r="70" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A70" s="93"/>
       <c r="B70" s="16"/>
       <c r="C70" s="9" t="s">
@@ -11833,21 +11986,23 @@
       <c r="DH70" s="52"/>
       <c r="DI70" s="33"/>
       <c r="DJ70" s="52"/>
-      <c r="DK70" s="35"/>
-      <c r="DL70" s="35"/>
+      <c r="DK70" s="33"/>
+      <c r="DL70" s="52"/>
       <c r="DM70" s="35"/>
       <c r="DN70" s="35"/>
       <c r="DO70" s="35"/>
       <c r="DP70" s="35"/>
-      <c r="DQ70" s="85" t="s">
+      <c r="DQ70" s="35"/>
+      <c r="DR70" s="35"/>
+      <c r="DS70" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="DR70" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="DS70" s="93"/>
-    </row>
-    <row r="71" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT70" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="DU70" s="93"/>
+    </row>
+    <row r="71" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A71" s="93"/>
       <c r="B71" s="16"/>
       <c r="C71" s="9" t="s">
@@ -11964,21 +12119,23 @@
       <c r="DH71" s="52"/>
       <c r="DI71" s="33"/>
       <c r="DJ71" s="52"/>
-      <c r="DK71" s="35"/>
-      <c r="DL71" s="35"/>
+      <c r="DK71" s="33"/>
+      <c r="DL71" s="52"/>
       <c r="DM71" s="35"/>
       <c r="DN71" s="35"/>
       <c r="DO71" s="35"/>
       <c r="DP71" s="35"/>
-      <c r="DQ71" s="85" t="s">
+      <c r="DQ71" s="35"/>
+      <c r="DR71" s="35"/>
+      <c r="DS71" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="DR71" s="86" t="s">
-        <v>183</v>
-      </c>
-      <c r="DS71" s="93"/>
-    </row>
-    <row r="72" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT71" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="DU71" s="93"/>
+    </row>
+    <row r="72" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="93"/>
       <c r="B72" s="17"/>
       <c r="C72" s="12" t="s">
@@ -12095,21 +12252,23 @@
       <c r="DH72" s="54"/>
       <c r="DI72" s="53"/>
       <c r="DJ72" s="54"/>
-      <c r="DK72" s="36"/>
-      <c r="DL72" s="36"/>
+      <c r="DK72" s="53"/>
+      <c r="DL72" s="54"/>
       <c r="DM72" s="36"/>
       <c r="DN72" s="36"/>
       <c r="DO72" s="36"/>
       <c r="DP72" s="36"/>
-      <c r="DQ72" s="87" t="s">
+      <c r="DQ72" s="36"/>
+      <c r="DR72" s="36"/>
+      <c r="DS72" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="DR72" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="DS72" s="93"/>
-    </row>
-    <row r="73" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT72" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="DU72" s="93"/>
+    </row>
+    <row r="73" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A73" s="93"/>
       <c r="B73" s="29" t="s">
         <v>89</v>
@@ -12228,21 +12387,23 @@
       <c r="DH73" s="57"/>
       <c r="DI73" s="37"/>
       <c r="DJ73" s="57"/>
-      <c r="DK73" s="39"/>
-      <c r="DL73" s="39"/>
+      <c r="DK73" s="37"/>
+      <c r="DL73" s="57"/>
       <c r="DM73" s="39"/>
       <c r="DN73" s="39"/>
       <c r="DO73" s="39"/>
       <c r="DP73" s="39"/>
-      <c r="DQ73" s="18" t="s">
+      <c r="DQ73" s="39"/>
+      <c r="DR73" s="39"/>
+      <c r="DS73" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="DR73" s="89" t="s">
-        <v>185</v>
-      </c>
-      <c r="DS73" s="93"/>
-    </row>
-    <row r="74" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT73" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="DU73" s="93"/>
+    </row>
+    <row r="74" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A74" s="93"/>
       <c r="B74" s="30"/>
       <c r="C74" s="22" t="s">
@@ -12359,21 +12520,23 @@
       <c r="DH74" s="58"/>
       <c r="DI74" s="38"/>
       <c r="DJ74" s="58"/>
-      <c r="DK74" s="40"/>
-      <c r="DL74" s="40"/>
+      <c r="DK74" s="38"/>
+      <c r="DL74" s="58"/>
       <c r="DM74" s="40"/>
       <c r="DN74" s="40"/>
       <c r="DO74" s="40"/>
       <c r="DP74" s="40"/>
-      <c r="DQ74" s="90" t="s">
+      <c r="DQ74" s="40"/>
+      <c r="DR74" s="40"/>
+      <c r="DS74" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="DR74" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="DS74" s="93"/>
-    </row>
-    <row r="75" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT74" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="DU74" s="93"/>
+    </row>
+    <row r="75" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93"/>
       <c r="B75" s="31"/>
       <c r="C75" s="27" t="s">
@@ -12490,21 +12653,23 @@
       <c r="DH75" s="60"/>
       <c r="DI75" s="59"/>
       <c r="DJ75" s="60"/>
-      <c r="DK75" s="41"/>
-      <c r="DL75" s="41"/>
+      <c r="DK75" s="59"/>
+      <c r="DL75" s="60"/>
       <c r="DM75" s="41"/>
       <c r="DN75" s="41"/>
       <c r="DO75" s="41"/>
       <c r="DP75" s="41"/>
-      <c r="DQ75" s="91" t="s">
+      <c r="DQ75" s="41"/>
+      <c r="DR75" s="41"/>
+      <c r="DS75" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="DR75" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="DS75" s="93"/>
-    </row>
-    <row r="76" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT75" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="DU75" s="93"/>
+    </row>
+    <row r="76" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A76" s="93"/>
       <c r="B76" s="15" t="s">
         <v>93</v>
@@ -12623,21 +12788,23 @@
       <c r="DH76" s="51"/>
       <c r="DI76" s="32"/>
       <c r="DJ76" s="51"/>
-      <c r="DK76" s="34"/>
-      <c r="DL76" s="34"/>
+      <c r="DK76" s="32"/>
+      <c r="DL76" s="51"/>
       <c r="DM76" s="34"/>
       <c r="DN76" s="34"/>
       <c r="DO76" s="34"/>
       <c r="DP76" s="34"/>
-      <c r="DQ76" s="5" t="s">
+      <c r="DQ76" s="34"/>
+      <c r="DR76" s="34"/>
+      <c r="DS76" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="DR76" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="DS76" s="93"/>
-    </row>
-    <row r="77" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT76" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="DU76" s="93"/>
+    </row>
+    <row r="77" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A77" s="93"/>
       <c r="B77" s="16"/>
       <c r="C77" s="9" t="s">
@@ -12754,21 +12921,23 @@
       <c r="DH77" s="52"/>
       <c r="DI77" s="33"/>
       <c r="DJ77" s="52"/>
-      <c r="DK77" s="35"/>
-      <c r="DL77" s="35"/>
+      <c r="DK77" s="33"/>
+      <c r="DL77" s="52"/>
       <c r="DM77" s="35"/>
       <c r="DN77" s="35"/>
       <c r="DO77" s="35"/>
       <c r="DP77" s="35"/>
-      <c r="DQ77" s="85" t="s">
+      <c r="DQ77" s="35"/>
+      <c r="DR77" s="35"/>
+      <c r="DS77" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="DR77" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="DS77" s="93"/>
-    </row>
-    <row r="78" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT77" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="DU77" s="93"/>
+    </row>
+    <row r="78" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A78" s="93"/>
       <c r="B78" s="16"/>
       <c r="C78" s="9" t="s">
@@ -12885,21 +13054,23 @@
       <c r="DH78" s="52"/>
       <c r="DI78" s="33"/>
       <c r="DJ78" s="62"/>
-      <c r="DK78" s="42"/>
-      <c r="DL78" s="42"/>
+      <c r="DK78" s="33"/>
+      <c r="DL78" s="62"/>
       <c r="DM78" s="42"/>
       <c r="DN78" s="42"/>
-      <c r="DO78" s="35"/>
-      <c r="DP78" s="35"/>
-      <c r="DQ78" s="85" t="s">
+      <c r="DO78" s="42"/>
+      <c r="DP78" s="42"/>
+      <c r="DQ78" s="35"/>
+      <c r="DR78" s="35"/>
+      <c r="DS78" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="DR78" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="DS78" s="93"/>
-    </row>
-    <row r="79" spans="1:123" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="DT78" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="DU78" s="93"/>
+    </row>
+    <row r="79" spans="1:125" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="93"/>
       <c r="B79" s="17"/>
       <c r="C79" s="12" t="s">
@@ -13022,21 +13193,23 @@
       <c r="DH79" s="54"/>
       <c r="DI79" s="53"/>
       <c r="DJ79" s="54"/>
-      <c r="DK79" s="36"/>
-      <c r="DL79" s="36"/>
+      <c r="DK79" s="53"/>
+      <c r="DL79" s="54"/>
       <c r="DM79" s="36"/>
       <c r="DN79" s="36"/>
       <c r="DO79" s="36"/>
       <c r="DP79" s="36"/>
-      <c r="DQ79" s="87" t="s">
+      <c r="DQ79" s="36"/>
+      <c r="DR79" s="36"/>
+      <c r="DS79" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="DR79" s="88" t="s">
-        <v>191</v>
-      </c>
-      <c r="DS79" s="93"/>
-    </row>
-    <row r="80" spans="1:123" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="DT79" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="DU79" s="93"/>
+    </row>
+    <row r="80" spans="1:125" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="93"/>
       <c r="B80" s="93"/>
       <c r="C80" s="93"/>
@@ -13160,8 +13333,10 @@
       <c r="DQ80" s="93"/>
       <c r="DR80" s="93"/>
       <c r="DS80" s="93"/>
-    </row>
-    <row r="81" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT80" s="93"/>
+      <c r="DU80" s="93"/>
+    </row>
+    <row r="81" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A81" s="93"/>
       <c r="B81" s="93"/>
       <c r="C81" s="93"/>
@@ -13171,7 +13346,7 @@
       <c r="G81" s="93"/>
       <c r="H81" s="80"/>
       <c r="I81" s="94" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J81" s="93"/>
       <c r="K81" s="93"/>
@@ -13180,7 +13355,7 @@
         <v>3</v>
       </c>
       <c r="N81" s="94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O81" s="93"/>
       <c r="P81" s="93"/>
@@ -13190,7 +13365,7 @@
       <c r="T81" s="93"/>
       <c r="U81" s="96"/>
       <c r="V81" s="94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W81" s="93"/>
       <c r="X81" s="93"/>
@@ -13293,8 +13468,10 @@
       <c r="DQ81" s="93"/>
       <c r="DR81" s="93"/>
       <c r="DS81" s="93"/>
-    </row>
-    <row r="82" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT81" s="93"/>
+      <c r="DU81" s="93"/>
+    </row>
+    <row r="82" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A82" s="93"/>
       <c r="B82" s="93"/>
       <c r="C82" s="93"/>
@@ -13418,8 +13595,10 @@
       <c r="DQ82" s="93"/>
       <c r="DR82" s="93"/>
       <c r="DS82" s="93"/>
-    </row>
-    <row r="83" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT82" s="93"/>
+      <c r="DU82" s="93"/>
+    </row>
+    <row r="83" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A83" s="93"/>
       <c r="B83" s="93"/>
       <c r="C83" s="93"/>
@@ -13543,8 +13722,10 @@
       <c r="DQ83" s="93"/>
       <c r="DR83" s="93"/>
       <c r="DS83" s="93"/>
-    </row>
-    <row r="84" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT83" s="93"/>
+      <c r="DU83" s="93"/>
+    </row>
+    <row r="84" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A84" s="93"/>
       <c r="B84" s="93"/>
       <c r="C84" s="93"/>
@@ -13668,8 +13849,10 @@
       <c r="DQ84" s="93"/>
       <c r="DR84" s="93"/>
       <c r="DS84" s="93"/>
-    </row>
-    <row r="85" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT84" s="93"/>
+      <c r="DU84" s="93"/>
+    </row>
+    <row r="85" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A85" s="93"/>
       <c r="B85" s="93"/>
       <c r="C85" s="93"/>
@@ -13793,8 +13976,10 @@
       <c r="DQ85" s="93"/>
       <c r="DR85" s="93"/>
       <c r="DS85" s="93"/>
-    </row>
-    <row r="86" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT85" s="93"/>
+      <c r="DU85" s="93"/>
+    </row>
+    <row r="86" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A86" s="93"/>
       <c r="B86" s="93"/>
       <c r="C86" s="93"/>
@@ -13918,8 +14103,10 @@
       <c r="DQ86" s="93"/>
       <c r="DR86" s="93"/>
       <c r="DS86" s="93"/>
-    </row>
-    <row r="87" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT86" s="93"/>
+      <c r="DU86" s="93"/>
+    </row>
+    <row r="87" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A87" s="93"/>
       <c r="B87" s="93"/>
       <c r="C87" s="93"/>
@@ -14043,8 +14230,10 @@
       <c r="DQ87" s="93"/>
       <c r="DR87" s="93"/>
       <c r="DS87" s="93"/>
-    </row>
-    <row r="88" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT87" s="93"/>
+      <c r="DU87" s="93"/>
+    </row>
+    <row r="88" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A88" s="93"/>
       <c r="B88" s="93"/>
       <c r="C88" s="93"/>
@@ -14168,8 +14357,10 @@
       <c r="DQ88" s="93"/>
       <c r="DR88" s="93"/>
       <c r="DS88" s="93"/>
-    </row>
-    <row r="89" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT88" s="93"/>
+      <c r="DU88" s="93"/>
+    </row>
+    <row r="89" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A89" s="93"/>
       <c r="B89" s="93"/>
       <c r="C89" s="93"/>
@@ -14293,8 +14484,10 @@
       <c r="DQ89" s="93"/>
       <c r="DR89" s="93"/>
       <c r="DS89" s="93"/>
-    </row>
-    <row r="90" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT89" s="93"/>
+      <c r="DU89" s="93"/>
+    </row>
+    <row r="90" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A90" s="93"/>
       <c r="B90" s="93"/>
       <c r="C90" s="93"/>
@@ -14418,8 +14611,10 @@
       <c r="DQ90" s="93"/>
       <c r="DR90" s="93"/>
       <c r="DS90" s="93"/>
-    </row>
-    <row r="91" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT90" s="93"/>
+      <c r="DU90" s="93"/>
+    </row>
+    <row r="91" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A91" s="93"/>
       <c r="B91" s="93"/>
       <c r="C91" s="93"/>
@@ -14543,8 +14738,10 @@
       <c r="DQ91" s="93"/>
       <c r="DR91" s="93"/>
       <c r="DS91" s="93"/>
-    </row>
-    <row r="92" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT91" s="93"/>
+      <c r="DU91" s="93"/>
+    </row>
+    <row r="92" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A92" s="93"/>
       <c r="B92" s="93"/>
       <c r="C92" s="93"/>
@@ -14668,8 +14865,10 @@
       <c r="DQ92" s="93"/>
       <c r="DR92" s="93"/>
       <c r="DS92" s="93"/>
-    </row>
-    <row r="93" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT92" s="93"/>
+      <c r="DU92" s="93"/>
+    </row>
+    <row r="93" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A93" s="93"/>
       <c r="B93" s="93"/>
       <c r="C93" s="93"/>
@@ -14793,8 +14992,10 @@
       <c r="DQ93" s="93"/>
       <c r="DR93" s="93"/>
       <c r="DS93" s="93"/>
-    </row>
-    <row r="94" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT93" s="93"/>
+      <c r="DU93" s="93"/>
+    </row>
+    <row r="94" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A94" s="93"/>
       <c r="B94" s="93"/>
       <c r="C94" s="93"/>
@@ -14918,8 +15119,10 @@
       <c r="DQ94" s="93"/>
       <c r="DR94" s="93"/>
       <c r="DS94" s="93"/>
-    </row>
-    <row r="95" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT94" s="93"/>
+      <c r="DU94" s="93"/>
+    </row>
+    <row r="95" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A95" s="93"/>
       <c r="B95" s="93"/>
       <c r="C95" s="93"/>
@@ -15043,8 +15246,10 @@
       <c r="DQ95" s="93"/>
       <c r="DR95" s="93"/>
       <c r="DS95" s="93"/>
-    </row>
-    <row r="96" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT95" s="93"/>
+      <c r="DU95" s="93"/>
+    </row>
+    <row r="96" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A96" s="93"/>
       <c r="B96" s="93"/>
       <c r="C96" s="93"/>
@@ -15168,8 +15373,10 @@
       <c r="DQ96" s="93"/>
       <c r="DR96" s="93"/>
       <c r="DS96" s="93"/>
-    </row>
-    <row r="97" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT96" s="93"/>
+      <c r="DU96" s="93"/>
+    </row>
+    <row r="97" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A97" s="93"/>
       <c r="B97" s="93"/>
       <c r="C97" s="93"/>
@@ -15293,8 +15500,10 @@
       <c r="DQ97" s="93"/>
       <c r="DR97" s="93"/>
       <c r="DS97" s="93"/>
-    </row>
-    <row r="98" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT97" s="93"/>
+      <c r="DU97" s="93"/>
+    </row>
+    <row r="98" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A98" s="93"/>
       <c r="B98" s="93"/>
       <c r="C98" s="93"/>
@@ -15418,8 +15627,10 @@
       <c r="DQ98" s="93"/>
       <c r="DR98" s="93"/>
       <c r="DS98" s="93"/>
-    </row>
-    <row r="99" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT98" s="93"/>
+      <c r="DU98" s="93"/>
+    </row>
+    <row r="99" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A99" s="93"/>
       <c r="B99" s="93"/>
       <c r="C99" s="93"/>
@@ -15543,8 +15754,10 @@
       <c r="DQ99" s="93"/>
       <c r="DR99" s="93"/>
       <c r="DS99" s="93"/>
-    </row>
-    <row r="100" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT99" s="93"/>
+      <c r="DU99" s="93"/>
+    </row>
+    <row r="100" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A100" s="93"/>
       <c r="B100" s="93"/>
       <c r="C100" s="93"/>
@@ -15668,8 +15881,10 @@
       <c r="DQ100" s="93"/>
       <c r="DR100" s="93"/>
       <c r="DS100" s="93"/>
-    </row>
-    <row r="101" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT100" s="93"/>
+      <c r="DU100" s="93"/>
+    </row>
+    <row r="101" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A101" s="93"/>
       <c r="B101" s="93"/>
       <c r="C101" s="93"/>
@@ -15793,8 +16008,10 @@
       <c r="DQ101" s="93"/>
       <c r="DR101" s="93"/>
       <c r="DS101" s="93"/>
-    </row>
-    <row r="102" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT101" s="93"/>
+      <c r="DU101" s="93"/>
+    </row>
+    <row r="102" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A102" s="93"/>
       <c r="B102" s="93"/>
       <c r="C102" s="93"/>
@@ -15918,8 +16135,10 @@
       <c r="DQ102" s="93"/>
       <c r="DR102" s="93"/>
       <c r="DS102" s="93"/>
-    </row>
-    <row r="103" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT102" s="93"/>
+      <c r="DU102" s="93"/>
+    </row>
+    <row r="103" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A103" s="93"/>
       <c r="B103" s="93"/>
       <c r="C103" s="93"/>
@@ -16043,8 +16262,10 @@
       <c r="DQ103" s="93"/>
       <c r="DR103" s="93"/>
       <c r="DS103" s="93"/>
-    </row>
-    <row r="104" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT103" s="93"/>
+      <c r="DU103" s="93"/>
+    </row>
+    <row r="104" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A104" s="93"/>
       <c r="B104" s="93"/>
       <c r="C104" s="93"/>
@@ -16168,8 +16389,10 @@
       <c r="DQ104" s="93"/>
       <c r="DR104" s="93"/>
       <c r="DS104" s="93"/>
-    </row>
-    <row r="105" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT104" s="93"/>
+      <c r="DU104" s="93"/>
+    </row>
+    <row r="105" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A105" s="93"/>
       <c r="B105" s="93"/>
       <c r="C105" s="93"/>
@@ -16293,8 +16516,10 @@
       <c r="DQ105" s="93"/>
       <c r="DR105" s="93"/>
       <c r="DS105" s="93"/>
-    </row>
-    <row r="106" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT105" s="93"/>
+      <c r="DU105" s="93"/>
+    </row>
+    <row r="106" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A106" s="93"/>
       <c r="B106" s="93"/>
       <c r="C106" s="93"/>
@@ -16418,8 +16643,10 @@
       <c r="DQ106" s="93"/>
       <c r="DR106" s="93"/>
       <c r="DS106" s="93"/>
-    </row>
-    <row r="107" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT106" s="93"/>
+      <c r="DU106" s="93"/>
+    </row>
+    <row r="107" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A107" s="93"/>
       <c r="B107" s="93"/>
       <c r="C107" s="93"/>
@@ -16543,8 +16770,10 @@
       <c r="DQ107" s="93"/>
       <c r="DR107" s="93"/>
       <c r="DS107" s="93"/>
-    </row>
-    <row r="108" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT107" s="93"/>
+      <c r="DU107" s="93"/>
+    </row>
+    <row r="108" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A108" s="93"/>
       <c r="B108" s="93"/>
       <c r="C108" s="93"/>
@@ -16668,8 +16897,10 @@
       <c r="DQ108" s="93"/>
       <c r="DR108" s="93"/>
       <c r="DS108" s="93"/>
-    </row>
-    <row r="109" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT108" s="93"/>
+      <c r="DU108" s="93"/>
+    </row>
+    <row r="109" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A109" s="93"/>
       <c r="B109" s="93"/>
       <c r="C109" s="93"/>
@@ -16793,8 +17024,10 @@
       <c r="DQ109" s="93"/>
       <c r="DR109" s="93"/>
       <c r="DS109" s="93"/>
-    </row>
-    <row r="110" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT109" s="93"/>
+      <c r="DU109" s="93"/>
+    </row>
+    <row r="110" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A110" s="93"/>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -16918,8 +17151,10 @@
       <c r="DQ110" s="93"/>
       <c r="DR110" s="93"/>
       <c r="DS110" s="93"/>
-    </row>
-    <row r="111" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT110" s="93"/>
+      <c r="DU110" s="93"/>
+    </row>
+    <row r="111" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A111" s="93"/>
       <c r="B111" s="93"/>
       <c r="C111" s="93"/>
@@ -17043,8 +17278,10 @@
       <c r="DQ111" s="93"/>
       <c r="DR111" s="93"/>
       <c r="DS111" s="93"/>
-    </row>
-    <row r="112" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT111" s="93"/>
+      <c r="DU111" s="93"/>
+    </row>
+    <row r="112" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A112" s="93"/>
       <c r="B112" s="93"/>
       <c r="C112" s="93"/>
@@ -17168,8 +17405,10 @@
       <c r="DQ112" s="93"/>
       <c r="DR112" s="93"/>
       <c r="DS112" s="93"/>
-    </row>
-    <row r="113" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT112" s="93"/>
+      <c r="DU112" s="93"/>
+    </row>
+    <row r="113" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A113" s="93"/>
       <c r="B113" s="93"/>
       <c r="C113" s="93"/>
@@ -17293,8 +17532,10 @@
       <c r="DQ113" s="93"/>
       <c r="DR113" s="93"/>
       <c r="DS113" s="93"/>
-    </row>
-    <row r="114" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT113" s="93"/>
+      <c r="DU113" s="93"/>
+    </row>
+    <row r="114" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A114" s="93"/>
       <c r="B114" s="93"/>
       <c r="C114" s="93"/>
@@ -17418,8 +17659,10 @@
       <c r="DQ114" s="93"/>
       <c r="DR114" s="93"/>
       <c r="DS114" s="93"/>
-    </row>
-    <row r="115" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT114" s="93"/>
+      <c r="DU114" s="93"/>
+    </row>
+    <row r="115" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A115" s="93"/>
       <c r="B115" s="93"/>
       <c r="C115" s="93"/>
@@ -17543,8 +17786,10 @@
       <c r="DQ115" s="93"/>
       <c r="DR115" s="93"/>
       <c r="DS115" s="93"/>
-    </row>
-    <row r="116" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT115" s="93"/>
+      <c r="DU115" s="93"/>
+    </row>
+    <row r="116" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A116" s="93"/>
       <c r="B116" s="93"/>
       <c r="C116" s="93"/>
@@ -17668,8 +17913,10 @@
       <c r="DQ116" s="93"/>
       <c r="DR116" s="93"/>
       <c r="DS116" s="93"/>
-    </row>
-    <row r="117" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT116" s="93"/>
+      <c r="DU116" s="93"/>
+    </row>
+    <row r="117" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A117" s="93"/>
       <c r="B117" s="93"/>
       <c r="C117" s="93"/>
@@ -17793,8 +18040,10 @@
       <c r="DQ117" s="93"/>
       <c r="DR117" s="93"/>
       <c r="DS117" s="93"/>
-    </row>
-    <row r="118" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT117" s="93"/>
+      <c r="DU117" s="93"/>
+    </row>
+    <row r="118" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A118" s="93"/>
       <c r="B118" s="93"/>
       <c r="C118" s="93"/>
@@ -17918,8 +18167,10 @@
       <c r="DQ118" s="93"/>
       <c r="DR118" s="93"/>
       <c r="DS118" s="93"/>
-    </row>
-    <row r="119" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT118" s="93"/>
+      <c r="DU118" s="93"/>
+    </row>
+    <row r="119" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A119" s="93"/>
       <c r="B119" s="93"/>
       <c r="C119" s="93"/>
@@ -18043,8 +18294,10 @@
       <c r="DQ119" s="93"/>
       <c r="DR119" s="93"/>
       <c r="DS119" s="93"/>
-    </row>
-    <row r="120" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT119" s="93"/>
+      <c r="DU119" s="93"/>
+    </row>
+    <row r="120" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A120" s="93"/>
       <c r="B120" s="93"/>
       <c r="C120" s="93"/>
@@ -18168,8 +18421,10 @@
       <c r="DQ120" s="93"/>
       <c r="DR120" s="93"/>
       <c r="DS120" s="93"/>
-    </row>
-    <row r="121" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT120" s="93"/>
+      <c r="DU120" s="93"/>
+    </row>
+    <row r="121" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A121" s="93"/>
       <c r="B121" s="93"/>
       <c r="C121" s="93"/>
@@ -18293,8 +18548,10 @@
       <c r="DQ121" s="93"/>
       <c r="DR121" s="93"/>
       <c r="DS121" s="93"/>
-    </row>
-    <row r="122" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT121" s="93"/>
+      <c r="DU121" s="93"/>
+    </row>
+    <row r="122" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A122" s="93"/>
       <c r="B122" s="93"/>
       <c r="C122" s="93"/>
@@ -18418,8 +18675,10 @@
       <c r="DQ122" s="93"/>
       <c r="DR122" s="93"/>
       <c r="DS122" s="93"/>
-    </row>
-    <row r="123" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT122" s="93"/>
+      <c r="DU122" s="93"/>
+    </row>
+    <row r="123" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A123" s="93"/>
       <c r="B123" s="93"/>
       <c r="C123" s="93"/>
@@ -18543,8 +18802,10 @@
       <c r="DQ123" s="93"/>
       <c r="DR123" s="93"/>
       <c r="DS123" s="93"/>
-    </row>
-    <row r="124" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT123" s="93"/>
+      <c r="DU123" s="93"/>
+    </row>
+    <row r="124" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A124" s="93"/>
       <c r="B124" s="93"/>
       <c r="C124" s="93"/>
@@ -18668,8 +18929,10 @@
       <c r="DQ124" s="93"/>
       <c r="DR124" s="93"/>
       <c r="DS124" s="93"/>
-    </row>
-    <row r="125" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT124" s="93"/>
+      <c r="DU124" s="93"/>
+    </row>
+    <row r="125" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A125" s="93"/>
       <c r="B125" s="93"/>
       <c r="C125" s="93"/>
@@ -18793,8 +19056,10 @@
       <c r="DQ125" s="93"/>
       <c r="DR125" s="93"/>
       <c r="DS125" s="93"/>
-    </row>
-    <row r="126" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT125" s="93"/>
+      <c r="DU125" s="93"/>
+    </row>
+    <row r="126" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A126" s="93"/>
       <c r="B126" s="93"/>
       <c r="C126" s="93"/>
@@ -18918,8 +19183,10 @@
       <c r="DQ126" s="93"/>
       <c r="DR126" s="93"/>
       <c r="DS126" s="93"/>
-    </row>
-    <row r="127" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT126" s="93"/>
+      <c r="DU126" s="93"/>
+    </row>
+    <row r="127" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A127" s="93"/>
       <c r="B127" s="93"/>
       <c r="C127" s="93"/>
@@ -19043,8 +19310,10 @@
       <c r="DQ127" s="93"/>
       <c r="DR127" s="93"/>
       <c r="DS127" s="93"/>
-    </row>
-    <row r="128" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT127" s="93"/>
+      <c r="DU127" s="93"/>
+    </row>
+    <row r="128" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A128" s="93"/>
       <c r="B128" s="93"/>
       <c r="C128" s="93"/>
@@ -19168,8 +19437,10 @@
       <c r="DQ128" s="93"/>
       <c r="DR128" s="93"/>
       <c r="DS128" s="93"/>
-    </row>
-    <row r="129" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="DT128" s="93"/>
+      <c r="DU128" s="93"/>
+    </row>
+    <row r="129" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A129" s="93"/>
       <c r="B129" s="93"/>
       <c r="C129" s="93"/>
@@ -19293,13 +19564,16 @@
       <c r="DQ129" s="93"/>
       <c r="DR129" s="93"/>
       <c r="DS129" s="93"/>
+      <c r="DT129" s="93"/>
+      <c r="DU129" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="DC2:DD2"/>
     <mergeCell ref="DE2:DF2"/>
     <mergeCell ref="DG2:DH2"/>
     <mergeCell ref="DI2:DJ2"/>
+    <mergeCell ref="DK2:DL2"/>
     <mergeCell ref="BP2:BQ2"/>
     <mergeCell ref="BR2:BX2"/>
     <mergeCell ref="BY2:BZ2"/>
@@ -19332,7 +19606,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV135"/>
+  <dimension ref="A1:CX136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
@@ -19345,17 +19619,17 @@
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="97" width="9.5703125" style="1" customWidth="1"/>
-    <col min="98" max="98" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="200.7109375" style="1" customWidth="1"/>
-    <col min="101" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="99" width="9.5703125" style="1" customWidth="1"/>
+    <col min="100" max="100" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="200.7109375" style="1" customWidth="1"/>
+    <col min="103" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:102" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -19455,8 +19729,10 @@
       <c r="CT1" s="93"/>
       <c r="CU1" s="93"/>
       <c r="CV1" s="93"/>
-    </row>
-    <row r="2" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CW1" s="93"/>
+      <c r="CX1" s="93"/>
+    </row>
+    <row r="2" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -19656,29 +19932,33 @@
         <v>245</v>
       </c>
       <c r="CM2" s="64"/>
-      <c r="CN2" s="46" t="s">
+      <c r="CN2" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="CO2" s="46" t="s">
+      <c r="CO2" s="64"/>
+      <c r="CP2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="CP2" s="46" t="s">
+      <c r="CQ2" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="CQ2" s="46" t="s">
+      <c r="CR2" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="CR2" s="46">
+      <c r="CS2" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="CT2" s="46">
         <v>350</v>
       </c>
-      <c r="CS2" s="46">
+      <c r="CU2" s="46">
         <v>351</v>
       </c>
-      <c r="CT2" s="93"/>
-      <c r="CU2" s="93"/>
       <c r="CV2" s="93"/>
-    </row>
-    <row r="3" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CW2" s="93"/>
+      <c r="CX2" s="93"/>
+    </row>
+    <row r="3" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -19864,7 +20144,7 @@
         <v>98</v>
       </c>
       <c r="BK3" s="79" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BL3" s="66">
         <v>8</v>
@@ -19882,7 +20162,7 @@
         <v>98</v>
       </c>
       <c r="BQ3" s="79" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="BR3" s="66">
         <v>8</v>
@@ -19950,11 +20230,11 @@
       <c r="CM3" s="66">
         <v>2</v>
       </c>
-      <c r="CN3" s="47">
+      <c r="CN3" s="65">
         <v>1</v>
       </c>
-      <c r="CO3" s="47">
-        <v>1</v>
+      <c r="CO3" s="66">
+        <v>2</v>
       </c>
       <c r="CP3" s="47">
         <v>1</v>
@@ -19968,21 +20248,27 @@
       <c r="CS3" s="47">
         <v>1</v>
       </c>
-      <c r="CT3" s="2" t="s">
+      <c r="CT3" s="47">
         <v>1</v>
       </c>
-      <c r="CU3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="CV3" s="93"/>
-    </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CU3" s="47">
+        <v>1</v>
+      </c>
+      <c r="CV3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="CW3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CX3" s="93"/>
+    </row>
+    <row r="4" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
       <c r="B4" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C4" s="84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -20072,25 +20358,27 @@
       <c r="CK4" s="51"/>
       <c r="CL4" s="32"/>
       <c r="CM4" s="51"/>
-      <c r="CN4" s="34"/>
-      <c r="CO4" s="34"/>
+      <c r="CN4" s="32"/>
+      <c r="CO4" s="51"/>
       <c r="CP4" s="34"/>
       <c r="CQ4" s="34"/>
       <c r="CR4" s="34"/>
       <c r="CS4" s="34"/>
-      <c r="CT4" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="CU4" s="84" t="s">
-        <v>288</v>
-      </c>
-      <c r="CV4" s="93"/>
-    </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT4" s="34"/>
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="CW4" s="84" t="s">
+        <v>290</v>
+      </c>
+      <c r="CX4" s="93"/>
+    </row>
+    <row r="5" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="16"/>
       <c r="C5" s="86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -20180,25 +20468,27 @@
       <c r="CK5" s="52"/>
       <c r="CL5" s="33"/>
       <c r="CM5" s="52"/>
-      <c r="CN5" s="35"/>
-      <c r="CO5" s="35"/>
+      <c r="CN5" s="33"/>
+      <c r="CO5" s="52"/>
       <c r="CP5" s="35"/>
       <c r="CQ5" s="35"/>
       <c r="CR5" s="35"/>
       <c r="CS5" s="35"/>
-      <c r="CT5" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="CU5" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="CV5" s="93"/>
-    </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT5" s="35"/>
+      <c r="CU5" s="35"/>
+      <c r="CV5" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="CW5" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="CX5" s="93"/>
+    </row>
+    <row r="6" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A6" s="93"/>
       <c r="B6" s="16"/>
       <c r="C6" s="86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
@@ -20288,25 +20578,27 @@
       <c r="CK6" s="52"/>
       <c r="CL6" s="33"/>
       <c r="CM6" s="52"/>
-      <c r="CN6" s="35"/>
-      <c r="CO6" s="35"/>
+      <c r="CN6" s="33"/>
+      <c r="CO6" s="52"/>
       <c r="CP6" s="35"/>
       <c r="CQ6" s="35"/>
       <c r="CR6" s="35"/>
       <c r="CS6" s="35"/>
-      <c r="CT6" s="85" t="s">
-        <v>199</v>
-      </c>
-      <c r="CU6" s="86" t="s">
-        <v>290</v>
-      </c>
-      <c r="CV6" s="93"/>
-    </row>
-    <row r="7" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CT6" s="35"/>
+      <c r="CU6" s="35"/>
+      <c r="CV6" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="CW6" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="CX6" s="93"/>
+    </row>
+    <row r="7" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="93"/>
       <c r="B7" s="17"/>
       <c r="C7" s="88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
@@ -20396,27 +20688,29 @@
       <c r="CK7" s="54"/>
       <c r="CL7" s="53"/>
       <c r="CM7" s="54"/>
-      <c r="CN7" s="36"/>
-      <c r="CO7" s="36"/>
+      <c r="CN7" s="53"/>
+      <c r="CO7" s="54"/>
       <c r="CP7" s="36"/>
       <c r="CQ7" s="36"/>
       <c r="CR7" s="36"/>
       <c r="CS7" s="36"/>
-      <c r="CT7" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="CU7" s="88" t="s">
-        <v>291</v>
-      </c>
-      <c r="CV7" s="93"/>
-    </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT7" s="36"/>
+      <c r="CU7" s="36"/>
+      <c r="CV7" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="CW7" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="CX7" s="93"/>
+    </row>
+    <row r="8" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A8" s="93"/>
       <c r="B8" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -20506,25 +20800,27 @@
       <c r="CK8" s="57"/>
       <c r="CL8" s="37"/>
       <c r="CM8" s="57"/>
-      <c r="CN8" s="39"/>
-      <c r="CO8" s="39"/>
+      <c r="CN8" s="37"/>
+      <c r="CO8" s="57"/>
       <c r="CP8" s="39"/>
       <c r="CQ8" s="39"/>
       <c r="CR8" s="39"/>
       <c r="CS8" s="39"/>
-      <c r="CT8" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="CU8" s="89" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV8" s="93"/>
-    </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT8" s="39"/>
+      <c r="CU8" s="39"/>
+      <c r="CV8" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="CW8" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="CX8" s="93"/>
+    </row>
+    <row r="9" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A9" s="93"/>
       <c r="B9" s="30"/>
       <c r="C9" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -20614,25 +20910,27 @@
       <c r="CK9" s="58"/>
       <c r="CL9" s="38"/>
       <c r="CM9" s="58"/>
-      <c r="CN9" s="40"/>
-      <c r="CO9" s="40"/>
+      <c r="CN9" s="38"/>
+      <c r="CO9" s="58"/>
       <c r="CP9" s="40"/>
       <c r="CQ9" s="40"/>
       <c r="CR9" s="40"/>
       <c r="CS9" s="40"/>
-      <c r="CT9" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="CU9" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="CV9" s="93"/>
-    </row>
-    <row r="10" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CT9" s="40"/>
+      <c r="CU9" s="40"/>
+      <c r="CV9" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="CW9" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="CX9" s="93"/>
+    </row>
+    <row r="10" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93"/>
       <c r="B10" s="31"/>
       <c r="C10" s="92" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
@@ -20722,27 +21020,29 @@
       <c r="CK10" s="60"/>
       <c r="CL10" s="59"/>
       <c r="CM10" s="60"/>
-      <c r="CN10" s="41"/>
-      <c r="CO10" s="41"/>
+      <c r="CN10" s="59"/>
+      <c r="CO10" s="60"/>
       <c r="CP10" s="41"/>
       <c r="CQ10" s="41"/>
       <c r="CR10" s="41"/>
       <c r="CS10" s="41"/>
-      <c r="CT10" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="CU10" s="92" t="s">
-        <v>293</v>
-      </c>
-      <c r="CV10" s="93"/>
-    </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="CW10" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="CX10" s="93"/>
+    </row>
+    <row r="11" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
       <c r="B11" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -20832,25 +21132,27 @@
       <c r="CK11" s="51"/>
       <c r="CL11" s="32"/>
       <c r="CM11" s="51"/>
-      <c r="CN11" s="48"/>
-      <c r="CO11" s="48"/>
+      <c r="CN11" s="32"/>
+      <c r="CO11" s="51"/>
       <c r="CP11" s="48"/>
       <c r="CQ11" s="48"/>
-      <c r="CR11" s="34"/>
-      <c r="CS11" s="34"/>
-      <c r="CT11" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="CU11" s="84" t="s">
-        <v>294</v>
-      </c>
-      <c r="CV11" s="93"/>
-    </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR11" s="48"/>
+      <c r="CS11" s="48"/>
+      <c r="CT11" s="34"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="CW11" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="CX11" s="93"/>
+    </row>
+    <row r="12" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A12" s="93"/>
       <c r="B12" s="16"/>
       <c r="C12" s="86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -20940,25 +21242,27 @@
       <c r="CK12" s="52"/>
       <c r="CL12" s="33"/>
       <c r="CM12" s="52"/>
-      <c r="CN12" s="42"/>
-      <c r="CO12" s="42"/>
+      <c r="CN12" s="33"/>
+      <c r="CO12" s="52"/>
       <c r="CP12" s="42"/>
       <c r="CQ12" s="42"/>
-      <c r="CR12" s="35"/>
-      <c r="CS12" s="35"/>
-      <c r="CT12" s="85" t="s">
-        <v>207</v>
-      </c>
-      <c r="CU12" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="CV12" s="93"/>
-    </row>
-    <row r="13" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CR12" s="42"/>
+      <c r="CS12" s="42"/>
+      <c r="CT12" s="35"/>
+      <c r="CU12" s="35"/>
+      <c r="CV12" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="CW12" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="CX12" s="93"/>
+    </row>
+    <row r="13" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="93"/>
       <c r="B13" s="17"/>
       <c r="C13" s="88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -21048,27 +21352,29 @@
       <c r="CK13" s="54"/>
       <c r="CL13" s="53"/>
       <c r="CM13" s="54"/>
-      <c r="CN13" s="67"/>
-      <c r="CO13" s="67"/>
+      <c r="CN13" s="53"/>
+      <c r="CO13" s="54"/>
       <c r="CP13" s="67"/>
       <c r="CQ13" s="67"/>
-      <c r="CR13" s="36"/>
-      <c r="CS13" s="36"/>
-      <c r="CT13" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="CU13" s="88" t="s">
-        <v>296</v>
-      </c>
-      <c r="CV13" s="93"/>
-    </row>
-    <row r="14" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CR13" s="67"/>
+      <c r="CS13" s="67"/>
+      <c r="CT13" s="36"/>
+      <c r="CU13" s="36"/>
+      <c r="CV13" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW13" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="CX13" s="93"/>
+    </row>
+    <row r="14" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93"/>
       <c r="B14" s="97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D14" s="99"/>
       <c r="E14" s="99"/>
@@ -21158,27 +21464,29 @@
       <c r="CK14" s="107"/>
       <c r="CL14" s="106"/>
       <c r="CM14" s="107"/>
-      <c r="CN14" s="99"/>
-      <c r="CO14" s="99"/>
+      <c r="CN14" s="106"/>
+      <c r="CO14" s="107"/>
       <c r="CP14" s="99"/>
       <c r="CQ14" s="99"/>
       <c r="CR14" s="99"/>
       <c r="CS14" s="99"/>
-      <c r="CT14" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="CU14" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="CV14" s="93"/>
-    </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT14" s="99"/>
+      <c r="CU14" s="99"/>
+      <c r="CV14" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="CW14" s="98" t="s">
+        <v>299</v>
+      </c>
+      <c r="CX14" s="93"/>
+    </row>
+    <row r="15" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
@@ -21270,25 +21578,27 @@
       <c r="CK15" s="51"/>
       <c r="CL15" s="32"/>
       <c r="CM15" s="82"/>
-      <c r="CN15" s="34"/>
-      <c r="CO15" s="34"/>
+      <c r="CN15" s="32"/>
+      <c r="CO15" s="82"/>
       <c r="CP15" s="34"/>
       <c r="CQ15" s="34"/>
       <c r="CR15" s="34"/>
       <c r="CS15" s="34"/>
-      <c r="CT15" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU15" s="84" t="s">
-        <v>298</v>
-      </c>
-      <c r="CV15" s="93"/>
-    </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT15" s="34"/>
+      <c r="CU15" s="34"/>
+      <c r="CV15" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="CW15" s="84" t="s">
+        <v>300</v>
+      </c>
+      <c r="CX15" s="93"/>
+    </row>
+    <row r="16" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
       <c r="B16" s="16"/>
       <c r="C16" s="86" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -21378,25 +21688,27 @@
       <c r="CK16" s="52"/>
       <c r="CL16" s="33"/>
       <c r="CM16" s="52"/>
-      <c r="CN16" s="35"/>
-      <c r="CO16" s="35"/>
+      <c r="CN16" s="33"/>
+      <c r="CO16" s="52"/>
       <c r="CP16" s="35"/>
       <c r="CQ16" s="35"/>
       <c r="CR16" s="35"/>
       <c r="CS16" s="35"/>
-      <c r="CT16" s="85" t="s">
-        <v>213</v>
-      </c>
-      <c r="CU16" s="86" t="s">
-        <v>299</v>
-      </c>
-      <c r="CV16" s="93"/>
-    </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT16" s="35"/>
+      <c r="CU16" s="35"/>
+      <c r="CV16" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="CW16" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="CX16" s="93"/>
+    </row>
+    <row r="17" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A17" s="93"/>
       <c r="B17" s="16"/>
       <c r="C17" s="86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -21508,25 +21820,27 @@
       <c r="CM17" s="71">
         <v>5</v>
       </c>
-      <c r="CN17" s="35"/>
-      <c r="CO17" s="35"/>
+      <c r="CN17" s="61"/>
+      <c r="CO17" s="62"/>
       <c r="CP17" s="35"/>
       <c r="CQ17" s="35"/>
       <c r="CR17" s="35"/>
       <c r="CS17" s="35"/>
-      <c r="CT17" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="CU17" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="CV17" s="93"/>
-    </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT17" s="35"/>
+      <c r="CU17" s="35"/>
+      <c r="CV17" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="CW17" s="86" t="s">
+        <v>302</v>
+      </c>
+      <c r="CX17" s="93"/>
+    </row>
+    <row r="18" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A18" s="93"/>
       <c r="B18" s="16"/>
       <c r="C18" s="86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -21616,25 +21930,27 @@
       <c r="CK18" s="52"/>
       <c r="CL18" s="33"/>
       <c r="CM18" s="52"/>
-      <c r="CN18" s="35"/>
-      <c r="CO18" s="35"/>
+      <c r="CN18" s="33"/>
+      <c r="CO18" s="52"/>
       <c r="CP18" s="35"/>
       <c r="CQ18" s="35"/>
       <c r="CR18" s="35"/>
       <c r="CS18" s="35"/>
-      <c r="CT18" s="85" t="s">
-        <v>215</v>
-      </c>
-      <c r="CU18" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="CV18" s="93"/>
-    </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT18" s="35"/>
+      <c r="CU18" s="35"/>
+      <c r="CV18" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="CW18" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="CX18" s="93"/>
+    </row>
+    <row r="19" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A19" s="93"/>
       <c r="B19" s="16"/>
       <c r="C19" s="86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -21732,25 +22048,27 @@
       <c r="CK19" s="52"/>
       <c r="CL19" s="33"/>
       <c r="CM19" s="52"/>
-      <c r="CN19" s="35"/>
-      <c r="CO19" s="35"/>
+      <c r="CN19" s="33"/>
+      <c r="CO19" s="52"/>
       <c r="CP19" s="35"/>
       <c r="CQ19" s="35"/>
       <c r="CR19" s="35"/>
       <c r="CS19" s="35"/>
-      <c r="CT19" s="85" t="s">
-        <v>216</v>
-      </c>
-      <c r="CU19" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="CV19" s="93"/>
-    </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT19" s="35"/>
+      <c r="CU19" s="35"/>
+      <c r="CV19" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="CW19" s="86" t="s">
+        <v>304</v>
+      </c>
+      <c r="CX19" s="93"/>
+    </row>
+    <row r="20" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A20" s="93"/>
       <c r="B20" s="16"/>
       <c r="C20" s="86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -21840,25 +22158,27 @@
       <c r="CK20" s="52"/>
       <c r="CL20" s="33"/>
       <c r="CM20" s="52"/>
-      <c r="CN20" s="35"/>
-      <c r="CO20" s="35"/>
+      <c r="CN20" s="33"/>
+      <c r="CO20" s="52"/>
       <c r="CP20" s="35"/>
       <c r="CQ20" s="35"/>
-      <c r="CR20" s="42"/>
-      <c r="CS20" s="42"/>
-      <c r="CT20" s="85" t="s">
-        <v>217</v>
-      </c>
-      <c r="CU20" s="86" t="s">
-        <v>303</v>
-      </c>
-      <c r="CV20" s="93"/>
-    </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR20" s="35"/>
+      <c r="CS20" s="35"/>
+      <c r="CT20" s="42"/>
+      <c r="CU20" s="42"/>
+      <c r="CV20" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="CW20" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="CX20" s="93"/>
+    </row>
+    <row r="21" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A21" s="93"/>
       <c r="B21" s="16"/>
       <c r="C21" s="86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -21954,25 +22274,27 @@
       <c r="CK21" s="52"/>
       <c r="CL21" s="33"/>
       <c r="CM21" s="52"/>
-      <c r="CN21" s="35"/>
-      <c r="CO21" s="35"/>
+      <c r="CN21" s="33"/>
+      <c r="CO21" s="52"/>
       <c r="CP21" s="35"/>
       <c r="CQ21" s="35"/>
       <c r="CR21" s="35"/>
-      <c r="CS21" s="42"/>
-      <c r="CT21" s="85" t="s">
-        <v>218</v>
-      </c>
-      <c r="CU21" s="86" t="s">
-        <v>304</v>
-      </c>
-      <c r="CV21" s="93"/>
-    </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CS21" s="35"/>
+      <c r="CT21" s="35"/>
+      <c r="CU21" s="42"/>
+      <c r="CV21" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="CW21" s="86" t="s">
+        <v>306</v>
+      </c>
+      <c r="CX21" s="93"/>
+    </row>
+    <row r="22" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A22" s="93"/>
       <c r="B22" s="16"/>
       <c r="C22" s="86" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -22074,25 +22396,27 @@
       <c r="CK22" s="52"/>
       <c r="CL22" s="33"/>
       <c r="CM22" s="52"/>
-      <c r="CN22" s="35"/>
-      <c r="CO22" s="35"/>
+      <c r="CN22" s="33"/>
+      <c r="CO22" s="52"/>
       <c r="CP22" s="35"/>
       <c r="CQ22" s="35"/>
       <c r="CR22" s="35"/>
       <c r="CS22" s="35"/>
-      <c r="CT22" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="CU22" s="86" t="s">
-        <v>305</v>
-      </c>
-      <c r="CV22" s="93"/>
-    </row>
-    <row r="23" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT22" s="35"/>
+      <c r="CU22" s="35"/>
+      <c r="CV22" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="CW22" s="86" t="s">
+        <v>307</v>
+      </c>
+      <c r="CX22" s="93"/>
+    </row>
+    <row r="23" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A23" s="93"/>
       <c r="B23" s="16"/>
       <c r="C23" s="86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -22186,25 +22510,27 @@
       <c r="CK23" s="52"/>
       <c r="CL23" s="33"/>
       <c r="CM23" s="52"/>
-      <c r="CN23" s="35"/>
-      <c r="CO23" s="35"/>
+      <c r="CN23" s="33"/>
+      <c r="CO23" s="52"/>
       <c r="CP23" s="35"/>
       <c r="CQ23" s="35"/>
       <c r="CR23" s="35"/>
       <c r="CS23" s="35"/>
-      <c r="CT23" s="85" t="s">
-        <v>220</v>
-      </c>
-      <c r="CU23" s="86" t="s">
-        <v>306</v>
-      </c>
-      <c r="CV23" s="93"/>
-    </row>
-    <row r="24" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT23" s="35"/>
+      <c r="CU23" s="35"/>
+      <c r="CV23" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="CW23" s="86" t="s">
+        <v>308</v>
+      </c>
+      <c r="CX23" s="93"/>
+    </row>
+    <row r="24" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A24" s="93"/>
       <c r="B24" s="16"/>
       <c r="C24" s="86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -22302,25 +22628,27 @@
       <c r="CK24" s="52"/>
       <c r="CL24" s="33"/>
       <c r="CM24" s="52"/>
-      <c r="CN24" s="35"/>
-      <c r="CO24" s="35"/>
+      <c r="CN24" s="61"/>
+      <c r="CO24" s="52"/>
       <c r="CP24" s="35"/>
       <c r="CQ24" s="35"/>
       <c r="CR24" s="35"/>
       <c r="CS24" s="35"/>
-      <c r="CT24" s="85" t="s">
-        <v>221</v>
-      </c>
-      <c r="CU24" s="86" t="s">
-        <v>307</v>
-      </c>
-      <c r="CV24" s="93"/>
-    </row>
-    <row r="25" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT24" s="35"/>
+      <c r="CU24" s="35"/>
+      <c r="CV24" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="CW24" s="86" t="s">
+        <v>309</v>
+      </c>
+      <c r="CX24" s="93"/>
+    </row>
+    <row r="25" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A25" s="93"/>
       <c r="B25" s="16"/>
       <c r="C25" s="86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -22414,25 +22742,27 @@
       <c r="CK25" s="52"/>
       <c r="CL25" s="33"/>
       <c r="CM25" s="52"/>
-      <c r="CN25" s="35"/>
-      <c r="CO25" s="35"/>
+      <c r="CN25" s="33"/>
+      <c r="CO25" s="52"/>
       <c r="CP25" s="35"/>
       <c r="CQ25" s="35"/>
       <c r="CR25" s="35"/>
       <c r="CS25" s="35"/>
-      <c r="CT25" s="85" t="s">
-        <v>222</v>
-      </c>
-      <c r="CU25" s="86" t="s">
-        <v>308</v>
-      </c>
-      <c r="CV25" s="93"/>
-    </row>
-    <row r="26" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT25" s="35"/>
+      <c r="CU25" s="35"/>
+      <c r="CV25" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="CW25" s="86" t="s">
+        <v>310</v>
+      </c>
+      <c r="CX25" s="93"/>
+    </row>
+    <row r="26" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A26" s="93"/>
       <c r="B26" s="16"/>
       <c r="C26" s="86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -22554,25 +22884,27 @@
         <v>8</v>
       </c>
       <c r="CM26" s="52"/>
-      <c r="CN26" s="35"/>
-      <c r="CO26" s="35"/>
+      <c r="CN26" s="61"/>
+      <c r="CO26" s="52"/>
       <c r="CP26" s="35"/>
       <c r="CQ26" s="35"/>
       <c r="CR26" s="35"/>
       <c r="CS26" s="35"/>
-      <c r="CT26" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="CU26" s="86" t="s">
-        <v>309</v>
-      </c>
-      <c r="CV26" s="93"/>
-    </row>
-    <row r="27" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT26" s="35"/>
+      <c r="CU26" s="35"/>
+      <c r="CV26" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="CW26" s="86" t="s">
+        <v>311</v>
+      </c>
+      <c r="CX26" s="93"/>
+    </row>
+    <row r="27" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A27" s="93"/>
       <c r="B27" s="16"/>
       <c r="C27" s="86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="35"/>
@@ -22664,25 +22996,27 @@
       <c r="CK27" s="62"/>
       <c r="CL27" s="61"/>
       <c r="CM27" s="62"/>
-      <c r="CN27" s="42"/>
-      <c r="CO27" s="42"/>
+      <c r="CN27" s="61"/>
+      <c r="CO27" s="62"/>
       <c r="CP27" s="42"/>
       <c r="CQ27" s="42"/>
-      <c r="CR27" s="35"/>
-      <c r="CS27" s="35"/>
-      <c r="CT27" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="CU27" s="86" t="s">
-        <v>310</v>
-      </c>
-      <c r="CV27" s="93"/>
-    </row>
-    <row r="28" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR27" s="42"/>
+      <c r="CS27" s="42"/>
+      <c r="CT27" s="35"/>
+      <c r="CU27" s="35"/>
+      <c r="CV27" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="CW27" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="CX27" s="93"/>
+    </row>
+    <row r="28" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A28" s="93"/>
       <c r="B28" s="16"/>
       <c r="C28" s="86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D28" s="83">
         <v>13</v>
@@ -22790,25 +23124,27 @@
       <c r="CK28" s="52"/>
       <c r="CL28" s="33"/>
       <c r="CM28" s="52"/>
-      <c r="CN28" s="35"/>
-      <c r="CO28" s="35"/>
+      <c r="CN28" s="33"/>
+      <c r="CO28" s="52"/>
       <c r="CP28" s="35"/>
       <c r="CQ28" s="35"/>
       <c r="CR28" s="35"/>
       <c r="CS28" s="35"/>
-      <c r="CT28" s="85" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU28" s="86" t="s">
-        <v>311</v>
-      </c>
-      <c r="CV28" s="93"/>
-    </row>
-    <row r="29" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CT28" s="35"/>
+      <c r="CU28" s="35"/>
+      <c r="CV28" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="CW28" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="CX28" s="93"/>
+    </row>
+    <row r="29" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="93"/>
       <c r="B29" s="17"/>
       <c r="C29" s="88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
@@ -22898,27 +23234,29 @@
       <c r="CK29" s="54"/>
       <c r="CL29" s="53"/>
       <c r="CM29" s="54"/>
-      <c r="CN29" s="36"/>
-      <c r="CO29" s="36"/>
+      <c r="CN29" s="53"/>
+      <c r="CO29" s="54"/>
       <c r="CP29" s="36"/>
       <c r="CQ29" s="36"/>
       <c r="CR29" s="36"/>
       <c r="CS29" s="36"/>
-      <c r="CT29" s="87" t="s">
-        <v>226</v>
-      </c>
-      <c r="CU29" s="88" t="s">
-        <v>312</v>
-      </c>
-      <c r="CV29" s="93"/>
-    </row>
-    <row r="30" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT29" s="36"/>
+      <c r="CU29" s="36"/>
+      <c r="CV29" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="CW29" s="88" t="s">
+        <v>314</v>
+      </c>
+      <c r="CX29" s="93"/>
+    </row>
+    <row r="30" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A30" s="93"/>
       <c r="B30" s="29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C30" s="89" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -23008,25 +23346,27 @@
       <c r="CK30" s="57"/>
       <c r="CL30" s="37"/>
       <c r="CM30" s="57"/>
-      <c r="CN30" s="48"/>
-      <c r="CO30" s="48"/>
+      <c r="CN30" s="37"/>
+      <c r="CO30" s="57"/>
       <c r="CP30" s="48"/>
       <c r="CQ30" s="48"/>
-      <c r="CR30" s="39"/>
-      <c r="CS30" s="39"/>
-      <c r="CT30" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="CU30" s="89" t="s">
-        <v>313</v>
-      </c>
-      <c r="CV30" s="93"/>
-    </row>
-    <row r="31" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR30" s="48"/>
+      <c r="CS30" s="48"/>
+      <c r="CT30" s="39"/>
+      <c r="CU30" s="39"/>
+      <c r="CV30" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="CW30" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="CX30" s="93"/>
+    </row>
+    <row r="31" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A31" s="93"/>
       <c r="B31" s="30"/>
       <c r="C31" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -23116,25 +23456,27 @@
       <c r="CK31" s="58"/>
       <c r="CL31" s="38"/>
       <c r="CM31" s="58"/>
-      <c r="CN31" s="101"/>
-      <c r="CO31" s="101"/>
+      <c r="CN31" s="38"/>
+      <c r="CO31" s="58"/>
       <c r="CP31" s="101"/>
       <c r="CQ31" s="101"/>
-      <c r="CR31" s="40"/>
-      <c r="CS31" s="40"/>
-      <c r="CT31" s="90" t="s">
-        <v>229</v>
-      </c>
-      <c r="CU31" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="CV31" s="93"/>
-    </row>
-    <row r="32" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR31" s="101"/>
+      <c r="CS31" s="101"/>
+      <c r="CT31" s="40"/>
+      <c r="CU31" s="40"/>
+      <c r="CV31" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="CW31" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="CX31" s="93"/>
+    </row>
+    <row r="32" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A32" s="93"/>
       <c r="B32" s="30"/>
       <c r="C32" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -23224,25 +23566,27 @@
       <c r="CK32" s="58"/>
       <c r="CL32" s="38"/>
       <c r="CM32" s="58"/>
-      <c r="CN32" s="101"/>
-      <c r="CO32" s="101"/>
+      <c r="CN32" s="38"/>
+      <c r="CO32" s="58"/>
       <c r="CP32" s="101"/>
       <c r="CQ32" s="101"/>
-      <c r="CR32" s="40"/>
-      <c r="CS32" s="40"/>
-      <c r="CT32" s="90" t="s">
-        <v>230</v>
-      </c>
-      <c r="CU32" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="CV32" s="93"/>
-    </row>
-    <row r="33" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR32" s="101"/>
+      <c r="CS32" s="101"/>
+      <c r="CT32" s="40"/>
+      <c r="CU32" s="40"/>
+      <c r="CV32" s="90" t="s">
+        <v>231</v>
+      </c>
+      <c r="CW32" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="CX32" s="93"/>
+    </row>
+    <row r="33" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
       <c r="B33" s="30"/>
       <c r="C33" s="25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -23332,25 +23676,27 @@
       <c r="CK33" s="58"/>
       <c r="CL33" s="38"/>
       <c r="CM33" s="58"/>
-      <c r="CN33" s="101"/>
-      <c r="CO33" s="101"/>
+      <c r="CN33" s="38"/>
+      <c r="CO33" s="58"/>
       <c r="CP33" s="101"/>
       <c r="CQ33" s="101"/>
-      <c r="CR33" s="40"/>
-      <c r="CS33" s="40"/>
-      <c r="CT33" s="90" t="s">
-        <v>231</v>
-      </c>
-      <c r="CU33" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="CV33" s="93"/>
-    </row>
-    <row r="34" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR33" s="101"/>
+      <c r="CS33" s="101"/>
+      <c r="CT33" s="40"/>
+      <c r="CU33" s="40"/>
+      <c r="CV33" s="90" t="s">
+        <v>232</v>
+      </c>
+      <c r="CW33" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="CX33" s="93"/>
+    </row>
+    <row r="34" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
       <c r="B34" s="30"/>
       <c r="C34" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -23440,25 +23786,27 @@
       <c r="CK34" s="58"/>
       <c r="CL34" s="38"/>
       <c r="CM34" s="58"/>
-      <c r="CN34" s="101"/>
-      <c r="CO34" s="101"/>
+      <c r="CN34" s="38"/>
+      <c r="CO34" s="58"/>
       <c r="CP34" s="101"/>
       <c r="CQ34" s="101"/>
-      <c r="CR34" s="40"/>
-      <c r="CS34" s="40"/>
-      <c r="CT34" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="CU34" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="CV34" s="93"/>
-    </row>
-    <row r="35" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR34" s="101"/>
+      <c r="CS34" s="101"/>
+      <c r="CT34" s="40"/>
+      <c r="CU34" s="40"/>
+      <c r="CV34" s="90" t="s">
+        <v>233</v>
+      </c>
+      <c r="CW34" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="CX34" s="93"/>
+    </row>
+    <row r="35" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A35" s="93"/>
       <c r="B35" s="30"/>
       <c r="C35" s="25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -23548,25 +23896,27 @@
       <c r="CK35" s="58"/>
       <c r="CL35" s="38"/>
       <c r="CM35" s="58"/>
-      <c r="CN35" s="101"/>
-      <c r="CO35" s="101"/>
+      <c r="CN35" s="38"/>
+      <c r="CO35" s="58"/>
       <c r="CP35" s="101"/>
       <c r="CQ35" s="101"/>
-      <c r="CR35" s="40"/>
-      <c r="CS35" s="40"/>
-      <c r="CT35" s="90" t="s">
-        <v>233</v>
-      </c>
-      <c r="CU35" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="CV35" s="93"/>
-    </row>
-    <row r="36" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR35" s="101"/>
+      <c r="CS35" s="101"/>
+      <c r="CT35" s="40"/>
+      <c r="CU35" s="40"/>
+      <c r="CV35" s="90" t="s">
+        <v>234</v>
+      </c>
+      <c r="CW35" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="CX35" s="93"/>
+    </row>
+    <row r="36" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
       <c r="B36" s="30"/>
       <c r="C36" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
@@ -23656,25 +24006,27 @@
       <c r="CK36" s="58"/>
       <c r="CL36" s="38"/>
       <c r="CM36" s="58"/>
-      <c r="CN36" s="42"/>
-      <c r="CO36" s="42"/>
+      <c r="CN36" s="38"/>
+      <c r="CO36" s="58"/>
       <c r="CP36" s="42"/>
       <c r="CQ36" s="42"/>
-      <c r="CR36" s="40"/>
-      <c r="CS36" s="40"/>
-      <c r="CT36" s="90" t="s">
-        <v>234</v>
-      </c>
-      <c r="CU36" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="CV36" s="93"/>
-    </row>
-    <row r="37" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR36" s="42"/>
+      <c r="CS36" s="42"/>
+      <c r="CT36" s="40"/>
+      <c r="CU36" s="40"/>
+      <c r="CV36" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="CW36" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="CX36" s="93"/>
+    </row>
+    <row r="37" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
       <c r="B37" s="30"/>
       <c r="C37" s="25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
@@ -23764,25 +24116,27 @@
       <c r="CK37" s="58"/>
       <c r="CL37" s="38"/>
       <c r="CM37" s="58"/>
-      <c r="CN37" s="42"/>
-      <c r="CO37" s="42"/>
+      <c r="CN37" s="38"/>
+      <c r="CO37" s="58"/>
       <c r="CP37" s="42"/>
       <c r="CQ37" s="42"/>
-      <c r="CR37" s="40"/>
-      <c r="CS37" s="40"/>
-      <c r="CT37" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="CU37" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="CV37" s="93"/>
-    </row>
-    <row r="38" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR37" s="42"/>
+      <c r="CS37" s="42"/>
+      <c r="CT37" s="40"/>
+      <c r="CU37" s="40"/>
+      <c r="CV37" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="CW37" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CX37" s="93"/>
+    </row>
+    <row r="38" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
       <c r="B38" s="30"/>
       <c r="C38" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
@@ -23872,25 +24226,27 @@
       <c r="CK38" s="58"/>
       <c r="CL38" s="38"/>
       <c r="CM38" s="58"/>
-      <c r="CN38" s="101"/>
-      <c r="CO38" s="101"/>
+      <c r="CN38" s="38"/>
+      <c r="CO38" s="58"/>
       <c r="CP38" s="101"/>
       <c r="CQ38" s="101"/>
-      <c r="CR38" s="40"/>
-      <c r="CS38" s="40"/>
-      <c r="CT38" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="CU38" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="CV38" s="93"/>
-    </row>
-    <row r="39" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR38" s="101"/>
+      <c r="CS38" s="101"/>
+      <c r="CT38" s="40"/>
+      <c r="CU38" s="40"/>
+      <c r="CV38" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="CW38" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="CX38" s="93"/>
+    </row>
+    <row r="39" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A39" s="93"/>
       <c r="B39" s="30"/>
       <c r="C39" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -23980,25 +24336,27 @@
       <c r="CK39" s="58"/>
       <c r="CL39" s="38"/>
       <c r="CM39" s="58"/>
-      <c r="CN39" s="42"/>
-      <c r="CO39" s="42"/>
+      <c r="CN39" s="38"/>
+      <c r="CO39" s="58"/>
       <c r="CP39" s="42"/>
       <c r="CQ39" s="42"/>
-      <c r="CR39" s="40"/>
-      <c r="CS39" s="40"/>
-      <c r="CT39" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="CU39" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="CV39" s="93"/>
-    </row>
-    <row r="40" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR39" s="42"/>
+      <c r="CS39" s="42"/>
+      <c r="CT39" s="40"/>
+      <c r="CU39" s="40"/>
+      <c r="CV39" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="CW39" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="CX39" s="93"/>
+    </row>
+    <row r="40" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A40" s="93"/>
       <c r="B40" s="30"/>
       <c r="C40" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -24088,25 +24446,27 @@
       <c r="CK40" s="58"/>
       <c r="CL40" s="38"/>
       <c r="CM40" s="58"/>
-      <c r="CN40" s="101"/>
-      <c r="CO40" s="101"/>
+      <c r="CN40" s="38"/>
+      <c r="CO40" s="58"/>
       <c r="CP40" s="101"/>
       <c r="CQ40" s="101"/>
-      <c r="CR40" s="40"/>
-      <c r="CS40" s="40"/>
-      <c r="CT40" s="90" t="s">
-        <v>238</v>
-      </c>
-      <c r="CU40" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="CV40" s="93"/>
-    </row>
-    <row r="41" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR40" s="101"/>
+      <c r="CS40" s="101"/>
+      <c r="CT40" s="40"/>
+      <c r="CU40" s="40"/>
+      <c r="CV40" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="CW40" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="CX40" s="93"/>
+    </row>
+    <row r="41" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
       <c r="B41" s="30"/>
       <c r="C41" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
@@ -24196,25 +24556,27 @@
       <c r="CK41" s="58"/>
       <c r="CL41" s="38"/>
       <c r="CM41" s="58"/>
-      <c r="CN41" s="101"/>
-      <c r="CO41" s="101"/>
+      <c r="CN41" s="38"/>
+      <c r="CO41" s="58"/>
       <c r="CP41" s="101"/>
       <c r="CQ41" s="101"/>
-      <c r="CR41" s="40"/>
-      <c r="CS41" s="40"/>
-      <c r="CT41" s="90" t="s">
-        <v>239</v>
-      </c>
-      <c r="CU41" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="CV41" s="93"/>
-    </row>
-    <row r="42" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR41" s="101"/>
+      <c r="CS41" s="101"/>
+      <c r="CT41" s="40"/>
+      <c r="CU41" s="40"/>
+      <c r="CV41" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="CW41" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="CX41" s="93"/>
+    </row>
+    <row r="42" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
       <c r="B42" s="30"/>
       <c r="C42" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -24308,25 +24670,27 @@
       <c r="CK42" s="58"/>
       <c r="CL42" s="38"/>
       <c r="CM42" s="58"/>
-      <c r="CN42" s="40"/>
-      <c r="CO42" s="40"/>
+      <c r="CN42" s="38"/>
+      <c r="CO42" s="58"/>
       <c r="CP42" s="40"/>
       <c r="CQ42" s="40"/>
       <c r="CR42" s="40"/>
       <c r="CS42" s="40"/>
-      <c r="CT42" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="CU42" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="CV42" s="93"/>
-    </row>
-    <row r="43" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT42" s="40"/>
+      <c r="CU42" s="40"/>
+      <c r="CV42" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="CW42" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="CX42" s="93"/>
+    </row>
+    <row r="43" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>
       <c r="B43" s="30"/>
       <c r="C43" s="25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -24416,25 +24780,27 @@
       <c r="CK43" s="58"/>
       <c r="CL43" s="38"/>
       <c r="CM43" s="58"/>
-      <c r="CN43" s="101"/>
-      <c r="CO43" s="101"/>
+      <c r="CN43" s="38"/>
+      <c r="CO43" s="58"/>
       <c r="CP43" s="101"/>
       <c r="CQ43" s="101"/>
-      <c r="CR43" s="40"/>
-      <c r="CS43" s="40"/>
-      <c r="CT43" s="90" t="s">
-        <v>241</v>
-      </c>
-      <c r="CU43" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="CV43" s="93"/>
-    </row>
-    <row r="44" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR43" s="101"/>
+      <c r="CS43" s="101"/>
+      <c r="CT43" s="40"/>
+      <c r="CU43" s="40"/>
+      <c r="CV43" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="CW43" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="CX43" s="93"/>
+    </row>
+    <row r="44" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
       <c r="B44" s="30"/>
       <c r="C44" s="25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -24524,25 +24890,27 @@
       <c r="CK44" s="58"/>
       <c r="CL44" s="38"/>
       <c r="CM44" s="58"/>
-      <c r="CN44" s="101"/>
-      <c r="CO44" s="101"/>
+      <c r="CN44" s="38"/>
+      <c r="CO44" s="58"/>
       <c r="CP44" s="101"/>
       <c r="CQ44" s="101"/>
-      <c r="CR44" s="40"/>
-      <c r="CS44" s="40"/>
-      <c r="CT44" s="90" t="s">
-        <v>242</v>
-      </c>
-      <c r="CU44" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="CV44" s="93"/>
-    </row>
-    <row r="45" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR44" s="101"/>
+      <c r="CS44" s="101"/>
+      <c r="CT44" s="40"/>
+      <c r="CU44" s="40"/>
+      <c r="CV44" s="90" t="s">
+        <v>243</v>
+      </c>
+      <c r="CW44" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="CX44" s="93"/>
+    </row>
+    <row r="45" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
       <c r="B45" s="30"/>
       <c r="C45" s="25" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
@@ -24632,25 +25000,27 @@
       <c r="CK45" s="58"/>
       <c r="CL45" s="38"/>
       <c r="CM45" s="58"/>
-      <c r="CN45" s="101"/>
-      <c r="CO45" s="101"/>
+      <c r="CN45" s="38"/>
+      <c r="CO45" s="58"/>
       <c r="CP45" s="101"/>
       <c r="CQ45" s="101"/>
-      <c r="CR45" s="40"/>
-      <c r="CS45" s="40"/>
-      <c r="CT45" s="90" t="s">
-        <v>243</v>
-      </c>
-      <c r="CU45" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="CV45" s="93"/>
-    </row>
-    <row r="46" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR45" s="101"/>
+      <c r="CS45" s="101"/>
+      <c r="CT45" s="40"/>
+      <c r="CU45" s="40"/>
+      <c r="CV45" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="CW45" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="CX45" s="93"/>
+    </row>
+    <row r="46" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A46" s="93"/>
       <c r="B46" s="30"/>
       <c r="C46" s="25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
@@ -24740,25 +25110,27 @@
       <c r="CK46" s="58"/>
       <c r="CL46" s="38"/>
       <c r="CM46" s="58"/>
-      <c r="CN46" s="101"/>
-      <c r="CO46" s="101"/>
+      <c r="CN46" s="38"/>
+      <c r="CO46" s="58"/>
       <c r="CP46" s="101"/>
       <c r="CQ46" s="101"/>
-      <c r="CR46" s="40"/>
-      <c r="CS46" s="40"/>
-      <c r="CT46" s="90" t="s">
-        <v>244</v>
-      </c>
-      <c r="CU46" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="CV46" s="93"/>
-    </row>
-    <row r="47" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR46" s="101"/>
+      <c r="CS46" s="101"/>
+      <c r="CT46" s="40"/>
+      <c r="CU46" s="40"/>
+      <c r="CV46" s="90" t="s">
+        <v>245</v>
+      </c>
+      <c r="CW46" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="CX46" s="93"/>
+    </row>
+    <row r="47" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A47" s="93"/>
       <c r="B47" s="30"/>
       <c r="C47" s="25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
@@ -24848,25 +25220,27 @@
       <c r="CK47" s="58"/>
       <c r="CL47" s="38"/>
       <c r="CM47" s="58"/>
-      <c r="CN47" s="101"/>
-      <c r="CO47" s="101"/>
+      <c r="CN47" s="38"/>
+      <c r="CO47" s="58"/>
       <c r="CP47" s="101"/>
       <c r="CQ47" s="101"/>
-      <c r="CR47" s="40"/>
-      <c r="CS47" s="40"/>
-      <c r="CT47" s="90" t="s">
-        <v>245</v>
-      </c>
-      <c r="CU47" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="CV47" s="93"/>
-    </row>
-    <row r="48" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR47" s="101"/>
+      <c r="CS47" s="101"/>
+      <c r="CT47" s="40"/>
+      <c r="CU47" s="40"/>
+      <c r="CV47" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="CW47" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CX47" s="93"/>
+    </row>
+    <row r="48" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A48" s="93"/>
       <c r="B48" s="30"/>
       <c r="C48" s="25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
@@ -24956,25 +25330,27 @@
       <c r="CK48" s="58"/>
       <c r="CL48" s="38"/>
       <c r="CM48" s="58"/>
-      <c r="CN48" s="42"/>
-      <c r="CO48" s="42"/>
+      <c r="CN48" s="38"/>
+      <c r="CO48" s="58"/>
       <c r="CP48" s="42"/>
       <c r="CQ48" s="42"/>
-      <c r="CR48" s="40"/>
-      <c r="CS48" s="40"/>
-      <c r="CT48" s="90" t="s">
-        <v>246</v>
-      </c>
-      <c r="CU48" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="CV48" s="93"/>
-    </row>
-    <row r="49" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR48" s="42"/>
+      <c r="CS48" s="42"/>
+      <c r="CT48" s="40"/>
+      <c r="CU48" s="40"/>
+      <c r="CV48" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="CW48" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="CX48" s="93"/>
+    </row>
+    <row r="49" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A49" s="93"/>
       <c r="B49" s="30"/>
       <c r="C49" s="25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D49" s="40"/>
       <c r="E49" s="40"/>
@@ -25066,25 +25442,27 @@
       <c r="CK49" s="58"/>
       <c r="CL49" s="38"/>
       <c r="CM49" s="58"/>
-      <c r="CN49" s="42"/>
-      <c r="CO49" s="42"/>
+      <c r="CN49" s="38"/>
+      <c r="CO49" s="58"/>
       <c r="CP49" s="42"/>
       <c r="CQ49" s="42"/>
-      <c r="CR49" s="40"/>
-      <c r="CS49" s="40"/>
-      <c r="CT49" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="CU49" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="CV49" s="93"/>
-    </row>
-    <row r="50" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR49" s="42"/>
+      <c r="CS49" s="42"/>
+      <c r="CT49" s="40"/>
+      <c r="CU49" s="40"/>
+      <c r="CV49" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="CW49" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CX49" s="93"/>
+    </row>
+    <row r="50" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A50" s="93"/>
       <c r="B50" s="30"/>
       <c r="C50" s="25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
@@ -25174,25 +25552,27 @@
       <c r="CK50" s="58"/>
       <c r="CL50" s="38"/>
       <c r="CM50" s="58"/>
-      <c r="CN50" s="42"/>
-      <c r="CO50" s="42"/>
+      <c r="CN50" s="38"/>
+      <c r="CO50" s="58"/>
       <c r="CP50" s="42"/>
       <c r="CQ50" s="42"/>
-      <c r="CR50" s="40"/>
-      <c r="CS50" s="40"/>
-      <c r="CT50" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="CU50" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="CV50" s="93"/>
-    </row>
-    <row r="51" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR50" s="42"/>
+      <c r="CS50" s="42"/>
+      <c r="CT50" s="40"/>
+      <c r="CU50" s="40"/>
+      <c r="CV50" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="CW50" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CX50" s="93"/>
+    </row>
+    <row r="51" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A51" s="93"/>
       <c r="B51" s="30"/>
       <c r="C51" s="25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
@@ -25282,25 +25662,27 @@
       <c r="CK51" s="58"/>
       <c r="CL51" s="38"/>
       <c r="CM51" s="58"/>
-      <c r="CN51" s="101"/>
-      <c r="CO51" s="101"/>
+      <c r="CN51" s="38"/>
+      <c r="CO51" s="58"/>
       <c r="CP51" s="101"/>
       <c r="CQ51" s="101"/>
-      <c r="CR51" s="40"/>
-      <c r="CS51" s="40"/>
-      <c r="CT51" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="CU51" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="CV51" s="93"/>
-    </row>
-    <row r="52" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR51" s="101"/>
+      <c r="CS51" s="101"/>
+      <c r="CT51" s="40"/>
+      <c r="CU51" s="40"/>
+      <c r="CV51" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="CW51" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="CX51" s="93"/>
+    </row>
+    <row r="52" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A52" s="93"/>
       <c r="B52" s="30"/>
       <c r="C52" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
@@ -25392,25 +25774,27 @@
       <c r="CK52" s="58"/>
       <c r="CL52" s="38"/>
       <c r="CM52" s="109"/>
-      <c r="CN52" s="40"/>
-      <c r="CO52" s="40"/>
+      <c r="CN52" s="38"/>
+      <c r="CO52" s="109"/>
       <c r="CP52" s="40"/>
       <c r="CQ52" s="40"/>
       <c r="CR52" s="40"/>
       <c r="CS52" s="40"/>
-      <c r="CT52" s="90" t="s">
-        <v>250</v>
-      </c>
-      <c r="CU52" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="CV52" s="93"/>
-    </row>
-    <row r="53" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CT52" s="40"/>
+      <c r="CU52" s="40"/>
+      <c r="CV52" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="CW52" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="CX52" s="93"/>
+    </row>
+    <row r="53" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="93"/>
       <c r="B53" s="31"/>
       <c r="C53" s="92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
@@ -25500,27 +25884,29 @@
       <c r="CK53" s="60"/>
       <c r="CL53" s="59"/>
       <c r="CM53" s="60"/>
-      <c r="CN53" s="67"/>
-      <c r="CO53" s="67"/>
+      <c r="CN53" s="59"/>
+      <c r="CO53" s="60"/>
       <c r="CP53" s="67"/>
       <c r="CQ53" s="67"/>
-      <c r="CR53" s="41"/>
-      <c r="CS53" s="41"/>
-      <c r="CT53" s="91" t="s">
-        <v>251</v>
-      </c>
-      <c r="CU53" s="92" t="s">
-        <v>336</v>
-      </c>
-      <c r="CV53" s="93"/>
-    </row>
-    <row r="54" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR53" s="67"/>
+      <c r="CS53" s="67"/>
+      <c r="CT53" s="41"/>
+      <c r="CU53" s="41"/>
+      <c r="CV53" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="CW53" s="92" t="s">
+        <v>338</v>
+      </c>
+      <c r="CX53" s="93"/>
+    </row>
+    <row r="54" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
       <c r="B54" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="34"/>
@@ -25612,25 +25998,27 @@
       <c r="CK54" s="51"/>
       <c r="CL54" s="32"/>
       <c r="CM54" s="51"/>
-      <c r="CN54" s="48"/>
-      <c r="CO54" s="48"/>
+      <c r="CN54" s="32"/>
+      <c r="CO54" s="51"/>
       <c r="CP54" s="48"/>
       <c r="CQ54" s="48"/>
-      <c r="CR54" s="34"/>
-      <c r="CS54" s="34"/>
-      <c r="CT54" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="CU54" s="84" t="s">
-        <v>337</v>
-      </c>
-      <c r="CV54" s="93"/>
-    </row>
-    <row r="55" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR54" s="48"/>
+      <c r="CS54" s="48"/>
+      <c r="CT54" s="34"/>
+      <c r="CU54" s="34"/>
+      <c r="CV54" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="CW54" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="CX54" s="93"/>
+    </row>
+    <row r="55" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A55" s="93"/>
       <c r="B55" s="16"/>
       <c r="C55" s="86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -25720,25 +26108,27 @@
       <c r="CK55" s="52"/>
       <c r="CL55" s="33"/>
       <c r="CM55" s="52"/>
-      <c r="CN55" s="101"/>
-      <c r="CO55" s="101"/>
+      <c r="CN55" s="33"/>
+      <c r="CO55" s="52"/>
       <c r="CP55" s="101"/>
       <c r="CQ55" s="101"/>
-      <c r="CR55" s="35"/>
-      <c r="CS55" s="35"/>
-      <c r="CT55" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="CU55" s="86" t="s">
-        <v>338</v>
-      </c>
-      <c r="CV55" s="93"/>
-    </row>
-    <row r="56" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR55" s="101"/>
+      <c r="CS55" s="101"/>
+      <c r="CT55" s="35"/>
+      <c r="CU55" s="35"/>
+      <c r="CV55" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="CW55" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="CX55" s="93"/>
+    </row>
+    <row r="56" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A56" s="93"/>
       <c r="B56" s="16"/>
       <c r="C56" s="86" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -25830,25 +26220,27 @@
       <c r="CK56" s="52"/>
       <c r="CL56" s="33"/>
       <c r="CM56" s="52"/>
-      <c r="CN56" s="42"/>
-      <c r="CO56" s="42"/>
+      <c r="CN56" s="33"/>
+      <c r="CO56" s="52"/>
       <c r="CP56" s="42"/>
       <c r="CQ56" s="42"/>
-      <c r="CR56" s="35"/>
-      <c r="CS56" s="35"/>
-      <c r="CT56" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="CU56" s="86" t="s">
-        <v>339</v>
-      </c>
-      <c r="CV56" s="93"/>
-    </row>
-    <row r="57" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR56" s="42"/>
+      <c r="CS56" s="42"/>
+      <c r="CT56" s="35"/>
+      <c r="CU56" s="35"/>
+      <c r="CV56" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="CW56" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="CX56" s="93"/>
+    </row>
+    <row r="57" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A57" s="93"/>
       <c r="B57" s="16"/>
       <c r="C57" s="86" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -25938,25 +26330,27 @@
       <c r="CK57" s="52"/>
       <c r="CL57" s="33"/>
       <c r="CM57" s="52"/>
-      <c r="CN57" s="35"/>
-      <c r="CO57" s="35"/>
+      <c r="CN57" s="33"/>
+      <c r="CO57" s="52"/>
       <c r="CP57" s="35"/>
       <c r="CQ57" s="35"/>
       <c r="CR57" s="35"/>
       <c r="CS57" s="35"/>
-      <c r="CT57" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="CU57" s="86" t="s">
-        <v>340</v>
-      </c>
-      <c r="CV57" s="93"/>
-    </row>
-    <row r="58" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT57" s="35"/>
+      <c r="CU57" s="35"/>
+      <c r="CV57" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="CW57" s="86" t="s">
+        <v>342</v>
+      </c>
+      <c r="CX57" s="93"/>
+    </row>
+    <row r="58" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
       <c r="B58" s="16"/>
       <c r="C58" s="86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -26046,25 +26440,27 @@
       <c r="CK58" s="52"/>
       <c r="CL58" s="33"/>
       <c r="CM58" s="52"/>
-      <c r="CN58" s="35"/>
-      <c r="CO58" s="35"/>
+      <c r="CN58" s="33"/>
+      <c r="CO58" s="52"/>
       <c r="CP58" s="35"/>
       <c r="CQ58" s="35"/>
       <c r="CR58" s="35"/>
       <c r="CS58" s="35"/>
-      <c r="CT58" s="85" t="s">
-        <v>257</v>
-      </c>
-      <c r="CU58" s="86" t="s">
-        <v>341</v>
-      </c>
-      <c r="CV58" s="93"/>
-    </row>
-    <row r="59" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT58" s="35"/>
+      <c r="CU58" s="35"/>
+      <c r="CV58" s="85" t="s">
+        <v>258</v>
+      </c>
+      <c r="CW58" s="86" t="s">
+        <v>343</v>
+      </c>
+      <c r="CX58" s="93"/>
+    </row>
+    <row r="59" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A59" s="93"/>
       <c r="B59" s="16"/>
       <c r="C59" s="86" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -26154,25 +26550,27 @@
       <c r="CK59" s="52"/>
       <c r="CL59" s="33"/>
       <c r="CM59" s="52"/>
-      <c r="CN59" s="35"/>
-      <c r="CO59" s="35"/>
+      <c r="CN59" s="33"/>
+      <c r="CO59" s="52"/>
       <c r="CP59" s="35"/>
       <c r="CQ59" s="35"/>
       <c r="CR59" s="35"/>
       <c r="CS59" s="35"/>
-      <c r="CT59" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="CU59" s="86" t="s">
-        <v>342</v>
-      </c>
-      <c r="CV59" s="93"/>
-    </row>
-    <row r="60" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT59" s="35"/>
+      <c r="CU59" s="35"/>
+      <c r="CV59" s="85" t="s">
+        <v>259</v>
+      </c>
+      <c r="CW59" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="CX59" s="93"/>
+    </row>
+    <row r="60" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A60" s="93"/>
       <c r="B60" s="16"/>
       <c r="C60" s="86" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -26264,25 +26662,27 @@
       <c r="CK60" s="52"/>
       <c r="CL60" s="33"/>
       <c r="CM60" s="52"/>
-      <c r="CN60" s="42"/>
-      <c r="CO60" s="42"/>
+      <c r="CN60" s="33"/>
+      <c r="CO60" s="52"/>
       <c r="CP60" s="42"/>
       <c r="CQ60" s="42"/>
-      <c r="CR60" s="35"/>
-      <c r="CS60" s="35"/>
-      <c r="CT60" s="85" t="s">
-        <v>259</v>
-      </c>
-      <c r="CU60" s="86" t="s">
-        <v>343</v>
-      </c>
-      <c r="CV60" s="93"/>
-    </row>
-    <row r="61" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR60" s="42"/>
+      <c r="CS60" s="42"/>
+      <c r="CT60" s="35"/>
+      <c r="CU60" s="35"/>
+      <c r="CV60" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="CW60" s="86" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX60" s="93"/>
+    </row>
+    <row r="61" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A61" s="93"/>
       <c r="B61" s="16"/>
       <c r="C61" s="86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -26372,25 +26772,27 @@
       <c r="CK61" s="52"/>
       <c r="CL61" s="33"/>
       <c r="CM61" s="52"/>
-      <c r="CN61" s="42"/>
-      <c r="CO61" s="42"/>
+      <c r="CN61" s="33"/>
+      <c r="CO61" s="52"/>
       <c r="CP61" s="42"/>
       <c r="CQ61" s="42"/>
-      <c r="CR61" s="35"/>
-      <c r="CS61" s="35"/>
-      <c r="CT61" s="85" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU61" s="86" t="s">
-        <v>344</v>
-      </c>
-      <c r="CV61" s="93"/>
-    </row>
-    <row r="62" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR61" s="42"/>
+      <c r="CS61" s="42"/>
+      <c r="CT61" s="35"/>
+      <c r="CU61" s="35"/>
+      <c r="CV61" s="85" t="s">
+        <v>261</v>
+      </c>
+      <c r="CW61" s="86" t="s">
+        <v>346</v>
+      </c>
+      <c r="CX61" s="93"/>
+    </row>
+    <row r="62" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A62" s="93"/>
       <c r="B62" s="16"/>
       <c r="C62" s="86" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -26480,25 +26882,27 @@
       <c r="CK62" s="52"/>
       <c r="CL62" s="33"/>
       <c r="CM62" s="52"/>
-      <c r="CN62" s="42"/>
-      <c r="CO62" s="42"/>
+      <c r="CN62" s="33"/>
+      <c r="CO62" s="52"/>
       <c r="CP62" s="42"/>
       <c r="CQ62" s="42"/>
-      <c r="CR62" s="35"/>
-      <c r="CS62" s="35"/>
-      <c r="CT62" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="CU62" s="86" t="s">
-        <v>345</v>
-      </c>
-      <c r="CV62" s="93"/>
-    </row>
-    <row r="63" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR62" s="42"/>
+      <c r="CS62" s="42"/>
+      <c r="CT62" s="35"/>
+      <c r="CU62" s="35"/>
+      <c r="CV62" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="CW62" s="86" t="s">
+        <v>347</v>
+      </c>
+      <c r="CX62" s="93"/>
+    </row>
+    <row r="63" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A63" s="93"/>
       <c r="B63" s="16"/>
       <c r="C63" s="86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -26590,25 +26994,27 @@
       <c r="CK63" s="52"/>
       <c r="CL63" s="33"/>
       <c r="CM63" s="52"/>
-      <c r="CN63" s="101"/>
-      <c r="CO63" s="101"/>
+      <c r="CN63" s="33"/>
+      <c r="CO63" s="52"/>
       <c r="CP63" s="101"/>
       <c r="CQ63" s="101"/>
-      <c r="CR63" s="35"/>
-      <c r="CS63" s="35"/>
-      <c r="CT63" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="CU63" s="86" t="s">
-        <v>346</v>
-      </c>
-      <c r="CV63" s="93"/>
-    </row>
-    <row r="64" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CR63" s="101"/>
+      <c r="CS63" s="101"/>
+      <c r="CT63" s="35"/>
+      <c r="CU63" s="35"/>
+      <c r="CV63" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="CW63" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="CX63" s="93"/>
+    </row>
+    <row r="64" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A64" s="93"/>
       <c r="B64" s="16"/>
       <c r="C64" s="86" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -26700,25 +27106,27 @@
       <c r="CK64" s="52"/>
       <c r="CL64" s="33"/>
       <c r="CM64" s="52"/>
-      <c r="CN64" s="35"/>
-      <c r="CO64" s="35"/>
+      <c r="CN64" s="33"/>
+      <c r="CO64" s="52"/>
       <c r="CP64" s="35"/>
       <c r="CQ64" s="35"/>
       <c r="CR64" s="35"/>
       <c r="CS64" s="35"/>
-      <c r="CT64" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="CU64" s="86" t="s">
-        <v>347</v>
-      </c>
-      <c r="CV64" s="93"/>
-    </row>
-    <row r="65" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CT64" s="35"/>
+      <c r="CU64" s="35"/>
+      <c r="CV64" s="85" t="s">
+        <v>264</v>
+      </c>
+      <c r="CW64" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="CX64" s="93"/>
+    </row>
+    <row r="65" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="93"/>
       <c r="B65" s="17"/>
       <c r="C65" s="88" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D65" s="36"/>
       <c r="E65" s="36"/>
@@ -26812,27 +27220,29 @@
       <c r="CK65" s="54"/>
       <c r="CL65" s="53"/>
       <c r="CM65" s="54"/>
-      <c r="CN65" s="36"/>
-      <c r="CO65" s="36"/>
+      <c r="CN65" s="53"/>
+      <c r="CO65" s="54"/>
       <c r="CP65" s="36"/>
       <c r="CQ65" s="36"/>
       <c r="CR65" s="36"/>
       <c r="CS65" s="36"/>
-      <c r="CT65" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="CU65" s="88" t="s">
-        <v>348</v>
-      </c>
-      <c r="CV65" s="93"/>
-    </row>
-    <row r="66" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT65" s="36"/>
+      <c r="CU65" s="36"/>
+      <c r="CV65" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="CW65" s="88" t="s">
+        <v>350</v>
+      </c>
+      <c r="CX65" s="93"/>
+    </row>
+    <row r="66" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A66" s="93"/>
       <c r="B66" s="29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C66" s="89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D66" s="39"/>
       <c r="E66" s="39"/>
@@ -26922,25 +27332,27 @@
       <c r="CK66" s="57"/>
       <c r="CL66" s="37"/>
       <c r="CM66" s="57"/>
-      <c r="CN66" s="39"/>
-      <c r="CO66" s="39"/>
+      <c r="CN66" s="37"/>
+      <c r="CO66" s="57"/>
       <c r="CP66" s="39"/>
       <c r="CQ66" s="39"/>
       <c r="CR66" s="39"/>
       <c r="CS66" s="39"/>
-      <c r="CT66" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="CU66" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="CV66" s="93"/>
-    </row>
-    <row r="67" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT66" s="39"/>
+      <c r="CU66" s="39"/>
+      <c r="CV66" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="CW66" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="CX66" s="93"/>
+    </row>
+    <row r="67" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A67" s="93"/>
       <c r="B67" s="30"/>
       <c r="C67" s="25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
@@ -26977,7 +27389,7 @@
       <c r="AJ67" s="58"/>
       <c r="AK67" s="40"/>
       <c r="AL67" s="40"/>
-      <c r="AM67" s="40"/>
+      <c r="AM67" s="42"/>
       <c r="AN67" s="38"/>
       <c r="AO67" s="58"/>
       <c r="AP67" s="38"/>
@@ -27030,25 +27442,27 @@
       <c r="CK67" s="58"/>
       <c r="CL67" s="38"/>
       <c r="CM67" s="58"/>
-      <c r="CN67" s="40"/>
-      <c r="CO67" s="40"/>
+      <c r="CN67" s="38"/>
+      <c r="CO67" s="58"/>
       <c r="CP67" s="40"/>
       <c r="CQ67" s="40"/>
       <c r="CR67" s="40"/>
       <c r="CS67" s="40"/>
-      <c r="CT67" s="90" t="s">
-        <v>267</v>
-      </c>
-      <c r="CU67" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="CV67" s="93"/>
-    </row>
-    <row r="68" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT67" s="40"/>
+      <c r="CU67" s="40"/>
+      <c r="CV67" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="CW67" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="CX67" s="93"/>
+    </row>
+    <row r="68" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A68" s="93"/>
       <c r="B68" s="30"/>
       <c r="C68" s="25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
@@ -27085,7 +27499,7 @@
       <c r="AJ68" s="58"/>
       <c r="AK68" s="40"/>
       <c r="AL68" s="40"/>
-      <c r="AM68" s="42"/>
+      <c r="AM68" s="40"/>
       <c r="AN68" s="38"/>
       <c r="AO68" s="58"/>
       <c r="AP68" s="38"/>
@@ -27138,25 +27552,27 @@
       <c r="CK68" s="58"/>
       <c r="CL68" s="38"/>
       <c r="CM68" s="58"/>
-      <c r="CN68" s="40"/>
-      <c r="CO68" s="40"/>
+      <c r="CN68" s="38"/>
+      <c r="CO68" s="58"/>
       <c r="CP68" s="40"/>
       <c r="CQ68" s="40"/>
       <c r="CR68" s="40"/>
       <c r="CS68" s="40"/>
-      <c r="CT68" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="CU68" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="CV68" s="93"/>
-    </row>
-    <row r="69" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT68" s="40"/>
+      <c r="CU68" s="40"/>
+      <c r="CV68" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="CW68" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="CX68" s="93"/>
+    </row>
+    <row r="69" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A69" s="93"/>
       <c r="B69" s="30"/>
       <c r="C69" s="25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
@@ -27193,7 +27609,7 @@
       <c r="AJ69" s="58"/>
       <c r="AK69" s="40"/>
       <c r="AL69" s="40"/>
-      <c r="AM69" s="40"/>
+      <c r="AM69" s="42"/>
       <c r="AN69" s="38"/>
       <c r="AO69" s="58"/>
       <c r="AP69" s="38"/>
@@ -27246,25 +27662,27 @@
       <c r="CK69" s="58"/>
       <c r="CL69" s="38"/>
       <c r="CM69" s="58"/>
-      <c r="CN69" s="40"/>
-      <c r="CO69" s="40"/>
+      <c r="CN69" s="38"/>
+      <c r="CO69" s="58"/>
       <c r="CP69" s="40"/>
       <c r="CQ69" s="40"/>
       <c r="CR69" s="40"/>
       <c r="CS69" s="40"/>
-      <c r="CT69" s="90" t="s">
-        <v>269</v>
-      </c>
-      <c r="CU69" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="CV69" s="93"/>
-    </row>
-    <row r="70" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT69" s="40"/>
+      <c r="CU69" s="40"/>
+      <c r="CV69" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="CW69" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="CX69" s="93"/>
+    </row>
+    <row r="70" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A70" s="93"/>
       <c r="B70" s="30"/>
       <c r="C70" s="25" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
@@ -27301,9 +27719,9 @@
       <c r="AJ70" s="58"/>
       <c r="AK70" s="40"/>
       <c r="AL70" s="40"/>
-      <c r="AM70" s="42"/>
+      <c r="AM70" s="40"/>
       <c r="AN70" s="38"/>
-      <c r="AO70" s="62"/>
+      <c r="AO70" s="58"/>
       <c r="AP70" s="38"/>
       <c r="AQ70" s="58"/>
       <c r="AR70" s="38"/>
@@ -27312,8 +27730,8 @@
       <c r="AU70" s="38"/>
       <c r="AV70" s="56"/>
       <c r="AW70" s="58"/>
-      <c r="AX70" s="42"/>
-      <c r="AY70" s="42"/>
+      <c r="AX70" s="40"/>
+      <c r="AY70" s="40"/>
       <c r="AZ70" s="40"/>
       <c r="BA70" s="38"/>
       <c r="BB70" s="58"/>
@@ -27350,34 +27768,36 @@
       <c r="CG70" s="58"/>
       <c r="CH70" s="38"/>
       <c r="CI70" s="58"/>
-      <c r="CJ70" s="61"/>
+      <c r="CJ70" s="38"/>
       <c r="CK70" s="58"/>
       <c r="CL70" s="38"/>
       <c r="CM70" s="58"/>
-      <c r="CN70" s="40"/>
-      <c r="CO70" s="40"/>
+      <c r="CN70" s="38"/>
+      <c r="CO70" s="58"/>
       <c r="CP70" s="40"/>
       <c r="CQ70" s="40"/>
       <c r="CR70" s="40"/>
       <c r="CS70" s="40"/>
-      <c r="CT70" s="90" t="s">
-        <v>270</v>
-      </c>
-      <c r="CU70" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="CV70" s="93"/>
-    </row>
-    <row r="71" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT70" s="40"/>
+      <c r="CU70" s="40"/>
+      <c r="CV70" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="CW70" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="CX70" s="93"/>
+    </row>
+    <row r="71" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A71" s="93"/>
       <c r="B71" s="30"/>
       <c r="C71" s="25" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="40"/>
-      <c r="G71" s="42"/>
+      <c r="G71" s="40"/>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
       <c r="J71" s="40"/>
@@ -27409,19 +27829,19 @@
       <c r="AJ71" s="58"/>
       <c r="AK71" s="40"/>
       <c r="AL71" s="40"/>
-      <c r="AM71" s="40"/>
+      <c r="AM71" s="42"/>
       <c r="AN71" s="38"/>
-      <c r="AO71" s="58"/>
+      <c r="AO71" s="62"/>
       <c r="AP71" s="38"/>
       <c r="AQ71" s="58"/>
-      <c r="AR71" s="61"/>
-      <c r="AS71" s="80"/>
+      <c r="AR71" s="38"/>
+      <c r="AS71" s="56"/>
       <c r="AT71" s="58"/>
-      <c r="AU71" s="61"/>
-      <c r="AV71" s="80"/>
+      <c r="AU71" s="38"/>
+      <c r="AV71" s="56"/>
       <c r="AW71" s="58"/>
-      <c r="AX71" s="40"/>
-      <c r="AY71" s="40"/>
+      <c r="AX71" s="42"/>
+      <c r="AY71" s="42"/>
       <c r="AZ71" s="40"/>
       <c r="BA71" s="38"/>
       <c r="BB71" s="58"/>
@@ -27458,29 +27878,31 @@
       <c r="CG71" s="58"/>
       <c r="CH71" s="38"/>
       <c r="CI71" s="58"/>
-      <c r="CJ71" s="38"/>
+      <c r="CJ71" s="61"/>
       <c r="CK71" s="58"/>
       <c r="CL71" s="38"/>
       <c r="CM71" s="58"/>
-      <c r="CN71" s="40"/>
-      <c r="CO71" s="40"/>
+      <c r="CN71" s="38"/>
+      <c r="CO71" s="58"/>
       <c r="CP71" s="40"/>
       <c r="CQ71" s="40"/>
       <c r="CR71" s="40"/>
       <c r="CS71" s="40"/>
-      <c r="CT71" s="90" t="s">
-        <v>271</v>
-      </c>
-      <c r="CU71" s="25" t="s">
-        <v>354</v>
-      </c>
-      <c r="CV71" s="93"/>
-    </row>
-    <row r="72" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT71" s="40"/>
+      <c r="CU71" s="40"/>
+      <c r="CV71" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="CW71" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="CX71" s="93"/>
+    </row>
+    <row r="72" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A72" s="93"/>
       <c r="B72" s="30"/>
       <c r="C72" s="25" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
@@ -27570,30 +27992,32 @@
       <c r="CK72" s="58"/>
       <c r="CL72" s="38"/>
       <c r="CM72" s="58"/>
-      <c r="CN72" s="40"/>
-      <c r="CO72" s="40"/>
+      <c r="CN72" s="38"/>
+      <c r="CO72" s="58"/>
       <c r="CP72" s="40"/>
       <c r="CQ72" s="40"/>
       <c r="CR72" s="40"/>
       <c r="CS72" s="40"/>
-      <c r="CT72" s="90" t="s">
-        <v>272</v>
-      </c>
-      <c r="CU72" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="CV72" s="93"/>
-    </row>
-    <row r="73" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT72" s="40"/>
+      <c r="CU72" s="40"/>
+      <c r="CV72" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="CW72" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="CX72" s="93"/>
+    </row>
+    <row r="73" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A73" s="93"/>
       <c r="B73" s="30"/>
       <c r="C73" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
       <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
+      <c r="G73" s="42"/>
       <c r="H73" s="40"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
@@ -27625,19 +28049,19 @@
       <c r="AJ73" s="58"/>
       <c r="AK73" s="40"/>
       <c r="AL73" s="40"/>
-      <c r="AM73" s="42"/>
-      <c r="AN73" s="61"/>
+      <c r="AM73" s="40"/>
+      <c r="AN73" s="38"/>
       <c r="AO73" s="58"/>
       <c r="AP73" s="38"/>
       <c r="AQ73" s="58"/>
-      <c r="AR73" s="38"/>
-      <c r="AS73" s="56"/>
+      <c r="AR73" s="61"/>
+      <c r="AS73" s="80"/>
       <c r="AT73" s="58"/>
-      <c r="AU73" s="38"/>
-      <c r="AV73" s="56"/>
+      <c r="AU73" s="61"/>
+      <c r="AV73" s="80"/>
       <c r="AW73" s="58"/>
-      <c r="AX73" s="42"/>
-      <c r="AY73" s="42"/>
+      <c r="AX73" s="40"/>
+      <c r="AY73" s="40"/>
       <c r="AZ73" s="40"/>
       <c r="BA73" s="38"/>
       <c r="BB73" s="58"/>
@@ -27669,34 +28093,36 @@
       <c r="CB73" s="40"/>
       <c r="CC73" s="40"/>
       <c r="CD73" s="40"/>
-      <c r="CE73" s="42"/>
+      <c r="CE73" s="40"/>
       <c r="CF73" s="38"/>
       <c r="CG73" s="58"/>
       <c r="CH73" s="38"/>
       <c r="CI73" s="58"/>
-      <c r="CJ73" s="61"/>
+      <c r="CJ73" s="38"/>
       <c r="CK73" s="58"/>
       <c r="CL73" s="38"/>
       <c r="CM73" s="58"/>
-      <c r="CN73" s="40"/>
-      <c r="CO73" s="40"/>
+      <c r="CN73" s="38"/>
+      <c r="CO73" s="58"/>
       <c r="CP73" s="40"/>
       <c r="CQ73" s="40"/>
       <c r="CR73" s="40"/>
       <c r="CS73" s="40"/>
-      <c r="CT73" s="90" t="s">
-        <v>273</v>
-      </c>
-      <c r="CU73" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="CV73" s="93"/>
-    </row>
-    <row r="74" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT73" s="40"/>
+      <c r="CU73" s="40"/>
+      <c r="CV73" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="CW73" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="CX73" s="93"/>
+    </row>
+    <row r="74" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A74" s="93"/>
       <c r="B74" s="30"/>
       <c r="C74" s="25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
@@ -27734,8 +28160,8 @@
       <c r="AK74" s="40"/>
       <c r="AL74" s="40"/>
       <c r="AM74" s="42"/>
-      <c r="AN74" s="38"/>
-      <c r="AO74" s="62"/>
+      <c r="AN74" s="61"/>
+      <c r="AO74" s="58"/>
       <c r="AP74" s="38"/>
       <c r="AQ74" s="58"/>
       <c r="AR74" s="38"/>
@@ -27777,7 +28203,7 @@
       <c r="CB74" s="40"/>
       <c r="CC74" s="40"/>
       <c r="CD74" s="40"/>
-      <c r="CE74" s="40"/>
+      <c r="CE74" s="42"/>
       <c r="CF74" s="38"/>
       <c r="CG74" s="58"/>
       <c r="CH74" s="38"/>
@@ -27786,25 +28212,27 @@
       <c r="CK74" s="58"/>
       <c r="CL74" s="38"/>
       <c r="CM74" s="58"/>
-      <c r="CN74" s="40"/>
-      <c r="CO74" s="40"/>
+      <c r="CN74" s="38"/>
+      <c r="CO74" s="58"/>
       <c r="CP74" s="40"/>
       <c r="CQ74" s="40"/>
       <c r="CR74" s="40"/>
       <c r="CS74" s="40"/>
-      <c r="CT74" s="90" t="s">
-        <v>274</v>
-      </c>
-      <c r="CU74" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="CV74" s="93"/>
-    </row>
-    <row r="75" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT74" s="40"/>
+      <c r="CU74" s="40"/>
+      <c r="CV74" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="CW74" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="CX74" s="93"/>
+    </row>
+    <row r="75" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A75" s="93"/>
       <c r="B75" s="30"/>
       <c r="C75" s="25" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
@@ -27841,9 +28269,9 @@
       <c r="AJ75" s="58"/>
       <c r="AK75" s="40"/>
       <c r="AL75" s="40"/>
-      <c r="AM75" s="101"/>
+      <c r="AM75" s="42"/>
       <c r="AN75" s="38"/>
-      <c r="AO75" s="109"/>
+      <c r="AO75" s="62"/>
       <c r="AP75" s="38"/>
       <c r="AQ75" s="58"/>
       <c r="AR75" s="38"/>
@@ -27852,8 +28280,8 @@
       <c r="AU75" s="38"/>
       <c r="AV75" s="56"/>
       <c r="AW75" s="58"/>
-      <c r="AX75" s="40"/>
-      <c r="AY75" s="40"/>
+      <c r="AX75" s="42"/>
+      <c r="AY75" s="42"/>
       <c r="AZ75" s="40"/>
       <c r="BA75" s="38"/>
       <c r="BB75" s="58"/>
@@ -27890,29 +28318,31 @@
       <c r="CG75" s="58"/>
       <c r="CH75" s="38"/>
       <c r="CI75" s="58"/>
-      <c r="CJ75" s="38"/>
+      <c r="CJ75" s="61"/>
       <c r="CK75" s="58"/>
       <c r="CL75" s="38"/>
       <c r="CM75" s="58"/>
-      <c r="CN75" s="40"/>
-      <c r="CO75" s="40"/>
+      <c r="CN75" s="38"/>
+      <c r="CO75" s="58"/>
       <c r="CP75" s="40"/>
       <c r="CQ75" s="40"/>
       <c r="CR75" s="40"/>
       <c r="CS75" s="40"/>
-      <c r="CT75" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="CU75" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="CV75" s="93"/>
-    </row>
-    <row r="76" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT75" s="40"/>
+      <c r="CU75" s="40"/>
+      <c r="CV75" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="CW75" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="CX75" s="93"/>
+    </row>
+    <row r="76" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A76" s="93"/>
       <c r="B76" s="30"/>
       <c r="C76" s="25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
@@ -27951,7 +28381,7 @@
       <c r="AL76" s="40"/>
       <c r="AM76" s="101"/>
       <c r="AN76" s="38"/>
-      <c r="AO76" s="58"/>
+      <c r="AO76" s="109"/>
       <c r="AP76" s="38"/>
       <c r="AQ76" s="58"/>
       <c r="AR76" s="38"/>
@@ -28002,25 +28432,27 @@
       <c r="CK76" s="58"/>
       <c r="CL76" s="38"/>
       <c r="CM76" s="58"/>
-      <c r="CN76" s="40"/>
-      <c r="CO76" s="40"/>
+      <c r="CN76" s="38"/>
+      <c r="CO76" s="58"/>
       <c r="CP76" s="40"/>
       <c r="CQ76" s="40"/>
       <c r="CR76" s="40"/>
       <c r="CS76" s="40"/>
-      <c r="CT76" s="90" t="s">
-        <v>276</v>
-      </c>
-      <c r="CU76" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="CV76" s="93"/>
-    </row>
-    <row r="77" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT76" s="40"/>
+      <c r="CU76" s="40"/>
+      <c r="CV76" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="CW76" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="CX76" s="93"/>
+    </row>
+    <row r="77" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A77" s="93"/>
       <c r="B77" s="30"/>
       <c r="C77" s="25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
@@ -28057,7 +28489,7 @@
       <c r="AJ77" s="58"/>
       <c r="AK77" s="40"/>
       <c r="AL77" s="40"/>
-      <c r="AM77" s="40"/>
+      <c r="AM77" s="101"/>
       <c r="AN77" s="38"/>
       <c r="AO77" s="58"/>
       <c r="AP77" s="38"/>
@@ -28110,25 +28542,27 @@
       <c r="CK77" s="58"/>
       <c r="CL77" s="38"/>
       <c r="CM77" s="58"/>
-      <c r="CN77" s="40"/>
-      <c r="CO77" s="40"/>
+      <c r="CN77" s="38"/>
+      <c r="CO77" s="58"/>
       <c r="CP77" s="40"/>
       <c r="CQ77" s="40"/>
       <c r="CR77" s="40"/>
       <c r="CS77" s="40"/>
-      <c r="CT77" s="90" t="s">
-        <v>277</v>
-      </c>
-      <c r="CU77" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="CV77" s="93"/>
-    </row>
-    <row r="78" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT77" s="40"/>
+      <c r="CU77" s="40"/>
+      <c r="CV77" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="CW77" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="CX77" s="93"/>
+    </row>
+    <row r="78" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A78" s="93"/>
       <c r="B78" s="30"/>
       <c r="C78" s="25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
@@ -28165,7 +28599,7 @@
       <c r="AJ78" s="58"/>
       <c r="AK78" s="40"/>
       <c r="AL78" s="40"/>
-      <c r="AM78" s="42"/>
+      <c r="AM78" s="40"/>
       <c r="AN78" s="38"/>
       <c r="AO78" s="58"/>
       <c r="AP78" s="38"/>
@@ -28177,7 +28611,7 @@
       <c r="AV78" s="56"/>
       <c r="AW78" s="58"/>
       <c r="AX78" s="40"/>
-      <c r="AY78" s="42"/>
+      <c r="AY78" s="40"/>
       <c r="AZ78" s="40"/>
       <c r="BA78" s="38"/>
       <c r="BB78" s="58"/>
@@ -28214,29 +28648,31 @@
       <c r="CG78" s="58"/>
       <c r="CH78" s="38"/>
       <c r="CI78" s="58"/>
-      <c r="CJ78" s="61"/>
+      <c r="CJ78" s="38"/>
       <c r="CK78" s="58"/>
       <c r="CL78" s="38"/>
       <c r="CM78" s="58"/>
-      <c r="CN78" s="40"/>
-      <c r="CO78" s="40"/>
+      <c r="CN78" s="38"/>
+      <c r="CO78" s="58"/>
       <c r="CP78" s="40"/>
       <c r="CQ78" s="40"/>
       <c r="CR78" s="40"/>
       <c r="CS78" s="40"/>
-      <c r="CT78" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="CU78" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="CV78" s="93"/>
-    </row>
-    <row r="79" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT78" s="40"/>
+      <c r="CU78" s="40"/>
+      <c r="CV78" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="CW78" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="CX78" s="93"/>
+    </row>
+    <row r="79" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A79" s="93"/>
       <c r="B79" s="30"/>
       <c r="C79" s="25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
@@ -28273,7 +28709,7 @@
       <c r="AJ79" s="58"/>
       <c r="AK79" s="40"/>
       <c r="AL79" s="40"/>
-      <c r="AM79" s="40"/>
+      <c r="AM79" s="42"/>
       <c r="AN79" s="38"/>
       <c r="AO79" s="58"/>
       <c r="AP79" s="38"/>
@@ -28285,7 +28721,7 @@
       <c r="AV79" s="56"/>
       <c r="AW79" s="58"/>
       <c r="AX79" s="40"/>
-      <c r="AY79" s="40"/>
+      <c r="AY79" s="42"/>
       <c r="AZ79" s="40"/>
       <c r="BA79" s="38"/>
       <c r="BB79" s="58"/>
@@ -28322,29 +28758,31 @@
       <c r="CG79" s="58"/>
       <c r="CH79" s="38"/>
       <c r="CI79" s="58"/>
-      <c r="CJ79" s="38"/>
+      <c r="CJ79" s="61"/>
       <c r="CK79" s="58"/>
       <c r="CL79" s="38"/>
       <c r="CM79" s="58"/>
-      <c r="CN79" s="40"/>
-      <c r="CO79" s="40"/>
+      <c r="CN79" s="38"/>
+      <c r="CO79" s="58"/>
       <c r="CP79" s="40"/>
       <c r="CQ79" s="40"/>
       <c r="CR79" s="40"/>
       <c r="CS79" s="40"/>
-      <c r="CT79" s="90" t="s">
-        <v>279</v>
-      </c>
-      <c r="CU79" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="CV79" s="93"/>
-    </row>
-    <row r="80" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT79" s="40"/>
+      <c r="CU79" s="40"/>
+      <c r="CV79" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="CW79" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="CX79" s="93"/>
+    </row>
+    <row r="80" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A80" s="93"/>
       <c r="B80" s="30"/>
       <c r="C80" s="25" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
@@ -28384,7 +28822,7 @@
       <c r="AM80" s="40"/>
       <c r="AN80" s="38"/>
       <c r="AO80" s="58"/>
-      <c r="AP80" s="61"/>
+      <c r="AP80" s="38"/>
       <c r="AQ80" s="58"/>
       <c r="AR80" s="38"/>
       <c r="AS80" s="56"/>
@@ -28392,9 +28830,9 @@
       <c r="AU80" s="38"/>
       <c r="AV80" s="56"/>
       <c r="AW80" s="58"/>
-      <c r="AX80" s="42"/>
-      <c r="AY80" s="42"/>
-      <c r="AZ80" s="42"/>
+      <c r="AX80" s="40"/>
+      <c r="AY80" s="40"/>
+      <c r="AZ80" s="40"/>
       <c r="BA80" s="38"/>
       <c r="BB80" s="58"/>
       <c r="BC80" s="40"/>
@@ -28426,33 +28864,35 @@
       <c r="CC80" s="40"/>
       <c r="CD80" s="40"/>
       <c r="CE80" s="40"/>
-      <c r="CF80" s="61"/>
+      <c r="CF80" s="38"/>
       <c r="CG80" s="58"/>
-      <c r="CH80" s="61"/>
+      <c r="CH80" s="38"/>
       <c r="CI80" s="58"/>
-      <c r="CJ80" s="61"/>
+      <c r="CJ80" s="38"/>
       <c r="CK80" s="58"/>
       <c r="CL80" s="38"/>
       <c r="CM80" s="58"/>
-      <c r="CN80" s="40"/>
-      <c r="CO80" s="40"/>
+      <c r="CN80" s="38"/>
+      <c r="CO80" s="58"/>
       <c r="CP80" s="40"/>
       <c r="CQ80" s="40"/>
       <c r="CR80" s="40"/>
       <c r="CS80" s="40"/>
-      <c r="CT80" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="CU80" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="CV80" s="93"/>
-    </row>
-    <row r="81" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT80" s="40"/>
+      <c r="CU80" s="40"/>
+      <c r="CV80" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="CW80" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="CX80" s="93"/>
+    </row>
+    <row r="81" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A81" s="93"/>
       <c r="B81" s="30"/>
       <c r="C81" s="25" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
@@ -28500,8 +28940,8 @@
       <c r="AU81" s="38"/>
       <c r="AV81" s="56"/>
       <c r="AW81" s="58"/>
-      <c r="AX81" s="40"/>
-      <c r="AY81" s="40"/>
+      <c r="AX81" s="42"/>
+      <c r="AY81" s="42"/>
       <c r="AZ81" s="42"/>
       <c r="BA81" s="38"/>
       <c r="BB81" s="58"/>
@@ -28532,35 +28972,37 @@
       <c r="CA81" s="40"/>
       <c r="CB81" s="40"/>
       <c r="CC81" s="40"/>
-      <c r="CD81" s="42"/>
+      <c r="CD81" s="40"/>
       <c r="CE81" s="40"/>
       <c r="CF81" s="61"/>
       <c r="CG81" s="58"/>
       <c r="CH81" s="61"/>
       <c r="CI81" s="58"/>
-      <c r="CJ81" s="38"/>
+      <c r="CJ81" s="61"/>
       <c r="CK81" s="58"/>
       <c r="CL81" s="38"/>
       <c r="CM81" s="58"/>
-      <c r="CN81" s="40"/>
-      <c r="CO81" s="40"/>
+      <c r="CN81" s="38"/>
+      <c r="CO81" s="58"/>
       <c r="CP81" s="40"/>
       <c r="CQ81" s="40"/>
       <c r="CR81" s="40"/>
       <c r="CS81" s="40"/>
-      <c r="CT81" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="CU81" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="CV81" s="93"/>
-    </row>
-    <row r="82" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CT81" s="40"/>
+      <c r="CU81" s="40"/>
+      <c r="CV81" s="90" t="s">
+        <v>282</v>
+      </c>
+      <c r="CW81" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="CX81" s="93"/>
+    </row>
+    <row r="82" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A82" s="93"/>
       <c r="B82" s="30"/>
       <c r="C82" s="25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D82" s="40"/>
       <c r="E82" s="40"/>
@@ -28640,7 +29082,7 @@
       <c r="CA82" s="40"/>
       <c r="CB82" s="40"/>
       <c r="CC82" s="40"/>
-      <c r="CD82" s="40"/>
+      <c r="CD82" s="42"/>
       <c r="CE82" s="40"/>
       <c r="CF82" s="61"/>
       <c r="CG82" s="58"/>
@@ -28650,476 +29092,484 @@
       <c r="CK82" s="58"/>
       <c r="CL82" s="38"/>
       <c r="CM82" s="58"/>
-      <c r="CN82" s="40"/>
-      <c r="CO82" s="40"/>
+      <c r="CN82" s="38"/>
+      <c r="CO82" s="58"/>
       <c r="CP82" s="40"/>
       <c r="CQ82" s="40"/>
       <c r="CR82" s="40"/>
       <c r="CS82" s="40"/>
-      <c r="CT82" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="CU82" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="CV82" s="93"/>
-    </row>
-    <row r="83" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CT82" s="40"/>
+      <c r="CU82" s="40"/>
+      <c r="CV82" s="90" t="s">
+        <v>283</v>
+      </c>
+      <c r="CW82" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="CX82" s="93"/>
+    </row>
+    <row r="83" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A83" s="93"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="60"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="60"/>
-      <c r="T83" s="59"/>
-      <c r="U83" s="60"/>
-      <c r="V83" s="41"/>
-      <c r="W83" s="41"/>
-      <c r="X83" s="41"/>
-      <c r="Y83" s="59"/>
-      <c r="Z83" s="60"/>
-      <c r="AA83" s="59"/>
-      <c r="AB83" s="60"/>
-      <c r="AC83" s="59"/>
-      <c r="AD83" s="60"/>
-      <c r="AE83" s="41"/>
-      <c r="AF83" s="41"/>
-      <c r="AG83" s="59"/>
-      <c r="AH83" s="60"/>
-      <c r="AI83" s="59"/>
-      <c r="AJ83" s="60"/>
-      <c r="AK83" s="41"/>
-      <c r="AL83" s="41"/>
-      <c r="AM83" s="105"/>
-      <c r="AN83" s="59"/>
-      <c r="AO83" s="110"/>
-      <c r="AP83" s="59"/>
-      <c r="AQ83" s="60"/>
-      <c r="AR83" s="59"/>
-      <c r="AS83" s="76"/>
-      <c r="AT83" s="60"/>
-      <c r="AU83" s="59"/>
-      <c r="AV83" s="76"/>
-      <c r="AW83" s="60"/>
-      <c r="AX83" s="41"/>
-      <c r="AY83" s="41"/>
-      <c r="AZ83" s="41"/>
-      <c r="BA83" s="59"/>
-      <c r="BB83" s="60"/>
-      <c r="BC83" s="41"/>
-      <c r="BD83" s="41"/>
-      <c r="BE83" s="59"/>
-      <c r="BF83" s="60"/>
-      <c r="BG83" s="59"/>
-      <c r="BH83" s="76"/>
-      <c r="BI83" s="60"/>
-      <c r="BJ83" s="59"/>
-      <c r="BK83" s="76"/>
-      <c r="BL83" s="60"/>
-      <c r="BM83" s="59"/>
-      <c r="BN83" s="60"/>
-      <c r="BO83" s="41"/>
-      <c r="BP83" s="59"/>
-      <c r="BQ83" s="76"/>
-      <c r="BR83" s="60"/>
-      <c r="BS83" s="59"/>
-      <c r="BT83" s="76"/>
-      <c r="BU83" s="76"/>
-      <c r="BV83" s="60"/>
-      <c r="BW83" s="59"/>
-      <c r="BX83" s="76"/>
-      <c r="BY83" s="76"/>
-      <c r="BZ83" s="60"/>
-      <c r="CA83" s="41"/>
-      <c r="CB83" s="41"/>
-      <c r="CC83" s="41"/>
-      <c r="CD83" s="41"/>
-      <c r="CE83" s="41"/>
-      <c r="CF83" s="59"/>
-      <c r="CG83" s="60"/>
-      <c r="CH83" s="59"/>
-      <c r="CI83" s="60"/>
-      <c r="CJ83" s="59"/>
-      <c r="CK83" s="60"/>
-      <c r="CL83" s="59"/>
-      <c r="CM83" s="60"/>
-      <c r="CN83" s="41"/>
-      <c r="CO83" s="41"/>
-      <c r="CP83" s="41"/>
-      <c r="CQ83" s="41"/>
-      <c r="CR83" s="41"/>
-      <c r="CS83" s="41"/>
-      <c r="CT83" s="91" t="s">
-        <v>283</v>
-      </c>
-      <c r="CU83" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="CV83" s="93"/>
-    </row>
-    <row r="84" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="B83" s="30"/>
+      <c r="C83" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="58"/>
+      <c r="P83" s="38"/>
+      <c r="Q83" s="58"/>
+      <c r="R83" s="38"/>
+      <c r="S83" s="58"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="58"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="40"/>
+      <c r="X83" s="40"/>
+      <c r="Y83" s="38"/>
+      <c r="Z83" s="58"/>
+      <c r="AA83" s="38"/>
+      <c r="AB83" s="58"/>
+      <c r="AC83" s="38"/>
+      <c r="AD83" s="58"/>
+      <c r="AE83" s="40"/>
+      <c r="AF83" s="40"/>
+      <c r="AG83" s="38"/>
+      <c r="AH83" s="58"/>
+      <c r="AI83" s="38"/>
+      <c r="AJ83" s="58"/>
+      <c r="AK83" s="40"/>
+      <c r="AL83" s="40"/>
+      <c r="AM83" s="40"/>
+      <c r="AN83" s="38"/>
+      <c r="AO83" s="58"/>
+      <c r="AP83" s="61"/>
+      <c r="AQ83" s="58"/>
+      <c r="AR83" s="38"/>
+      <c r="AS83" s="56"/>
+      <c r="AT83" s="58"/>
+      <c r="AU83" s="38"/>
+      <c r="AV83" s="56"/>
+      <c r="AW83" s="58"/>
+      <c r="AX83" s="40"/>
+      <c r="AY83" s="40"/>
+      <c r="AZ83" s="42"/>
+      <c r="BA83" s="38"/>
+      <c r="BB83" s="58"/>
+      <c r="BC83" s="40"/>
+      <c r="BD83" s="40"/>
+      <c r="BE83" s="38"/>
+      <c r="BF83" s="58"/>
+      <c r="BG83" s="38"/>
+      <c r="BH83" s="56"/>
+      <c r="BI83" s="58"/>
+      <c r="BJ83" s="38"/>
+      <c r="BK83" s="56"/>
+      <c r="BL83" s="58"/>
+      <c r="BM83" s="38"/>
+      <c r="BN83" s="58"/>
+      <c r="BO83" s="40"/>
+      <c r="BP83" s="38"/>
+      <c r="BQ83" s="56"/>
+      <c r="BR83" s="58"/>
+      <c r="BS83" s="38"/>
+      <c r="BT83" s="56"/>
+      <c r="BU83" s="56"/>
+      <c r="BV83" s="58"/>
+      <c r="BW83" s="38"/>
+      <c r="BX83" s="56"/>
+      <c r="BY83" s="56"/>
+      <c r="BZ83" s="58"/>
+      <c r="CA83" s="40"/>
+      <c r="CB83" s="40"/>
+      <c r="CC83" s="40"/>
+      <c r="CD83" s="40"/>
+      <c r="CE83" s="40"/>
+      <c r="CF83" s="61"/>
+      <c r="CG83" s="58"/>
+      <c r="CH83" s="61"/>
+      <c r="CI83" s="58"/>
+      <c r="CJ83" s="38"/>
+      <c r="CK83" s="58"/>
+      <c r="CL83" s="38"/>
+      <c r="CM83" s="58"/>
+      <c r="CN83" s="38"/>
+      <c r="CO83" s="58"/>
+      <c r="CP83" s="40"/>
+      <c r="CQ83" s="40"/>
+      <c r="CR83" s="40"/>
+      <c r="CS83" s="40"/>
+      <c r="CT83" s="40"/>
+      <c r="CU83" s="40"/>
+      <c r="CV83" s="90" t="s">
+        <v>284</v>
+      </c>
+      <c r="CW83" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="CX83" s="93"/>
+    </row>
+    <row r="84" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="93"/>
-      <c r="B84" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C84" s="84" t="s">
+      <c r="B84" s="31"/>
+      <c r="C84" s="92" t="s">
         <v>285</v>
       </c>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="32"/>
-      <c r="O84" s="51"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="51"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="51"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="51"/>
-      <c r="V84" s="34"/>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="51"/>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="51"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="51"/>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="34"/>
-      <c r="AG84" s="32"/>
-      <c r="AH84" s="51"/>
-      <c r="AI84" s="32"/>
-      <c r="AJ84" s="51"/>
-      <c r="AK84" s="34"/>
-      <c r="AL84" s="34"/>
-      <c r="AM84" s="34"/>
-      <c r="AN84" s="32"/>
-      <c r="AO84" s="51"/>
-      <c r="AP84" s="32"/>
-      <c r="AQ84" s="51"/>
-      <c r="AR84" s="32"/>
-      <c r="AS84" s="49"/>
-      <c r="AT84" s="51"/>
-      <c r="AU84" s="32"/>
-      <c r="AV84" s="49"/>
-      <c r="AW84" s="51"/>
-      <c r="AX84" s="34"/>
-      <c r="AY84" s="34"/>
-      <c r="AZ84" s="34"/>
-      <c r="BA84" s="32"/>
-      <c r="BB84" s="51"/>
-      <c r="BC84" s="34"/>
-      <c r="BD84" s="34"/>
-      <c r="BE84" s="32"/>
-      <c r="BF84" s="51"/>
-      <c r="BG84" s="32"/>
-      <c r="BH84" s="49"/>
-      <c r="BI84" s="51"/>
-      <c r="BJ84" s="32"/>
-      <c r="BK84" s="49"/>
-      <c r="BL84" s="51"/>
-      <c r="BM84" s="32"/>
-      <c r="BN84" s="51"/>
-      <c r="BO84" s="34"/>
-      <c r="BP84" s="32"/>
-      <c r="BQ84" s="49"/>
-      <c r="BR84" s="51"/>
-      <c r="BS84" s="32"/>
-      <c r="BT84" s="49"/>
-      <c r="BU84" s="49"/>
-      <c r="BV84" s="51"/>
-      <c r="BW84" s="32"/>
-      <c r="BX84" s="49"/>
-      <c r="BY84" s="49"/>
-      <c r="BZ84" s="82"/>
-      <c r="CA84" s="34"/>
-      <c r="CB84" s="34"/>
-      <c r="CC84" s="34"/>
-      <c r="CD84" s="34"/>
-      <c r="CE84" s="34"/>
-      <c r="CF84" s="32"/>
-      <c r="CG84" s="51"/>
-      <c r="CH84" s="32"/>
-      <c r="CI84" s="51"/>
-      <c r="CJ84" s="32"/>
-      <c r="CK84" s="51"/>
-      <c r="CL84" s="32"/>
-      <c r="CM84" s="51"/>
-      <c r="CN84" s="34"/>
-      <c r="CO84" s="34"/>
-      <c r="CP84" s="34"/>
-      <c r="CQ84" s="34"/>
-      <c r="CR84" s="34"/>
-      <c r="CS84" s="34"/>
-      <c r="CT84" s="5" t="s">
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="60"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="60"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="41"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="59"/>
+      <c r="Z84" s="60"/>
+      <c r="AA84" s="59"/>
+      <c r="AB84" s="60"/>
+      <c r="AC84" s="59"/>
+      <c r="AD84" s="60"/>
+      <c r="AE84" s="41"/>
+      <c r="AF84" s="41"/>
+      <c r="AG84" s="59"/>
+      <c r="AH84" s="60"/>
+      <c r="AI84" s="59"/>
+      <c r="AJ84" s="60"/>
+      <c r="AK84" s="41"/>
+      <c r="AL84" s="41"/>
+      <c r="AM84" s="105"/>
+      <c r="AN84" s="59"/>
+      <c r="AO84" s="110"/>
+      <c r="AP84" s="59"/>
+      <c r="AQ84" s="60"/>
+      <c r="AR84" s="59"/>
+      <c r="AS84" s="76"/>
+      <c r="AT84" s="60"/>
+      <c r="AU84" s="59"/>
+      <c r="AV84" s="76"/>
+      <c r="AW84" s="60"/>
+      <c r="AX84" s="41"/>
+      <c r="AY84" s="41"/>
+      <c r="AZ84" s="41"/>
+      <c r="BA84" s="59"/>
+      <c r="BB84" s="60"/>
+      <c r="BC84" s="41"/>
+      <c r="BD84" s="41"/>
+      <c r="BE84" s="59"/>
+      <c r="BF84" s="60"/>
+      <c r="BG84" s="59"/>
+      <c r="BH84" s="76"/>
+      <c r="BI84" s="60"/>
+      <c r="BJ84" s="59"/>
+      <c r="BK84" s="76"/>
+      <c r="BL84" s="60"/>
+      <c r="BM84" s="59"/>
+      <c r="BN84" s="60"/>
+      <c r="BO84" s="41"/>
+      <c r="BP84" s="59"/>
+      <c r="BQ84" s="76"/>
+      <c r="BR84" s="60"/>
+      <c r="BS84" s="59"/>
+      <c r="BT84" s="76"/>
+      <c r="BU84" s="76"/>
+      <c r="BV84" s="60"/>
+      <c r="BW84" s="59"/>
+      <c r="BX84" s="76"/>
+      <c r="BY84" s="76"/>
+      <c r="BZ84" s="60"/>
+      <c r="CA84" s="41"/>
+      <c r="CB84" s="41"/>
+      <c r="CC84" s="41"/>
+      <c r="CD84" s="41"/>
+      <c r="CE84" s="41"/>
+      <c r="CF84" s="59"/>
+      <c r="CG84" s="60"/>
+      <c r="CH84" s="59"/>
+      <c r="CI84" s="60"/>
+      <c r="CJ84" s="59"/>
+      <c r="CK84" s="60"/>
+      <c r="CL84" s="59"/>
+      <c r="CM84" s="60"/>
+      <c r="CN84" s="59"/>
+      <c r="CO84" s="60"/>
+      <c r="CP84" s="41"/>
+      <c r="CQ84" s="41"/>
+      <c r="CR84" s="41"/>
+      <c r="CS84" s="41"/>
+      <c r="CT84" s="41"/>
+      <c r="CU84" s="41"/>
+      <c r="CV84" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="CU84" s="84" t="s">
-        <v>367</v>
-      </c>
-      <c r="CV84" s="93"/>
-    </row>
-    <row r="85" spans="1:100" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="CW84" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="CX84" s="93"/>
+    </row>
+    <row r="85" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A85" s="93"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="88" t="s">
+      <c r="B85" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D85" s="36"/>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="36"/>
-      <c r="J85" s="36"/>
-      <c r="K85" s="36"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="36"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="54"/>
-      <c r="P85" s="53"/>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="53"/>
-      <c r="S85" s="54"/>
-      <c r="T85" s="53"/>
-      <c r="U85" s="54"/>
-      <c r="V85" s="36"/>
-      <c r="W85" s="36"/>
-      <c r="X85" s="36"/>
-      <c r="Y85" s="53"/>
-      <c r="Z85" s="54"/>
-      <c r="AA85" s="53"/>
-      <c r="AB85" s="54"/>
-      <c r="AC85" s="53"/>
-      <c r="AD85" s="54"/>
-      <c r="AE85" s="36"/>
-      <c r="AF85" s="36"/>
-      <c r="AG85" s="53"/>
-      <c r="AH85" s="54"/>
-      <c r="AI85" s="53"/>
-      <c r="AJ85" s="54"/>
-      <c r="AK85" s="36"/>
-      <c r="AL85" s="36"/>
-      <c r="AM85" s="36"/>
-      <c r="AN85" s="53"/>
-      <c r="AO85" s="54"/>
-      <c r="AP85" s="53"/>
-      <c r="AQ85" s="54"/>
-      <c r="AR85" s="53"/>
-      <c r="AS85" s="75"/>
-      <c r="AT85" s="54"/>
-      <c r="AU85" s="53"/>
-      <c r="AV85" s="75"/>
-      <c r="AW85" s="54"/>
-      <c r="AX85" s="36"/>
-      <c r="AY85" s="36"/>
-      <c r="AZ85" s="36"/>
-      <c r="BA85" s="53"/>
-      <c r="BB85" s="54"/>
-      <c r="BC85" s="36"/>
-      <c r="BD85" s="36"/>
-      <c r="BE85" s="53"/>
-      <c r="BF85" s="54"/>
-      <c r="BG85" s="53"/>
-      <c r="BH85" s="75"/>
-      <c r="BI85" s="54"/>
-      <c r="BJ85" s="53"/>
-      <c r="BK85" s="75"/>
-      <c r="BL85" s="54"/>
-      <c r="BM85" s="53"/>
-      <c r="BN85" s="54"/>
-      <c r="BO85" s="36"/>
-      <c r="BP85" s="53"/>
-      <c r="BQ85" s="75"/>
-      <c r="BR85" s="54"/>
-      <c r="BS85" s="53"/>
-      <c r="BT85" s="75"/>
-      <c r="BU85" s="75"/>
-      <c r="BV85" s="54"/>
-      <c r="BW85" s="53"/>
-      <c r="BX85" s="75"/>
-      <c r="BY85" s="75"/>
-      <c r="BZ85" s="68"/>
-      <c r="CA85" s="36"/>
-      <c r="CB85" s="36"/>
-      <c r="CC85" s="36"/>
-      <c r="CD85" s="36"/>
-      <c r="CE85" s="36"/>
-      <c r="CF85" s="53"/>
-      <c r="CG85" s="54"/>
-      <c r="CH85" s="53"/>
-      <c r="CI85" s="54"/>
-      <c r="CJ85" s="53"/>
-      <c r="CK85" s="54"/>
-      <c r="CL85" s="53"/>
-      <c r="CM85" s="54"/>
-      <c r="CN85" s="36"/>
-      <c r="CO85" s="36"/>
-      <c r="CP85" s="36"/>
-      <c r="CQ85" s="36"/>
-      <c r="CR85" s="36"/>
-      <c r="CS85" s="36"/>
-      <c r="CT85" s="87" t="s">
-        <v>286</v>
-      </c>
-      <c r="CU85" s="88" t="s">
-        <v>368</v>
-      </c>
-      <c r="CV85" s="93"/>
-    </row>
-    <row r="86" spans="1:100" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="32"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="32"/>
+      <c r="S85" s="51"/>
+      <c r="T85" s="32"/>
+      <c r="U85" s="51"/>
+      <c r="V85" s="34"/>
+      <c r="W85" s="34"/>
+      <c r="X85" s="34"/>
+      <c r="Y85" s="32"/>
+      <c r="Z85" s="51"/>
+      <c r="AA85" s="32"/>
+      <c r="AB85" s="51"/>
+      <c r="AC85" s="32"/>
+      <c r="AD85" s="51"/>
+      <c r="AE85" s="34"/>
+      <c r="AF85" s="34"/>
+      <c r="AG85" s="32"/>
+      <c r="AH85" s="51"/>
+      <c r="AI85" s="32"/>
+      <c r="AJ85" s="51"/>
+      <c r="AK85" s="34"/>
+      <c r="AL85" s="34"/>
+      <c r="AM85" s="34"/>
+      <c r="AN85" s="32"/>
+      <c r="AO85" s="51"/>
+      <c r="AP85" s="32"/>
+      <c r="AQ85" s="51"/>
+      <c r="AR85" s="32"/>
+      <c r="AS85" s="49"/>
+      <c r="AT85" s="51"/>
+      <c r="AU85" s="32"/>
+      <c r="AV85" s="49"/>
+      <c r="AW85" s="51"/>
+      <c r="AX85" s="34"/>
+      <c r="AY85" s="34"/>
+      <c r="AZ85" s="34"/>
+      <c r="BA85" s="32"/>
+      <c r="BB85" s="51"/>
+      <c r="BC85" s="34"/>
+      <c r="BD85" s="34"/>
+      <c r="BE85" s="32"/>
+      <c r="BF85" s="51"/>
+      <c r="BG85" s="32"/>
+      <c r="BH85" s="49"/>
+      <c r="BI85" s="51"/>
+      <c r="BJ85" s="32"/>
+      <c r="BK85" s="49"/>
+      <c r="BL85" s="51"/>
+      <c r="BM85" s="32"/>
+      <c r="BN85" s="51"/>
+      <c r="BO85" s="34"/>
+      <c r="BP85" s="32"/>
+      <c r="BQ85" s="49"/>
+      <c r="BR85" s="51"/>
+      <c r="BS85" s="32"/>
+      <c r="BT85" s="49"/>
+      <c r="BU85" s="49"/>
+      <c r="BV85" s="51"/>
+      <c r="BW85" s="32"/>
+      <c r="BX85" s="49"/>
+      <c r="BY85" s="49"/>
+      <c r="BZ85" s="82"/>
+      <c r="CA85" s="34"/>
+      <c r="CB85" s="34"/>
+      <c r="CC85" s="34"/>
+      <c r="CD85" s="34"/>
+      <c r="CE85" s="34"/>
+      <c r="CF85" s="32"/>
+      <c r="CG85" s="51"/>
+      <c r="CH85" s="32"/>
+      <c r="CI85" s="51"/>
+      <c r="CJ85" s="32"/>
+      <c r="CK85" s="51"/>
+      <c r="CL85" s="32"/>
+      <c r="CM85" s="51"/>
+      <c r="CN85" s="32"/>
+      <c r="CO85" s="51"/>
+      <c r="CP85" s="34"/>
+      <c r="CQ85" s="34"/>
+      <c r="CR85" s="34"/>
+      <c r="CS85" s="34"/>
+      <c r="CT85" s="34"/>
+      <c r="CU85" s="34"/>
+      <c r="CV85" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="CW85" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="CX85" s="93"/>
+    </row>
+    <row r="86" spans="1:102" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="93"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="93"/>
-      <c r="L86" s="93"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-      <c r="O86" s="93"/>
-      <c r="P86" s="93"/>
-      <c r="Q86" s="93"/>
-      <c r="R86" s="93"/>
-      <c r="S86" s="93"/>
-      <c r="T86" s="93"/>
-      <c r="U86" s="93"/>
-      <c r="V86" s="93"/>
-      <c r="W86" s="93"/>
-      <c r="X86" s="93"/>
-      <c r="Y86" s="93"/>
-      <c r="Z86" s="93"/>
-      <c r="AA86" s="93"/>
-      <c r="AB86" s="93"/>
-      <c r="AC86" s="93"/>
-      <c r="AD86" s="93"/>
-      <c r="AE86" s="93"/>
-      <c r="AF86" s="93"/>
-      <c r="AG86" s="93"/>
-      <c r="AH86" s="93"/>
-      <c r="AI86" s="93"/>
-      <c r="AJ86" s="93"/>
-      <c r="AK86" s="93"/>
-      <c r="AL86" s="93"/>
-      <c r="AM86" s="93"/>
-      <c r="AN86" s="93"/>
-      <c r="AO86" s="93"/>
-      <c r="AP86" s="93"/>
-      <c r="AQ86" s="93"/>
-      <c r="AR86" s="93"/>
-      <c r="AS86" s="93"/>
-      <c r="AT86" s="93"/>
-      <c r="AU86" s="93"/>
-      <c r="AV86" s="93"/>
-      <c r="AW86" s="93"/>
-      <c r="AX86" s="93"/>
-      <c r="AY86" s="93"/>
-      <c r="AZ86" s="93"/>
-      <c r="BA86" s="93"/>
-      <c r="BB86" s="93"/>
-      <c r="BC86" s="93"/>
-      <c r="BD86" s="93"/>
-      <c r="BE86" s="93"/>
-      <c r="BF86" s="93"/>
-      <c r="BG86" s="93"/>
-      <c r="BH86" s="93"/>
-      <c r="BI86" s="93"/>
-      <c r="BJ86" s="93"/>
-      <c r="BK86" s="93"/>
-      <c r="BL86" s="93"/>
-      <c r="BM86" s="93"/>
-      <c r="BN86" s="93"/>
-      <c r="BO86" s="93"/>
-      <c r="BP86" s="93"/>
-      <c r="BQ86" s="93"/>
-      <c r="BR86" s="93"/>
-      <c r="BS86" s="93"/>
-      <c r="BT86" s="93"/>
-      <c r="BU86" s="93"/>
-      <c r="BV86" s="93"/>
-      <c r="BW86" s="93"/>
-      <c r="BX86" s="93"/>
-      <c r="BY86" s="93"/>
-      <c r="BZ86" s="93"/>
-      <c r="CA86" s="93"/>
-      <c r="CB86" s="93"/>
-      <c r="CC86" s="93"/>
-      <c r="CD86" s="93"/>
-      <c r="CE86" s="93"/>
-      <c r="CF86" s="93"/>
-      <c r="CG86" s="93"/>
-      <c r="CH86" s="93"/>
-      <c r="CI86" s="93"/>
-      <c r="CJ86" s="93"/>
-      <c r="CK86" s="93"/>
-      <c r="CL86" s="93"/>
-      <c r="CM86" s="93"/>
-      <c r="CN86" s="93"/>
-      <c r="CO86" s="93"/>
-      <c r="CP86" s="93"/>
-      <c r="CQ86" s="93"/>
-      <c r="CR86" s="93"/>
-      <c r="CS86" s="93"/>
-      <c r="CT86" s="93"/>
-      <c r="CU86" s="93"/>
-      <c r="CV86" s="93"/>
-    </row>
-    <row r="87" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="B86" s="17"/>
+      <c r="C86" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="53"/>
+      <c r="O86" s="54"/>
+      <c r="P86" s="53"/>
+      <c r="Q86" s="54"/>
+      <c r="R86" s="53"/>
+      <c r="S86" s="54"/>
+      <c r="T86" s="53"/>
+      <c r="U86" s="54"/>
+      <c r="V86" s="36"/>
+      <c r="W86" s="36"/>
+      <c r="X86" s="36"/>
+      <c r="Y86" s="53"/>
+      <c r="Z86" s="54"/>
+      <c r="AA86" s="53"/>
+      <c r="AB86" s="54"/>
+      <c r="AC86" s="53"/>
+      <c r="AD86" s="54"/>
+      <c r="AE86" s="36"/>
+      <c r="AF86" s="36"/>
+      <c r="AG86" s="53"/>
+      <c r="AH86" s="54"/>
+      <c r="AI86" s="53"/>
+      <c r="AJ86" s="54"/>
+      <c r="AK86" s="36"/>
+      <c r="AL86" s="36"/>
+      <c r="AM86" s="36"/>
+      <c r="AN86" s="53"/>
+      <c r="AO86" s="54"/>
+      <c r="AP86" s="53"/>
+      <c r="AQ86" s="54"/>
+      <c r="AR86" s="53"/>
+      <c r="AS86" s="75"/>
+      <c r="AT86" s="54"/>
+      <c r="AU86" s="53"/>
+      <c r="AV86" s="75"/>
+      <c r="AW86" s="54"/>
+      <c r="AX86" s="36"/>
+      <c r="AY86" s="36"/>
+      <c r="AZ86" s="36"/>
+      <c r="BA86" s="53"/>
+      <c r="BB86" s="54"/>
+      <c r="BC86" s="36"/>
+      <c r="BD86" s="36"/>
+      <c r="BE86" s="53"/>
+      <c r="BF86" s="54"/>
+      <c r="BG86" s="53"/>
+      <c r="BH86" s="75"/>
+      <c r="BI86" s="54"/>
+      <c r="BJ86" s="53"/>
+      <c r="BK86" s="75"/>
+      <c r="BL86" s="54"/>
+      <c r="BM86" s="53"/>
+      <c r="BN86" s="54"/>
+      <c r="BO86" s="36"/>
+      <c r="BP86" s="53"/>
+      <c r="BQ86" s="75"/>
+      <c r="BR86" s="54"/>
+      <c r="BS86" s="53"/>
+      <c r="BT86" s="75"/>
+      <c r="BU86" s="75"/>
+      <c r="BV86" s="54"/>
+      <c r="BW86" s="53"/>
+      <c r="BX86" s="75"/>
+      <c r="BY86" s="75"/>
+      <c r="BZ86" s="68"/>
+      <c r="CA86" s="36"/>
+      <c r="CB86" s="36"/>
+      <c r="CC86" s="36"/>
+      <c r="CD86" s="36"/>
+      <c r="CE86" s="36"/>
+      <c r="CF86" s="53"/>
+      <c r="CG86" s="54"/>
+      <c r="CH86" s="53"/>
+      <c r="CI86" s="54"/>
+      <c r="CJ86" s="53"/>
+      <c r="CK86" s="54"/>
+      <c r="CL86" s="53"/>
+      <c r="CM86" s="54"/>
+      <c r="CN86" s="53"/>
+      <c r="CO86" s="54"/>
+      <c r="CP86" s="36"/>
+      <c r="CQ86" s="36"/>
+      <c r="CR86" s="36"/>
+      <c r="CS86" s="36"/>
+      <c r="CT86" s="36"/>
+      <c r="CU86" s="36"/>
+      <c r="CV86" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="CW86" s="88" t="s">
+        <v>371</v>
+      </c>
+      <c r="CX86" s="93"/>
+    </row>
+    <row r="87" spans="1:102" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="93"/>
       <c r="B87" s="93"/>
       <c r="C87" s="93"/>
       <c r="D87" s="93"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="94" t="s">
-        <v>193</v>
-      </c>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
       <c r="G87" s="93"/>
       <c r="H87" s="93"/>
       <c r="I87" s="93"/>
-      <c r="J87" s="77">
-        <v>3</v>
-      </c>
-      <c r="K87" s="94" t="s">
-        <v>194</v>
-      </c>
+      <c r="J87" s="93"/>
+      <c r="K87" s="93"/>
       <c r="L87" s="93"/>
       <c r="M87" s="93"/>
       <c r="N87" s="93"/>
       <c r="O87" s="93"/>
       <c r="P87" s="93"/>
       <c r="Q87" s="93"/>
-      <c r="R87" s="96"/>
-      <c r="S87" s="94" t="s">
-        <v>195</v>
-      </c>
+      <c r="R87" s="93"/>
+      <c r="S87" s="93"/>
       <c r="T87" s="93"/>
       <c r="U87" s="93"/>
       <c r="V87" s="93"/>
@@ -29201,27 +29651,37 @@
       <c r="CT87" s="93"/>
       <c r="CU87" s="93"/>
       <c r="CV87" s="93"/>
-    </row>
-    <row r="88" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW87" s="93"/>
+      <c r="CX87" s="93"/>
+    </row>
+    <row r="88" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A88" s="93"/>
       <c r="B88" s="93"/>
       <c r="C88" s="93"/>
       <c r="D88" s="93"/>
-      <c r="E88" s="93"/>
-      <c r="F88" s="93"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="94" t="s">
+        <v>194</v>
+      </c>
       <c r="G88" s="93"/>
       <c r="H88" s="93"/>
       <c r="I88" s="93"/>
-      <c r="J88" s="93"/>
-      <c r="K88" s="93"/>
+      <c r="J88" s="77">
+        <v>3</v>
+      </c>
+      <c r="K88" s="94" t="s">
+        <v>195</v>
+      </c>
       <c r="L88" s="93"/>
       <c r="M88" s="93"/>
       <c r="N88" s="93"/>
       <c r="O88" s="93"/>
       <c r="P88" s="93"/>
       <c r="Q88" s="93"/>
-      <c r="R88" s="93"/>
-      <c r="S88" s="93"/>
+      <c r="R88" s="96"/>
+      <c r="S88" s="94" t="s">
+        <v>196</v>
+      </c>
       <c r="T88" s="93"/>
       <c r="U88" s="93"/>
       <c r="V88" s="93"/>
@@ -29303,8 +29763,10 @@
       <c r="CT88" s="93"/>
       <c r="CU88" s="93"/>
       <c r="CV88" s="93"/>
-    </row>
-    <row r="89" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW88" s="93"/>
+      <c r="CX88" s="93"/>
+    </row>
+    <row r="89" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A89" s="93"/>
       <c r="B89" s="93"/>
       <c r="C89" s="93"/>
@@ -29405,8 +29867,10 @@
       <c r="CT89" s="93"/>
       <c r="CU89" s="93"/>
       <c r="CV89" s="93"/>
-    </row>
-    <row r="90" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW89" s="93"/>
+      <c r="CX89" s="93"/>
+    </row>
+    <row r="90" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A90" s="93"/>
       <c r="B90" s="93"/>
       <c r="C90" s="93"/>
@@ -29507,8 +29971,10 @@
       <c r="CT90" s="93"/>
       <c r="CU90" s="93"/>
       <c r="CV90" s="93"/>
-    </row>
-    <row r="91" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW90" s="93"/>
+      <c r="CX90" s="93"/>
+    </row>
+    <row r="91" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A91" s="93"/>
       <c r="B91" s="93"/>
       <c r="C91" s="93"/>
@@ -29609,8 +30075,10 @@
       <c r="CT91" s="93"/>
       <c r="CU91" s="93"/>
       <c r="CV91" s="93"/>
-    </row>
-    <row r="92" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW91" s="93"/>
+      <c r="CX91" s="93"/>
+    </row>
+    <row r="92" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A92" s="93"/>
       <c r="B92" s="93"/>
       <c r="C92" s="93"/>
@@ -29711,8 +30179,10 @@
       <c r="CT92" s="93"/>
       <c r="CU92" s="93"/>
       <c r="CV92" s="93"/>
-    </row>
-    <row r="93" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW92" s="93"/>
+      <c r="CX92" s="93"/>
+    </row>
+    <row r="93" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A93" s="93"/>
       <c r="B93" s="93"/>
       <c r="C93" s="93"/>
@@ -29813,8 +30283,10 @@
       <c r="CT93" s="93"/>
       <c r="CU93" s="93"/>
       <c r="CV93" s="93"/>
-    </row>
-    <row r="94" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW93" s="93"/>
+      <c r="CX93" s="93"/>
+    </row>
+    <row r="94" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A94" s="93"/>
       <c r="B94" s="93"/>
       <c r="C94" s="93"/>
@@ -29915,8 +30387,10 @@
       <c r="CT94" s="93"/>
       <c r="CU94" s="93"/>
       <c r="CV94" s="93"/>
-    </row>
-    <row r="95" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW94" s="93"/>
+      <c r="CX94" s="93"/>
+    </row>
+    <row r="95" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A95" s="93"/>
       <c r="B95" s="93"/>
       <c r="C95" s="93"/>
@@ -30017,8 +30491,10 @@
       <c r="CT95" s="93"/>
       <c r="CU95" s="93"/>
       <c r="CV95" s="93"/>
-    </row>
-    <row r="96" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW95" s="93"/>
+      <c r="CX95" s="93"/>
+    </row>
+    <row r="96" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A96" s="93"/>
       <c r="B96" s="93"/>
       <c r="C96" s="93"/>
@@ -30119,8 +30595,10 @@
       <c r="CT96" s="93"/>
       <c r="CU96" s="93"/>
       <c r="CV96" s="93"/>
-    </row>
-    <row r="97" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW96" s="93"/>
+      <c r="CX96" s="93"/>
+    </row>
+    <row r="97" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A97" s="93"/>
       <c r="B97" s="93"/>
       <c r="C97" s="93"/>
@@ -30221,8 +30699,10 @@
       <c r="CT97" s="93"/>
       <c r="CU97" s="93"/>
       <c r="CV97" s="93"/>
-    </row>
-    <row r="98" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW97" s="93"/>
+      <c r="CX97" s="93"/>
+    </row>
+    <row r="98" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A98" s="93"/>
       <c r="B98" s="93"/>
       <c r="C98" s="93"/>
@@ -30323,8 +30803,10 @@
       <c r="CT98" s="93"/>
       <c r="CU98" s="93"/>
       <c r="CV98" s="93"/>
-    </row>
-    <row r="99" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW98" s="93"/>
+      <c r="CX98" s="93"/>
+    </row>
+    <row r="99" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A99" s="93"/>
       <c r="B99" s="93"/>
       <c r="C99" s="93"/>
@@ -30425,8 +30907,10 @@
       <c r="CT99" s="93"/>
       <c r="CU99" s="93"/>
       <c r="CV99" s="93"/>
-    </row>
-    <row r="100" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW99" s="93"/>
+      <c r="CX99" s="93"/>
+    </row>
+    <row r="100" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A100" s="93"/>
       <c r="B100" s="93"/>
       <c r="C100" s="93"/>
@@ -30527,8 +31011,10 @@
       <c r="CT100" s="93"/>
       <c r="CU100" s="93"/>
       <c r="CV100" s="93"/>
-    </row>
-    <row r="101" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW100" s="93"/>
+      <c r="CX100" s="93"/>
+    </row>
+    <row r="101" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A101" s="93"/>
       <c r="B101" s="93"/>
       <c r="C101" s="93"/>
@@ -30629,8 +31115,10 @@
       <c r="CT101" s="93"/>
       <c r="CU101" s="93"/>
       <c r="CV101" s="93"/>
-    </row>
-    <row r="102" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW101" s="93"/>
+      <c r="CX101" s="93"/>
+    </row>
+    <row r="102" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A102" s="93"/>
       <c r="B102" s="93"/>
       <c r="C102" s="93"/>
@@ -30731,8 +31219,10 @@
       <c r="CT102" s="93"/>
       <c r="CU102" s="93"/>
       <c r="CV102" s="93"/>
-    </row>
-    <row r="103" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW102" s="93"/>
+      <c r="CX102" s="93"/>
+    </row>
+    <row r="103" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A103" s="93"/>
       <c r="B103" s="93"/>
       <c r="C103" s="93"/>
@@ -30833,8 +31323,10 @@
       <c r="CT103" s="93"/>
       <c r="CU103" s="93"/>
       <c r="CV103" s="93"/>
-    </row>
-    <row r="104" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW103" s="93"/>
+      <c r="CX103" s="93"/>
+    </row>
+    <row r="104" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A104" s="93"/>
       <c r="B104" s="93"/>
       <c r="C104" s="93"/>
@@ -30935,8 +31427,10 @@
       <c r="CT104" s="93"/>
       <c r="CU104" s="93"/>
       <c r="CV104" s="93"/>
-    </row>
-    <row r="105" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW104" s="93"/>
+      <c r="CX104" s="93"/>
+    </row>
+    <row r="105" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A105" s="93"/>
       <c r="B105" s="93"/>
       <c r="C105" s="93"/>
@@ -31037,8 +31531,10 @@
       <c r="CT105" s="93"/>
       <c r="CU105" s="93"/>
       <c r="CV105" s="93"/>
-    </row>
-    <row r="106" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW105" s="93"/>
+      <c r="CX105" s="93"/>
+    </row>
+    <row r="106" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A106" s="93"/>
       <c r="B106" s="93"/>
       <c r="C106" s="93"/>
@@ -31139,8 +31635,10 @@
       <c r="CT106" s="93"/>
       <c r="CU106" s="93"/>
       <c r="CV106" s="93"/>
-    </row>
-    <row r="107" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW106" s="93"/>
+      <c r="CX106" s="93"/>
+    </row>
+    <row r="107" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A107" s="93"/>
       <c r="B107" s="93"/>
       <c r="C107" s="93"/>
@@ -31241,8 +31739,10 @@
       <c r="CT107" s="93"/>
       <c r="CU107" s="93"/>
       <c r="CV107" s="93"/>
-    </row>
-    <row r="108" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW107" s="93"/>
+      <c r="CX107" s="93"/>
+    </row>
+    <row r="108" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A108" s="93"/>
       <c r="B108" s="93"/>
       <c r="C108" s="93"/>
@@ -31343,8 +31843,10 @@
       <c r="CT108" s="93"/>
       <c r="CU108" s="93"/>
       <c r="CV108" s="93"/>
-    </row>
-    <row r="109" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW108" s="93"/>
+      <c r="CX108" s="93"/>
+    </row>
+    <row r="109" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A109" s="93"/>
       <c r="B109" s="93"/>
       <c r="C109" s="93"/>
@@ -31445,8 +31947,10 @@
       <c r="CT109" s="93"/>
       <c r="CU109" s="93"/>
       <c r="CV109" s="93"/>
-    </row>
-    <row r="110" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW109" s="93"/>
+      <c r="CX109" s="93"/>
+    </row>
+    <row r="110" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A110" s="93"/>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -31547,8 +32051,10 @@
       <c r="CT110" s="93"/>
       <c r="CU110" s="93"/>
       <c r="CV110" s="93"/>
-    </row>
-    <row r="111" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW110" s="93"/>
+      <c r="CX110" s="93"/>
+    </row>
+    <row r="111" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A111" s="93"/>
       <c r="B111" s="93"/>
       <c r="C111" s="93"/>
@@ -31649,8 +32155,10 @@
       <c r="CT111" s="93"/>
       <c r="CU111" s="93"/>
       <c r="CV111" s="93"/>
-    </row>
-    <row r="112" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW111" s="93"/>
+      <c r="CX111" s="93"/>
+    </row>
+    <row r="112" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A112" s="93"/>
       <c r="B112" s="93"/>
       <c r="C112" s="93"/>
@@ -31751,8 +32259,10 @@
       <c r="CT112" s="93"/>
       <c r="CU112" s="93"/>
       <c r="CV112" s="93"/>
-    </row>
-    <row r="113" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW112" s="93"/>
+      <c r="CX112" s="93"/>
+    </row>
+    <row r="113" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A113" s="93"/>
       <c r="B113" s="93"/>
       <c r="C113" s="93"/>
@@ -31853,8 +32363,10 @@
       <c r="CT113" s="93"/>
       <c r="CU113" s="93"/>
       <c r="CV113" s="93"/>
-    </row>
-    <row r="114" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW113" s="93"/>
+      <c r="CX113" s="93"/>
+    </row>
+    <row r="114" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A114" s="93"/>
       <c r="B114" s="93"/>
       <c r="C114" s="93"/>
@@ -31955,8 +32467,10 @@
       <c r="CT114" s="93"/>
       <c r="CU114" s="93"/>
       <c r="CV114" s="93"/>
-    </row>
-    <row r="115" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW114" s="93"/>
+      <c r="CX114" s="93"/>
+    </row>
+    <row r="115" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A115" s="93"/>
       <c r="B115" s="93"/>
       <c r="C115" s="93"/>
@@ -32057,8 +32571,10 @@
       <c r="CT115" s="93"/>
       <c r="CU115" s="93"/>
       <c r="CV115" s="93"/>
-    </row>
-    <row r="116" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW115" s="93"/>
+      <c r="CX115" s="93"/>
+    </row>
+    <row r="116" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A116" s="93"/>
       <c r="B116" s="93"/>
       <c r="C116" s="93"/>
@@ -32159,8 +32675,10 @@
       <c r="CT116" s="93"/>
       <c r="CU116" s="93"/>
       <c r="CV116" s="93"/>
-    </row>
-    <row r="117" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW116" s="93"/>
+      <c r="CX116" s="93"/>
+    </row>
+    <row r="117" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A117" s="93"/>
       <c r="B117" s="93"/>
       <c r="C117" s="93"/>
@@ -32261,8 +32779,10 @@
       <c r="CT117" s="93"/>
       <c r="CU117" s="93"/>
       <c r="CV117" s="93"/>
-    </row>
-    <row r="118" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW117" s="93"/>
+      <c r="CX117" s="93"/>
+    </row>
+    <row r="118" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A118" s="93"/>
       <c r="B118" s="93"/>
       <c r="C118" s="93"/>
@@ -32363,8 +32883,10 @@
       <c r="CT118" s="93"/>
       <c r="CU118" s="93"/>
       <c r="CV118" s="93"/>
-    </row>
-    <row r="119" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW118" s="93"/>
+      <c r="CX118" s="93"/>
+    </row>
+    <row r="119" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A119" s="93"/>
       <c r="B119" s="93"/>
       <c r="C119" s="93"/>
@@ -32465,8 +32987,10 @@
       <c r="CT119" s="93"/>
       <c r="CU119" s="93"/>
       <c r="CV119" s="93"/>
-    </row>
-    <row r="120" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW119" s="93"/>
+      <c r="CX119" s="93"/>
+    </row>
+    <row r="120" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A120" s="93"/>
       <c r="B120" s="93"/>
       <c r="C120" s="93"/>
@@ -32567,8 +33091,10 @@
       <c r="CT120" s="93"/>
       <c r="CU120" s="93"/>
       <c r="CV120" s="93"/>
-    </row>
-    <row r="121" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW120" s="93"/>
+      <c r="CX120" s="93"/>
+    </row>
+    <row r="121" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A121" s="93"/>
       <c r="B121" s="93"/>
       <c r="C121" s="93"/>
@@ -32669,8 +33195,10 @@
       <c r="CT121" s="93"/>
       <c r="CU121" s="93"/>
       <c r="CV121" s="93"/>
-    </row>
-    <row r="122" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW121" s="93"/>
+      <c r="CX121" s="93"/>
+    </row>
+    <row r="122" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A122" s="93"/>
       <c r="B122" s="93"/>
       <c r="C122" s="93"/>
@@ -32771,8 +33299,10 @@
       <c r="CT122" s="93"/>
       <c r="CU122" s="93"/>
       <c r="CV122" s="93"/>
-    </row>
-    <row r="123" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW122" s="93"/>
+      <c r="CX122" s="93"/>
+    </row>
+    <row r="123" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A123" s="93"/>
       <c r="B123" s="93"/>
       <c r="C123" s="93"/>
@@ -32873,8 +33403,10 @@
       <c r="CT123" s="93"/>
       <c r="CU123" s="93"/>
       <c r="CV123" s="93"/>
-    </row>
-    <row r="124" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW123" s="93"/>
+      <c r="CX123" s="93"/>
+    </row>
+    <row r="124" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A124" s="93"/>
       <c r="B124" s="93"/>
       <c r="C124" s="93"/>
@@ -32975,8 +33507,10 @@
       <c r="CT124" s="93"/>
       <c r="CU124" s="93"/>
       <c r="CV124" s="93"/>
-    </row>
-    <row r="125" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW124" s="93"/>
+      <c r="CX124" s="93"/>
+    </row>
+    <row r="125" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A125" s="93"/>
       <c r="B125" s="93"/>
       <c r="C125" s="93"/>
@@ -33077,8 +33611,10 @@
       <c r="CT125" s="93"/>
       <c r="CU125" s="93"/>
       <c r="CV125" s="93"/>
-    </row>
-    <row r="126" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW125" s="93"/>
+      <c r="CX125" s="93"/>
+    </row>
+    <row r="126" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A126" s="93"/>
       <c r="B126" s="93"/>
       <c r="C126" s="93"/>
@@ -33179,8 +33715,10 @@
       <c r="CT126" s="93"/>
       <c r="CU126" s="93"/>
       <c r="CV126" s="93"/>
-    </row>
-    <row r="127" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW126" s="93"/>
+      <c r="CX126" s="93"/>
+    </row>
+    <row r="127" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A127" s="93"/>
       <c r="B127" s="93"/>
       <c r="C127" s="93"/>
@@ -33281,8 +33819,10 @@
       <c r="CT127" s="93"/>
       <c r="CU127" s="93"/>
       <c r="CV127" s="93"/>
-    </row>
-    <row r="128" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW127" s="93"/>
+      <c r="CX127" s="93"/>
+    </row>
+    <row r="128" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A128" s="93"/>
       <c r="B128" s="93"/>
       <c r="C128" s="93"/>
@@ -33383,8 +33923,10 @@
       <c r="CT128" s="93"/>
       <c r="CU128" s="93"/>
       <c r="CV128" s="93"/>
-    </row>
-    <row r="129" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW128" s="93"/>
+      <c r="CX128" s="93"/>
+    </row>
+    <row r="129" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A129" s="93"/>
       <c r="B129" s="93"/>
       <c r="C129" s="93"/>
@@ -33485,8 +34027,10 @@
       <c r="CT129" s="93"/>
       <c r="CU129" s="93"/>
       <c r="CV129" s="93"/>
-    </row>
-    <row r="130" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW129" s="93"/>
+      <c r="CX129" s="93"/>
+    </row>
+    <row r="130" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A130" s="93"/>
       <c r="B130" s="93"/>
       <c r="C130" s="93"/>
@@ -33587,8 +34131,10 @@
       <c r="CT130" s="93"/>
       <c r="CU130" s="93"/>
       <c r="CV130" s="93"/>
-    </row>
-    <row r="131" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW130" s="93"/>
+      <c r="CX130" s="93"/>
+    </row>
+    <row r="131" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A131" s="93"/>
       <c r="B131" s="93"/>
       <c r="C131" s="93"/>
@@ -33689,8 +34235,10 @@
       <c r="CT131" s="93"/>
       <c r="CU131" s="93"/>
       <c r="CV131" s="93"/>
-    </row>
-    <row r="132" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW131" s="93"/>
+      <c r="CX131" s="93"/>
+    </row>
+    <row r="132" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A132" s="93"/>
       <c r="B132" s="93"/>
       <c r="C132" s="93"/>
@@ -33791,8 +34339,10 @@
       <c r="CT132" s="93"/>
       <c r="CU132" s="93"/>
       <c r="CV132" s="93"/>
-    </row>
-    <row r="133" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW132" s="93"/>
+      <c r="CX132" s="93"/>
+    </row>
+    <row r="133" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A133" s="93"/>
       <c r="B133" s="93"/>
       <c r="C133" s="93"/>
@@ -33893,8 +34443,10 @@
       <c r="CT133" s="93"/>
       <c r="CU133" s="93"/>
       <c r="CV133" s="93"/>
-    </row>
-    <row r="134" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW133" s="93"/>
+      <c r="CX133" s="93"/>
+    </row>
+    <row r="134" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A134" s="93"/>
       <c r="B134" s="93"/>
       <c r="C134" s="93"/>
@@ -33995,8 +34547,10 @@
       <c r="CT134" s="93"/>
       <c r="CU134" s="93"/>
       <c r="CV134" s="93"/>
-    </row>
-    <row r="135" spans="1:100" x14ac:dyDescent="0.2">
+      <c r="CW134" s="93"/>
+      <c r="CX134" s="93"/>
+    </row>
+    <row r="135" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A135" s="93"/>
       <c r="B135" s="93"/>
       <c r="C135" s="93"/>
@@ -34097,10 +34651,117 @@
       <c r="CT135" s="93"/>
       <c r="CU135" s="93"/>
       <c r="CV135" s="93"/>
+      <c r="CW135" s="93"/>
+      <c r="CX135" s="93"/>
+    </row>
+    <row r="136" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A136" s="93"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="93"/>
+      <c r="E136" s="93"/>
+      <c r="F136" s="93"/>
+      <c r="G136" s="93"/>
+      <c r="H136" s="93"/>
+      <c r="I136" s="93"/>
+      <c r="J136" s="93"/>
+      <c r="K136" s="93"/>
+      <c r="L136" s="93"/>
+      <c r="M136" s="93"/>
+      <c r="N136" s="93"/>
+      <c r="O136" s="93"/>
+      <c r="P136" s="93"/>
+      <c r="Q136" s="93"/>
+      <c r="R136" s="93"/>
+      <c r="S136" s="93"/>
+      <c r="T136" s="93"/>
+      <c r="U136" s="93"/>
+      <c r="V136" s="93"/>
+      <c r="W136" s="93"/>
+      <c r="X136" s="93"/>
+      <c r="Y136" s="93"/>
+      <c r="Z136" s="93"/>
+      <c r="AA136" s="93"/>
+      <c r="AB136" s="93"/>
+      <c r="AC136" s="93"/>
+      <c r="AD136" s="93"/>
+      <c r="AE136" s="93"/>
+      <c r="AF136" s="93"/>
+      <c r="AG136" s="93"/>
+      <c r="AH136" s="93"/>
+      <c r="AI136" s="93"/>
+      <c r="AJ136" s="93"/>
+      <c r="AK136" s="93"/>
+      <c r="AL136" s="93"/>
+      <c r="AM136" s="93"/>
+      <c r="AN136" s="93"/>
+      <c r="AO136" s="93"/>
+      <c r="AP136" s="93"/>
+      <c r="AQ136" s="93"/>
+      <c r="AR136" s="93"/>
+      <c r="AS136" s="93"/>
+      <c r="AT136" s="93"/>
+      <c r="AU136" s="93"/>
+      <c r="AV136" s="93"/>
+      <c r="AW136" s="93"/>
+      <c r="AX136" s="93"/>
+      <c r="AY136" s="93"/>
+      <c r="AZ136" s="93"/>
+      <c r="BA136" s="93"/>
+      <c r="BB136" s="93"/>
+      <c r="BC136" s="93"/>
+      <c r="BD136" s="93"/>
+      <c r="BE136" s="93"/>
+      <c r="BF136" s="93"/>
+      <c r="BG136" s="93"/>
+      <c r="BH136" s="93"/>
+      <c r="BI136" s="93"/>
+      <c r="BJ136" s="93"/>
+      <c r="BK136" s="93"/>
+      <c r="BL136" s="93"/>
+      <c r="BM136" s="93"/>
+      <c r="BN136" s="93"/>
+      <c r="BO136" s="93"/>
+      <c r="BP136" s="93"/>
+      <c r="BQ136" s="93"/>
+      <c r="BR136" s="93"/>
+      <c r="BS136" s="93"/>
+      <c r="BT136" s="93"/>
+      <c r="BU136" s="93"/>
+      <c r="BV136" s="93"/>
+      <c r="BW136" s="93"/>
+      <c r="BX136" s="93"/>
+      <c r="BY136" s="93"/>
+      <c r="BZ136" s="93"/>
+      <c r="CA136" s="93"/>
+      <c r="CB136" s="93"/>
+      <c r="CC136" s="93"/>
+      <c r="CD136" s="93"/>
+      <c r="CE136" s="93"/>
+      <c r="CF136" s="93"/>
+      <c r="CG136" s="93"/>
+      <c r="CH136" s="93"/>
+      <c r="CI136" s="93"/>
+      <c r="CJ136" s="93"/>
+      <c r="CK136" s="93"/>
+      <c r="CL136" s="93"/>
+      <c r="CM136" s="93"/>
+      <c r="CN136" s="93"/>
+      <c r="CO136" s="93"/>
+      <c r="CP136" s="93"/>
+      <c r="CQ136" s="93"/>
+      <c r="CR136" s="93"/>
+      <c r="CS136" s="93"/>
+      <c r="CT136" s="93"/>
+      <c r="CU136" s="93"/>
+      <c r="CV136" s="93"/>
+      <c r="CW136" s="93"/>
+      <c r="CX136" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="CL2:CM2"/>
+    <mergeCell ref="CN2:CO2"/>
     <mergeCell ref="BP2:BR2"/>
     <mergeCell ref="BS2:BV2"/>
     <mergeCell ref="BW2:BZ2"/>
@@ -34150,7 +34811,7 @@
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -34221,16 +34882,16 @@
         <v>215</v>
       </c>
       <c r="R2" s="46" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S2" s="46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T2" s="46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U2" s="46" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V2" s="93"/>
       <c r="W2" s="93"/>
@@ -34249,7 +34910,7 @@
       <c r="K3" s="126"/>
       <c r="L3" s="126"/>
       <c r="M3" s="127" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N3" s="126"/>
       <c r="O3" s="126"/>
@@ -34265,10 +34926,10 @@
     <row r="4" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
       <c r="B4" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D4" s="45">
         <v>1</v>
@@ -34325,17 +34986,17 @@
         <v>1</v>
       </c>
       <c r="V4" s="128" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="W4" s="93"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="15" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D5" s="102">
         <v>700</v>
@@ -34392,7 +35053,7 @@
         <v>36</v>
       </c>
       <c r="V5" s="129" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W5" s="93"/>
     </row>
@@ -34400,7 +35061,7 @@
       <c r="A6" s="93"/>
       <c r="B6" s="117"/>
       <c r="C6" s="86" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D6" s="100">
         <v>950</v>
@@ -34457,7 +35118,7 @@
         <v>36</v>
       </c>
       <c r="V6" s="130" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W6" s="93"/>
     </row>
@@ -34465,7 +35126,7 @@
       <c r="A7" s="93"/>
       <c r="B7" s="117"/>
       <c r="C7" s="86" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D7" s="100">
         <v>2150</v>
@@ -34522,7 +35183,7 @@
         <v>2150</v>
       </c>
       <c r="V7" s="130" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W7" s="93"/>
     </row>
@@ -34530,7 +35191,7 @@
       <c r="A8" s="93"/>
       <c r="B8" s="118"/>
       <c r="C8" s="88" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D8" s="121">
         <v>2300</v>
@@ -34587,17 +35248,17 @@
         <v>2250</v>
       </c>
       <c r="V8" s="131" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W8" s="93"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="93"/>
       <c r="B9" s="29" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D9" s="122">
         <v>-27</v>
@@ -34654,7 +35315,7 @@
         <v>-25</v>
       </c>
       <c r="V9" s="132" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="W9" s="93"/>
     </row>
@@ -34662,7 +35323,7 @@
       <c r="A10" s="93"/>
       <c r="B10" s="119"/>
       <c r="C10" s="92" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D10" s="123">
         <v>20</v>
@@ -34719,17 +35380,17 @@
         <v>20</v>
       </c>
       <c r="V10" s="133" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="W10" s="93"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
       <c r="B11" s="15" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D11" s="102">
         <v>8.7999999999999995E-2</v>
@@ -34786,7 +35447,7 @@
         <v>0.08</v>
       </c>
       <c r="V11" s="129" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W11" s="93"/>
     </row>
@@ -34794,7 +35455,7 @@
       <c r="A12" s="93"/>
       <c r="B12" s="117"/>
       <c r="C12" s="86" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D12" s="100">
         <v>8.7999999999999995E-2</v>
@@ -34851,7 +35512,7 @@
         <v>0.08</v>
       </c>
       <c r="V12" s="130" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W12" s="93"/>
     </row>
@@ -34859,7 +35520,7 @@
       <c r="A13" s="93"/>
       <c r="B13" s="117"/>
       <c r="C13" s="86" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D13" s="100">
         <v>45</v>
@@ -34916,7 +35577,7 @@
         <v>70</v>
       </c>
       <c r="V13" s="130" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W13" s="93"/>
     </row>
@@ -34924,7 +35585,7 @@
       <c r="A14" s="93"/>
       <c r="B14" s="118"/>
       <c r="C14" s="88" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D14" s="121">
         <v>45</v>
@@ -34981,17 +35642,17 @@
         <v>70</v>
       </c>
       <c r="V14" s="131" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W14" s="93"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="29" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C15" s="89" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D15" s="122">
         <v>8.7999999999999995E-2</v>
@@ -35048,7 +35709,7 @@
         <v>0.08</v>
       </c>
       <c r="V15" s="132" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W15" s="93"/>
     </row>
@@ -35056,7 +35717,7 @@
       <c r="A16" s="93"/>
       <c r="B16" s="120"/>
       <c r="C16" s="25" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D16" s="124">
         <v>8.7999999999999995E-2</v>
@@ -35113,7 +35774,7 @@
         <v>0.08</v>
       </c>
       <c r="V16" s="134" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W16" s="93"/>
     </row>
@@ -35121,7 +35782,7 @@
       <c r="A17" s="93"/>
       <c r="B17" s="120"/>
       <c r="C17" s="25" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D17" s="124">
         <v>45</v>
@@ -35160,7 +35821,7 @@
         <v>85</v>
       </c>
       <c r="P17" s="124">
-        <v>9.375</v>
+        <v>10.937499000000001</v>
       </c>
       <c r="Q17" s="124">
         <v>10.937499000000001</v>
@@ -35178,7 +35839,7 @@
         <v>70</v>
       </c>
       <c r="V17" s="134" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W17" s="93"/>
     </row>
@@ -35186,7 +35847,7 @@
       <c r="A18" s="93"/>
       <c r="B18" s="119"/>
       <c r="C18" s="92" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D18" s="123">
         <v>45</v>
@@ -35225,7 +35886,7 @@
         <v>85</v>
       </c>
       <c r="P18" s="123">
-        <v>9.375</v>
+        <v>10.937499000000001</v>
       </c>
       <c r="Q18" s="123">
         <v>10.937499000000001</v>
@@ -35243,7 +35904,7 @@
         <v>70</v>
       </c>
       <c r="V18" s="133" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="W18" s="93"/>
     </row>
@@ -36522,7 +37183,7 @@
     <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C1" s="93"/>
       <c r="D1" s="93"/>
@@ -36615,10 +37276,10 @@
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
       <c r="B4" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D4" s="45">
         <v>1</v>
@@ -36663,17 +37324,17 @@
         <v>1</v>
       </c>
       <c r="R4" s="128" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="S4" s="93"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="15" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D5" s="102">
         <v>950</v>
@@ -36718,7 +37379,7 @@
         <v>42</v>
       </c>
       <c r="R5" s="129" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="S5" s="93"/>
     </row>
@@ -36726,7 +37387,7 @@
       <c r="A6" s="93"/>
       <c r="B6" s="117"/>
       <c r="C6" s="86" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D6" s="100">
         <v>950</v>
@@ -36771,7 +37432,7 @@
         <v>42</v>
       </c>
       <c r="R6" s="130" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="S6" s="93"/>
     </row>
@@ -36779,7 +37440,7 @@
       <c r="A7" s="93"/>
       <c r="B7" s="117"/>
       <c r="C7" s="86" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D7" s="100">
         <v>2150</v>
@@ -36824,7 +37485,7 @@
         <v>1002</v>
       </c>
       <c r="R7" s="130" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="S7" s="93"/>
     </row>
@@ -36832,7 +37493,7 @@
       <c r="A8" s="93"/>
       <c r="B8" s="118"/>
       <c r="C8" s="88" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D8" s="121">
         <v>2150</v>
@@ -36877,7 +37538,7 @@
         <v>1002</v>
       </c>
       <c r="R8" s="131" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="S8" s="93"/>
     </row>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -22114,15 +22114,15 @@
       <c r="BB31" s="58"/>
       <c r="BC31" s="40"/>
       <c r="BD31" s="40"/>
-      <c r="BE31" s="38"/>
-      <c r="BF31" s="58"/>
+      <c r="BE31" s="108"/>
+      <c r="BF31" s="109"/>
       <c r="BG31" s="38"/>
       <c r="BH31" s="56"/>
       <c r="BI31" s="58"/>
       <c r="BJ31" s="38"/>
       <c r="BK31" s="56"/>
       <c r="BL31" s="58"/>
-      <c r="BM31" s="38"/>
+      <c r="BM31" s="108"/>
       <c r="BN31" s="58"/>
       <c r="BO31" s="40"/>
       <c r="BP31" s="38"/>
@@ -27622,7 +27622,7 @@
       <c r="AJ81" s="58"/>
       <c r="AK81" s="40"/>
       <c r="AL81" s="40"/>
-      <c r="AM81" s="40"/>
+      <c r="AM81" s="42"/>
       <c r="AN81" s="38"/>
       <c r="AO81" s="58"/>
       <c r="AP81" s="61"/>
@@ -27842,7 +27842,7 @@
       <c r="AJ83" s="58"/>
       <c r="AK83" s="40"/>
       <c r="AL83" s="40"/>
-      <c r="AM83" s="40"/>
+      <c r="AM83" s="42"/>
       <c r="AN83" s="38"/>
       <c r="AO83" s="58"/>
       <c r="AP83" s="61"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -8112,7 +8112,7 @@
       <c r="CQ42" s="50"/>
       <c r="CR42" s="80"/>
       <c r="CS42" s="50"/>
-      <c r="CT42" s="52"/>
+      <c r="CT42" s="62"/>
       <c r="CU42" s="35"/>
       <c r="CV42" s="35"/>
       <c r="CW42" s="35"/>
@@ -23526,7 +23526,7 @@
       <c r="CC21" s="50"/>
       <c r="CD21" s="50"/>
       <c r="CE21" s="50"/>
-      <c r="CF21" s="52"/>
+      <c r="CF21" s="62"/>
       <c r="CG21" s="35"/>
       <c r="CH21" s="35"/>
       <c r="CI21" s="35"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -23896,7 +23896,7 @@
       <c r="CC24" s="50"/>
       <c r="CD24" s="50"/>
       <c r="CE24" s="50"/>
-      <c r="CF24" s="52"/>
+      <c r="CF24" s="62"/>
       <c r="CG24" s="35"/>
       <c r="CH24" s="35"/>
       <c r="CI24" s="35"/>
@@ -24279,7 +24279,7 @@
       <c r="BX27" s="50"/>
       <c r="BY27" s="50"/>
       <c r="BZ27" s="62"/>
-      <c r="CA27" s="33"/>
+      <c r="CA27" s="61"/>
       <c r="CB27" s="50"/>
       <c r="CC27" s="50"/>
       <c r="CD27" s="50"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -30787,7 +30787,7 @@
       <c r="AJ83" s="58"/>
       <c r="AK83" s="40"/>
       <c r="AL83" s="40"/>
-      <c r="AM83" s="40"/>
+      <c r="AM83" s="42"/>
       <c r="AN83" s="38"/>
       <c r="AO83" s="58"/>
       <c r="AP83" s="61"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DekTecSCM\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4373270A-4A95-4056-AEB8-95CE71763D42}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFBF5340-C565-4E44-A017-2A60F8AAE952}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{94814C34-75B9-4FF6-9246-439747985BCE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{341D9A74-3608-4FA4-868B-7713268301A3}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2274,7 +2274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EBE028-E09F-427E-B942-C2ED50E09DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAB874D-F35A-4168-A583-DD124E39A813}">
   <dimension ref="A1:DU140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -21229,7 +21229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2EF72C-F00B-484C-B0DB-999486F76418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B3C372-6E28-40DC-AED5-9E26C14971D4}">
   <dimension ref="A1:DG142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -38381,7 +38381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67029F-D67D-44DE-AF38-59310D31E7F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DA48D2-19B2-4081-ABEC-C0D4449D72EF}">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40753,7 +40753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B1A73A-BF00-4E9A-85F3-E98D9E450399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4C4D12-E928-4EA7-A419-66C097A77B0D}">
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DekTecSCM\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6CFD72-39FB-4955-AE13-D45237F20588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7CBA6D-FA73-4784-BAE8-49473B9C8622}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{060E31DA-E7AF-485C-AFAB-4847AB6A0C8A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11565" xr2:uid="{85E29978-9B9C-4316-8B35-30AF54EE32D9}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2300,7 +2300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D15346-BA1B-49D3-B3A7-E9DFF1D25868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A18BB58-C066-4498-995F-11AF8548EE02}">
   <dimension ref="A1:DU142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -21521,7 +21521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CCD9E5-EC2A-4B70-81B0-3191297C2F5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7BA04CE-3818-4DE3-B621-76E540A3E0AB}">
   <dimension ref="A1:DM143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39666,7 +39666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2754BB01-EEDB-4F21-AEE6-212E740BA19A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88869D57-82BF-42D1-88C3-8851344DB678}">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -42038,7 +42038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19903827-C8BF-4105-9676-22641893E9CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA3CE83-A5EE-48E8-9D3C-E183501685B1}">
   <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFA3404E-D39F-465F-9F0A-4E1BA22AD97A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A1114BB-EA23-4A4C-96B9-BF72B23A163C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{B4ACFFE8-39DB-4C7C-BDFE-4E163512777A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{D649EC62-C0BD-48DF-9925-9F180B08042A}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2372,7 +2372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC064F6-60CB-4F6D-8A92-6CA5D88D5310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C362B7D-B844-4FC1-9997-41F96196E5BA}">
   <dimension ref="A1:ES150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2382,22 +2382,22 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="146" width="8.90625" style="1" customWidth="1"/>
-    <col min="147" max="147" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="200.6328125" style="1" customWidth="1"/>
-    <col min="150" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="146" width="9.5703125" style="1" customWidth="1"/>
+    <col min="147" max="147" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="30.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="200.7109375" style="1" customWidth="1"/>
+    <col min="150" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:149" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
         <v>243</v>
@@ -2550,7 +2550,7 @@
       <c r="ER1" s="93"/>
       <c r="ES1" s="93"/>
     </row>
-    <row r="2" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -2851,7 +2851,7 @@
       <c r="ER2" s="93"/>
       <c r="ES2" s="93"/>
     </row>
-    <row r="3" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="ES3" s="93"/>
     </row>
-    <row r="4" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="ES4" s="93"/>
     </row>
-    <row r="5" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="16"/>
       <c r="C5" s="9" t="s">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="ES5" s="93"/>
     </row>
-    <row r="6" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A6" s="93"/>
       <c r="B6" s="16"/>
       <c r="C6" s="9" t="s">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="ES6" s="93"/>
     </row>
-    <row r="7" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A7" s="93"/>
       <c r="B7" s="16"/>
       <c r="C7" s="9" t="s">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="ES7" s="93"/>
     </row>
-    <row r="8" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A8" s="93"/>
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="ES8" s="93"/>
     </row>
-    <row r="9" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A9" s="93"/>
       <c r="B9" s="16"/>
       <c r="C9" s="9" t="s">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="ES9" s="93"/>
     </row>
-    <row r="10" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A10" s="93"/>
       <c r="B10" s="16"/>
       <c r="C10" s="9" t="s">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="ES10" s="93"/>
     </row>
-    <row r="11" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="93"/>
       <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="ES11" s="93"/>
     </row>
-    <row r="12" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A12" s="93"/>
       <c r="B12" s="29" t="s">
         <v>16</v>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="ES12" s="93"/>
     </row>
-    <row r="13" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A13" s="93"/>
       <c r="B13" s="30"/>
       <c r="C13" s="22" t="s">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="ES13" s="93"/>
     </row>
-    <row r="14" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A14" s="93"/>
       <c r="B14" s="30"/>
       <c r="C14" s="23"/>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="ES14" s="93"/>
     </row>
-    <row r="15" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="30"/>
       <c r="C15" s="22" t="s">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="ES15" s="93"/>
     </row>
-    <row r="16" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
       <c r="B16" s="30"/>
       <c r="C16" s="22" t="s">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="ES16" s="93"/>
     </row>
-    <row r="17" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A17" s="93"/>
       <c r="B17" s="30"/>
       <c r="C17" s="23"/>
@@ -5522,7 +5522,7 @@
       </c>
       <c r="ES17" s="93"/>
     </row>
-    <row r="18" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A18" s="93"/>
       <c r="B18" s="30"/>
       <c r="C18" s="23"/>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="ES18" s="93"/>
     </row>
-    <row r="19" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A19" s="93"/>
       <c r="B19" s="30"/>
       <c r="C19" s="23"/>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="ES19" s="93"/>
     </row>
-    <row r="20" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A20" s="93"/>
       <c r="B20" s="30"/>
       <c r="C20" s="23"/>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="ES20" s="93"/>
     </row>
-    <row r="21" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A21" s="93"/>
       <c r="B21" s="30"/>
       <c r="C21" s="22" t="s">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="ES21" s="93"/>
     </row>
-    <row r="22" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A22" s="93"/>
       <c r="B22" s="30"/>
       <c r="C22" s="22" t="s">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="ES22" s="93"/>
     </row>
-    <row r="23" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A23" s="93"/>
       <c r="B23" s="30"/>
       <c r="C23" s="23"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="ES23" s="93"/>
     </row>
-    <row r="24" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A24" s="93"/>
       <c r="B24" s="30"/>
       <c r="C24" s="23"/>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="ES24" s="93"/>
     </row>
-    <row r="25" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A25" s="93"/>
       <c r="B25" s="30"/>
       <c r="C25" s="23"/>
@@ -6826,7 +6826,7 @@
       </c>
       <c r="ES25" s="93"/>
     </row>
-    <row r="26" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="93"/>
       <c r="B26" s="31"/>
       <c r="C26" s="26"/>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="ES26" s="93"/>
     </row>
-    <row r="27" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A27" s="93"/>
       <c r="B27" s="15" t="s">
         <v>30</v>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="ES27" s="93"/>
     </row>
-    <row r="28" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A28" s="93"/>
       <c r="B28" s="16"/>
       <c r="C28" s="10"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="ES28" s="93"/>
     </row>
-    <row r="29" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A29" s="93"/>
       <c r="B29" s="16"/>
       <c r="C29" s="10"/>
@@ -7468,7 +7468,7 @@
       </c>
       <c r="ES29" s="93"/>
     </row>
-    <row r="30" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A30" s="93"/>
       <c r="B30" s="16"/>
       <c r="C30" s="10"/>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="ES30" s="93"/>
     </row>
-    <row r="31" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A31" s="93"/>
       <c r="B31" s="16"/>
       <c r="C31" s="10"/>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="ES31" s="93"/>
     </row>
-    <row r="32" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A32" s="93"/>
       <c r="B32" s="16"/>
       <c r="C32" s="10"/>
@@ -7939,7 +7939,7 @@
       </c>
       <c r="ES32" s="93"/>
     </row>
-    <row r="33" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
       <c r="B33" s="16"/>
       <c r="C33" s="9" t="s">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="ES33" s="93"/>
     </row>
-    <row r="34" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
       <c r="B34" s="16"/>
       <c r="C34" s="10"/>
@@ -8259,7 +8259,7 @@
       </c>
       <c r="ES34" s="93"/>
     </row>
-    <row r="35" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A35" s="93"/>
       <c r="B35" s="16"/>
       <c r="C35" s="10"/>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="ES35" s="93"/>
     </row>
-    <row r="36" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
       <c r="B36" s="16"/>
       <c r="C36" s="10"/>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="ES36" s="93"/>
     </row>
-    <row r="37" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
       <c r="B37" s="16"/>
       <c r="C37" s="10"/>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="ES37" s="93"/>
     </row>
-    <row r="38" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
       <c r="B38" s="16"/>
       <c r="C38" s="10"/>
@@ -8895,7 +8895,7 @@
       </c>
       <c r="ES38" s="93"/>
     </row>
-    <row r="39" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A39" s="93"/>
       <c r="B39" s="16"/>
       <c r="C39" s="9" t="s">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="ES39" s="93"/>
     </row>
-    <row r="40" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A40" s="93"/>
       <c r="B40" s="16"/>
       <c r="C40" s="10"/>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="ES40" s="93"/>
     </row>
-    <row r="41" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
       <c r="B41" s="16"/>
       <c r="C41" s="10"/>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="ES41" s="93"/>
     </row>
-    <row r="42" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
       <c r="B42" s="16"/>
       <c r="C42" s="10"/>
@@ -9525,7 +9525,7 @@
       </c>
       <c r="ES42" s="93"/>
     </row>
-    <row r="43" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>
       <c r="B43" s="16"/>
       <c r="C43" s="10"/>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="ES43" s="93"/>
     </row>
-    <row r="44" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
       <c r="B44" s="16"/>
       <c r="C44" s="9" t="s">
@@ -9841,7 +9841,7 @@
       </c>
       <c r="ES44" s="93"/>
     </row>
-    <row r="45" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
       <c r="B45" s="16"/>
       <c r="C45" s="9" t="s">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="ES45" s="93"/>
     </row>
-    <row r="46" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A46" s="93"/>
       <c r="B46" s="16"/>
       <c r="C46" s="9" t="s">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="ES46" s="93"/>
     </row>
-    <row r="47" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A47" s="93"/>
       <c r="B47" s="16"/>
       <c r="C47" s="9" t="s">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="ES47" s="93"/>
     </row>
-    <row r="48" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A48" s="93"/>
       <c r="B48" s="16"/>
       <c r="C48" s="9" t="s">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="ES48" s="93"/>
     </row>
-    <row r="49" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A49" s="93"/>
       <c r="B49" s="16"/>
       <c r="C49" s="9" t="s">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="ES49" s="93"/>
     </row>
-    <row r="50" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A50" s="93"/>
       <c r="B50" s="16"/>
       <c r="C50" s="9" t="s">
@@ -10787,7 +10787,7 @@
       </c>
       <c r="ES50" s="93"/>
     </row>
-    <row r="51" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A51" s="93"/>
       <c r="B51" s="16"/>
       <c r="C51" s="10"/>
@@ -10944,7 +10944,7 @@
       </c>
       <c r="ES51" s="93"/>
     </row>
-    <row r="52" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A52" s="93"/>
       <c r="B52" s="16"/>
       <c r="C52" s="10"/>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="ES52" s="93"/>
     </row>
-    <row r="53" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A53" s="93"/>
       <c r="B53" s="16"/>
       <c r="C53" s="10"/>
@@ -11258,7 +11258,7 @@
       </c>
       <c r="ES53" s="93"/>
     </row>
-    <row r="54" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
       <c r="B54" s="16"/>
       <c r="C54" s="10"/>
@@ -11415,7 +11415,7 @@
       </c>
       <c r="ES54" s="93"/>
     </row>
-    <row r="55" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A55" s="93"/>
       <c r="B55" s="16"/>
       <c r="C55" s="10"/>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="ES55" s="93"/>
     </row>
-    <row r="56" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A56" s="93"/>
       <c r="B56" s="16"/>
       <c r="C56" s="10"/>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="ES56" s="93"/>
     </row>
-    <row r="57" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A57" s="93"/>
       <c r="B57" s="16"/>
       <c r="C57" s="10"/>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="ES57" s="93"/>
     </row>
-    <row r="58" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
       <c r="B58" s="16"/>
       <c r="C58" s="10"/>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="ES58" s="93"/>
     </row>
-    <row r="59" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A59" s="93"/>
       <c r="B59" s="16"/>
       <c r="C59" s="10"/>
@@ -12228,7 +12228,7 @@
       </c>
       <c r="ES59" s="93"/>
     </row>
-    <row r="60" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A60" s="93"/>
       <c r="B60" s="16"/>
       <c r="C60" s="10"/>
@@ -12399,7 +12399,7 @@
       </c>
       <c r="ES60" s="93"/>
     </row>
-    <row r="61" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A61" s="93"/>
       <c r="B61" s="16"/>
       <c r="C61" s="10"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="ES61" s="93"/>
     </row>
-    <row r="62" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A62" s="93"/>
       <c r="B62" s="16"/>
       <c r="C62" s="10"/>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="ES62" s="93"/>
     </row>
-    <row r="63" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A63" s="93"/>
       <c r="B63" s="16"/>
       <c r="C63" s="10"/>
@@ -12898,7 +12898,7 @@
       </c>
       <c r="ES63" s="93"/>
     </row>
-    <row r="64" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A64" s="93"/>
       <c r="B64" s="16"/>
       <c r="C64" s="10"/>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="ES64" s="93"/>
     </row>
-    <row r="65" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A65" s="93"/>
       <c r="B65" s="16"/>
       <c r="C65" s="10"/>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="ES65" s="93"/>
     </row>
-    <row r="66" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A66" s="93"/>
       <c r="B66" s="16"/>
       <c r="C66" s="10"/>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="ES66" s="93"/>
     </row>
-    <row r="67" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A67" s="93"/>
       <c r="B67" s="16"/>
       <c r="C67" s="10"/>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="ES67" s="93"/>
     </row>
-    <row r="68" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A68" s="93"/>
       <c r="B68" s="16"/>
       <c r="C68" s="10"/>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="ES68" s="93"/>
     </row>
-    <row r="69" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A69" s="93"/>
       <c r="B69" s="16"/>
       <c r="C69" s="10"/>
@@ -13840,7 +13840,7 @@
       </c>
       <c r="ES69" s="93"/>
     </row>
-    <row r="70" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A70" s="93"/>
       <c r="B70" s="16"/>
       <c r="C70" s="10"/>
@@ -13997,7 +13997,7 @@
       </c>
       <c r="ES70" s="93"/>
     </row>
-    <row r="71" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A71" s="93"/>
       <c r="B71" s="16"/>
       <c r="C71" s="9" t="s">
@@ -14154,7 +14154,7 @@
       </c>
       <c r="ES71" s="93"/>
     </row>
-    <row r="72" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A72" s="93"/>
       <c r="B72" s="16"/>
       <c r="C72" s="9" t="s">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="ES72" s="93"/>
     </row>
-    <row r="73" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A73" s="93"/>
       <c r="B73" s="16"/>
       <c r="C73" s="9" t="s">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="ES73" s="93"/>
     </row>
-    <row r="74" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A74" s="93"/>
       <c r="B74" s="16"/>
       <c r="C74" s="9" t="s">
@@ -14627,7 +14627,7 @@
       </c>
       <c r="ES74" s="93"/>
     </row>
-    <row r="75" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A75" s="93"/>
       <c r="B75" s="16"/>
       <c r="C75" s="9" t="s">
@@ -14784,7 +14784,7 @@
       </c>
       <c r="ES75" s="93"/>
     </row>
-    <row r="76" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A76" s="93"/>
       <c r="B76" s="16"/>
       <c r="C76" s="9" t="s">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="ES76" s="93"/>
     </row>
-    <row r="77" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A77" s="93"/>
       <c r="B77" s="16"/>
       <c r="C77" s="9" t="s">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="ES77" s="93"/>
     </row>
-    <row r="78" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A78" s="93"/>
       <c r="B78" s="16"/>
       <c r="C78" s="10"/>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="ES78" s="93"/>
     </row>
-    <row r="79" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A79" s="93"/>
       <c r="B79" s="16"/>
       <c r="C79" s="9" t="s">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="ES79" s="93"/>
     </row>
-    <row r="80" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A80" s="93"/>
       <c r="B80" s="16"/>
       <c r="C80" s="9" t="s">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="ES80" s="93"/>
     </row>
-    <row r="81" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="93"/>
       <c r="B81" s="17"/>
       <c r="C81" s="13"/>
@@ -15742,7 +15742,7 @@
       </c>
       <c r="ES81" s="93"/>
     </row>
-    <row r="82" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A82" s="93"/>
       <c r="B82" s="29" t="s">
         <v>92</v>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="ES82" s="93"/>
     </row>
-    <row r="83" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="93"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27" t="s">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="ES83" s="93"/>
     </row>
-    <row r="84" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A84" s="93"/>
       <c r="B84" s="15" t="s">
         <v>95</v>
@@ -16217,7 +16217,7 @@
       </c>
       <c r="ES84" s="93"/>
     </row>
-    <row r="85" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="93"/>
       <c r="B85" s="17"/>
       <c r="C85" s="12" t="s">
@@ -16374,7 +16374,7 @@
       </c>
       <c r="ES85" s="93"/>
     </row>
-    <row r="86" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A86" s="93"/>
       <c r="B86" s="29" t="s">
         <v>98</v>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="ES86" s="93"/>
     </row>
-    <row r="87" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="93"/>
       <c r="B87" s="31"/>
       <c r="C87" s="27" t="s">
@@ -16690,7 +16690,7 @@
       </c>
       <c r="ES87" s="93"/>
     </row>
-    <row r="88" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A88" s="93"/>
       <c r="B88" s="15" t="s">
         <v>101</v>
@@ -16849,7 +16849,7 @@
       </c>
       <c r="ES88" s="93"/>
     </row>
-    <row r="89" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="93"/>
       <c r="B89" s="17"/>
       <c r="C89" s="12" t="s">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="ES89" s="93"/>
     </row>
-    <row r="90" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A90" s="93"/>
       <c r="B90" s="29" t="s">
         <v>104</v>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="ES90" s="93"/>
     </row>
-    <row r="91" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A91" s="93"/>
       <c r="B91" s="30"/>
       <c r="C91" s="22" t="s">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="ES91" s="93"/>
     </row>
-    <row r="92" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A92" s="93"/>
       <c r="B92" s="30"/>
       <c r="C92" s="22" t="s">
@@ -17479,7 +17479,7 @@
       </c>
       <c r="ES92" s="93"/>
     </row>
-    <row r="93" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93"/>
       <c r="B93" s="31"/>
       <c r="C93" s="27" t="s">
@@ -17636,7 +17636,7 @@
       </c>
       <c r="ES93" s="93"/>
     </row>
-    <row r="94" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A94" s="93"/>
       <c r="B94" s="15" t="s">
         <v>109</v>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="ES94" s="93"/>
     </row>
-    <row r="95" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A95" s="93"/>
       <c r="B95" s="16"/>
       <c r="C95" s="9" t="s">
@@ -17952,7 +17952,7 @@
       </c>
       <c r="ES95" s="93"/>
     </row>
-    <row r="96" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="93"/>
       <c r="B96" s="17"/>
       <c r="C96" s="12" t="s">
@@ -18109,7 +18109,7 @@
       </c>
       <c r="ES96" s="93"/>
     </row>
-    <row r="97" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A97" s="93"/>
       <c r="B97" s="29" t="s">
         <v>113</v>
@@ -18268,7 +18268,7 @@
       </c>
       <c r="ES97" s="93"/>
     </row>
-    <row r="98" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A98" s="93"/>
       <c r="B98" s="30"/>
       <c r="C98" s="22" t="s">
@@ -18425,7 +18425,7 @@
       </c>
       <c r="ES98" s="93"/>
     </row>
-    <row r="99" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A99" s="93"/>
       <c r="B99" s="30"/>
       <c r="C99" s="22" t="s">
@@ -18582,7 +18582,7 @@
       </c>
       <c r="ES99" s="93"/>
     </row>
-    <row r="100" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:149" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="93"/>
       <c r="B100" s="31"/>
       <c r="C100" s="27" t="s">
@@ -18745,7 +18745,7 @@
       </c>
       <c r="ES100" s="93"/>
     </row>
-    <row r="101" spans="1:149" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:149" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="93"/>
       <c r="B101" s="93"/>
       <c r="C101" s="93"/>
@@ -18896,7 +18896,7 @@
       <c r="ER101" s="93"/>
       <c r="ES101" s="93"/>
     </row>
-    <row r="102" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A102" s="93"/>
       <c r="B102" s="93"/>
       <c r="C102" s="93"/>
@@ -19055,7 +19055,7 @@
       <c r="ER102" s="93"/>
       <c r="ES102" s="93"/>
     </row>
-    <row r="103" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A103" s="93"/>
       <c r="B103" s="93"/>
       <c r="C103" s="93"/>
@@ -19206,7 +19206,7 @@
       <c r="ER103" s="93"/>
       <c r="ES103" s="93"/>
     </row>
-    <row r="104" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A104" s="93"/>
       <c r="B104" s="93"/>
       <c r="C104" s="93"/>
@@ -19357,7 +19357,7 @@
       <c r="ER104" s="93"/>
       <c r="ES104" s="93"/>
     </row>
-    <row r="105" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A105" s="93"/>
       <c r="B105" s="93"/>
       <c r="C105" s="93"/>
@@ -19508,7 +19508,7 @@
       <c r="ER105" s="93"/>
       <c r="ES105" s="93"/>
     </row>
-    <row r="106" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A106" s="93"/>
       <c r="B106" s="93"/>
       <c r="C106" s="93"/>
@@ -19659,7 +19659,7 @@
       <c r="ER106" s="93"/>
       <c r="ES106" s="93"/>
     </row>
-    <row r="107" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A107" s="93"/>
       <c r="B107" s="93"/>
       <c r="C107" s="93"/>
@@ -19810,7 +19810,7 @@
       <c r="ER107" s="93"/>
       <c r="ES107" s="93"/>
     </row>
-    <row r="108" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A108" s="93"/>
       <c r="B108" s="93"/>
       <c r="C108" s="93"/>
@@ -19961,7 +19961,7 @@
       <c r="ER108" s="93"/>
       <c r="ES108" s="93"/>
     </row>
-    <row r="109" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A109" s="93"/>
       <c r="B109" s="93"/>
       <c r="C109" s="93"/>
@@ -20112,7 +20112,7 @@
       <c r="ER109" s="93"/>
       <c r="ES109" s="93"/>
     </row>
-    <row r="110" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A110" s="93"/>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -20263,7 +20263,7 @@
       <c r="ER110" s="93"/>
       <c r="ES110" s="93"/>
     </row>
-    <row r="111" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A111" s="93"/>
       <c r="B111" s="93"/>
       <c r="C111" s="93"/>
@@ -20414,7 +20414,7 @@
       <c r="ER111" s="93"/>
       <c r="ES111" s="93"/>
     </row>
-    <row r="112" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A112" s="93"/>
       <c r="B112" s="93"/>
       <c r="C112" s="93"/>
@@ -20565,7 +20565,7 @@
       <c r="ER112" s="93"/>
       <c r="ES112" s="93"/>
     </row>
-    <row r="113" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A113" s="93"/>
       <c r="B113" s="93"/>
       <c r="C113" s="93"/>
@@ -20716,7 +20716,7 @@
       <c r="ER113" s="93"/>
       <c r="ES113" s="93"/>
     </row>
-    <row r="114" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A114" s="93"/>
       <c r="B114" s="93"/>
       <c r="C114" s="93"/>
@@ -20867,7 +20867,7 @@
       <c r="ER114" s="93"/>
       <c r="ES114" s="93"/>
     </row>
-    <row r="115" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A115" s="93"/>
       <c r="B115" s="93"/>
       <c r="C115" s="93"/>
@@ -21018,7 +21018,7 @@
       <c r="ER115" s="93"/>
       <c r="ES115" s="93"/>
     </row>
-    <row r="116" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A116" s="93"/>
       <c r="B116" s="93"/>
       <c r="C116" s="93"/>
@@ -21169,7 +21169,7 @@
       <c r="ER116" s="93"/>
       <c r="ES116" s="93"/>
     </row>
-    <row r="117" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A117" s="93"/>
       <c r="B117" s="93"/>
       <c r="C117" s="93"/>
@@ -21320,7 +21320,7 @@
       <c r="ER117" s="93"/>
       <c r="ES117" s="93"/>
     </row>
-    <row r="118" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A118" s="93"/>
       <c r="B118" s="93"/>
       <c r="C118" s="93"/>
@@ -21471,7 +21471,7 @@
       <c r="ER118" s="93"/>
       <c r="ES118" s="93"/>
     </row>
-    <row r="119" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A119" s="93"/>
       <c r="B119" s="93"/>
       <c r="C119" s="93"/>
@@ -21622,7 +21622,7 @@
       <c r="ER119" s="93"/>
       <c r="ES119" s="93"/>
     </row>
-    <row r="120" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A120" s="93"/>
       <c r="B120" s="93"/>
       <c r="C120" s="93"/>
@@ -21773,7 +21773,7 @@
       <c r="ER120" s="93"/>
       <c r="ES120" s="93"/>
     </row>
-    <row r="121" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A121" s="93"/>
       <c r="B121" s="93"/>
       <c r="C121" s="93"/>
@@ -21924,7 +21924,7 @@
       <c r="ER121" s="93"/>
       <c r="ES121" s="93"/>
     </row>
-    <row r="122" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A122" s="93"/>
       <c r="B122" s="93"/>
       <c r="C122" s="93"/>
@@ -22075,7 +22075,7 @@
       <c r="ER122" s="93"/>
       <c r="ES122" s="93"/>
     </row>
-    <row r="123" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A123" s="93"/>
       <c r="B123" s="93"/>
       <c r="C123" s="93"/>
@@ -22226,7 +22226,7 @@
       <c r="ER123" s="93"/>
       <c r="ES123" s="93"/>
     </row>
-    <row r="124" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A124" s="93"/>
       <c r="B124" s="93"/>
       <c r="C124" s="93"/>
@@ -22377,7 +22377,7 @@
       <c r="ER124" s="93"/>
       <c r="ES124" s="93"/>
     </row>
-    <row r="125" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A125" s="93"/>
       <c r="B125" s="93"/>
       <c r="C125" s="93"/>
@@ -22528,7 +22528,7 @@
       <c r="ER125" s="93"/>
       <c r="ES125" s="93"/>
     </row>
-    <row r="126" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A126" s="93"/>
       <c r="B126" s="93"/>
       <c r="C126" s="93"/>
@@ -22679,7 +22679,7 @@
       <c r="ER126" s="93"/>
       <c r="ES126" s="93"/>
     </row>
-    <row r="127" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A127" s="93"/>
       <c r="B127" s="93"/>
       <c r="C127" s="93"/>
@@ -22830,7 +22830,7 @@
       <c r="ER127" s="93"/>
       <c r="ES127" s="93"/>
     </row>
-    <row r="128" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A128" s="93"/>
       <c r="B128" s="93"/>
       <c r="C128" s="93"/>
@@ -22981,7 +22981,7 @@
       <c r="ER128" s="93"/>
       <c r="ES128" s="93"/>
     </row>
-    <row r="129" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A129" s="93"/>
       <c r="B129" s="93"/>
       <c r="C129" s="93"/>
@@ -23132,7 +23132,7 @@
       <c r="ER129" s="93"/>
       <c r="ES129" s="93"/>
     </row>
-    <row r="130" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A130" s="93"/>
       <c r="B130" s="93"/>
       <c r="C130" s="93"/>
@@ -23283,7 +23283,7 @@
       <c r="ER130" s="93"/>
       <c r="ES130" s="93"/>
     </row>
-    <row r="131" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A131" s="93"/>
       <c r="B131" s="93"/>
       <c r="C131" s="93"/>
@@ -23434,7 +23434,7 @@
       <c r="ER131" s="93"/>
       <c r="ES131" s="93"/>
     </row>
-    <row r="132" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A132" s="93"/>
       <c r="B132" s="93"/>
       <c r="C132" s="93"/>
@@ -23585,7 +23585,7 @@
       <c r="ER132" s="93"/>
       <c r="ES132" s="93"/>
     </row>
-    <row r="133" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A133" s="93"/>
       <c r="B133" s="93"/>
       <c r="C133" s="93"/>
@@ -23736,7 +23736,7 @@
       <c r="ER133" s="93"/>
       <c r="ES133" s="93"/>
     </row>
-    <row r="134" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A134" s="93"/>
       <c r="B134" s="93"/>
       <c r="C134" s="93"/>
@@ -23887,7 +23887,7 @@
       <c r="ER134" s="93"/>
       <c r="ES134" s="93"/>
     </row>
-    <row r="135" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A135" s="93"/>
       <c r="B135" s="93"/>
       <c r="C135" s="93"/>
@@ -24038,7 +24038,7 @@
       <c r="ER135" s="93"/>
       <c r="ES135" s="93"/>
     </row>
-    <row r="136" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A136" s="93"/>
       <c r="B136" s="93"/>
       <c r="C136" s="93"/>
@@ -24189,7 +24189,7 @@
       <c r="ER136" s="93"/>
       <c r="ES136" s="93"/>
     </row>
-    <row r="137" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A137" s="93"/>
       <c r="B137" s="93"/>
       <c r="C137" s="93"/>
@@ -24340,7 +24340,7 @@
       <c r="ER137" s="93"/>
       <c r="ES137" s="93"/>
     </row>
-    <row r="138" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A138" s="93"/>
       <c r="B138" s="93"/>
       <c r="C138" s="93"/>
@@ -24491,7 +24491,7 @@
       <c r="ER138" s="93"/>
       <c r="ES138" s="93"/>
     </row>
-    <row r="139" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A139" s="93"/>
       <c r="B139" s="93"/>
       <c r="C139" s="93"/>
@@ -24642,7 +24642,7 @@
       <c r="ER139" s="93"/>
       <c r="ES139" s="93"/>
     </row>
-    <row r="140" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A140" s="93"/>
       <c r="B140" s="93"/>
       <c r="C140" s="93"/>
@@ -24793,7 +24793,7 @@
       <c r="ER140" s="93"/>
       <c r="ES140" s="93"/>
     </row>
-    <row r="141" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A141" s="93"/>
       <c r="B141" s="93"/>
       <c r="C141" s="93"/>
@@ -24944,7 +24944,7 @@
       <c r="ER141" s="93"/>
       <c r="ES141" s="93"/>
     </row>
-    <row r="142" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A142" s="93"/>
       <c r="B142" s="93"/>
       <c r="C142" s="93"/>
@@ -25095,7 +25095,7 @@
       <c r="ER142" s="93"/>
       <c r="ES142" s="93"/>
     </row>
-    <row r="143" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A143" s="93"/>
       <c r="B143" s="93"/>
       <c r="C143" s="93"/>
@@ -25246,7 +25246,7 @@
       <c r="ER143" s="93"/>
       <c r="ES143" s="93"/>
     </row>
-    <row r="144" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A144" s="93"/>
       <c r="B144" s="93"/>
       <c r="C144" s="93"/>
@@ -25397,7 +25397,7 @@
       <c r="ER144" s="93"/>
       <c r="ES144" s="93"/>
     </row>
-    <row r="145" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A145" s="93"/>
       <c r="B145" s="93"/>
       <c r="C145" s="93"/>
@@ -25548,7 +25548,7 @@
       <c r="ER145" s="93"/>
       <c r="ES145" s="93"/>
     </row>
-    <row r="146" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A146" s="93"/>
       <c r="B146" s="93"/>
       <c r="C146" s="93"/>
@@ -25699,7 +25699,7 @@
       <c r="ER146" s="93"/>
       <c r="ES146" s="93"/>
     </row>
-    <row r="147" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A147" s="93"/>
       <c r="B147" s="93"/>
       <c r="C147" s="93"/>
@@ -25850,7 +25850,7 @@
       <c r="ER147" s="93"/>
       <c r="ES147" s="93"/>
     </row>
-    <row r="148" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A148" s="93"/>
       <c r="B148" s="93"/>
       <c r="C148" s="93"/>
@@ -26001,7 +26001,7 @@
       <c r="ER148" s="93"/>
       <c r="ES148" s="93"/>
     </row>
-    <row r="149" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A149" s="93"/>
       <c r="B149" s="93"/>
       <c r="C149" s="93"/>
@@ -26152,7 +26152,7 @@
       <c r="ER149" s="93"/>
       <c r="ES149" s="93"/>
     </row>
-    <row r="150" spans="1:149" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:149" x14ac:dyDescent="0.2">
       <c r="A150" s="93"/>
       <c r="B150" s="93"/>
       <c r="C150" s="93"/>
@@ -26350,7 +26350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB58842-6397-4FFF-8F1B-491E9628A48D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4649CF9-E47A-4770-BEB2-98E2BD30BB65}">
   <dimension ref="A1:EN145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26360,19 +26360,19 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="141" width="8.90625" style="1" customWidth="1"/>
-    <col min="142" max="142" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="33.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="200.6328125" style="1" customWidth="1"/>
-    <col min="145" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="141" width="9.5703125" style="1" customWidth="1"/>
+    <col min="142" max="142" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="200.7109375" style="1" customWidth="1"/>
+    <col min="145" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:144" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:144" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
         <v>442</v>
@@ -26520,7 +26520,7 @@
       <c r="EM1" s="93"/>
       <c r="EN1" s="93"/>
     </row>
-    <row r="2" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -26816,7 +26816,7 @@
       <c r="EM2" s="93"/>
       <c r="EN2" s="93"/>
     </row>
-    <row r="3" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -27246,7 +27246,7 @@
       </c>
       <c r="EN3" s="93"/>
     </row>
-    <row r="4" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A4" s="93"/>
       <c r="B4" s="15" t="s">
         <v>247</v>
@@ -27400,7 +27400,7 @@
       </c>
       <c r="EN4" s="93"/>
     </row>
-    <row r="5" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="16"/>
       <c r="C5" s="86" t="s">
@@ -27554,7 +27554,7 @@
       </c>
       <c r="EN5" s="93"/>
     </row>
-    <row r="6" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A6" s="93"/>
       <c r="B6" s="16"/>
       <c r="C6" s="86" t="s">
@@ -27706,7 +27706,7 @@
       </c>
       <c r="EN6" s="93"/>
     </row>
-    <row r="7" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A7" s="93"/>
       <c r="B7" s="16"/>
       <c r="C7" s="86" t="s">
@@ -27858,7 +27858,7 @@
       </c>
       <c r="EN7" s="93"/>
     </row>
-    <row r="8" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93"/>
       <c r="B8" s="17"/>
       <c r="C8" s="88" t="s">
@@ -28010,7 +28010,7 @@
       </c>
       <c r="EN8" s="93"/>
     </row>
-    <row r="9" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A9" s="93"/>
       <c r="B9" s="29" t="s">
         <v>253</v>
@@ -28164,7 +28164,7 @@
       </c>
       <c r="EN9" s="93"/>
     </row>
-    <row r="10" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A10" s="93"/>
       <c r="B10" s="30"/>
       <c r="C10" s="25" t="s">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="EN10" s="93"/>
     </row>
-    <row r="11" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
       <c r="B11" s="30"/>
       <c r="C11" s="25" t="s">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="EN11" s="93"/>
     </row>
-    <row r="12" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A12" s="93"/>
       <c r="B12" s="30"/>
       <c r="C12" s="25" t="s">
@@ -28620,7 +28620,7 @@
       </c>
       <c r="EN12" s="93"/>
     </row>
-    <row r="13" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A13" s="93"/>
       <c r="B13" s="30"/>
       <c r="C13" s="25" t="s">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="EN13" s="93"/>
     </row>
-    <row r="14" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93"/>
       <c r="B14" s="31"/>
       <c r="C14" s="92" t="s">
@@ -28924,7 +28924,7 @@
       </c>
       <c r="EN14" s="93"/>
     </row>
-    <row r="15" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="15" t="s">
         <v>260</v>
@@ -29078,7 +29078,7 @@
       </c>
       <c r="EN15" s="93"/>
     </row>
-    <row r="16" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
       <c r="B16" s="16"/>
       <c r="C16" s="86" t="s">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="EN16" s="93"/>
     </row>
-    <row r="17" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="93"/>
       <c r="B17" s="17"/>
       <c r="C17" s="88" t="s">
@@ -29382,7 +29382,7 @@
       </c>
       <c r="EN17" s="93"/>
     </row>
-    <row r="18" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A18" s="93"/>
       <c r="B18" s="29" t="s">
         <v>264</v>
@@ -29536,7 +29536,7 @@
       </c>
       <c r="EN18" s="93"/>
     </row>
-    <row r="19" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="93"/>
       <c r="B19" s="31"/>
       <c r="C19" s="92" t="s">
@@ -29688,7 +29688,7 @@
       </c>
       <c r="EN19" s="93"/>
     </row>
-    <row r="20" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A20" s="93"/>
       <c r="B20" s="15" t="s">
         <v>267</v>
@@ -29844,7 +29844,7 @@
       </c>
       <c r="EN20" s="93"/>
     </row>
-    <row r="21" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A21" s="93"/>
       <c r="B21" s="16"/>
       <c r="C21" s="86" t="s">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="EN21" s="93"/>
     </row>
-    <row r="22" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A22" s="93"/>
       <c r="B22" s="16"/>
       <c r="C22" s="86" t="s">
@@ -30170,7 +30170,7 @@
       </c>
       <c r="EN22" s="93"/>
     </row>
-    <row r="23" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A23" s="93"/>
       <c r="B23" s="16"/>
       <c r="C23" s="86" t="s">
@@ -30322,7 +30322,7 @@
       </c>
       <c r="EN23" s="93"/>
     </row>
-    <row r="24" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A24" s="93"/>
       <c r="B24" s="16"/>
       <c r="C24" s="86" t="s">
@@ -30482,7 +30482,7 @@
       </c>
       <c r="EN24" s="93"/>
     </row>
-    <row r="25" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A25" s="93"/>
       <c r="B25" s="16"/>
       <c r="C25" s="86" t="s">
@@ -30634,7 +30634,7 @@
       </c>
       <c r="EN25" s="93"/>
     </row>
-    <row r="26" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A26" s="93"/>
       <c r="B26" s="16"/>
       <c r="C26" s="86" t="s">
@@ -30794,7 +30794,7 @@
       </c>
       <c r="EN26" s="93"/>
     </row>
-    <row r="27" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A27" s="93"/>
       <c r="B27" s="16"/>
       <c r="C27" s="86" t="s">
@@ -30946,7 +30946,7 @@
       </c>
       <c r="EN27" s="93"/>
     </row>
-    <row r="28" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A28" s="93"/>
       <c r="B28" s="16"/>
       <c r="C28" s="86" t="s">
@@ -31110,7 +31110,7 @@
       </c>
       <c r="EN28" s="93"/>
     </row>
-    <row r="29" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A29" s="93"/>
       <c r="B29" s="16"/>
       <c r="C29" s="86" t="s">
@@ -31266,7 +31266,7 @@
       </c>
       <c r="EN29" s="93"/>
     </row>
-    <row r="30" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A30" s="93"/>
       <c r="B30" s="16"/>
       <c r="C30" s="86" t="s">
@@ -31426,7 +31426,7 @@
       </c>
       <c r="EN30" s="93"/>
     </row>
-    <row r="31" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A31" s="93"/>
       <c r="B31" s="16"/>
       <c r="C31" s="86" t="s">
@@ -31582,7 +31582,7 @@
       </c>
       <c r="EN31" s="93"/>
     </row>
-    <row r="32" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A32" s="93"/>
       <c r="B32" s="16"/>
       <c r="C32" s="86" t="s">
@@ -31768,7 +31768,7 @@
       </c>
       <c r="EN32" s="93"/>
     </row>
-    <row r="33" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
       <c r="B33" s="16"/>
       <c r="C33" s="86" t="s">
@@ -31922,7 +31922,7 @@
       </c>
       <c r="EN33" s="93"/>
     </row>
-    <row r="34" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
       <c r="B34" s="16"/>
       <c r="C34" s="86" t="s">
@@ -32092,7 +32092,7 @@
       </c>
       <c r="EN34" s="93"/>
     </row>
-    <row r="35" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="93"/>
       <c r="B35" s="17"/>
       <c r="C35" s="88" t="s">
@@ -32244,7 +32244,7 @@
       </c>
       <c r="EN35" s="93"/>
     </row>
-    <row r="36" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
       <c r="B36" s="29" t="s">
         <v>284</v>
@@ -32398,7 +32398,7 @@
       </c>
       <c r="EN36" s="93"/>
     </row>
-    <row r="37" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
       <c r="B37" s="30"/>
       <c r="C37" s="25" t="s">
@@ -32550,7 +32550,7 @@
       </c>
       <c r="EN37" s="93"/>
     </row>
-    <row r="38" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
       <c r="B38" s="30"/>
       <c r="C38" s="25" t="s">
@@ -32702,7 +32702,7 @@
       </c>
       <c r="EN38" s="93"/>
     </row>
-    <row r="39" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A39" s="93"/>
       <c r="B39" s="30"/>
       <c r="C39" s="25" t="s">
@@ -32854,7 +32854,7 @@
       </c>
       <c r="EN39" s="93"/>
     </row>
-    <row r="40" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A40" s="93"/>
       <c r="B40" s="30"/>
       <c r="C40" s="25" t="s">
@@ -32890,13 +32890,13 @@
       <c r="AE40" s="38"/>
       <c r="AF40" s="58"/>
       <c r="AG40" s="40"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="38"/>
+      <c r="AH40" s="45"/>
+      <c r="AI40" s="61"/>
       <c r="AJ40" s="58"/>
-      <c r="AK40" s="38"/>
+      <c r="AK40" s="61"/>
       <c r="AL40" s="58"/>
       <c r="AM40" s="40"/>
-      <c r="AN40" s="40"/>
+      <c r="AN40" s="45"/>
       <c r="AO40" s="40"/>
       <c r="AP40" s="38"/>
       <c r="AQ40" s="58"/>
@@ -32978,7 +32978,7 @@
       <c r="DO40" s="58"/>
       <c r="DP40" s="40"/>
       <c r="DQ40" s="40"/>
-      <c r="DR40" s="40"/>
+      <c r="DR40" s="45"/>
       <c r="DS40" s="40"/>
       <c r="DT40" s="40"/>
       <c r="DU40" s="40"/>
@@ -32992,10 +32992,10 @@
       <c r="EC40" s="58"/>
       <c r="ED40" s="38"/>
       <c r="EE40" s="58"/>
-      <c r="EF40" s="40"/>
-      <c r="EG40" s="40"/>
-      <c r="EH40" s="40"/>
-      <c r="EI40" s="40"/>
+      <c r="EF40" s="45"/>
+      <c r="EG40" s="45"/>
+      <c r="EH40" s="45"/>
+      <c r="EI40" s="45"/>
       <c r="EJ40" s="40"/>
       <c r="EK40" s="40"/>
       <c r="EL40" s="90" t="s">
@@ -33006,7 +33006,7 @@
       </c>
       <c r="EN40" s="93"/>
     </row>
-    <row r="41" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
       <c r="B41" s="30"/>
       <c r="C41" s="25" t="s">
@@ -33158,7 +33158,7 @@
       </c>
       <c r="EN41" s="93"/>
     </row>
-    <row r="42" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
       <c r="B42" s="30"/>
       <c r="C42" s="25" t="s">
@@ -33310,7 +33310,7 @@
       </c>
       <c r="EN42" s="93"/>
     </row>
-    <row r="43" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>
       <c r="B43" s="30"/>
       <c r="C43" s="25" t="s">
@@ -33462,7 +33462,7 @@
       </c>
       <c r="EN43" s="93"/>
     </row>
-    <row r="44" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
       <c r="B44" s="30"/>
       <c r="C44" s="25" t="s">
@@ -33614,7 +33614,7 @@
       </c>
       <c r="EN44" s="93"/>
     </row>
-    <row r="45" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
       <c r="B45" s="30"/>
       <c r="C45" s="25" t="s">
@@ -33766,7 +33766,7 @@
       </c>
       <c r="EN45" s="93"/>
     </row>
-    <row r="46" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A46" s="93"/>
       <c r="B46" s="30"/>
       <c r="C46" s="25" t="s">
@@ -33918,7 +33918,7 @@
       </c>
       <c r="EN46" s="93"/>
     </row>
-    <row r="47" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A47" s="93"/>
       <c r="B47" s="30"/>
       <c r="C47" s="25" t="s">
@@ -34070,7 +34070,7 @@
       </c>
       <c r="EN47" s="93"/>
     </row>
-    <row r="48" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A48" s="93"/>
       <c r="B48" s="30"/>
       <c r="C48" s="25" t="s">
@@ -34222,7 +34222,7 @@
       </c>
       <c r="EN48" s="93"/>
     </row>
-    <row r="49" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A49" s="93"/>
       <c r="B49" s="30"/>
       <c r="C49" s="25" t="s">
@@ -34378,7 +34378,7 @@
       </c>
       <c r="EN49" s="93"/>
     </row>
-    <row r="50" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A50" s="93"/>
       <c r="B50" s="30"/>
       <c r="C50" s="25" t="s">
@@ -34530,7 +34530,7 @@
       </c>
       <c r="EN50" s="93"/>
     </row>
-    <row r="51" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A51" s="93"/>
       <c r="B51" s="30"/>
       <c r="C51" s="25" t="s">
@@ -34682,7 +34682,7 @@
       </c>
       <c r="EN51" s="93"/>
     </row>
-    <row r="52" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A52" s="93"/>
       <c r="B52" s="30"/>
       <c r="C52" s="25" t="s">
@@ -34834,7 +34834,7 @@
       </c>
       <c r="EN52" s="93"/>
     </row>
-    <row r="53" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A53" s="93"/>
       <c r="B53" s="30"/>
       <c r="C53" s="25" t="s">
@@ -34986,7 +34986,7 @@
       </c>
       <c r="EN53" s="93"/>
     </row>
-    <row r="54" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
       <c r="B54" s="30"/>
       <c r="C54" s="25" t="s">
@@ -35138,7 +35138,7 @@
       </c>
       <c r="EN54" s="93"/>
     </row>
-    <row r="55" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A55" s="93"/>
       <c r="B55" s="30"/>
       <c r="C55" s="25" t="s">
@@ -35290,7 +35290,7 @@
       </c>
       <c r="EN55" s="93"/>
     </row>
-    <row r="56" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A56" s="93"/>
       <c r="B56" s="30"/>
       <c r="C56" s="25" t="s">
@@ -35442,7 +35442,7 @@
       </c>
       <c r="EN56" s="93"/>
     </row>
-    <row r="57" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A57" s="93"/>
       <c r="B57" s="30"/>
       <c r="C57" s="25" t="s">
@@ -35596,7 +35596,7 @@
       </c>
       <c r="EN57" s="93"/>
     </row>
-    <row r="58" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
       <c r="B58" s="30"/>
       <c r="C58" s="25" t="s">
@@ -35748,7 +35748,7 @@
       </c>
       <c r="EN58" s="93"/>
     </row>
-    <row r="59" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A59" s="93"/>
       <c r="B59" s="30"/>
       <c r="C59" s="25" t="s">
@@ -35900,7 +35900,7 @@
       </c>
       <c r="EN59" s="93"/>
     </row>
-    <row r="60" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A60" s="93"/>
       <c r="B60" s="30"/>
       <c r="C60" s="25" t="s">
@@ -36054,7 +36054,7 @@
       </c>
       <c r="EN60" s="93"/>
     </row>
-    <row r="61" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="93"/>
       <c r="B61" s="31"/>
       <c r="C61" s="92" t="s">
@@ -36206,7 +36206,7 @@
       </c>
       <c r="EN61" s="93"/>
     </row>
-    <row r="62" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A62" s="93"/>
       <c r="B62" s="15" t="s">
         <v>311</v>
@@ -36362,7 +36362,7 @@
       </c>
       <c r="EN62" s="93"/>
     </row>
-    <row r="63" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A63" s="93"/>
       <c r="B63" s="16"/>
       <c r="C63" s="86" t="s">
@@ -36514,7 +36514,7 @@
       </c>
       <c r="EN63" s="93"/>
     </row>
-    <row r="64" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A64" s="93"/>
       <c r="B64" s="16"/>
       <c r="C64" s="86" t="s">
@@ -36668,7 +36668,7 @@
       </c>
       <c r="EN64" s="93"/>
     </row>
-    <row r="65" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A65" s="93"/>
       <c r="B65" s="16"/>
       <c r="C65" s="86" t="s">
@@ -36820,7 +36820,7 @@
       </c>
       <c r="EN65" s="93"/>
     </row>
-    <row r="66" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A66" s="93"/>
       <c r="B66" s="16"/>
       <c r="C66" s="86" t="s">
@@ -36972,7 +36972,7 @@
       </c>
       <c r="EN66" s="93"/>
     </row>
-    <row r="67" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A67" s="93"/>
       <c r="B67" s="16"/>
       <c r="C67" s="86" t="s">
@@ -37124,7 +37124,7 @@
       </c>
       <c r="EN67" s="93"/>
     </row>
-    <row r="68" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A68" s="93"/>
       <c r="B68" s="16"/>
       <c r="C68" s="86" t="s">
@@ -37278,7 +37278,7 @@
       </c>
       <c r="EN68" s="93"/>
     </row>
-    <row r="69" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A69" s="93"/>
       <c r="B69" s="16"/>
       <c r="C69" s="86" t="s">
@@ -37430,7 +37430,7 @@
       </c>
       <c r="EN69" s="93"/>
     </row>
-    <row r="70" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A70" s="93"/>
       <c r="B70" s="16"/>
       <c r="C70" s="86" t="s">
@@ -37582,7 +37582,7 @@
       </c>
       <c r="EN70" s="93"/>
     </row>
-    <row r="71" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A71" s="93"/>
       <c r="B71" s="16"/>
       <c r="C71" s="86" t="s">
@@ -37736,7 +37736,7 @@
       </c>
       <c r="EN71" s="93"/>
     </row>
-    <row r="72" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A72" s="93"/>
       <c r="B72" s="16"/>
       <c r="C72" s="86" t="s">
@@ -37892,7 +37892,7 @@
       </c>
       <c r="EN72" s="93"/>
     </row>
-    <row r="73" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A73" s="93"/>
       <c r="B73" s="16"/>
       <c r="C73" s="86" t="s">
@@ -38046,7 +38046,7 @@
       </c>
       <c r="EN73" s="93"/>
     </row>
-    <row r="74" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="93"/>
       <c r="B74" s="17"/>
       <c r="C74" s="88" t="s">
@@ -38202,7 +38202,7 @@
       </c>
       <c r="EN74" s="93"/>
     </row>
-    <row r="75" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A75" s="93"/>
       <c r="B75" s="29" t="s">
         <v>325</v>
@@ -38356,7 +38356,7 @@
       </c>
       <c r="EN75" s="93"/>
     </row>
-    <row r="76" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A76" s="93"/>
       <c r="B76" s="30"/>
       <c r="C76" s="25" t="s">
@@ -38508,7 +38508,7 @@
       </c>
       <c r="EN76" s="93"/>
     </row>
-    <row r="77" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A77" s="93"/>
       <c r="B77" s="30"/>
       <c r="C77" s="25" t="s">
@@ -38660,7 +38660,7 @@
       </c>
       <c r="EN77" s="93"/>
     </row>
-    <row r="78" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A78" s="93"/>
       <c r="B78" s="30"/>
       <c r="C78" s="25" t="s">
@@ -38812,7 +38812,7 @@
       </c>
       <c r="EN78" s="93"/>
     </row>
-    <row r="79" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A79" s="93"/>
       <c r="B79" s="30"/>
       <c r="C79" s="25" t="s">
@@ -38964,7 +38964,7 @@
       </c>
       <c r="EN79" s="93"/>
     </row>
-    <row r="80" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A80" s="93"/>
       <c r="B80" s="30"/>
       <c r="C80" s="25" t="s">
@@ -39116,7 +39116,7 @@
       </c>
       <c r="EN80" s="93"/>
     </row>
-    <row r="81" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A81" s="93"/>
       <c r="B81" s="30"/>
       <c r="C81" s="25" t="s">
@@ -39268,7 +39268,7 @@
       </c>
       <c r="EN81" s="93"/>
     </row>
-    <row r="82" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A82" s="93"/>
       <c r="B82" s="30"/>
       <c r="C82" s="25" t="s">
@@ -39420,7 +39420,7 @@
       </c>
       <c r="EN82" s="93"/>
     </row>
-    <row r="83" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A83" s="93"/>
       <c r="B83" s="30"/>
       <c r="C83" s="25" t="s">
@@ -39572,7 +39572,7 @@
       </c>
       <c r="EN83" s="93"/>
     </row>
-    <row r="84" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A84" s="93"/>
       <c r="B84" s="30"/>
       <c r="C84" s="25" t="s">
@@ -39724,7 +39724,7 @@
       </c>
       <c r="EN84" s="93"/>
     </row>
-    <row r="85" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A85" s="93"/>
       <c r="B85" s="30"/>
       <c r="C85" s="25" t="s">
@@ -39876,7 +39876,7 @@
       </c>
       <c r="EN85" s="93"/>
     </row>
-    <row r="86" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A86" s="93"/>
       <c r="B86" s="30"/>
       <c r="C86" s="25" t="s">
@@ -40028,7 +40028,7 @@
       </c>
       <c r="EN86" s="93"/>
     </row>
-    <row r="87" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A87" s="93"/>
       <c r="B87" s="30"/>
       <c r="C87" s="25" t="s">
@@ -40180,7 +40180,7 @@
       </c>
       <c r="EN87" s="93"/>
     </row>
-    <row r="88" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A88" s="93"/>
       <c r="B88" s="30"/>
       <c r="C88" s="25" t="s">
@@ -40332,7 +40332,7 @@
       </c>
       <c r="EN88" s="93"/>
     </row>
-    <row r="89" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A89" s="93"/>
       <c r="B89" s="30"/>
       <c r="C89" s="25" t="s">
@@ -40484,7 +40484,7 @@
       </c>
       <c r="EN89" s="93"/>
     </row>
-    <row r="90" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A90" s="93"/>
       <c r="B90" s="30"/>
       <c r="C90" s="25" t="s">
@@ -40636,7 +40636,7 @@
       </c>
       <c r="EN90" s="93"/>
     </row>
-    <row r="91" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A91" s="93"/>
       <c r="B91" s="30"/>
       <c r="C91" s="25" t="s">
@@ -40788,7 +40788,7 @@
       </c>
       <c r="EN91" s="93"/>
     </row>
-    <row r="92" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A92" s="93"/>
       <c r="B92" s="30"/>
       <c r="C92" s="25" t="s">
@@ -40940,7 +40940,7 @@
       </c>
       <c r="EN92" s="93"/>
     </row>
-    <row r="93" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="93"/>
       <c r="B93" s="31"/>
       <c r="C93" s="92" t="s">
@@ -41092,7 +41092,7 @@
       </c>
       <c r="EN93" s="93"/>
     </row>
-    <row r="94" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A94" s="93"/>
       <c r="B94" s="15" t="s">
         <v>345</v>
@@ -41246,7 +41246,7 @@
       </c>
       <c r="EN94" s="93"/>
     </row>
-    <row r="95" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:144" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="93"/>
       <c r="B95" s="17"/>
       <c r="C95" s="88" t="s">
@@ -41398,7 +41398,7 @@
       </c>
       <c r="EN95" s="93"/>
     </row>
-    <row r="96" spans="1:144" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:144" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="93"/>
       <c r="B96" s="93"/>
       <c r="C96" s="93"/>
@@ -41544,7 +41544,7 @@
       <c r="EM96" s="93"/>
       <c r="EN96" s="93"/>
     </row>
-    <row r="97" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A97" s="93"/>
       <c r="B97" s="93"/>
       <c r="C97" s="93"/>
@@ -41698,7 +41698,7 @@
       <c r="EM97" s="93"/>
       <c r="EN97" s="93"/>
     </row>
-    <row r="98" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A98" s="93"/>
       <c r="B98" s="93"/>
       <c r="C98" s="93"/>
@@ -41844,7 +41844,7 @@
       <c r="EM98" s="93"/>
       <c r="EN98" s="93"/>
     </row>
-    <row r="99" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A99" s="93"/>
       <c r="B99" s="93"/>
       <c r="C99" s="93"/>
@@ -41990,7 +41990,7 @@
       <c r="EM99" s="93"/>
       <c r="EN99" s="93"/>
     </row>
-    <row r="100" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A100" s="93"/>
       <c r="B100" s="93"/>
       <c r="C100" s="93"/>
@@ -42136,7 +42136,7 @@
       <c r="EM100" s="93"/>
       <c r="EN100" s="93"/>
     </row>
-    <row r="101" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A101" s="93"/>
       <c r="B101" s="93"/>
       <c r="C101" s="93"/>
@@ -42282,7 +42282,7 @@
       <c r="EM101" s="93"/>
       <c r="EN101" s="93"/>
     </row>
-    <row r="102" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A102" s="93"/>
       <c r="B102" s="93"/>
       <c r="C102" s="93"/>
@@ -42428,7 +42428,7 @@
       <c r="EM102" s="93"/>
       <c r="EN102" s="93"/>
     </row>
-    <row r="103" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A103" s="93"/>
       <c r="B103" s="93"/>
       <c r="C103" s="93"/>
@@ -42574,7 +42574,7 @@
       <c r="EM103" s="93"/>
       <c r="EN103" s="93"/>
     </row>
-    <row r="104" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A104" s="93"/>
       <c r="B104" s="93"/>
       <c r="C104" s="93"/>
@@ -42720,7 +42720,7 @@
       <c r="EM104" s="93"/>
       <c r="EN104" s="93"/>
     </row>
-    <row r="105" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A105" s="93"/>
       <c r="B105" s="93"/>
       <c r="C105" s="93"/>
@@ -42866,7 +42866,7 @@
       <c r="EM105" s="93"/>
       <c r="EN105" s="93"/>
     </row>
-    <row r="106" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A106" s="93"/>
       <c r="B106" s="93"/>
       <c r="C106" s="93"/>
@@ -43012,7 +43012,7 @@
       <c r="EM106" s="93"/>
       <c r="EN106" s="93"/>
     </row>
-    <row r="107" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A107" s="93"/>
       <c r="B107" s="93"/>
       <c r="C107" s="93"/>
@@ -43158,7 +43158,7 @@
       <c r="EM107" s="93"/>
       <c r="EN107" s="93"/>
     </row>
-    <row r="108" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A108" s="93"/>
       <c r="B108" s="93"/>
       <c r="C108" s="93"/>
@@ -43304,7 +43304,7 @@
       <c r="EM108" s="93"/>
       <c r="EN108" s="93"/>
     </row>
-    <row r="109" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A109" s="93"/>
       <c r="B109" s="93"/>
       <c r="C109" s="93"/>
@@ -43450,7 +43450,7 @@
       <c r="EM109" s="93"/>
       <c r="EN109" s="93"/>
     </row>
-    <row r="110" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A110" s="93"/>
       <c r="B110" s="93"/>
       <c r="C110" s="93"/>
@@ -43596,7 +43596,7 @@
       <c r="EM110" s="93"/>
       <c r="EN110" s="93"/>
     </row>
-    <row r="111" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A111" s="93"/>
       <c r="B111" s="93"/>
       <c r="C111" s="93"/>
@@ -43742,7 +43742,7 @@
       <c r="EM111" s="93"/>
       <c r="EN111" s="93"/>
     </row>
-    <row r="112" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A112" s="93"/>
       <c r="B112" s="93"/>
       <c r="C112" s="93"/>
@@ -43888,7 +43888,7 @@
       <c r="EM112" s="93"/>
       <c r="EN112" s="93"/>
     </row>
-    <row r="113" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A113" s="93"/>
       <c r="B113" s="93"/>
       <c r="C113" s="93"/>
@@ -44034,7 +44034,7 @@
       <c r="EM113" s="93"/>
       <c r="EN113" s="93"/>
     </row>
-    <row r="114" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A114" s="93"/>
       <c r="B114" s="93"/>
       <c r="C114" s="93"/>
@@ -44180,7 +44180,7 @@
       <c r="EM114" s="93"/>
       <c r="EN114" s="93"/>
     </row>
-    <row r="115" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A115" s="93"/>
       <c r="B115" s="93"/>
       <c r="C115" s="93"/>
@@ -44326,7 +44326,7 @@
       <c r="EM115" s="93"/>
       <c r="EN115" s="93"/>
     </row>
-    <row r="116" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A116" s="93"/>
       <c r="B116" s="93"/>
       <c r="C116" s="93"/>
@@ -44472,7 +44472,7 @@
       <c r="EM116" s="93"/>
       <c r="EN116" s="93"/>
     </row>
-    <row r="117" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A117" s="93"/>
       <c r="B117" s="93"/>
       <c r="C117" s="93"/>
@@ -44618,7 +44618,7 @@
       <c r="EM117" s="93"/>
       <c r="EN117" s="93"/>
     </row>
-    <row r="118" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A118" s="93"/>
       <c r="B118" s="93"/>
       <c r="C118" s="93"/>
@@ -44764,7 +44764,7 @@
       <c r="EM118" s="93"/>
       <c r="EN118" s="93"/>
     </row>
-    <row r="119" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A119" s="93"/>
       <c r="B119" s="93"/>
       <c r="C119" s="93"/>
@@ -44910,7 +44910,7 @@
       <c r="EM119" s="93"/>
       <c r="EN119" s="93"/>
     </row>
-    <row r="120" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A120" s="93"/>
       <c r="B120" s="93"/>
       <c r="C120" s="93"/>
@@ -45056,7 +45056,7 @@
       <c r="EM120" s="93"/>
       <c r="EN120" s="93"/>
     </row>
-    <row r="121" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A121" s="93"/>
       <c r="B121" s="93"/>
       <c r="C121" s="93"/>
@@ -45202,7 +45202,7 @@
       <c r="EM121" s="93"/>
       <c r="EN121" s="93"/>
     </row>
-    <row r="122" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A122" s="93"/>
       <c r="B122" s="93"/>
       <c r="C122" s="93"/>
@@ -45348,7 +45348,7 @@
       <c r="EM122" s="93"/>
       <c r="EN122" s="93"/>
     </row>
-    <row r="123" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A123" s="93"/>
       <c r="B123" s="93"/>
       <c r="C123" s="93"/>
@@ -45494,7 +45494,7 @@
       <c r="EM123" s="93"/>
       <c r="EN123" s="93"/>
     </row>
-    <row r="124" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A124" s="93"/>
       <c r="B124" s="93"/>
       <c r="C124" s="93"/>
@@ -45640,7 +45640,7 @@
       <c r="EM124" s="93"/>
       <c r="EN124" s="93"/>
     </row>
-    <row r="125" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A125" s="93"/>
       <c r="B125" s="93"/>
       <c r="C125" s="93"/>
@@ -45786,7 +45786,7 @@
       <c r="EM125" s="93"/>
       <c r="EN125" s="93"/>
     </row>
-    <row r="126" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A126" s="93"/>
       <c r="B126" s="93"/>
       <c r="C126" s="93"/>
@@ -45932,7 +45932,7 @@
       <c r="EM126" s="93"/>
       <c r="EN126" s="93"/>
     </row>
-    <row r="127" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A127" s="93"/>
       <c r="B127" s="93"/>
       <c r="C127" s="93"/>
@@ -46078,7 +46078,7 @@
       <c r="EM127" s="93"/>
       <c r="EN127" s="93"/>
     </row>
-    <row r="128" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A128" s="93"/>
       <c r="B128" s="93"/>
       <c r="C128" s="93"/>
@@ -46224,7 +46224,7 @@
       <c r="EM128" s="93"/>
       <c r="EN128" s="93"/>
     </row>
-    <row r="129" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A129" s="93"/>
       <c r="B129" s="93"/>
       <c r="C129" s="93"/>
@@ -46370,7 +46370,7 @@
       <c r="EM129" s="93"/>
       <c r="EN129" s="93"/>
     </row>
-    <row r="130" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A130" s="93"/>
       <c r="B130" s="93"/>
       <c r="C130" s="93"/>
@@ -46516,7 +46516,7 @@
       <c r="EM130" s="93"/>
       <c r="EN130" s="93"/>
     </row>
-    <row r="131" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A131" s="93"/>
       <c r="B131" s="93"/>
       <c r="C131" s="93"/>
@@ -46662,7 +46662,7 @@
       <c r="EM131" s="93"/>
       <c r="EN131" s="93"/>
     </row>
-    <row r="132" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A132" s="93"/>
       <c r="B132" s="93"/>
       <c r="C132" s="93"/>
@@ -46808,7 +46808,7 @@
       <c r="EM132" s="93"/>
       <c r="EN132" s="93"/>
     </row>
-    <row r="133" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A133" s="93"/>
       <c r="B133" s="93"/>
       <c r="C133" s="93"/>
@@ -46954,7 +46954,7 @@
       <c r="EM133" s="93"/>
       <c r="EN133" s="93"/>
     </row>
-    <row r="134" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A134" s="93"/>
       <c r="B134" s="93"/>
       <c r="C134" s="93"/>
@@ -47100,7 +47100,7 @@
       <c r="EM134" s="93"/>
       <c r="EN134" s="93"/>
     </row>
-    <row r="135" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A135" s="93"/>
       <c r="B135" s="93"/>
       <c r="C135" s="93"/>
@@ -47246,7 +47246,7 @@
       <c r="EM135" s="93"/>
       <c r="EN135" s="93"/>
     </row>
-    <row r="136" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A136" s="93"/>
       <c r="B136" s="93"/>
       <c r="C136" s="93"/>
@@ -47392,7 +47392,7 @@
       <c r="EM136" s="93"/>
       <c r="EN136" s="93"/>
     </row>
-    <row r="137" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A137" s="93"/>
       <c r="B137" s="93"/>
       <c r="C137" s="93"/>
@@ -47538,7 +47538,7 @@
       <c r="EM137" s="93"/>
       <c r="EN137" s="93"/>
     </row>
-    <row r="138" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A138" s="93"/>
       <c r="B138" s="93"/>
       <c r="C138" s="93"/>
@@ -47684,7 +47684,7 @@
       <c r="EM138" s="93"/>
       <c r="EN138" s="93"/>
     </row>
-    <row r="139" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A139" s="93"/>
       <c r="B139" s="93"/>
       <c r="C139" s="93"/>
@@ -47830,7 +47830,7 @@
       <c r="EM139" s="93"/>
       <c r="EN139" s="93"/>
     </row>
-    <row r="140" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A140" s="93"/>
       <c r="B140" s="93"/>
       <c r="C140" s="93"/>
@@ -47976,7 +47976,7 @@
       <c r="EM140" s="93"/>
       <c r="EN140" s="93"/>
     </row>
-    <row r="141" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A141" s="93"/>
       <c r="B141" s="93"/>
       <c r="C141" s="93"/>
@@ -48122,7 +48122,7 @@
       <c r="EM141" s="93"/>
       <c r="EN141" s="93"/>
     </row>
-    <row r="142" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A142" s="93"/>
       <c r="B142" s="93"/>
       <c r="C142" s="93"/>
@@ -48268,7 +48268,7 @@
       <c r="EM142" s="93"/>
       <c r="EN142" s="93"/>
     </row>
-    <row r="143" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A143" s="93"/>
       <c r="B143" s="93"/>
       <c r="C143" s="93"/>
@@ -48414,7 +48414,7 @@
       <c r="EM143" s="93"/>
       <c r="EN143" s="93"/>
     </row>
-    <row r="144" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A144" s="93"/>
       <c r="B144" s="93"/>
       <c r="C144" s="93"/>
@@ -48560,7 +48560,7 @@
       <c r="EM144" s="93"/>
       <c r="EN144" s="93"/>
     </row>
-    <row r="145" spans="1:144" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:144" x14ac:dyDescent="0.2">
       <c r="A145" s="93"/>
       <c r="B145" s="93"/>
       <c r="C145" s="93"/>
@@ -48749,23 +48749,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86338283-18D4-4601-A7C9-817F2A13DD8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C0B672-F870-4353-9890-953E58AAD549}">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="8.7265625" style="1"/>
-    <col min="22" max="22" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="200.6328125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="200.7109375" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
         <v>458</v>
@@ -48792,7 +48792,7 @@
       <c r="V1" s="93"/>
       <c r="W1" s="93"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -48853,7 +48853,7 @@
       <c r="V2" s="93"/>
       <c r="W2" s="93"/>
     </row>
-    <row r="3" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93"/>
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
@@ -48880,7 +48880,7 @@
       <c r="V3" s="93"/>
       <c r="W3" s="93"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
       <c r="B4" s="2" t="s">
         <v>443</v>
@@ -48947,7 +48947,7 @@
       </c>
       <c r="W4" s="93"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="15" t="s">
         <v>445</v>
@@ -49014,7 +49014,7 @@
       </c>
       <c r="W5" s="93"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="93"/>
       <c r="B6" s="111"/>
       <c r="C6" s="86" t="s">
@@ -49079,7 +49079,7 @@
       </c>
       <c r="W6" s="93"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="93"/>
       <c r="B7" s="111"/>
       <c r="C7" s="86" t="s">
@@ -49144,7 +49144,7 @@
       </c>
       <c r="W7" s="93"/>
     </row>
-    <row r="8" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93"/>
       <c r="B8" s="112"/>
       <c r="C8" s="88" t="s">
@@ -49209,7 +49209,7 @@
       </c>
       <c r="W8" s="93"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="93"/>
       <c r="B9" s="29" t="s">
         <v>450</v>
@@ -49276,7 +49276,7 @@
       </c>
       <c r="W9" s="93"/>
     </row>
-    <row r="10" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="93"/>
       <c r="B10" s="113"/>
       <c r="C10" s="92" t="s">
@@ -49341,7 +49341,7 @@
       </c>
       <c r="W10" s="93"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
       <c r="B11" s="15" t="s">
         <v>452</v>
@@ -49408,7 +49408,7 @@
       </c>
       <c r="W11" s="93"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="93"/>
       <c r="B12" s="111"/>
       <c r="C12" s="86" t="s">
@@ -49473,7 +49473,7 @@
       </c>
       <c r="W12" s="93"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="93"/>
       <c r="B13" s="111"/>
       <c r="C13" s="86" t="s">
@@ -49538,7 +49538,7 @@
       </c>
       <c r="W13" s="93"/>
     </row>
-    <row r="14" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="93"/>
       <c r="B14" s="112"/>
       <c r="C14" s="88" t="s">
@@ -49603,7 +49603,7 @@
       </c>
       <c r="W14" s="93"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="29" t="s">
         <v>453</v>
@@ -49670,7 +49670,7 @@
       </c>
       <c r="W15" s="93"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
       <c r="B16" s="114"/>
       <c r="C16" s="25" t="s">
@@ -49735,7 +49735,7 @@
       </c>
       <c r="W16" s="93"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="93"/>
       <c r="B17" s="114"/>
       <c r="C17" s="25" t="s">
@@ -49800,7 +49800,7 @@
       </c>
       <c r="W17" s="93"/>
     </row>
-    <row r="18" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="93"/>
       <c r="B18" s="113"/>
       <c r="C18" s="92" t="s">
@@ -49865,7 +49865,7 @@
       </c>
       <c r="W18" s="93"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="93"/>
       <c r="B19" s="93"/>
       <c r="C19" s="93"/>
@@ -49890,7 +49890,7 @@
       <c r="V19" s="93"/>
       <c r="W19" s="93"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="93"/>
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
@@ -49915,7 +49915,7 @@
       <c r="V20" s="93"/>
       <c r="W20" s="93"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="93"/>
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
@@ -49940,7 +49940,7 @@
       <c r="V21" s="93"/>
       <c r="W21" s="93"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="93"/>
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
@@ -49965,7 +49965,7 @@
       <c r="V22" s="93"/>
       <c r="W22" s="93"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="93"/>
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
@@ -49990,7 +49990,7 @@
       <c r="V23" s="93"/>
       <c r="W23" s="93"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="93"/>
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
@@ -50015,7 +50015,7 @@
       <c r="V24" s="93"/>
       <c r="W24" s="93"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="93"/>
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
@@ -50040,7 +50040,7 @@
       <c r="V25" s="93"/>
       <c r="W25" s="93"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="93"/>
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
@@ -50065,7 +50065,7 @@
       <c r="V26" s="93"/>
       <c r="W26" s="93"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="93"/>
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
@@ -50090,7 +50090,7 @@
       <c r="V27" s="93"/>
       <c r="W27" s="93"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="93"/>
       <c r="B28" s="93"/>
       <c r="C28" s="93"/>
@@ -50115,7 +50115,7 @@
       <c r="V28" s="93"/>
       <c r="W28" s="93"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="93"/>
       <c r="B29" s="93"/>
       <c r="C29" s="93"/>
@@ -50140,7 +50140,7 @@
       <c r="V29" s="93"/>
       <c r="W29" s="93"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="93"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
@@ -50165,7 +50165,7 @@
       <c r="V30" s="93"/>
       <c r="W30" s="93"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="93"/>
       <c r="B31" s="93"/>
       <c r="C31" s="93"/>
@@ -50190,7 +50190,7 @@
       <c r="V31" s="93"/>
       <c r="W31" s="93"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="93"/>
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
@@ -50215,7 +50215,7 @@
       <c r="V32" s="93"/>
       <c r="W32" s="93"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
       <c r="B33" s="93"/>
       <c r="C33" s="93"/>
@@ -50240,7 +50240,7 @@
       <c r="V33" s="93"/>
       <c r="W33" s="93"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
       <c r="B34" s="93"/>
       <c r="C34" s="93"/>
@@ -50265,7 +50265,7 @@
       <c r="V34" s="93"/>
       <c r="W34" s="93"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="93"/>
       <c r="B35" s="93"/>
       <c r="C35" s="93"/>
@@ -50290,7 +50290,7 @@
       <c r="V35" s="93"/>
       <c r="W35" s="93"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
@@ -50315,7 +50315,7 @@
       <c r="V36" s="93"/>
       <c r="W36" s="93"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
       <c r="B37" s="93"/>
       <c r="C37" s="93"/>
@@ -50340,7 +50340,7 @@
       <c r="V37" s="93"/>
       <c r="W37" s="93"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
       <c r="B38" s="93"/>
       <c r="C38" s="93"/>
@@ -50365,7 +50365,7 @@
       <c r="V38" s="93"/>
       <c r="W38" s="93"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="93"/>
       <c r="B39" s="93"/>
       <c r="C39" s="93"/>
@@ -50390,7 +50390,7 @@
       <c r="V39" s="93"/>
       <c r="W39" s="93"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="93"/>
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
@@ -50415,7 +50415,7 @@
       <c r="V40" s="93"/>
       <c r="W40" s="93"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
       <c r="B41" s="93"/>
       <c r="C41" s="93"/>
@@ -50440,7 +50440,7 @@
       <c r="V41" s="93"/>
       <c r="W41" s="93"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
       <c r="B42" s="93"/>
       <c r="C42" s="93"/>
@@ -50465,7 +50465,7 @@
       <c r="V42" s="93"/>
       <c r="W42" s="93"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>
       <c r="B43" s="93"/>
       <c r="C43" s="93"/>
@@ -50490,7 +50490,7 @@
       <c r="V43" s="93"/>
       <c r="W43" s="93"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
       <c r="B44" s="93"/>
       <c r="C44" s="93"/>
@@ -50515,7 +50515,7 @@
       <c r="V44" s="93"/>
       <c r="W44" s="93"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
       <c r="B45" s="93"/>
       <c r="C45" s="93"/>
@@ -50540,7 +50540,7 @@
       <c r="V45" s="93"/>
       <c r="W45" s="93"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="93"/>
       <c r="B46" s="93"/>
       <c r="C46" s="93"/>
@@ -50565,7 +50565,7 @@
       <c r="V46" s="93"/>
       <c r="W46" s="93"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="93"/>
       <c r="B47" s="93"/>
       <c r="C47" s="93"/>
@@ -50590,7 +50590,7 @@
       <c r="V47" s="93"/>
       <c r="W47" s="93"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="93"/>
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
@@ -50615,7 +50615,7 @@
       <c r="V48" s="93"/>
       <c r="W48" s="93"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="93"/>
       <c r="B49" s="93"/>
       <c r="C49" s="93"/>
@@ -50640,7 +50640,7 @@
       <c r="V49" s="93"/>
       <c r="W49" s="93"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="93"/>
       <c r="B50" s="93"/>
       <c r="C50" s="93"/>
@@ -50665,7 +50665,7 @@
       <c r="V50" s="93"/>
       <c r="W50" s="93"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="93"/>
       <c r="B51" s="93"/>
       <c r="C51" s="93"/>
@@ -50690,7 +50690,7 @@
       <c r="V51" s="93"/>
       <c r="W51" s="93"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="93"/>
       <c r="B52" s="93"/>
       <c r="C52" s="93"/>
@@ -50715,7 +50715,7 @@
       <c r="V52" s="93"/>
       <c r="W52" s="93"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="93"/>
       <c r="B53" s="93"/>
       <c r="C53" s="93"/>
@@ -50740,7 +50740,7 @@
       <c r="V53" s="93"/>
       <c r="W53" s="93"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
       <c r="B54" s="93"/>
       <c r="C54" s="93"/>
@@ -50765,7 +50765,7 @@
       <c r="V54" s="93"/>
       <c r="W54" s="93"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="93"/>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
@@ -50790,7 +50790,7 @@
       <c r="V55" s="93"/>
       <c r="W55" s="93"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="93"/>
       <c r="B56" s="93"/>
       <c r="C56" s="93"/>
@@ -50815,7 +50815,7 @@
       <c r="V56" s="93"/>
       <c r="W56" s="93"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="93"/>
       <c r="B57" s="93"/>
       <c r="C57" s="93"/>
@@ -50840,7 +50840,7 @@
       <c r="V57" s="93"/>
       <c r="W57" s="93"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
       <c r="B58" s="93"/>
       <c r="C58" s="93"/>
@@ -50865,7 +50865,7 @@
       <c r="V58" s="93"/>
       <c r="W58" s="93"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="93"/>
       <c r="B59" s="93"/>
       <c r="C59" s="93"/>
@@ -50890,7 +50890,7 @@
       <c r="V59" s="93"/>
       <c r="W59" s="93"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="93"/>
       <c r="B60" s="93"/>
       <c r="C60" s="93"/>
@@ -50915,7 +50915,7 @@
       <c r="V60" s="93"/>
       <c r="W60" s="93"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="93"/>
       <c r="B61" s="93"/>
       <c r="C61" s="93"/>
@@ -50940,7 +50940,7 @@
       <c r="V61" s="93"/>
       <c r="W61" s="93"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="93"/>
       <c r="B62" s="93"/>
       <c r="C62" s="93"/>
@@ -50965,7 +50965,7 @@
       <c r="V62" s="93"/>
       <c r="W62" s="93"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="93"/>
       <c r="B63" s="93"/>
       <c r="C63" s="93"/>
@@ -50990,7 +50990,7 @@
       <c r="V63" s="93"/>
       <c r="W63" s="93"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="93"/>
       <c r="B64" s="93"/>
       <c r="C64" s="93"/>
@@ -51015,7 +51015,7 @@
       <c r="V64" s="93"/>
       <c r="W64" s="93"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="93"/>
       <c r="B65" s="93"/>
       <c r="C65" s="93"/>
@@ -51040,7 +51040,7 @@
       <c r="V65" s="93"/>
       <c r="W65" s="93"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="93"/>
       <c r="B66" s="93"/>
       <c r="C66" s="93"/>
@@ -51065,7 +51065,7 @@
       <c r="V66" s="93"/>
       <c r="W66" s="93"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="93"/>
       <c r="B67" s="93"/>
       <c r="C67" s="93"/>
@@ -51090,7 +51090,7 @@
       <c r="V67" s="93"/>
       <c r="W67" s="93"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="93"/>
       <c r="B68" s="93"/>
       <c r="C68" s="93"/>
@@ -51121,23 +51121,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDEC052-3941-44BB-9D43-D9F38572502B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10135C17-9AED-4DD0-B766-230DB2479EF2}">
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="8.7265625" style="1"/>
-    <col min="21" max="21" width="4.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="200.6328125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="200.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93"/>
       <c r="B1" s="95" t="s">
         <v>459</v>
@@ -51163,7 +51163,7 @@
       <c r="U1" s="93"/>
       <c r="V1" s="93"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -51221,7 +51221,7 @@
       <c r="U2" s="93"/>
       <c r="V2" s="93"/>
     </row>
-    <row r="3" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="93"/>
       <c r="B3" s="93"/>
       <c r="C3" s="93"/>
@@ -51245,7 +51245,7 @@
       <c r="U3" s="93"/>
       <c r="V3" s="93"/>
     </row>
-    <row r="4" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
       <c r="B4" s="2" t="s">
         <v>443</v>
@@ -51309,7 +51309,7 @@
       </c>
       <c r="V4" s="93"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="93"/>
       <c r="B5" s="15" t="s">
         <v>445</v>
@@ -51367,7 +51367,7 @@
       </c>
       <c r="V5" s="93"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="93"/>
       <c r="B6" s="111"/>
       <c r="C6" s="86" t="s">
@@ -51423,7 +51423,7 @@
       </c>
       <c r="V6" s="93"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="93"/>
       <c r="B7" s="111"/>
       <c r="C7" s="86" t="s">
@@ -51479,7 +51479,7 @@
       </c>
       <c r="V7" s="93"/>
     </row>
-    <row r="8" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="93"/>
       <c r="B8" s="112"/>
       <c r="C8" s="88" t="s">
@@ -51535,7 +51535,7 @@
       </c>
       <c r="V8" s="93"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="93"/>
       <c r="B9" s="93"/>
       <c r="C9" s="93"/>
@@ -51559,7 +51559,7 @@
       <c r="U9" s="93"/>
       <c r="V9" s="93"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="93"/>
       <c r="B10" s="93"/>
       <c r="C10" s="93"/>
@@ -51583,7 +51583,7 @@
       <c r="U10" s="93"/>
       <c r="V10" s="93"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="93"/>
       <c r="B11" s="93"/>
       <c r="C11" s="93"/>
@@ -51607,7 +51607,7 @@
       <c r="U11" s="93"/>
       <c r="V11" s="93"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="93"/>
       <c r="B12" s="93"/>
       <c r="C12" s="93"/>
@@ -51631,7 +51631,7 @@
       <c r="U12" s="93"/>
       <c r="V12" s="93"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="93"/>
       <c r="B13" s="93"/>
       <c r="C13" s="93"/>
@@ -51655,7 +51655,7 @@
       <c r="U13" s="93"/>
       <c r="V13" s="93"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="93"/>
       <c r="B14" s="93"/>
       <c r="C14" s="93"/>
@@ -51679,7 +51679,7 @@
       <c r="U14" s="93"/>
       <c r="V14" s="93"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="93"/>
       <c r="B15" s="93"/>
       <c r="C15" s="93"/>
@@ -51703,7 +51703,7 @@
       <c r="U15" s="93"/>
       <c r="V15" s="93"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="93"/>
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
@@ -51727,7 +51727,7 @@
       <c r="U16" s="93"/>
       <c r="V16" s="93"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="93"/>
       <c r="B17" s="93"/>
       <c r="C17" s="93"/>
@@ -51751,7 +51751,7 @@
       <c r="U17" s="93"/>
       <c r="V17" s="93"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="93"/>
       <c r="B18" s="93"/>
       <c r="C18" s="93"/>
@@ -51775,7 +51775,7 @@
       <c r="U18" s="93"/>
       <c r="V18" s="93"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="93"/>
       <c r="B19" s="93"/>
       <c r="C19" s="93"/>
@@ -51799,7 +51799,7 @@
       <c r="U19" s="93"/>
       <c r="V19" s="93"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="93"/>
       <c r="B20" s="93"/>
       <c r="C20" s="93"/>
@@ -51823,7 +51823,7 @@
       <c r="U20" s="93"/>
       <c r="V20" s="93"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="93"/>
       <c r="B21" s="93"/>
       <c r="C21" s="93"/>
@@ -51847,7 +51847,7 @@
       <c r="U21" s="93"/>
       <c r="V21" s="93"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="93"/>
       <c r="B22" s="93"/>
       <c r="C22" s="93"/>
@@ -51871,7 +51871,7 @@
       <c r="U22" s="93"/>
       <c r="V22" s="93"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="93"/>
       <c r="B23" s="93"/>
       <c r="C23" s="93"/>
@@ -51895,7 +51895,7 @@
       <c r="U23" s="93"/>
       <c r="V23" s="93"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="93"/>
       <c r="B24" s="93"/>
       <c r="C24" s="93"/>
@@ -51919,7 +51919,7 @@
       <c r="U24" s="93"/>
       <c r="V24" s="93"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="93"/>
       <c r="B25" s="93"/>
       <c r="C25" s="93"/>
@@ -51943,7 +51943,7 @@
       <c r="U25" s="93"/>
       <c r="V25" s="93"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="93"/>
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
@@ -51967,7 +51967,7 @@
       <c r="U26" s="93"/>
       <c r="V26" s="93"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="93"/>
       <c r="B27" s="93"/>
       <c r="C27" s="93"/>
@@ -51991,7 +51991,7 @@
       <c r="U27" s="93"/>
       <c r="V27" s="93"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="93"/>
       <c r="B28" s="93"/>
       <c r="C28" s="93"/>
@@ -52015,7 +52015,7 @@
       <c r="U28" s="93"/>
       <c r="V28" s="93"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="93"/>
       <c r="B29" s="93"/>
       <c r="C29" s="93"/>
@@ -52039,7 +52039,7 @@
       <c r="U29" s="93"/>
       <c r="V29" s="93"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="93"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
@@ -52063,7 +52063,7 @@
       <c r="U30" s="93"/>
       <c r="V30" s="93"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="93"/>
       <c r="B31" s="93"/>
       <c r="C31" s="93"/>
@@ -52087,7 +52087,7 @@
       <c r="U31" s="93"/>
       <c r="V31" s="93"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="93"/>
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
@@ -52111,7 +52111,7 @@
       <c r="U32" s="93"/>
       <c r="V32" s="93"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="93"/>
       <c r="B33" s="93"/>
       <c r="C33" s="93"/>
@@ -52135,7 +52135,7 @@
       <c r="U33" s="93"/>
       <c r="V33" s="93"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="93"/>
       <c r="B34" s="93"/>
       <c r="C34" s="93"/>
@@ -52159,7 +52159,7 @@
       <c r="U34" s="93"/>
       <c r="V34" s="93"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="93"/>
       <c r="B35" s="93"/>
       <c r="C35" s="93"/>
@@ -52183,7 +52183,7 @@
       <c r="U35" s="93"/>
       <c r="V35" s="93"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="93"/>
       <c r="B36" s="93"/>
       <c r="C36" s="93"/>
@@ -52207,7 +52207,7 @@
       <c r="U36" s="93"/>
       <c r="V36" s="93"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="93"/>
       <c r="B37" s="93"/>
       <c r="C37" s="93"/>
@@ -52231,7 +52231,7 @@
       <c r="U37" s="93"/>
       <c r="V37" s="93"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="93"/>
       <c r="B38" s="93"/>
       <c r="C38" s="93"/>
@@ -52255,7 +52255,7 @@
       <c r="U38" s="93"/>
       <c r="V38" s="93"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="93"/>
       <c r="B39" s="93"/>
       <c r="C39" s="93"/>
@@ -52279,7 +52279,7 @@
       <c r="U39" s="93"/>
       <c r="V39" s="93"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="93"/>
       <c r="B40" s="93"/>
       <c r="C40" s="93"/>
@@ -52303,7 +52303,7 @@
       <c r="U40" s="93"/>
       <c r="V40" s="93"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="93"/>
       <c r="B41" s="93"/>
       <c r="C41" s="93"/>
@@ -52327,7 +52327,7 @@
       <c r="U41" s="93"/>
       <c r="V41" s="93"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="93"/>
       <c r="B42" s="93"/>
       <c r="C42" s="93"/>
@@ -52351,7 +52351,7 @@
       <c r="U42" s="93"/>
       <c r="V42" s="93"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="93"/>
       <c r="B43" s="93"/>
       <c r="C43" s="93"/>
@@ -52375,7 +52375,7 @@
       <c r="U43" s="93"/>
       <c r="V43" s="93"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="93"/>
       <c r="B44" s="93"/>
       <c r="C44" s="93"/>
@@ -52399,7 +52399,7 @@
       <c r="U44" s="93"/>
       <c r="V44" s="93"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="93"/>
       <c r="B45" s="93"/>
       <c r="C45" s="93"/>
@@ -52423,7 +52423,7 @@
       <c r="U45" s="93"/>
       <c r="V45" s="93"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="93"/>
       <c r="B46" s="93"/>
       <c r="C46" s="93"/>
@@ -52447,7 +52447,7 @@
       <c r="U46" s="93"/>
       <c r="V46" s="93"/>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="93"/>
       <c r="B47" s="93"/>
       <c r="C47" s="93"/>
@@ -52471,7 +52471,7 @@
       <c r="U47" s="93"/>
       <c r="V47" s="93"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="93"/>
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
@@ -52495,7 +52495,7 @@
       <c r="U48" s="93"/>
       <c r="V48" s="93"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="93"/>
       <c r="B49" s="93"/>
       <c r="C49" s="93"/>
@@ -52519,7 +52519,7 @@
       <c r="U49" s="93"/>
       <c r="V49" s="93"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="93"/>
       <c r="B50" s="93"/>
       <c r="C50" s="93"/>
@@ -52543,7 +52543,7 @@
       <c r="U50" s="93"/>
       <c r="V50" s="93"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="93"/>
       <c r="B51" s="93"/>
       <c r="C51" s="93"/>
@@ -52567,7 +52567,7 @@
       <c r="U51" s="93"/>
       <c r="V51" s="93"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="93"/>
       <c r="B52" s="93"/>
       <c r="C52" s="93"/>
@@ -52591,7 +52591,7 @@
       <c r="U52" s="93"/>
       <c r="V52" s="93"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="93"/>
       <c r="B53" s="93"/>
       <c r="C53" s="93"/>
@@ -52615,7 +52615,7 @@
       <c r="U53" s="93"/>
       <c r="V53" s="93"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
       <c r="B54" s="93"/>
       <c r="C54" s="93"/>
@@ -52639,7 +52639,7 @@
       <c r="U54" s="93"/>
       <c r="V54" s="93"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="93"/>
       <c r="B55" s="93"/>
       <c r="C55" s="93"/>
@@ -52663,7 +52663,7 @@
       <c r="U55" s="93"/>
       <c r="V55" s="93"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="93"/>
       <c r="B56" s="93"/>
       <c r="C56" s="93"/>
@@ -52687,7 +52687,7 @@
       <c r="U56" s="93"/>
       <c r="V56" s="93"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="93"/>
       <c r="B57" s="93"/>
       <c r="C57" s="93"/>
@@ -52711,7 +52711,7 @@
       <c r="U57" s="93"/>
       <c r="V57" s="93"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="93"/>
       <c r="B58" s="93"/>
       <c r="C58" s="93"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C41BF00-4797-4E22-9F52-6FDBE89D82D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B02E2F-02EF-4AE2-9AE1-533EA9715852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735" xr2:uid="{AE0D9FDC-05D6-4EAB-B98E-ACBE29A74BC5}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="14400" windowHeight="10755" xr2:uid="{8B11E45E-F8B8-4A7E-B2A6-1ADC5BFA0716}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2381,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0001D32-4DB4-4B78-9BEB-BEA9DACC70FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F02FF27-04D3-4386-9002-49868FE2A7EF}">
   <dimension ref="A1:FG150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -28496,7 +28497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B7E143-117C-48A5-9E9E-E3FAF3A19CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDDE792-9648-46A1-A4E4-8A3805E5F75A}">
   <dimension ref="A1:FC145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53109,7 +53110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D77690B-0CB4-450E-B4F3-64311C91A432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529EB67A-B222-433A-BDA3-524753BB3701}">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -55481,7 +55482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE54D0C-8464-4EBA-A8C2-4593A8C16E4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537F893A-EE8C-44CC-A3DE-E4B31B48CFCE}">
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40B02E2F-02EF-4AE2-9AE1-533EA9715852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{444AB3B7-8004-41C3-9010-4C1A08C49E9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="14400" windowHeight="10755" xr2:uid="{8B11E45E-F8B8-4A7E-B2A6-1ADC5BFA0716}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="14400" windowHeight="10755" xr2:uid="{6C3C6D9D-5BCA-40DF-9753-E4B586576DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2382,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F02FF27-04D3-4386-9002-49868FE2A7EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87499A79-E580-4642-AB32-03C5BF0F135D}">
   <dimension ref="A1:FG150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -28497,7 +28497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDDE792-9648-46A1-A4E4-8A3805E5F75A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5AA87A-BD33-482A-9F28-9D5CA2A56D1E}">
   <dimension ref="A1:FC145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53110,7 +53110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529EB67A-B222-433A-BDA3-524753BB3701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3B952C-1A20-4E9F-B3E6-C0DBD5E1E011}">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -55482,7 +55482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537F893A-EE8C-44CC-A3DE-E4B31B48CFCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427667BE-69A3-4832-AFD8-82CFDFD88EC3}">
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98E844E-7035-4535-B1E0-3C2F178079C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{698FE4F7-FB03-4E54-A563-E62B1CF647C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{D20FA7B2-999B-484C-9319-3303EDA6C2DE}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{48C1F01E-91E9-4110-9241-EA10C7C02E09}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2382,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878404AB-154B-4259-A803-FA5EC3606B9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CBC3E2-DEF6-4F00-B034-071E88768D3B}">
   <dimension ref="A1:FG150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6803,7 +6803,9 @@
       <c r="DA23" s="58"/>
       <c r="DB23" s="40"/>
       <c r="DC23" s="40"/>
-      <c r="DD23" s="38"/>
+      <c r="DD23" s="69">
+        <v>1</v>
+      </c>
       <c r="DE23" s="58"/>
       <c r="DF23" s="61"/>
       <c r="DG23" s="58"/>
@@ -28497,7 +28499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2409F42-B701-402E-9DB5-730499A23369}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A583C2-9E07-433D-85E9-629D59234EC9}">
   <dimension ref="A1:FD145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53257,7 +53259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3DF987-B6F4-4014-9B60-8B11B1713FDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C01086F-93DE-42B4-A7F1-FC56D004C7CC}">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -55629,7 +55631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85300EE-2A3A-4182-8F41-FF8285079363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D5CABA-87FD-44F6-A504-550DC4DBC5D4}">
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{698FE4F7-FB03-4E54-A563-E62B1CF647C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A5D5F13-233A-4AB4-84AB-4ED3A17F95BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{48C1F01E-91E9-4110-9241-EA10C7C02E09}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12735" xr2:uid="{51EE1A09-42B4-4524-9351-EA65CBE90258}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2382,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CBC3E2-DEF6-4F00-B034-071E88768D3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE1F427-E3CE-4967-987B-DF7405229567}">
   <dimension ref="A1:FG150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -28499,7 +28499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A583C2-9E07-433D-85E9-629D59234EC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7414E29E-1C35-4517-9214-5CFFCBAE70AC}">
   <dimension ref="A1:FD145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -53259,7 +53259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C01086F-93DE-42B4-A7F1-FC56D004C7CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD3A922-05A6-4167-940A-3354B3FFA9F5}">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -55631,7 +55631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D5CABA-87FD-44F6-A504-550DC4DBC5D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C8F85F-D4CC-494A-A243-DAC509C62159}">
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FE18E19-939C-4CB6-B167-D39E7A0203F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75284DAC-8020-4530-B83B-0CC62005D48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="14400" windowHeight="10755" xr2:uid="{64F895E7-BDF0-4023-BAD5-C0131744E87B}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{A3187B4E-9644-48F4-BEDE-5C3C7F30B572}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="469">
   <si>
     <t>Group</t>
   </si>
@@ -1044,6 +1045,9 @@
     <t>RX_ATSC3</t>
   </si>
   <si>
+    <t>RX_ATSC3_KOREAN</t>
+  </si>
+  <si>
     <t>RX_CMMB</t>
   </si>
   <si>
@@ -1327,6 +1331,9 @@
   </si>
   <si>
     <t>ATSC3.0 reception</t>
+  </si>
+  <si>
+    <t>ATSC3.0 Korean reception</t>
   </si>
   <si>
     <t>CMMB reception</t>
@@ -2394,7 +2401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B797D0FA-BC46-45F7-999F-69527C6BFA6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6419FC-4329-4A28-8682-82E65095D278}">
   <dimension ref="A1:FG152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -28855,8 +28862,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0526059E-7070-4CFD-AAE9-235D01242AED}">
-  <dimension ref="A1:FD145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8859FC-3E32-4490-B82D-2FB0D0049BE1}">
+  <dimension ref="A1:FD146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
@@ -28869,9 +28876,9 @@
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="157" width="9.5703125" style="1" customWidth="1"/>
-    <col min="158" max="158" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="159" max="159" width="35" style="1" bestFit="1" customWidth="1"/>
     <col min="160" max="160" width="200.7109375" style="1" customWidth="1"/>
     <col min="161" max="16384" width="9.140625" style="1"/>
@@ -28880,7 +28887,7 @@
     <row r="1" spans="1:160" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94"/>
       <c r="B1" s="96" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -29551,7 +29558,7 @@
         <v>121</v>
       </c>
       <c r="BM3" s="79" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BN3" s="66">
         <v>8</v>
@@ -29572,7 +29579,7 @@
         <v>131</v>
       </c>
       <c r="BT3" s="79" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="BU3" s="66">
         <v>8</v>
@@ -29593,7 +29600,7 @@
         <v>9</v>
       </c>
       <c r="CA3" s="79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="CB3" s="79">
         <v>13</v>
@@ -29641,7 +29648,7 @@
         <v>5</v>
       </c>
       <c r="CQ3" s="66" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="CR3" s="65">
         <v>1</v>
@@ -30003,7 +30010,7 @@
         <v>255</v>
       </c>
       <c r="FC4" s="85" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="FD4" s="94"/>
     </row>
@@ -30173,7 +30180,7 @@
         <v>256</v>
       </c>
       <c r="FC5" s="87" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="FD5" s="94"/>
     </row>
@@ -30341,7 +30348,7 @@
         <v>257</v>
       </c>
       <c r="FC6" s="87" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="FD6" s="94"/>
     </row>
@@ -30509,7 +30516,7 @@
         <v>258</v>
       </c>
       <c r="FC7" s="87" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="FD7" s="94"/>
     </row>
@@ -30677,7 +30684,7 @@
         <v>259</v>
       </c>
       <c r="FC8" s="89" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="FD8" s="94"/>
     </row>
@@ -30847,7 +30854,7 @@
         <v>261</v>
       </c>
       <c r="FC9" s="90" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="FD9" s="94"/>
     </row>
@@ -31183,7 +31190,7 @@
         <v>263</v>
       </c>
       <c r="FC11" s="25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="FD11" s="94"/>
     </row>
@@ -31351,7 +31358,7 @@
         <v>264</v>
       </c>
       <c r="FC12" s="25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="FD12" s="94"/>
     </row>
@@ -31519,7 +31526,7 @@
         <v>265</v>
       </c>
       <c r="FC13" s="25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="FD13" s="94"/>
     </row>
@@ -31687,7 +31694,7 @@
         <v>266</v>
       </c>
       <c r="FC14" s="93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="FD14" s="94"/>
     </row>
@@ -31857,7 +31864,7 @@
         <v>268</v>
       </c>
       <c r="FC15" s="85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="FD15" s="94"/>
     </row>
@@ -32025,7 +32032,7 @@
         <v>269</v>
       </c>
       <c r="FC16" s="87" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="FD16" s="94"/>
     </row>
@@ -32193,7 +32200,7 @@
         <v>270</v>
       </c>
       <c r="FC17" s="89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="FD17" s="94"/>
     </row>
@@ -32363,7 +32370,7 @@
         <v>272</v>
       </c>
       <c r="FC18" s="90" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="FD18" s="94"/>
     </row>
@@ -32531,7 +32538,7 @@
         <v>273</v>
       </c>
       <c r="FC19" s="93" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="FD19" s="94"/>
     </row>
@@ -32703,7 +32710,7 @@
         <v>275</v>
       </c>
       <c r="FC20" s="85" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="FD20" s="94"/>
     </row>
@@ -32871,7 +32878,7 @@
         <v>276</v>
       </c>
       <c r="FC21" s="87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="FD21" s="94"/>
     </row>
@@ -33061,7 +33068,7 @@
         <v>277</v>
       </c>
       <c r="FC22" s="87" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="FD22" s="94"/>
     </row>
@@ -33229,7 +33236,7 @@
         <v>278</v>
       </c>
       <c r="FC23" s="87" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="FD23" s="94"/>
     </row>
@@ -33405,7 +33412,7 @@
         <v>279</v>
       </c>
       <c r="FC24" s="87" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="FD24" s="94"/>
     </row>
@@ -33573,7 +33580,7 @@
         <v>280</v>
       </c>
       <c r="FC25" s="87" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="FD25" s="94"/>
     </row>
@@ -33749,7 +33756,7 @@
         <v>281</v>
       </c>
       <c r="FC26" s="87" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="FD26" s="94"/>
     </row>
@@ -33917,7 +33924,7 @@
         <v>282</v>
       </c>
       <c r="FC27" s="87" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="FD27" s="94"/>
     </row>
@@ -34097,7 +34104,7 @@
         <v>283</v>
       </c>
       <c r="FC28" s="87" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="FD28" s="94"/>
     </row>
@@ -34269,7 +34276,7 @@
         <v>284</v>
       </c>
       <c r="FC29" s="87" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="FD29" s="94"/>
     </row>
@@ -34445,7 +34452,7 @@
         <v>285</v>
       </c>
       <c r="FC30" s="87" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="FD30" s="94"/>
     </row>
@@ -34617,7 +34624,7 @@
         <v>286</v>
       </c>
       <c r="FC31" s="87" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="FD31" s="94"/>
     </row>
@@ -34819,7 +34826,7 @@
         <v>287</v>
       </c>
       <c r="FC32" s="87" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="FD32" s="94"/>
     </row>
@@ -34989,7 +34996,7 @@
         <v>288</v>
       </c>
       <c r="FC33" s="87" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="FD33" s="94"/>
     </row>
@@ -35175,7 +35182,7 @@
         <v>289</v>
       </c>
       <c r="FC34" s="87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="FD34" s="94"/>
     </row>
@@ -35343,7 +35350,7 @@
         <v>290</v>
       </c>
       <c r="FC35" s="89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="FD35" s="94"/>
     </row>
@@ -35513,7 +35520,7 @@
         <v>292</v>
       </c>
       <c r="FC36" s="90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="FD36" s="94"/>
     </row>
@@ -35681,7 +35688,7 @@
         <v>293</v>
       </c>
       <c r="FC37" s="25" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="FD37" s="94"/>
     </row>
@@ -35849,7 +35856,7 @@
         <v>294</v>
       </c>
       <c r="FC38" s="25" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="FD38" s="94"/>
     </row>
@@ -36017,7 +36024,7 @@
         <v>295</v>
       </c>
       <c r="FC39" s="25" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="FD39" s="94"/>
     </row>
@@ -36185,7 +36192,7 @@
         <v>296</v>
       </c>
       <c r="FC40" s="25" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="FD40" s="94"/>
     </row>
@@ -36353,7 +36360,7 @@
         <v>297</v>
       </c>
       <c r="FC41" s="25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="FD41" s="94"/>
     </row>
@@ -36521,7 +36528,7 @@
         <v>298</v>
       </c>
       <c r="FC42" s="25" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="FD42" s="94"/>
     </row>
@@ -36689,7 +36696,7 @@
         <v>299</v>
       </c>
       <c r="FC43" s="25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="FD43" s="94"/>
     </row>
@@ -36857,7 +36864,7 @@
         <v>300</v>
       </c>
       <c r="FC44" s="25" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="FD44" s="94"/>
     </row>
@@ -37025,7 +37032,7 @@
         <v>301</v>
       </c>
       <c r="FC45" s="25" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="FD45" s="94"/>
     </row>
@@ -37193,7 +37200,7 @@
         <v>302</v>
       </c>
       <c r="FC46" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="FD46" s="94"/>
     </row>
@@ -37361,7 +37368,7 @@
         <v>303</v>
       </c>
       <c r="FC47" s="25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="FD47" s="94"/>
     </row>
@@ -37529,7 +37536,7 @@
         <v>304</v>
       </c>
       <c r="FC48" s="25" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="FD48" s="94"/>
     </row>
@@ -37701,7 +37708,7 @@
         <v>305</v>
       </c>
       <c r="FC49" s="25" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="FD49" s="94"/>
     </row>
@@ -37869,7 +37876,7 @@
         <v>306</v>
       </c>
       <c r="FC50" s="25" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="FD50" s="94"/>
     </row>
@@ -38037,7 +38044,7 @@
         <v>307</v>
       </c>
       <c r="FC51" s="25" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="FD51" s="94"/>
     </row>
@@ -38205,7 +38212,7 @@
         <v>308</v>
       </c>
       <c r="FC52" s="25" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="FD52" s="94"/>
     </row>
@@ -38373,7 +38380,7 @@
         <v>309</v>
       </c>
       <c r="FC53" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="FD53" s="94"/>
     </row>
@@ -38541,7 +38548,7 @@
         <v>310</v>
       </c>
       <c r="FC54" s="25" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="FD54" s="94"/>
     </row>
@@ -38709,7 +38716,7 @@
         <v>311</v>
       </c>
       <c r="FC55" s="25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="FD55" s="94"/>
     </row>
@@ -38877,7 +38884,7 @@
         <v>312</v>
       </c>
       <c r="FC56" s="25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="FD56" s="94"/>
     </row>
@@ -39047,7 +39054,7 @@
         <v>313</v>
       </c>
       <c r="FC57" s="25" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="FD57" s="94"/>
     </row>
@@ -39215,7 +39222,7 @@
         <v>314</v>
       </c>
       <c r="FC58" s="25" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="FD58" s="94"/>
     </row>
@@ -39383,7 +39390,7 @@
         <v>315</v>
       </c>
       <c r="FC59" s="25" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="FD59" s="94"/>
     </row>
@@ -39553,7 +39560,7 @@
         <v>316</v>
       </c>
       <c r="FC60" s="25" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="FD60" s="94"/>
     </row>
@@ -39721,7 +39728,7 @@
         <v>317</v>
       </c>
       <c r="FC61" s="93" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="FD61" s="94"/>
     </row>
@@ -39893,7 +39900,7 @@
         <v>319</v>
       </c>
       <c r="FC62" s="85" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="FD62" s="94"/>
     </row>
@@ -40061,7 +40068,7 @@
         <v>320</v>
       </c>
       <c r="FC63" s="87" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="FD63" s="94"/>
     </row>
@@ -40231,7 +40238,7 @@
         <v>321</v>
       </c>
       <c r="FC64" s="87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="FD64" s="94"/>
     </row>
@@ -40399,7 +40406,7 @@
         <v>322</v>
       </c>
       <c r="FC65" s="87" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="FD65" s="94"/>
     </row>
@@ -40567,7 +40574,7 @@
         <v>323</v>
       </c>
       <c r="FC66" s="87" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="FD66" s="94"/>
     </row>
@@ -40735,7 +40742,7 @@
         <v>324</v>
       </c>
       <c r="FC67" s="87" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="FD67" s="94"/>
     </row>
@@ -40905,7 +40912,7 @@
         <v>325</v>
       </c>
       <c r="FC68" s="87" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="FD68" s="94"/>
     </row>
@@ -41073,7 +41080,7 @@
         <v>326</v>
       </c>
       <c r="FC69" s="87" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="FD69" s="94"/>
     </row>
@@ -41241,7 +41248,7 @@
         <v>327</v>
       </c>
       <c r="FC70" s="87" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="FD70" s="94"/>
     </row>
@@ -41411,7 +41418,7 @@
         <v>328</v>
       </c>
       <c r="FC71" s="87" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="FD71" s="94"/>
     </row>
@@ -41583,7 +41590,7 @@
         <v>329</v>
       </c>
       <c r="FC72" s="87" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="FD72" s="94"/>
     </row>
@@ -41753,7 +41760,7 @@
         <v>330</v>
       </c>
       <c r="FC73" s="87" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="FD73" s="94"/>
     </row>
@@ -41925,7 +41932,7 @@
         <v>331</v>
       </c>
       <c r="FC74" s="89" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="FD74" s="94"/>
     </row>
@@ -42095,7 +42102,7 @@
         <v>333</v>
       </c>
       <c r="FC75" s="90" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="FD75" s="94"/>
     </row>
@@ -42263,7 +42270,7 @@
         <v>334</v>
       </c>
       <c r="FC76" s="25" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="FD76" s="94"/>
     </row>
@@ -42310,7 +42317,7 @@
       <c r="AL77" s="58"/>
       <c r="AM77" s="40"/>
       <c r="AN77" s="40"/>
-      <c r="AO77" s="40"/>
+      <c r="AO77" s="45"/>
       <c r="AP77" s="38"/>
       <c r="AQ77" s="58"/>
       <c r="AR77" s="38"/>
@@ -42431,7 +42438,7 @@
         <v>335</v>
       </c>
       <c r="FC77" s="25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="FD77" s="94"/>
     </row>
@@ -42478,7 +42485,7 @@
       <c r="AL78" s="58"/>
       <c r="AM78" s="40"/>
       <c r="AN78" s="40"/>
-      <c r="AO78" s="45"/>
+      <c r="AO78" s="40"/>
       <c r="AP78" s="38"/>
       <c r="AQ78" s="58"/>
       <c r="AR78" s="38"/>
@@ -42599,7 +42606,7 @@
         <v>336</v>
       </c>
       <c r="FC78" s="25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="FD78" s="94"/>
     </row>
@@ -42646,7 +42653,7 @@
       <c r="AL79" s="58"/>
       <c r="AM79" s="40"/>
       <c r="AN79" s="40"/>
-      <c r="AO79" s="40"/>
+      <c r="AO79" s="45"/>
       <c r="AP79" s="38"/>
       <c r="AQ79" s="58"/>
       <c r="AR79" s="38"/>
@@ -42767,7 +42774,7 @@
         <v>337</v>
       </c>
       <c r="FC79" s="25" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="FD79" s="94"/>
     </row>
@@ -42814,9 +42821,9 @@
       <c r="AL80" s="58"/>
       <c r="AM80" s="40"/>
       <c r="AN80" s="40"/>
-      <c r="AO80" s="45"/>
+      <c r="AO80" s="40"/>
       <c r="AP80" s="38"/>
-      <c r="AQ80" s="62"/>
+      <c r="AQ80" s="58"/>
       <c r="AR80" s="38"/>
       <c r="AS80" s="58"/>
       <c r="AT80" s="38"/>
@@ -42825,8 +42832,8 @@
       <c r="AW80" s="38"/>
       <c r="AX80" s="56"/>
       <c r="AY80" s="58"/>
-      <c r="AZ80" s="45"/>
-      <c r="BA80" s="45"/>
+      <c r="AZ80" s="40"/>
+      <c r="BA80" s="40"/>
       <c r="BB80" s="40"/>
       <c r="BC80" s="38"/>
       <c r="BD80" s="58"/>
@@ -42872,8 +42879,8 @@
       <c r="CR80" s="38"/>
       <c r="CS80" s="56"/>
       <c r="CT80" s="58"/>
-      <c r="CU80" s="45"/>
-      <c r="CV80" s="45"/>
+      <c r="CU80" s="40"/>
+      <c r="CV80" s="40"/>
       <c r="CW80" s="38"/>
       <c r="CX80" s="56"/>
       <c r="CY80" s="58"/>
@@ -42919,7 +42926,7 @@
       <c r="EM80" s="58"/>
       <c r="EN80" s="38"/>
       <c r="EO80" s="58"/>
-      <c r="EP80" s="61"/>
+      <c r="EP80" s="38"/>
       <c r="EQ80" s="58"/>
       <c r="ER80" s="38"/>
       <c r="ES80" s="58"/>
@@ -42935,7 +42942,7 @@
         <v>338</v>
       </c>
       <c r="FC80" s="25" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="FD80" s="94"/>
     </row>
@@ -42949,7 +42956,7 @@
       <c r="E81" s="40"/>
       <c r="F81" s="40"/>
       <c r="G81" s="40"/>
-      <c r="H81" s="45"/>
+      <c r="H81" s="40"/>
       <c r="I81" s="40"/>
       <c r="J81" s="40"/>
       <c r="K81" s="40"/>
@@ -42982,19 +42989,19 @@
       <c r="AL81" s="58"/>
       <c r="AM81" s="40"/>
       <c r="AN81" s="40"/>
-      <c r="AO81" s="40"/>
+      <c r="AO81" s="45"/>
       <c r="AP81" s="38"/>
-      <c r="AQ81" s="58"/>
+      <c r="AQ81" s="62"/>
       <c r="AR81" s="38"/>
       <c r="AS81" s="58"/>
-      <c r="AT81" s="61"/>
-      <c r="AU81" s="80"/>
+      <c r="AT81" s="38"/>
+      <c r="AU81" s="56"/>
       <c r="AV81" s="58"/>
-      <c r="AW81" s="61"/>
-      <c r="AX81" s="80"/>
+      <c r="AW81" s="38"/>
+      <c r="AX81" s="56"/>
       <c r="AY81" s="58"/>
-      <c r="AZ81" s="40"/>
-      <c r="BA81" s="40"/>
+      <c r="AZ81" s="45"/>
+      <c r="BA81" s="45"/>
       <c r="BB81" s="40"/>
       <c r="BC81" s="38"/>
       <c r="BD81" s="58"/>
@@ -43038,10 +43045,10 @@
       <c r="CP81" s="56"/>
       <c r="CQ81" s="58"/>
       <c r="CR81" s="38"/>
-      <c r="CS81" s="80"/>
+      <c r="CS81" s="56"/>
       <c r="CT81" s="58"/>
-      <c r="CU81" s="40"/>
-      <c r="CV81" s="40"/>
+      <c r="CU81" s="45"/>
+      <c r="CV81" s="45"/>
       <c r="CW81" s="38"/>
       <c r="CX81" s="56"/>
       <c r="CY81" s="58"/>
@@ -43087,7 +43094,7 @@
       <c r="EM81" s="58"/>
       <c r="EN81" s="38"/>
       <c r="EO81" s="58"/>
-      <c r="EP81" s="38"/>
+      <c r="EP81" s="61"/>
       <c r="EQ81" s="58"/>
       <c r="ER81" s="38"/>
       <c r="ES81" s="58"/>
@@ -43103,7 +43110,7 @@
         <v>339</v>
       </c>
       <c r="FC81" s="25" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="FD81" s="94"/>
     </row>
@@ -43205,8 +43212,8 @@
       <c r="CO82" s="56"/>
       <c r="CP82" s="56"/>
       <c r="CQ82" s="58"/>
-      <c r="CR82" s="61"/>
-      <c r="CS82" s="56"/>
+      <c r="CR82" s="38"/>
+      <c r="CS82" s="80"/>
       <c r="CT82" s="58"/>
       <c r="CU82" s="40"/>
       <c r="CV82" s="40"/>
@@ -43271,7 +43278,7 @@
         <v>340</v>
       </c>
       <c r="FC82" s="25" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="FD82" s="94"/>
     </row>
@@ -43285,7 +43292,7 @@
       <c r="E83" s="40"/>
       <c r="F83" s="40"/>
       <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
+      <c r="H83" s="45"/>
       <c r="I83" s="40"/>
       <c r="J83" s="40"/>
       <c r="K83" s="40"/>
@@ -43318,19 +43325,19 @@
       <c r="AL83" s="58"/>
       <c r="AM83" s="40"/>
       <c r="AN83" s="40"/>
-      <c r="AO83" s="45"/>
-      <c r="AP83" s="61"/>
+      <c r="AO83" s="40"/>
+      <c r="AP83" s="38"/>
       <c r="AQ83" s="58"/>
       <c r="AR83" s="38"/>
       <c r="AS83" s="58"/>
-      <c r="AT83" s="38"/>
-      <c r="AU83" s="56"/>
+      <c r="AT83" s="61"/>
+      <c r="AU83" s="80"/>
       <c r="AV83" s="58"/>
-      <c r="AW83" s="38"/>
-      <c r="AX83" s="56"/>
+      <c r="AW83" s="61"/>
+      <c r="AX83" s="80"/>
       <c r="AY83" s="58"/>
-      <c r="AZ83" s="45"/>
-      <c r="BA83" s="45"/>
+      <c r="AZ83" s="40"/>
+      <c r="BA83" s="40"/>
       <c r="BB83" s="40"/>
       <c r="BC83" s="38"/>
       <c r="BD83" s="58"/>
@@ -43373,11 +43380,11 @@
       <c r="CO83" s="56"/>
       <c r="CP83" s="56"/>
       <c r="CQ83" s="58"/>
-      <c r="CR83" s="38"/>
+      <c r="CR83" s="61"/>
       <c r="CS83" s="56"/>
       <c r="CT83" s="58"/>
-      <c r="CU83" s="45"/>
-      <c r="CV83" s="45"/>
+      <c r="CU83" s="40"/>
+      <c r="CV83" s="40"/>
       <c r="CW83" s="38"/>
       <c r="CX83" s="56"/>
       <c r="CY83" s="58"/>
@@ -43418,12 +43425,12 @@
       <c r="EH83" s="40"/>
       <c r="EI83" s="40"/>
       <c r="EJ83" s="40"/>
-      <c r="EK83" s="45"/>
+      <c r="EK83" s="40"/>
       <c r="EL83" s="38"/>
       <c r="EM83" s="58"/>
       <c r="EN83" s="38"/>
       <c r="EO83" s="58"/>
-      <c r="EP83" s="61"/>
+      <c r="EP83" s="38"/>
       <c r="EQ83" s="58"/>
       <c r="ER83" s="38"/>
       <c r="ES83" s="58"/>
@@ -43439,7 +43446,7 @@
         <v>341</v>
       </c>
       <c r="FC83" s="25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="FD83" s="94"/>
     </row>
@@ -43487,8 +43494,8 @@
       <c r="AM84" s="40"/>
       <c r="AN84" s="40"/>
       <c r="AO84" s="45"/>
-      <c r="AP84" s="38"/>
-      <c r="AQ84" s="62"/>
+      <c r="AP84" s="61"/>
+      <c r="AQ84" s="58"/>
       <c r="AR84" s="38"/>
       <c r="AS84" s="58"/>
       <c r="AT84" s="38"/>
@@ -43586,7 +43593,7 @@
       <c r="EH84" s="40"/>
       <c r="EI84" s="40"/>
       <c r="EJ84" s="40"/>
-      <c r="EK84" s="40"/>
+      <c r="EK84" s="45"/>
       <c r="EL84" s="38"/>
       <c r="EM84" s="58"/>
       <c r="EN84" s="38"/>
@@ -43607,7 +43614,7 @@
         <v>342</v>
       </c>
       <c r="FC84" s="25" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="FD84" s="94"/>
     </row>
@@ -43654,9 +43661,9 @@
       <c r="AL85" s="58"/>
       <c r="AM85" s="40"/>
       <c r="AN85" s="40"/>
-      <c r="AO85" s="99"/>
+      <c r="AO85" s="45"/>
       <c r="AP85" s="38"/>
-      <c r="AQ85" s="105"/>
+      <c r="AQ85" s="62"/>
       <c r="AR85" s="38"/>
       <c r="AS85" s="58"/>
       <c r="AT85" s="38"/>
@@ -43665,8 +43672,8 @@
       <c r="AW85" s="38"/>
       <c r="AX85" s="56"/>
       <c r="AY85" s="58"/>
-      <c r="AZ85" s="40"/>
-      <c r="BA85" s="40"/>
+      <c r="AZ85" s="45"/>
+      <c r="BA85" s="45"/>
       <c r="BB85" s="40"/>
       <c r="BC85" s="38"/>
       <c r="BD85" s="58"/>
@@ -43712,8 +43719,8 @@
       <c r="CR85" s="38"/>
       <c r="CS85" s="56"/>
       <c r="CT85" s="58"/>
-      <c r="CU85" s="40"/>
-      <c r="CV85" s="40"/>
+      <c r="CU85" s="45"/>
+      <c r="CV85" s="45"/>
       <c r="CW85" s="38"/>
       <c r="CX85" s="56"/>
       <c r="CY85" s="58"/>
@@ -43759,7 +43766,7 @@
       <c r="EM85" s="58"/>
       <c r="EN85" s="38"/>
       <c r="EO85" s="58"/>
-      <c r="EP85" s="38"/>
+      <c r="EP85" s="61"/>
       <c r="EQ85" s="58"/>
       <c r="ER85" s="38"/>
       <c r="ES85" s="58"/>
@@ -43775,7 +43782,7 @@
         <v>343</v>
       </c>
       <c r="FC85" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="FD85" s="94"/>
     </row>
@@ -43822,9 +43829,9 @@
       <c r="AL86" s="58"/>
       <c r="AM86" s="40"/>
       <c r="AN86" s="40"/>
-      <c r="AO86" s="45"/>
+      <c r="AO86" s="99"/>
       <c r="AP86" s="38"/>
-      <c r="AQ86" s="58"/>
+      <c r="AQ86" s="105"/>
       <c r="AR86" s="38"/>
       <c r="AS86" s="58"/>
       <c r="AT86" s="38"/>
@@ -43877,9 +43884,9 @@
       <c r="CO86" s="56"/>
       <c r="CP86" s="56"/>
       <c r="CQ86" s="58"/>
-      <c r="CR86" s="61"/>
-      <c r="CS86" s="80"/>
-      <c r="CT86" s="62"/>
+      <c r="CR86" s="38"/>
+      <c r="CS86" s="56"/>
+      <c r="CT86" s="58"/>
       <c r="CU86" s="40"/>
       <c r="CV86" s="40"/>
       <c r="CW86" s="38"/>
@@ -43943,7 +43950,7 @@
         <v>344</v>
       </c>
       <c r="FC86" s="25" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="FD86" s="94"/>
     </row>
@@ -43990,7 +43997,7 @@
       <c r="AL87" s="58"/>
       <c r="AM87" s="40"/>
       <c r="AN87" s="40"/>
-      <c r="AO87" s="40"/>
+      <c r="AO87" s="45"/>
       <c r="AP87" s="38"/>
       <c r="AQ87" s="58"/>
       <c r="AR87" s="38"/>
@@ -44045,9 +44052,9 @@
       <c r="CO87" s="56"/>
       <c r="CP87" s="56"/>
       <c r="CQ87" s="58"/>
-      <c r="CR87" s="38"/>
-      <c r="CS87" s="56"/>
-      <c r="CT87" s="58"/>
+      <c r="CR87" s="61"/>
+      <c r="CS87" s="80"/>
+      <c r="CT87" s="62"/>
       <c r="CU87" s="40"/>
       <c r="CV87" s="40"/>
       <c r="CW87" s="38"/>
@@ -44111,7 +44118,7 @@
         <v>345</v>
       </c>
       <c r="FC87" s="25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="FD87" s="94"/>
     </row>
@@ -44158,7 +44165,7 @@
       <c r="AL88" s="58"/>
       <c r="AM88" s="40"/>
       <c r="AN88" s="40"/>
-      <c r="AO88" s="45"/>
+      <c r="AO88" s="40"/>
       <c r="AP88" s="38"/>
       <c r="AQ88" s="58"/>
       <c r="AR88" s="38"/>
@@ -44170,7 +44177,7 @@
       <c r="AX88" s="56"/>
       <c r="AY88" s="58"/>
       <c r="AZ88" s="40"/>
-      <c r="BA88" s="45"/>
+      <c r="BA88" s="40"/>
       <c r="BB88" s="40"/>
       <c r="BC88" s="38"/>
       <c r="BD88" s="58"/>
@@ -44216,8 +44223,8 @@
       <c r="CR88" s="38"/>
       <c r="CS88" s="56"/>
       <c r="CT88" s="58"/>
-      <c r="CU88" s="45"/>
-      <c r="CV88" s="45"/>
+      <c r="CU88" s="40"/>
+      <c r="CV88" s="40"/>
       <c r="CW88" s="38"/>
       <c r="CX88" s="56"/>
       <c r="CY88" s="58"/>
@@ -44263,7 +44270,7 @@
       <c r="EM88" s="58"/>
       <c r="EN88" s="38"/>
       <c r="EO88" s="58"/>
-      <c r="EP88" s="61"/>
+      <c r="EP88" s="38"/>
       <c r="EQ88" s="58"/>
       <c r="ER88" s="38"/>
       <c r="ES88" s="58"/>
@@ -44279,7 +44286,7 @@
         <v>346</v>
       </c>
       <c r="FC88" s="25" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="FD88" s="94"/>
     </row>
@@ -44326,7 +44333,7 @@
       <c r="AL89" s="58"/>
       <c r="AM89" s="40"/>
       <c r="AN89" s="40"/>
-      <c r="AO89" s="40"/>
+      <c r="AO89" s="45"/>
       <c r="AP89" s="38"/>
       <c r="AQ89" s="58"/>
       <c r="AR89" s="38"/>
@@ -44338,7 +44345,7 @@
       <c r="AX89" s="56"/>
       <c r="AY89" s="58"/>
       <c r="AZ89" s="40"/>
-      <c r="BA89" s="40"/>
+      <c r="BA89" s="45"/>
       <c r="BB89" s="40"/>
       <c r="BC89" s="38"/>
       <c r="BD89" s="58"/>
@@ -44384,8 +44391,8 @@
       <c r="CR89" s="38"/>
       <c r="CS89" s="56"/>
       <c r="CT89" s="58"/>
-      <c r="CU89" s="40"/>
-      <c r="CV89" s="40"/>
+      <c r="CU89" s="45"/>
+      <c r="CV89" s="45"/>
       <c r="CW89" s="38"/>
       <c r="CX89" s="56"/>
       <c r="CY89" s="58"/>
@@ -44431,7 +44438,7 @@
       <c r="EM89" s="58"/>
       <c r="EN89" s="38"/>
       <c r="EO89" s="58"/>
-      <c r="EP89" s="38"/>
+      <c r="EP89" s="61"/>
       <c r="EQ89" s="58"/>
       <c r="ER89" s="38"/>
       <c r="ES89" s="58"/>
@@ -44447,7 +44454,7 @@
         <v>347</v>
       </c>
       <c r="FC89" s="25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="FD89" s="94"/>
     </row>
@@ -44494,10 +44501,10 @@
       <c r="AL90" s="58"/>
       <c r="AM90" s="40"/>
       <c r="AN90" s="40"/>
-      <c r="AO90" s="45"/>
+      <c r="AO90" s="40"/>
       <c r="AP90" s="38"/>
       <c r="AQ90" s="58"/>
-      <c r="AR90" s="61"/>
+      <c r="AR90" s="38"/>
       <c r="AS90" s="58"/>
       <c r="AT90" s="38"/>
       <c r="AU90" s="56"/>
@@ -44505,9 +44512,9 @@
       <c r="AW90" s="38"/>
       <c r="AX90" s="56"/>
       <c r="AY90" s="58"/>
-      <c r="AZ90" s="45"/>
-      <c r="BA90" s="45"/>
-      <c r="BB90" s="45"/>
+      <c r="AZ90" s="40"/>
+      <c r="BA90" s="40"/>
+      <c r="BB90" s="40"/>
       <c r="BC90" s="38"/>
       <c r="BD90" s="58"/>
       <c r="BE90" s="40"/>
@@ -44552,8 +44559,8 @@
       <c r="CR90" s="38"/>
       <c r="CS90" s="56"/>
       <c r="CT90" s="58"/>
-      <c r="CU90" s="45"/>
-      <c r="CV90" s="45"/>
+      <c r="CU90" s="40"/>
+      <c r="CV90" s="40"/>
       <c r="CW90" s="38"/>
       <c r="CX90" s="56"/>
       <c r="CY90" s="58"/>
@@ -44595,11 +44602,11 @@
       <c r="EI90" s="40"/>
       <c r="EJ90" s="40"/>
       <c r="EK90" s="40"/>
-      <c r="EL90" s="61"/>
+      <c r="EL90" s="38"/>
       <c r="EM90" s="58"/>
-      <c r="EN90" s="61"/>
+      <c r="EN90" s="38"/>
       <c r="EO90" s="58"/>
-      <c r="EP90" s="61"/>
+      <c r="EP90" s="38"/>
       <c r="EQ90" s="58"/>
       <c r="ER90" s="38"/>
       <c r="ES90" s="58"/>
@@ -44615,7 +44622,7 @@
         <v>348</v>
       </c>
       <c r="FC90" s="25" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="FD90" s="94"/>
     </row>
@@ -44673,8 +44680,8 @@
       <c r="AW91" s="38"/>
       <c r="AX91" s="56"/>
       <c r="AY91" s="58"/>
-      <c r="AZ91" s="40"/>
-      <c r="BA91" s="40"/>
+      <c r="AZ91" s="45"/>
+      <c r="BA91" s="45"/>
       <c r="BB91" s="45"/>
       <c r="BC91" s="38"/>
       <c r="BD91" s="58"/>
@@ -44761,13 +44768,13 @@
       <c r="EG91" s="40"/>
       <c r="EH91" s="40"/>
       <c r="EI91" s="40"/>
-      <c r="EJ91" s="45"/>
+      <c r="EJ91" s="40"/>
       <c r="EK91" s="40"/>
       <c r="EL91" s="61"/>
       <c r="EM91" s="58"/>
       <c r="EN91" s="61"/>
       <c r="EO91" s="58"/>
-      <c r="EP91" s="38"/>
+      <c r="EP91" s="61"/>
       <c r="EQ91" s="58"/>
       <c r="ER91" s="38"/>
       <c r="ES91" s="58"/>
@@ -44783,7 +44790,7 @@
         <v>349</v>
       </c>
       <c r="FC91" s="25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="FD91" s="94"/>
     </row>
@@ -44929,7 +44936,7 @@
       <c r="EG92" s="40"/>
       <c r="EH92" s="40"/>
       <c r="EI92" s="40"/>
-      <c r="EJ92" s="40"/>
+      <c r="EJ92" s="45"/>
       <c r="EK92" s="40"/>
       <c r="EL92" s="61"/>
       <c r="EM92" s="58"/>
@@ -44951,706 +44958,704 @@
         <v>350</v>
       </c>
       <c r="FC92" s="25" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="FD92" s="94"/>
     </row>
-    <row r="93" spans="1:160" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A93" s="94"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="93" t="s">
+      <c r="B93" s="30"/>
+      <c r="C93" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="60"/>
-      <c r="R93" s="59"/>
-      <c r="S93" s="60"/>
-      <c r="T93" s="59"/>
-      <c r="U93" s="60"/>
-      <c r="V93" s="59"/>
-      <c r="W93" s="60"/>
-      <c r="X93" s="41"/>
-      <c r="Y93" s="41"/>
-      <c r="Z93" s="41"/>
-      <c r="AA93" s="59"/>
-      <c r="AB93" s="60"/>
-      <c r="AC93" s="59"/>
-      <c r="AD93" s="60"/>
-      <c r="AE93" s="59"/>
-      <c r="AF93" s="60"/>
-      <c r="AG93" s="41"/>
-      <c r="AH93" s="41"/>
-      <c r="AI93" s="59"/>
-      <c r="AJ93" s="60"/>
-      <c r="AK93" s="59"/>
-      <c r="AL93" s="60"/>
-      <c r="AM93" s="41"/>
-      <c r="AN93" s="41"/>
-      <c r="AO93" s="67"/>
-      <c r="AP93" s="59"/>
-      <c r="AQ93" s="106"/>
-      <c r="AR93" s="59"/>
-      <c r="AS93" s="60"/>
-      <c r="AT93" s="59"/>
-      <c r="AU93" s="76"/>
-      <c r="AV93" s="60"/>
-      <c r="AW93" s="59"/>
-      <c r="AX93" s="76"/>
-      <c r="AY93" s="60"/>
-      <c r="AZ93" s="41"/>
-      <c r="BA93" s="41"/>
-      <c r="BB93" s="41"/>
-      <c r="BC93" s="59"/>
-      <c r="BD93" s="60"/>
-      <c r="BE93" s="41"/>
-      <c r="BF93" s="41"/>
-      <c r="BG93" s="59"/>
-      <c r="BH93" s="60"/>
-      <c r="BI93" s="59"/>
-      <c r="BJ93" s="76"/>
-      <c r="BK93" s="60"/>
-      <c r="BL93" s="59"/>
-      <c r="BM93" s="76"/>
-      <c r="BN93" s="60"/>
-      <c r="BO93" s="59"/>
-      <c r="BP93" s="60"/>
-      <c r="BQ93" s="41"/>
-      <c r="BR93" s="59"/>
-      <c r="BS93" s="76"/>
-      <c r="BT93" s="76"/>
-      <c r="BU93" s="60"/>
-      <c r="BV93" s="59"/>
-      <c r="BW93" s="76"/>
-      <c r="BX93" s="76"/>
-      <c r="BY93" s="76"/>
-      <c r="BZ93" s="76"/>
-      <c r="CA93" s="76"/>
-      <c r="CB93" s="76"/>
-      <c r="CC93" s="76"/>
-      <c r="CD93" s="60"/>
-      <c r="CE93" s="59"/>
-      <c r="CF93" s="76"/>
-      <c r="CG93" s="76"/>
-      <c r="CH93" s="60"/>
-      <c r="CI93" s="59"/>
-      <c r="CJ93" s="76"/>
-      <c r="CK93" s="60"/>
-      <c r="CL93" s="59"/>
-      <c r="CM93" s="76"/>
-      <c r="CN93" s="76"/>
-      <c r="CO93" s="76"/>
-      <c r="CP93" s="76"/>
-      <c r="CQ93" s="60"/>
-      <c r="CR93" s="59"/>
-      <c r="CS93" s="76"/>
-      <c r="CT93" s="60"/>
-      <c r="CU93" s="41"/>
-      <c r="CV93" s="41"/>
-      <c r="CW93" s="59"/>
-      <c r="CX93" s="76"/>
-      <c r="CY93" s="60"/>
-      <c r="CZ93" s="59"/>
-      <c r="DA93" s="76"/>
-      <c r="DB93" s="60"/>
-      <c r="DC93" s="59"/>
-      <c r="DD93" s="76"/>
-      <c r="DE93" s="76"/>
-      <c r="DF93" s="60"/>
-      <c r="DG93" s="59"/>
-      <c r="DH93" s="76"/>
-      <c r="DI93" s="76"/>
-      <c r="DJ93" s="60"/>
-      <c r="DK93" s="59"/>
-      <c r="DL93" s="76"/>
-      <c r="DM93" s="76"/>
-      <c r="DN93" s="60"/>
-      <c r="DO93" s="59"/>
-      <c r="DP93" s="60"/>
-      <c r="DQ93" s="59"/>
-      <c r="DR93" s="76"/>
-      <c r="DS93" s="60"/>
-      <c r="DT93" s="59"/>
-      <c r="DU93" s="76"/>
-      <c r="DV93" s="76"/>
-      <c r="DW93" s="76"/>
-      <c r="DX93" s="76"/>
-      <c r="DY93" s="60"/>
-      <c r="DZ93" s="59"/>
-      <c r="EA93" s="76"/>
-      <c r="EB93" s="76"/>
-      <c r="EC93" s="76"/>
-      <c r="ED93" s="76"/>
-      <c r="EE93" s="60"/>
-      <c r="EF93" s="41"/>
-      <c r="EG93" s="41"/>
-      <c r="EH93" s="41"/>
-      <c r="EI93" s="41"/>
-      <c r="EJ93" s="41"/>
-      <c r="EK93" s="41"/>
-      <c r="EL93" s="59"/>
-      <c r="EM93" s="60"/>
-      <c r="EN93" s="59"/>
-      <c r="EO93" s="60"/>
-      <c r="EP93" s="59"/>
-      <c r="EQ93" s="60"/>
-      <c r="ER93" s="59"/>
-      <c r="ES93" s="60"/>
-      <c r="ET93" s="59"/>
-      <c r="EU93" s="60"/>
-      <c r="EV93" s="41"/>
-      <c r="EW93" s="41"/>
-      <c r="EX93" s="41"/>
-      <c r="EY93" s="41"/>
-      <c r="EZ93" s="41"/>
-      <c r="FA93" s="41"/>
-      <c r="FB93" s="92" t="s">
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="40"/>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="58"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="58"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="58"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="58"/>
+      <c r="X93" s="40"/>
+      <c r="Y93" s="40"/>
+      <c r="Z93" s="40"/>
+      <c r="AA93" s="38"/>
+      <c r="AB93" s="58"/>
+      <c r="AC93" s="38"/>
+      <c r="AD93" s="58"/>
+      <c r="AE93" s="38"/>
+      <c r="AF93" s="58"/>
+      <c r="AG93" s="40"/>
+      <c r="AH93" s="40"/>
+      <c r="AI93" s="38"/>
+      <c r="AJ93" s="58"/>
+      <c r="AK93" s="38"/>
+      <c r="AL93" s="58"/>
+      <c r="AM93" s="40"/>
+      <c r="AN93" s="40"/>
+      <c r="AO93" s="45"/>
+      <c r="AP93" s="38"/>
+      <c r="AQ93" s="58"/>
+      <c r="AR93" s="61"/>
+      <c r="AS93" s="58"/>
+      <c r="AT93" s="38"/>
+      <c r="AU93" s="56"/>
+      <c r="AV93" s="58"/>
+      <c r="AW93" s="38"/>
+      <c r="AX93" s="56"/>
+      <c r="AY93" s="58"/>
+      <c r="AZ93" s="40"/>
+      <c r="BA93" s="40"/>
+      <c r="BB93" s="45"/>
+      <c r="BC93" s="38"/>
+      <c r="BD93" s="58"/>
+      <c r="BE93" s="40"/>
+      <c r="BF93" s="40"/>
+      <c r="BG93" s="38"/>
+      <c r="BH93" s="58"/>
+      <c r="BI93" s="38"/>
+      <c r="BJ93" s="56"/>
+      <c r="BK93" s="58"/>
+      <c r="BL93" s="38"/>
+      <c r="BM93" s="56"/>
+      <c r="BN93" s="58"/>
+      <c r="BO93" s="38"/>
+      <c r="BP93" s="58"/>
+      <c r="BQ93" s="40"/>
+      <c r="BR93" s="38"/>
+      <c r="BS93" s="56"/>
+      <c r="BT93" s="56"/>
+      <c r="BU93" s="58"/>
+      <c r="BV93" s="38"/>
+      <c r="BW93" s="56"/>
+      <c r="BX93" s="56"/>
+      <c r="BY93" s="56"/>
+      <c r="BZ93" s="56"/>
+      <c r="CA93" s="56"/>
+      <c r="CB93" s="56"/>
+      <c r="CC93" s="56"/>
+      <c r="CD93" s="58"/>
+      <c r="CE93" s="38"/>
+      <c r="CF93" s="56"/>
+      <c r="CG93" s="56"/>
+      <c r="CH93" s="58"/>
+      <c r="CI93" s="38"/>
+      <c r="CJ93" s="56"/>
+      <c r="CK93" s="58"/>
+      <c r="CL93" s="38"/>
+      <c r="CM93" s="56"/>
+      <c r="CN93" s="56"/>
+      <c r="CO93" s="56"/>
+      <c r="CP93" s="56"/>
+      <c r="CQ93" s="58"/>
+      <c r="CR93" s="38"/>
+      <c r="CS93" s="56"/>
+      <c r="CT93" s="58"/>
+      <c r="CU93" s="45"/>
+      <c r="CV93" s="45"/>
+      <c r="CW93" s="38"/>
+      <c r="CX93" s="56"/>
+      <c r="CY93" s="58"/>
+      <c r="CZ93" s="38"/>
+      <c r="DA93" s="56"/>
+      <c r="DB93" s="58"/>
+      <c r="DC93" s="38"/>
+      <c r="DD93" s="56"/>
+      <c r="DE93" s="56"/>
+      <c r="DF93" s="58"/>
+      <c r="DG93" s="38"/>
+      <c r="DH93" s="56"/>
+      <c r="DI93" s="56"/>
+      <c r="DJ93" s="58"/>
+      <c r="DK93" s="38"/>
+      <c r="DL93" s="56"/>
+      <c r="DM93" s="56"/>
+      <c r="DN93" s="58"/>
+      <c r="DO93" s="38"/>
+      <c r="DP93" s="58"/>
+      <c r="DQ93" s="38"/>
+      <c r="DR93" s="56"/>
+      <c r="DS93" s="58"/>
+      <c r="DT93" s="38"/>
+      <c r="DU93" s="56"/>
+      <c r="DV93" s="56"/>
+      <c r="DW93" s="56"/>
+      <c r="DX93" s="56"/>
+      <c r="DY93" s="58"/>
+      <c r="DZ93" s="38"/>
+      <c r="EA93" s="56"/>
+      <c r="EB93" s="56"/>
+      <c r="EC93" s="56"/>
+      <c r="ED93" s="56"/>
+      <c r="EE93" s="58"/>
+      <c r="EF93" s="40"/>
+      <c r="EG93" s="40"/>
+      <c r="EH93" s="40"/>
+      <c r="EI93" s="40"/>
+      <c r="EJ93" s="40"/>
+      <c r="EK93" s="40"/>
+      <c r="EL93" s="61"/>
+      <c r="EM93" s="58"/>
+      <c r="EN93" s="61"/>
+      <c r="EO93" s="58"/>
+      <c r="EP93" s="38"/>
+      <c r="EQ93" s="58"/>
+      <c r="ER93" s="38"/>
+      <c r="ES93" s="58"/>
+      <c r="ET93" s="38"/>
+      <c r="EU93" s="58"/>
+      <c r="EV93" s="40"/>
+      <c r="EW93" s="40"/>
+      <c r="EX93" s="40"/>
+      <c r="EY93" s="40"/>
+      <c r="EZ93" s="40"/>
+      <c r="FA93" s="40"/>
+      <c r="FB93" s="91" t="s">
         <v>351</v>
       </c>
-      <c r="FC93" s="93" t="s">
-        <v>446</v>
+      <c r="FC93" s="25" t="s">
+        <v>447</v>
       </c>
       <c r="FD93" s="94"/>
     </row>
-    <row r="94" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:160" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="94"/>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="31"/>
+      <c r="C94" s="93" t="s">
         <v>352</v>
       </c>
-      <c r="C94" s="85" t="s">
-        <v>353</v>
-      </c>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
-      <c r="M94" s="34"/>
-      <c r="N94" s="34"/>
-      <c r="O94" s="34"/>
-      <c r="P94" s="32"/>
-      <c r="Q94" s="51"/>
-      <c r="R94" s="32"/>
-      <c r="S94" s="51"/>
-      <c r="T94" s="32"/>
-      <c r="U94" s="51"/>
-      <c r="V94" s="32"/>
-      <c r="W94" s="51"/>
-      <c r="X94" s="34"/>
-      <c r="Y94" s="34"/>
-      <c r="Z94" s="34"/>
-      <c r="AA94" s="32"/>
-      <c r="AB94" s="51"/>
-      <c r="AC94" s="32"/>
-      <c r="AD94" s="51"/>
-      <c r="AE94" s="32"/>
-      <c r="AF94" s="51"/>
-      <c r="AG94" s="34"/>
-      <c r="AH94" s="34"/>
-      <c r="AI94" s="32"/>
-      <c r="AJ94" s="51"/>
-      <c r="AK94" s="32"/>
-      <c r="AL94" s="51"/>
-      <c r="AM94" s="34"/>
-      <c r="AN94" s="34"/>
-      <c r="AO94" s="34"/>
-      <c r="AP94" s="32"/>
-      <c r="AQ94" s="51"/>
-      <c r="AR94" s="32"/>
-      <c r="AS94" s="51"/>
-      <c r="AT94" s="32"/>
-      <c r="AU94" s="49"/>
-      <c r="AV94" s="51"/>
-      <c r="AW94" s="32"/>
-      <c r="AX94" s="49"/>
-      <c r="AY94" s="51"/>
-      <c r="AZ94" s="34"/>
-      <c r="BA94" s="34"/>
-      <c r="BB94" s="34"/>
-      <c r="BC94" s="32"/>
-      <c r="BD94" s="51"/>
-      <c r="BE94" s="34"/>
-      <c r="BF94" s="34"/>
-      <c r="BG94" s="32"/>
-      <c r="BH94" s="51"/>
-      <c r="BI94" s="32"/>
-      <c r="BJ94" s="49"/>
-      <c r="BK94" s="51"/>
-      <c r="BL94" s="32"/>
-      <c r="BM94" s="49"/>
-      <c r="BN94" s="51"/>
-      <c r="BO94" s="32"/>
-      <c r="BP94" s="51"/>
-      <c r="BQ94" s="34"/>
-      <c r="BR94" s="32"/>
-      <c r="BS94" s="49"/>
-      <c r="BT94" s="49"/>
-      <c r="BU94" s="51"/>
-      <c r="BV94" s="32"/>
-      <c r="BW94" s="49"/>
-      <c r="BX94" s="49"/>
-      <c r="BY94" s="49"/>
-      <c r="BZ94" s="49"/>
-      <c r="CA94" s="49"/>
-      <c r="CB94" s="49"/>
-      <c r="CC94" s="49"/>
-      <c r="CD94" s="51"/>
-      <c r="CE94" s="32"/>
-      <c r="CF94" s="49"/>
-      <c r="CG94" s="49"/>
-      <c r="CH94" s="82"/>
-      <c r="CI94" s="32"/>
-      <c r="CJ94" s="49"/>
-      <c r="CK94" s="82"/>
-      <c r="CL94" s="32"/>
-      <c r="CM94" s="49"/>
-      <c r="CN94" s="49"/>
-      <c r="CO94" s="49"/>
-      <c r="CP94" s="49"/>
-      <c r="CQ94" s="51"/>
-      <c r="CR94" s="32"/>
-      <c r="CS94" s="49"/>
-      <c r="CT94" s="51"/>
-      <c r="CU94" s="34"/>
-      <c r="CV94" s="34"/>
-      <c r="CW94" s="32"/>
-      <c r="CX94" s="49"/>
-      <c r="CY94" s="51"/>
-      <c r="CZ94" s="32"/>
-      <c r="DA94" s="49"/>
-      <c r="DB94" s="51"/>
-      <c r="DC94" s="32"/>
-      <c r="DD94" s="49"/>
-      <c r="DE94" s="49"/>
-      <c r="DF94" s="51"/>
-      <c r="DG94" s="32"/>
-      <c r="DH94" s="49"/>
-      <c r="DI94" s="49"/>
-      <c r="DJ94" s="51"/>
-      <c r="DK94" s="32"/>
-      <c r="DL94" s="49"/>
-      <c r="DM94" s="49"/>
-      <c r="DN94" s="51"/>
-      <c r="DO94" s="32"/>
-      <c r="DP94" s="51"/>
-      <c r="DQ94" s="32"/>
-      <c r="DR94" s="49"/>
-      <c r="DS94" s="51"/>
-      <c r="DT94" s="32"/>
-      <c r="DU94" s="49"/>
-      <c r="DV94" s="49"/>
-      <c r="DW94" s="49"/>
-      <c r="DX94" s="49"/>
-      <c r="DY94" s="51"/>
-      <c r="DZ94" s="32"/>
-      <c r="EA94" s="49"/>
-      <c r="EB94" s="49"/>
-      <c r="EC94" s="49"/>
-      <c r="ED94" s="49"/>
-      <c r="EE94" s="51"/>
-      <c r="EF94" s="34"/>
-      <c r="EG94" s="34"/>
-      <c r="EH94" s="34"/>
-      <c r="EI94" s="34"/>
-      <c r="EJ94" s="34"/>
-      <c r="EK94" s="34"/>
-      <c r="EL94" s="32"/>
-      <c r="EM94" s="51"/>
-      <c r="EN94" s="32"/>
-      <c r="EO94" s="51"/>
-      <c r="EP94" s="32"/>
-      <c r="EQ94" s="51"/>
-      <c r="ER94" s="32"/>
-      <c r="ES94" s="51"/>
-      <c r="ET94" s="32"/>
-      <c r="EU94" s="51"/>
-      <c r="EV94" s="34"/>
-      <c r="EW94" s="34"/>
-      <c r="EX94" s="34"/>
-      <c r="EY94" s="34"/>
-      <c r="EZ94" s="34"/>
-      <c r="FA94" s="34"/>
-      <c r="FB94" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="FC94" s="85" t="s">
-        <v>447</v>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="60"/>
+      <c r="R94" s="59"/>
+      <c r="S94" s="60"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="60"/>
+      <c r="V94" s="59"/>
+      <c r="W94" s="60"/>
+      <c r="X94" s="41"/>
+      <c r="Y94" s="41"/>
+      <c r="Z94" s="41"/>
+      <c r="AA94" s="59"/>
+      <c r="AB94" s="60"/>
+      <c r="AC94" s="59"/>
+      <c r="AD94" s="60"/>
+      <c r="AE94" s="59"/>
+      <c r="AF94" s="60"/>
+      <c r="AG94" s="41"/>
+      <c r="AH94" s="41"/>
+      <c r="AI94" s="59"/>
+      <c r="AJ94" s="60"/>
+      <c r="AK94" s="59"/>
+      <c r="AL94" s="60"/>
+      <c r="AM94" s="41"/>
+      <c r="AN94" s="41"/>
+      <c r="AO94" s="67"/>
+      <c r="AP94" s="59"/>
+      <c r="AQ94" s="106"/>
+      <c r="AR94" s="59"/>
+      <c r="AS94" s="60"/>
+      <c r="AT94" s="59"/>
+      <c r="AU94" s="76"/>
+      <c r="AV94" s="60"/>
+      <c r="AW94" s="59"/>
+      <c r="AX94" s="76"/>
+      <c r="AY94" s="60"/>
+      <c r="AZ94" s="41"/>
+      <c r="BA94" s="41"/>
+      <c r="BB94" s="41"/>
+      <c r="BC94" s="59"/>
+      <c r="BD94" s="60"/>
+      <c r="BE94" s="41"/>
+      <c r="BF94" s="41"/>
+      <c r="BG94" s="59"/>
+      <c r="BH94" s="60"/>
+      <c r="BI94" s="59"/>
+      <c r="BJ94" s="76"/>
+      <c r="BK94" s="60"/>
+      <c r="BL94" s="59"/>
+      <c r="BM94" s="76"/>
+      <c r="BN94" s="60"/>
+      <c r="BO94" s="59"/>
+      <c r="BP94" s="60"/>
+      <c r="BQ94" s="41"/>
+      <c r="BR94" s="59"/>
+      <c r="BS94" s="76"/>
+      <c r="BT94" s="76"/>
+      <c r="BU94" s="60"/>
+      <c r="BV94" s="59"/>
+      <c r="BW94" s="76"/>
+      <c r="BX94" s="76"/>
+      <c r="BY94" s="76"/>
+      <c r="BZ94" s="76"/>
+      <c r="CA94" s="76"/>
+      <c r="CB94" s="76"/>
+      <c r="CC94" s="76"/>
+      <c r="CD94" s="60"/>
+      <c r="CE94" s="59"/>
+      <c r="CF94" s="76"/>
+      <c r="CG94" s="76"/>
+      <c r="CH94" s="60"/>
+      <c r="CI94" s="59"/>
+      <c r="CJ94" s="76"/>
+      <c r="CK94" s="60"/>
+      <c r="CL94" s="59"/>
+      <c r="CM94" s="76"/>
+      <c r="CN94" s="76"/>
+      <c r="CO94" s="76"/>
+      <c r="CP94" s="76"/>
+      <c r="CQ94" s="60"/>
+      <c r="CR94" s="59"/>
+      <c r="CS94" s="76"/>
+      <c r="CT94" s="60"/>
+      <c r="CU94" s="41"/>
+      <c r="CV94" s="41"/>
+      <c r="CW94" s="59"/>
+      <c r="CX94" s="76"/>
+      <c r="CY94" s="60"/>
+      <c r="CZ94" s="59"/>
+      <c r="DA94" s="76"/>
+      <c r="DB94" s="60"/>
+      <c r="DC94" s="59"/>
+      <c r="DD94" s="76"/>
+      <c r="DE94" s="76"/>
+      <c r="DF94" s="60"/>
+      <c r="DG94" s="59"/>
+      <c r="DH94" s="76"/>
+      <c r="DI94" s="76"/>
+      <c r="DJ94" s="60"/>
+      <c r="DK94" s="59"/>
+      <c r="DL94" s="76"/>
+      <c r="DM94" s="76"/>
+      <c r="DN94" s="60"/>
+      <c r="DO94" s="59"/>
+      <c r="DP94" s="60"/>
+      <c r="DQ94" s="59"/>
+      <c r="DR94" s="76"/>
+      <c r="DS94" s="60"/>
+      <c r="DT94" s="59"/>
+      <c r="DU94" s="76"/>
+      <c r="DV94" s="76"/>
+      <c r="DW94" s="76"/>
+      <c r="DX94" s="76"/>
+      <c r="DY94" s="60"/>
+      <c r="DZ94" s="59"/>
+      <c r="EA94" s="76"/>
+      <c r="EB94" s="76"/>
+      <c r="EC94" s="76"/>
+      <c r="ED94" s="76"/>
+      <c r="EE94" s="60"/>
+      <c r="EF94" s="41"/>
+      <c r="EG94" s="41"/>
+      <c r="EH94" s="41"/>
+      <c r="EI94" s="41"/>
+      <c r="EJ94" s="41"/>
+      <c r="EK94" s="41"/>
+      <c r="EL94" s="59"/>
+      <c r="EM94" s="60"/>
+      <c r="EN94" s="59"/>
+      <c r="EO94" s="60"/>
+      <c r="EP94" s="59"/>
+      <c r="EQ94" s="60"/>
+      <c r="ER94" s="59"/>
+      <c r="ES94" s="60"/>
+      <c r="ET94" s="59"/>
+      <c r="EU94" s="60"/>
+      <c r="EV94" s="41"/>
+      <c r="EW94" s="41"/>
+      <c r="EX94" s="41"/>
+      <c r="EY94" s="41"/>
+      <c r="EZ94" s="41"/>
+      <c r="FA94" s="41"/>
+      <c r="FB94" s="92" t="s">
+        <v>352</v>
+      </c>
+      <c r="FC94" s="93" t="s">
+        <v>448</v>
       </c>
       <c r="FD94" s="94"/>
     </row>
-    <row r="95" spans="1:160" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:160" x14ac:dyDescent="0.2">
       <c r="A95" s="94"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="89" t="s">
+      <c r="B95" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C95" s="85" t="s">
         <v>354</v>
       </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="53"/>
-      <c r="Q95" s="54"/>
-      <c r="R95" s="53"/>
-      <c r="S95" s="54"/>
-      <c r="T95" s="53"/>
-      <c r="U95" s="54"/>
-      <c r="V95" s="53"/>
-      <c r="W95" s="54"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
-      <c r="Z95" s="36"/>
-      <c r="AA95" s="53"/>
-      <c r="AB95" s="54"/>
-      <c r="AC95" s="53"/>
-      <c r="AD95" s="54"/>
-      <c r="AE95" s="53"/>
-      <c r="AF95" s="54"/>
-      <c r="AG95" s="36"/>
-      <c r="AH95" s="36"/>
-      <c r="AI95" s="53"/>
-      <c r="AJ95" s="54"/>
-      <c r="AK95" s="53"/>
-      <c r="AL95" s="54"/>
-      <c r="AM95" s="36"/>
-      <c r="AN95" s="36"/>
-      <c r="AO95" s="36"/>
-      <c r="AP95" s="53"/>
-      <c r="AQ95" s="54"/>
-      <c r="AR95" s="53"/>
-      <c r="AS95" s="54"/>
-      <c r="AT95" s="53"/>
-      <c r="AU95" s="75"/>
-      <c r="AV95" s="54"/>
-      <c r="AW95" s="53"/>
-      <c r="AX95" s="75"/>
-      <c r="AY95" s="54"/>
-      <c r="AZ95" s="36"/>
-      <c r="BA95" s="36"/>
-      <c r="BB95" s="36"/>
-      <c r="BC95" s="53"/>
-      <c r="BD95" s="54"/>
-      <c r="BE95" s="36"/>
-      <c r="BF95" s="36"/>
-      <c r="BG95" s="53"/>
-      <c r="BH95" s="54"/>
-      <c r="BI95" s="53"/>
-      <c r="BJ95" s="75"/>
-      <c r="BK95" s="54"/>
-      <c r="BL95" s="53"/>
-      <c r="BM95" s="75"/>
-      <c r="BN95" s="54"/>
-      <c r="BO95" s="53"/>
-      <c r="BP95" s="54"/>
-      <c r="BQ95" s="36"/>
-      <c r="BR95" s="53"/>
-      <c r="BS95" s="75"/>
-      <c r="BT95" s="75"/>
-      <c r="BU95" s="54"/>
-      <c r="BV95" s="53"/>
-      <c r="BW95" s="75"/>
-      <c r="BX95" s="75"/>
-      <c r="BY95" s="75"/>
-      <c r="BZ95" s="75"/>
-      <c r="CA95" s="75"/>
-      <c r="CB95" s="75"/>
-      <c r="CC95" s="75"/>
-      <c r="CD95" s="54"/>
-      <c r="CE95" s="53"/>
-      <c r="CF95" s="75"/>
-      <c r="CG95" s="75"/>
-      <c r="CH95" s="68"/>
-      <c r="CI95" s="53"/>
-      <c r="CJ95" s="75"/>
-      <c r="CK95" s="68"/>
-      <c r="CL95" s="53"/>
-      <c r="CM95" s="75"/>
-      <c r="CN95" s="75"/>
-      <c r="CO95" s="75"/>
-      <c r="CP95" s="75"/>
-      <c r="CQ95" s="54"/>
-      <c r="CR95" s="53"/>
-      <c r="CS95" s="75"/>
-      <c r="CT95" s="54"/>
-      <c r="CU95" s="36"/>
-      <c r="CV95" s="36"/>
-      <c r="CW95" s="53"/>
-      <c r="CX95" s="75"/>
-      <c r="CY95" s="54"/>
-      <c r="CZ95" s="53"/>
-      <c r="DA95" s="75"/>
-      <c r="DB95" s="54"/>
-      <c r="DC95" s="53"/>
-      <c r="DD95" s="75"/>
-      <c r="DE95" s="75"/>
-      <c r="DF95" s="54"/>
-      <c r="DG95" s="53"/>
-      <c r="DH95" s="75"/>
-      <c r="DI95" s="75"/>
-      <c r="DJ95" s="54"/>
-      <c r="DK95" s="53"/>
-      <c r="DL95" s="75"/>
-      <c r="DM95" s="75"/>
-      <c r="DN95" s="54"/>
-      <c r="DO95" s="53"/>
-      <c r="DP95" s="54"/>
-      <c r="DQ95" s="53"/>
-      <c r="DR95" s="75"/>
-      <c r="DS95" s="54"/>
-      <c r="DT95" s="53"/>
-      <c r="DU95" s="75"/>
-      <c r="DV95" s="75"/>
-      <c r="DW95" s="75"/>
-      <c r="DX95" s="75"/>
-      <c r="DY95" s="54"/>
-      <c r="DZ95" s="53"/>
-      <c r="EA95" s="75"/>
-      <c r="EB95" s="75"/>
-      <c r="EC95" s="75"/>
-      <c r="ED95" s="75"/>
-      <c r="EE95" s="54"/>
-      <c r="EF95" s="36"/>
-      <c r="EG95" s="36"/>
-      <c r="EH95" s="36"/>
-      <c r="EI95" s="36"/>
-      <c r="EJ95" s="36"/>
-      <c r="EK95" s="36"/>
-      <c r="EL95" s="53"/>
-      <c r="EM95" s="54"/>
-      <c r="EN95" s="53"/>
-      <c r="EO95" s="54"/>
-      <c r="EP95" s="53"/>
-      <c r="EQ95" s="54"/>
-      <c r="ER95" s="53"/>
-      <c r="ES95" s="54"/>
-      <c r="ET95" s="53"/>
-      <c r="EU95" s="54"/>
-      <c r="EV95" s="36"/>
-      <c r="EW95" s="36"/>
-      <c r="EX95" s="36"/>
-      <c r="EY95" s="36"/>
-      <c r="EZ95" s="36"/>
-      <c r="FA95" s="36"/>
-      <c r="FB95" s="88" t="s">
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="32"/>
+      <c r="Q95" s="51"/>
+      <c r="R95" s="32"/>
+      <c r="S95" s="51"/>
+      <c r="T95" s="32"/>
+      <c r="U95" s="51"/>
+      <c r="V95" s="32"/>
+      <c r="W95" s="51"/>
+      <c r="X95" s="34"/>
+      <c r="Y95" s="34"/>
+      <c r="Z95" s="34"/>
+      <c r="AA95" s="32"/>
+      <c r="AB95" s="51"/>
+      <c r="AC95" s="32"/>
+      <c r="AD95" s="51"/>
+      <c r="AE95" s="32"/>
+      <c r="AF95" s="51"/>
+      <c r="AG95" s="34"/>
+      <c r="AH95" s="34"/>
+      <c r="AI95" s="32"/>
+      <c r="AJ95" s="51"/>
+      <c r="AK95" s="32"/>
+      <c r="AL95" s="51"/>
+      <c r="AM95" s="34"/>
+      <c r="AN95" s="34"/>
+      <c r="AO95" s="34"/>
+      <c r="AP95" s="32"/>
+      <c r="AQ95" s="51"/>
+      <c r="AR95" s="32"/>
+      <c r="AS95" s="51"/>
+      <c r="AT95" s="32"/>
+      <c r="AU95" s="49"/>
+      <c r="AV95" s="51"/>
+      <c r="AW95" s="32"/>
+      <c r="AX95" s="49"/>
+      <c r="AY95" s="51"/>
+      <c r="AZ95" s="34"/>
+      <c r="BA95" s="34"/>
+      <c r="BB95" s="34"/>
+      <c r="BC95" s="32"/>
+      <c r="BD95" s="51"/>
+      <c r="BE95" s="34"/>
+      <c r="BF95" s="34"/>
+      <c r="BG95" s="32"/>
+      <c r="BH95" s="51"/>
+      <c r="BI95" s="32"/>
+      <c r="BJ95" s="49"/>
+      <c r="BK95" s="51"/>
+      <c r="BL95" s="32"/>
+      <c r="BM95" s="49"/>
+      <c r="BN95" s="51"/>
+      <c r="BO95" s="32"/>
+      <c r="BP95" s="51"/>
+      <c r="BQ95" s="34"/>
+      <c r="BR95" s="32"/>
+      <c r="BS95" s="49"/>
+      <c r="BT95" s="49"/>
+      <c r="BU95" s="51"/>
+      <c r="BV95" s="32"/>
+      <c r="BW95" s="49"/>
+      <c r="BX95" s="49"/>
+      <c r="BY95" s="49"/>
+      <c r="BZ95" s="49"/>
+      <c r="CA95" s="49"/>
+      <c r="CB95" s="49"/>
+      <c r="CC95" s="49"/>
+      <c r="CD95" s="51"/>
+      <c r="CE95" s="32"/>
+      <c r="CF95" s="49"/>
+      <c r="CG95" s="49"/>
+      <c r="CH95" s="82"/>
+      <c r="CI95" s="32"/>
+      <c r="CJ95" s="49"/>
+      <c r="CK95" s="82"/>
+      <c r="CL95" s="32"/>
+      <c r="CM95" s="49"/>
+      <c r="CN95" s="49"/>
+      <c r="CO95" s="49"/>
+      <c r="CP95" s="49"/>
+      <c r="CQ95" s="51"/>
+      <c r="CR95" s="32"/>
+      <c r="CS95" s="49"/>
+      <c r="CT95" s="51"/>
+      <c r="CU95" s="34"/>
+      <c r="CV95" s="34"/>
+      <c r="CW95" s="32"/>
+      <c r="CX95" s="49"/>
+      <c r="CY95" s="51"/>
+      <c r="CZ95" s="32"/>
+      <c r="DA95" s="49"/>
+      <c r="DB95" s="51"/>
+      <c r="DC95" s="32"/>
+      <c r="DD95" s="49"/>
+      <c r="DE95" s="49"/>
+      <c r="DF95" s="51"/>
+      <c r="DG95" s="32"/>
+      <c r="DH95" s="49"/>
+      <c r="DI95" s="49"/>
+      <c r="DJ95" s="51"/>
+      <c r="DK95" s="32"/>
+      <c r="DL95" s="49"/>
+      <c r="DM95" s="49"/>
+      <c r="DN95" s="51"/>
+      <c r="DO95" s="32"/>
+      <c r="DP95" s="51"/>
+      <c r="DQ95" s="32"/>
+      <c r="DR95" s="49"/>
+      <c r="DS95" s="51"/>
+      <c r="DT95" s="32"/>
+      <c r="DU95" s="49"/>
+      <c r="DV95" s="49"/>
+      <c r="DW95" s="49"/>
+      <c r="DX95" s="49"/>
+      <c r="DY95" s="51"/>
+      <c r="DZ95" s="32"/>
+      <c r="EA95" s="49"/>
+      <c r="EB95" s="49"/>
+      <c r="EC95" s="49"/>
+      <c r="ED95" s="49"/>
+      <c r="EE95" s="51"/>
+      <c r="EF95" s="34"/>
+      <c r="EG95" s="34"/>
+      <c r="EH95" s="34"/>
+      <c r="EI95" s="34"/>
+      <c r="EJ95" s="34"/>
+      <c r="EK95" s="34"/>
+      <c r="EL95" s="32"/>
+      <c r="EM95" s="51"/>
+      <c r="EN95" s="32"/>
+      <c r="EO95" s="51"/>
+      <c r="EP95" s="32"/>
+      <c r="EQ95" s="51"/>
+      <c r="ER95" s="32"/>
+      <c r="ES95" s="51"/>
+      <c r="ET95" s="32"/>
+      <c r="EU95" s="51"/>
+      <c r="EV95" s="34"/>
+      <c r="EW95" s="34"/>
+      <c r="EX95" s="34"/>
+      <c r="EY95" s="34"/>
+      <c r="EZ95" s="34"/>
+      <c r="FA95" s="34"/>
+      <c r="FB95" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="FC95" s="89" t="s">
-        <v>448</v>
+      <c r="FC95" s="85" t="s">
+        <v>449</v>
       </c>
       <c r="FD95" s="94"/>
     </row>
-    <row r="96" spans="1:160" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:160" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="94"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="94"/>
-      <c r="D96" s="94"/>
-      <c r="E96" s="94"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="94"/>
-      <c r="H96" s="94"/>
-      <c r="I96" s="94"/>
-      <c r="J96" s="94"/>
-      <c r="K96" s="94"/>
-      <c r="L96" s="94"/>
-      <c r="M96" s="94"/>
-      <c r="N96" s="94"/>
-      <c r="O96" s="94"/>
-      <c r="P96" s="94"/>
-      <c r="Q96" s="94"/>
-      <c r="R96" s="94"/>
-      <c r="S96" s="94"/>
-      <c r="T96" s="94"/>
-      <c r="U96" s="94"/>
-      <c r="V96" s="94"/>
-      <c r="W96" s="94"/>
-      <c r="X96" s="94"/>
-      <c r="Y96" s="94"/>
-      <c r="Z96" s="94"/>
-      <c r="AA96" s="94"/>
-      <c r="AB96" s="94"/>
-      <c r="AC96" s="94"/>
-      <c r="AD96" s="94"/>
-      <c r="AE96" s="94"/>
-      <c r="AF96" s="94"/>
-      <c r="AG96" s="94"/>
-      <c r="AH96" s="94"/>
-      <c r="AI96" s="94"/>
-      <c r="AJ96" s="94"/>
-      <c r="AK96" s="94"/>
-      <c r="AL96" s="94"/>
-      <c r="AM96" s="94"/>
-      <c r="AN96" s="94"/>
-      <c r="AO96" s="94"/>
-      <c r="AP96" s="94"/>
-      <c r="AQ96" s="94"/>
-      <c r="AR96" s="94"/>
-      <c r="AS96" s="94"/>
-      <c r="AT96" s="94"/>
-      <c r="AU96" s="94"/>
-      <c r="AV96" s="94"/>
-      <c r="AW96" s="94"/>
-      <c r="AX96" s="94"/>
-      <c r="AY96" s="94"/>
-      <c r="AZ96" s="94"/>
-      <c r="BA96" s="94"/>
-      <c r="BB96" s="94"/>
-      <c r="BC96" s="94"/>
-      <c r="BD96" s="94"/>
-      <c r="BE96" s="94"/>
-      <c r="BF96" s="94"/>
-      <c r="BG96" s="94"/>
-      <c r="BH96" s="94"/>
-      <c r="BI96" s="94"/>
-      <c r="BJ96" s="94"/>
-      <c r="BK96" s="94"/>
-      <c r="BL96" s="94"/>
-      <c r="BM96" s="94"/>
-      <c r="BN96" s="94"/>
-      <c r="BO96" s="94"/>
-      <c r="BP96" s="94"/>
-      <c r="BQ96" s="94"/>
-      <c r="BR96" s="94"/>
-      <c r="BS96" s="94"/>
-      <c r="BT96" s="94"/>
-      <c r="BU96" s="94"/>
-      <c r="BV96" s="94"/>
-      <c r="BW96" s="94"/>
-      <c r="BX96" s="94"/>
-      <c r="BY96" s="94"/>
-      <c r="BZ96" s="94"/>
-      <c r="CA96" s="94"/>
-      <c r="CB96" s="94"/>
-      <c r="CC96" s="94"/>
-      <c r="CD96" s="94"/>
-      <c r="CE96" s="94"/>
-      <c r="CF96" s="94"/>
-      <c r="CG96" s="94"/>
-      <c r="CH96" s="94"/>
-      <c r="CI96" s="94"/>
-      <c r="CJ96" s="94"/>
-      <c r="CK96" s="94"/>
-      <c r="CL96" s="94"/>
-      <c r="CM96" s="94"/>
-      <c r="CN96" s="94"/>
-      <c r="CO96" s="94"/>
-      <c r="CP96" s="94"/>
-      <c r="CQ96" s="94"/>
-      <c r="CR96" s="94"/>
-      <c r="CS96" s="94"/>
-      <c r="CT96" s="94"/>
-      <c r="CU96" s="94"/>
-      <c r="CV96" s="94"/>
-      <c r="CW96" s="94"/>
-      <c r="CX96" s="94"/>
-      <c r="CY96" s="94"/>
-      <c r="CZ96" s="94"/>
-      <c r="DA96" s="94"/>
-      <c r="DB96" s="94"/>
-      <c r="DC96" s="94"/>
-      <c r="DD96" s="94"/>
-      <c r="DE96" s="94"/>
-      <c r="DF96" s="94"/>
-      <c r="DG96" s="94"/>
-      <c r="DH96" s="94"/>
-      <c r="DI96" s="94"/>
-      <c r="DJ96" s="94"/>
-      <c r="DK96" s="94"/>
-      <c r="DL96" s="94"/>
-      <c r="DM96" s="94"/>
-      <c r="DN96" s="94"/>
-      <c r="DO96" s="94"/>
-      <c r="DP96" s="94"/>
-      <c r="DQ96" s="94"/>
-      <c r="DR96" s="94"/>
-      <c r="DS96" s="94"/>
-      <c r="DT96" s="94"/>
-      <c r="DU96" s="94"/>
-      <c r="DV96" s="94"/>
-      <c r="DW96" s="94"/>
-      <c r="DX96" s="94"/>
-      <c r="DY96" s="94"/>
-      <c r="DZ96" s="94"/>
-      <c r="EA96" s="94"/>
-      <c r="EB96" s="94"/>
-      <c r="EC96" s="94"/>
-      <c r="ED96" s="94"/>
-      <c r="EE96" s="94"/>
-      <c r="EF96" s="94"/>
-      <c r="EG96" s="94"/>
-      <c r="EH96" s="94"/>
-      <c r="EI96" s="94"/>
-      <c r="EJ96" s="94"/>
-      <c r="EK96" s="94"/>
-      <c r="EL96" s="94"/>
-      <c r="EM96" s="94"/>
-      <c r="EN96" s="94"/>
-      <c r="EO96" s="94"/>
-      <c r="EP96" s="94"/>
-      <c r="EQ96" s="94"/>
-      <c r="ER96" s="94"/>
-      <c r="ES96" s="94"/>
-      <c r="ET96" s="94"/>
-      <c r="EU96" s="94"/>
-      <c r="EV96" s="94"/>
-      <c r="EW96" s="94"/>
-      <c r="EX96" s="94"/>
-      <c r="EY96" s="94"/>
-      <c r="EZ96" s="94"/>
-      <c r="FA96" s="94"/>
-      <c r="FB96" s="94"/>
-      <c r="FC96" s="94"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="89" t="s">
+        <v>355</v>
+      </c>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="53"/>
+      <c r="Q96" s="54"/>
+      <c r="R96" s="53"/>
+      <c r="S96" s="54"/>
+      <c r="T96" s="53"/>
+      <c r="U96" s="54"/>
+      <c r="V96" s="53"/>
+      <c r="W96" s="54"/>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36"/>
+      <c r="Z96" s="36"/>
+      <c r="AA96" s="53"/>
+      <c r="AB96" s="54"/>
+      <c r="AC96" s="53"/>
+      <c r="AD96" s="54"/>
+      <c r="AE96" s="53"/>
+      <c r="AF96" s="54"/>
+      <c r="AG96" s="36"/>
+      <c r="AH96" s="36"/>
+      <c r="AI96" s="53"/>
+      <c r="AJ96" s="54"/>
+      <c r="AK96" s="53"/>
+      <c r="AL96" s="54"/>
+      <c r="AM96" s="36"/>
+      <c r="AN96" s="36"/>
+      <c r="AO96" s="36"/>
+      <c r="AP96" s="53"/>
+      <c r="AQ96" s="54"/>
+      <c r="AR96" s="53"/>
+      <c r="AS96" s="54"/>
+      <c r="AT96" s="53"/>
+      <c r="AU96" s="75"/>
+      <c r="AV96" s="54"/>
+      <c r="AW96" s="53"/>
+      <c r="AX96" s="75"/>
+      <c r="AY96" s="54"/>
+      <c r="AZ96" s="36"/>
+      <c r="BA96" s="36"/>
+      <c r="BB96" s="36"/>
+      <c r="BC96" s="53"/>
+      <c r="BD96" s="54"/>
+      <c r="BE96" s="36"/>
+      <c r="BF96" s="36"/>
+      <c r="BG96" s="53"/>
+      <c r="BH96" s="54"/>
+      <c r="BI96" s="53"/>
+      <c r="BJ96" s="75"/>
+      <c r="BK96" s="54"/>
+      <c r="BL96" s="53"/>
+      <c r="BM96" s="75"/>
+      <c r="BN96" s="54"/>
+      <c r="BO96" s="53"/>
+      <c r="BP96" s="54"/>
+      <c r="BQ96" s="36"/>
+      <c r="BR96" s="53"/>
+      <c r="BS96" s="75"/>
+      <c r="BT96" s="75"/>
+      <c r="BU96" s="54"/>
+      <c r="BV96" s="53"/>
+      <c r="BW96" s="75"/>
+      <c r="BX96" s="75"/>
+      <c r="BY96" s="75"/>
+      <c r="BZ96" s="75"/>
+      <c r="CA96" s="75"/>
+      <c r="CB96" s="75"/>
+      <c r="CC96" s="75"/>
+      <c r="CD96" s="54"/>
+      <c r="CE96" s="53"/>
+      <c r="CF96" s="75"/>
+      <c r="CG96" s="75"/>
+      <c r="CH96" s="68"/>
+      <c r="CI96" s="53"/>
+      <c r="CJ96" s="75"/>
+      <c r="CK96" s="68"/>
+      <c r="CL96" s="53"/>
+      <c r="CM96" s="75"/>
+      <c r="CN96" s="75"/>
+      <c r="CO96" s="75"/>
+      <c r="CP96" s="75"/>
+      <c r="CQ96" s="54"/>
+      <c r="CR96" s="53"/>
+      <c r="CS96" s="75"/>
+      <c r="CT96" s="54"/>
+      <c r="CU96" s="36"/>
+      <c r="CV96" s="36"/>
+      <c r="CW96" s="53"/>
+      <c r="CX96" s="75"/>
+      <c r="CY96" s="54"/>
+      <c r="CZ96" s="53"/>
+      <c r="DA96" s="75"/>
+      <c r="DB96" s="54"/>
+      <c r="DC96" s="53"/>
+      <c r="DD96" s="75"/>
+      <c r="DE96" s="75"/>
+      <c r="DF96" s="54"/>
+      <c r="DG96" s="53"/>
+      <c r="DH96" s="75"/>
+      <c r="DI96" s="75"/>
+      <c r="DJ96" s="54"/>
+      <c r="DK96" s="53"/>
+      <c r="DL96" s="75"/>
+      <c r="DM96" s="75"/>
+      <c r="DN96" s="54"/>
+      <c r="DO96" s="53"/>
+      <c r="DP96" s="54"/>
+      <c r="DQ96" s="53"/>
+      <c r="DR96" s="75"/>
+      <c r="DS96" s="54"/>
+      <c r="DT96" s="53"/>
+      <c r="DU96" s="75"/>
+      <c r="DV96" s="75"/>
+      <c r="DW96" s="75"/>
+      <c r="DX96" s="75"/>
+      <c r="DY96" s="54"/>
+      <c r="DZ96" s="53"/>
+      <c r="EA96" s="75"/>
+      <c r="EB96" s="75"/>
+      <c r="EC96" s="75"/>
+      <c r="ED96" s="75"/>
+      <c r="EE96" s="54"/>
+      <c r="EF96" s="36"/>
+      <c r="EG96" s="36"/>
+      <c r="EH96" s="36"/>
+      <c r="EI96" s="36"/>
+      <c r="EJ96" s="36"/>
+      <c r="EK96" s="36"/>
+      <c r="EL96" s="53"/>
+      <c r="EM96" s="54"/>
+      <c r="EN96" s="53"/>
+      <c r="EO96" s="54"/>
+      <c r="EP96" s="53"/>
+      <c r="EQ96" s="54"/>
+      <c r="ER96" s="53"/>
+      <c r="ES96" s="54"/>
+      <c r="ET96" s="53"/>
+      <c r="EU96" s="54"/>
+      <c r="EV96" s="36"/>
+      <c r="EW96" s="36"/>
+      <c r="EX96" s="36"/>
+      <c r="EY96" s="36"/>
+      <c r="EZ96" s="36"/>
+      <c r="FA96" s="36"/>
+      <c r="FB96" s="88" t="s">
+        <v>355</v>
+      </c>
+      <c r="FC96" s="89" t="s">
+        <v>450</v>
+      </c>
       <c r="FD96" s="94"/>
     </row>
-    <row r="97" spans="1:160" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:160" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="94"/>
       <c r="B97" s="94"/>
       <c r="C97" s="94"/>
       <c r="D97" s="94"/>
-      <c r="E97" s="80"/>
-      <c r="F97" s="95" t="s">
-        <v>251</v>
-      </c>
+      <c r="E97" s="94"/>
+      <c r="F97" s="94"/>
       <c r="G97" s="94"/>
       <c r="H97" s="94"/>
       <c r="I97" s="94"/>
-      <c r="J97" s="77">
-        <v>3</v>
-      </c>
-      <c r="K97" s="95" t="s">
-        <v>252</v>
-      </c>
+      <c r="J97" s="94"/>
+      <c r="K97" s="94"/>
       <c r="L97" s="94"/>
       <c r="M97" s="94"/>
       <c r="N97" s="94"/>
       <c r="O97" s="94"/>
       <c r="P97" s="94"/>
       <c r="Q97" s="94"/>
-      <c r="R97" s="97"/>
-      <c r="S97" s="95" t="s">
-        <v>253</v>
-      </c>
+      <c r="R97" s="94"/>
+      <c r="S97" s="94"/>
       <c r="T97" s="94"/>
       <c r="U97" s="94"/>
       <c r="V97" s="94"/>
@@ -45798,21 +45803,29 @@
       <c r="B98" s="94"/>
       <c r="C98" s="94"/>
       <c r="D98" s="94"/>
-      <c r="E98" s="94"/>
-      <c r="F98" s="94"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="95" t="s">
+        <v>251</v>
+      </c>
       <c r="G98" s="94"/>
       <c r="H98" s="94"/>
       <c r="I98" s="94"/>
-      <c r="J98" s="94"/>
-      <c r="K98" s="94"/>
+      <c r="J98" s="77">
+        <v>3</v>
+      </c>
+      <c r="K98" s="95" t="s">
+        <v>252</v>
+      </c>
       <c r="L98" s="94"/>
       <c r="M98" s="94"/>
       <c r="N98" s="94"/>
       <c r="O98" s="94"/>
       <c r="P98" s="94"/>
       <c r="Q98" s="94"/>
-      <c r="R98" s="94"/>
-      <c r="S98" s="94"/>
+      <c r="R98" s="97"/>
+      <c r="S98" s="95" t="s">
+        <v>253</v>
+      </c>
       <c r="T98" s="94"/>
       <c r="U98" s="94"/>
       <c r="V98" s="94"/>
@@ -53569,6 +53582,168 @@
       <c r="FC145" s="94"/>
       <c r="FD145" s="94"/>
     </row>
+    <row r="146" spans="1:160" x14ac:dyDescent="0.2">
+      <c r="A146" s="94"/>
+      <c r="B146" s="94"/>
+      <c r="C146" s="94"/>
+      <c r="D146" s="94"/>
+      <c r="E146" s="94"/>
+      <c r="F146" s="94"/>
+      <c r="G146" s="94"/>
+      <c r="H146" s="94"/>
+      <c r="I146" s="94"/>
+      <c r="J146" s="94"/>
+      <c r="K146" s="94"/>
+      <c r="L146" s="94"/>
+      <c r="M146" s="94"/>
+      <c r="N146" s="94"/>
+      <c r="O146" s="94"/>
+      <c r="P146" s="94"/>
+      <c r="Q146" s="94"/>
+      <c r="R146" s="94"/>
+      <c r="S146" s="94"/>
+      <c r="T146" s="94"/>
+      <c r="U146" s="94"/>
+      <c r="V146" s="94"/>
+      <c r="W146" s="94"/>
+      <c r="X146" s="94"/>
+      <c r="Y146" s="94"/>
+      <c r="Z146" s="94"/>
+      <c r="AA146" s="94"/>
+      <c r="AB146" s="94"/>
+      <c r="AC146" s="94"/>
+      <c r="AD146" s="94"/>
+      <c r="AE146" s="94"/>
+      <c r="AF146" s="94"/>
+      <c r="AG146" s="94"/>
+      <c r="AH146" s="94"/>
+      <c r="AI146" s="94"/>
+      <c r="AJ146" s="94"/>
+      <c r="AK146" s="94"/>
+      <c r="AL146" s="94"/>
+      <c r="AM146" s="94"/>
+      <c r="AN146" s="94"/>
+      <c r="AO146" s="94"/>
+      <c r="AP146" s="94"/>
+      <c r="AQ146" s="94"/>
+      <c r="AR146" s="94"/>
+      <c r="AS146" s="94"/>
+      <c r="AT146" s="94"/>
+      <c r="AU146" s="94"/>
+      <c r="AV146" s="94"/>
+      <c r="AW146" s="94"/>
+      <c r="AX146" s="94"/>
+      <c r="AY146" s="94"/>
+      <c r="AZ146" s="94"/>
+      <c r="BA146" s="94"/>
+      <c r="BB146" s="94"/>
+      <c r="BC146" s="94"/>
+      <c r="BD146" s="94"/>
+      <c r="BE146" s="94"/>
+      <c r="BF146" s="94"/>
+      <c r="BG146" s="94"/>
+      <c r="BH146" s="94"/>
+      <c r="BI146" s="94"/>
+      <c r="BJ146" s="94"/>
+      <c r="BK146" s="94"/>
+      <c r="BL146" s="94"/>
+      <c r="BM146" s="94"/>
+      <c r="BN146" s="94"/>
+      <c r="BO146" s="94"/>
+      <c r="BP146" s="94"/>
+      <c r="BQ146" s="94"/>
+      <c r="BR146" s="94"/>
+      <c r="BS146" s="94"/>
+      <c r="BT146" s="94"/>
+      <c r="BU146" s="94"/>
+      <c r="BV146" s="94"/>
+      <c r="BW146" s="94"/>
+      <c r="BX146" s="94"/>
+      <c r="BY146" s="94"/>
+      <c r="BZ146" s="94"/>
+      <c r="CA146" s="94"/>
+      <c r="CB146" s="94"/>
+      <c r="CC146" s="94"/>
+      <c r="CD146" s="94"/>
+      <c r="CE146" s="94"/>
+      <c r="CF146" s="94"/>
+      <c r="CG146" s="94"/>
+      <c r="CH146" s="94"/>
+      <c r="CI146" s="94"/>
+      <c r="CJ146" s="94"/>
+      <c r="CK146" s="94"/>
+      <c r="CL146" s="94"/>
+      <c r="CM146" s="94"/>
+      <c r="CN146" s="94"/>
+      <c r="CO146" s="94"/>
+      <c r="CP146" s="94"/>
+      <c r="CQ146" s="94"/>
+      <c r="CR146" s="94"/>
+      <c r="CS146" s="94"/>
+      <c r="CT146" s="94"/>
+      <c r="CU146" s="94"/>
+      <c r="CV146" s="94"/>
+      <c r="CW146" s="94"/>
+      <c r="CX146" s="94"/>
+      <c r="CY146" s="94"/>
+      <c r="CZ146" s="94"/>
+      <c r="DA146" s="94"/>
+      <c r="DB146" s="94"/>
+      <c r="DC146" s="94"/>
+      <c r="DD146" s="94"/>
+      <c r="DE146" s="94"/>
+      <c r="DF146" s="94"/>
+      <c r="DG146" s="94"/>
+      <c r="DH146" s="94"/>
+      <c r="DI146" s="94"/>
+      <c r="DJ146" s="94"/>
+      <c r="DK146" s="94"/>
+      <c r="DL146" s="94"/>
+      <c r="DM146" s="94"/>
+      <c r="DN146" s="94"/>
+      <c r="DO146" s="94"/>
+      <c r="DP146" s="94"/>
+      <c r="DQ146" s="94"/>
+      <c r="DR146" s="94"/>
+      <c r="DS146" s="94"/>
+      <c r="DT146" s="94"/>
+      <c r="DU146" s="94"/>
+      <c r="DV146" s="94"/>
+      <c r="DW146" s="94"/>
+      <c r="DX146" s="94"/>
+      <c r="DY146" s="94"/>
+      <c r="DZ146" s="94"/>
+      <c r="EA146" s="94"/>
+      <c r="EB146" s="94"/>
+      <c r="EC146" s="94"/>
+      <c r="ED146" s="94"/>
+      <c r="EE146" s="94"/>
+      <c r="EF146" s="94"/>
+      <c r="EG146" s="94"/>
+      <c r="EH146" s="94"/>
+      <c r="EI146" s="94"/>
+      <c r="EJ146" s="94"/>
+      <c r="EK146" s="94"/>
+      <c r="EL146" s="94"/>
+      <c r="EM146" s="94"/>
+      <c r="EN146" s="94"/>
+      <c r="EO146" s="94"/>
+      <c r="EP146" s="94"/>
+      <c r="EQ146" s="94"/>
+      <c r="ER146" s="94"/>
+      <c r="ES146" s="94"/>
+      <c r="ET146" s="94"/>
+      <c r="EU146" s="94"/>
+      <c r="EV146" s="94"/>
+      <c r="EW146" s="94"/>
+      <c r="EX146" s="94"/>
+      <c r="EY146" s="94"/>
+      <c r="EZ146" s="94"/>
+      <c r="FA146" s="94"/>
+      <c r="FB146" s="94"/>
+      <c r="FC146" s="94"/>
+      <c r="FD146" s="94"/>
+    </row>
   </sheetData>
   <mergeCells count="38">
     <mergeCell ref="ER2:ES2"/>
@@ -53615,7 +53790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DA73DF-26A5-4DD8-98D1-87A320289739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D12C01-3C97-4841-B8D5-3451CBC2B3E0}">
   <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -53634,7 +53809,7 @@
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94"/>
       <c r="B1" s="96" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -53749,10 +53924,10 @@
     <row r="4" spans="1:23" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="94"/>
       <c r="B4" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D4" s="44">
         <v>1</v>
@@ -53809,17 +53984,17 @@
         <v>1</v>
       </c>
       <c r="V4" s="122" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="W4" s="94"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="94"/>
       <c r="B5" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D5" s="100">
         <v>700</v>
@@ -53876,7 +54051,7 @@
         <v>36</v>
       </c>
       <c r="V5" s="123" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W5" s="94"/>
     </row>
@@ -53884,7 +54059,7 @@
       <c r="A6" s="94"/>
       <c r="B6" s="111"/>
       <c r="C6" s="87" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D6" s="98">
         <v>950</v>
@@ -53941,7 +54116,7 @@
         <v>36</v>
       </c>
       <c r="V6" s="124" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W6" s="94"/>
     </row>
@@ -53949,7 +54124,7 @@
       <c r="A7" s="94"/>
       <c r="B7" s="111"/>
       <c r="C7" s="87" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D7" s="98">
         <v>2150</v>
@@ -54006,7 +54181,7 @@
         <v>2150</v>
       </c>
       <c r="V7" s="124" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W7" s="94"/>
     </row>
@@ -54014,7 +54189,7 @@
       <c r="A8" s="94"/>
       <c r="B8" s="112"/>
       <c r="C8" s="89" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D8" s="115">
         <v>2300</v>
@@ -54071,17 +54246,17 @@
         <v>2250</v>
       </c>
       <c r="V8" s="125" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W8" s="94"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="94"/>
       <c r="B9" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="90" t="s">
         <v>457</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>455</v>
       </c>
       <c r="D9" s="116">
         <v>-27</v>
@@ -54138,7 +54313,7 @@
         <v>-25</v>
       </c>
       <c r="V9" s="126" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="W9" s="94"/>
     </row>
@@ -54146,7 +54321,7 @@
       <c r="A10" s="94"/>
       <c r="B10" s="113"/>
       <c r="C10" s="93" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D10" s="117">
         <v>20</v>
@@ -54203,17 +54378,17 @@
         <v>20</v>
       </c>
       <c r="V10" s="127" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="W10" s="94"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="94"/>
       <c r="B11" s="15" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C11" s="85" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D11" s="100">
         <v>8.7999999999999995E-2</v>
@@ -54270,7 +54445,7 @@
         <v>0.08</v>
       </c>
       <c r="V11" s="123" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W11" s="94"/>
     </row>
@@ -54278,7 +54453,7 @@
       <c r="A12" s="94"/>
       <c r="B12" s="111"/>
       <c r="C12" s="87" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D12" s="98">
         <v>8.7999999999999995E-2</v>
@@ -54335,7 +54510,7 @@
         <v>0.08</v>
       </c>
       <c r="V12" s="124" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W12" s="94"/>
     </row>
@@ -54343,7 +54518,7 @@
       <c r="A13" s="94"/>
       <c r="B13" s="111"/>
       <c r="C13" s="87" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D13" s="98">
         <v>45</v>
@@ -54400,7 +54575,7 @@
         <v>70</v>
       </c>
       <c r="V13" s="124" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W13" s="94"/>
     </row>
@@ -54408,7 +54583,7 @@
       <c r="A14" s="94"/>
       <c r="B14" s="112"/>
       <c r="C14" s="89" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D14" s="115">
         <v>45</v>
@@ -54465,17 +54640,17 @@
         <v>70</v>
       </c>
       <c r="V14" s="125" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W14" s="94"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="94"/>
       <c r="B15" s="29" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C15" s="90" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D15" s="116">
         <v>8.7999999999999995E-2</v>
@@ -54532,7 +54707,7 @@
         <v>0.08</v>
       </c>
       <c r="V15" s="126" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W15" s="94"/>
     </row>
@@ -54540,7 +54715,7 @@
       <c r="A16" s="94"/>
       <c r="B16" s="114"/>
       <c r="C16" s="25" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D16" s="118">
         <v>8.7999999999999995E-2</v>
@@ -54597,7 +54772,7 @@
         <v>0.08</v>
       </c>
       <c r="V16" s="128" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W16" s="94"/>
     </row>
@@ -54605,7 +54780,7 @@
       <c r="A17" s="94"/>
       <c r="B17" s="114"/>
       <c r="C17" s="25" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D17" s="118">
         <v>45</v>
@@ -54662,7 +54837,7 @@
         <v>70</v>
       </c>
       <c r="V17" s="128" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W17" s="94"/>
     </row>
@@ -54670,7 +54845,7 @@
       <c r="A18" s="94"/>
       <c r="B18" s="113"/>
       <c r="C18" s="93" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D18" s="117">
         <v>45</v>
@@ -54727,7 +54902,7 @@
         <v>70</v>
       </c>
       <c r="V18" s="127" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="W18" s="94"/>
     </row>
@@ -55987,7 +56162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D57FBBC-682B-424E-A4CC-9270FE4C7069}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62303AE1-E7FA-4AA9-90C2-B32C1BE0B247}">
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -56006,7 +56181,7 @@
     <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94"/>
       <c r="B1" s="96" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -56114,10 +56289,10 @@
     <row r="4" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="94"/>
       <c r="B4" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D4" s="44">
         <v>1</v>
@@ -56171,17 +56346,17 @@
         <v>1</v>
       </c>
       <c r="U4" s="122" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="V4" s="94"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="94"/>
       <c r="B5" s="15" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D5" s="100">
         <v>950</v>
@@ -56229,7 +56404,7 @@
         <v>42</v>
       </c>
       <c r="U5" s="123" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="V5" s="94"/>
     </row>
@@ -56237,7 +56412,7 @@
       <c r="A6" s="94"/>
       <c r="B6" s="111"/>
       <c r="C6" s="87" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D6" s="98">
         <v>950</v>
@@ -56285,7 +56460,7 @@
         <v>42</v>
       </c>
       <c r="U6" s="124" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="V6" s="94"/>
     </row>
@@ -56293,7 +56468,7 @@
       <c r="A7" s="94"/>
       <c r="B7" s="111"/>
       <c r="C7" s="87" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D7" s="98">
         <v>2150</v>
@@ -56341,7 +56516,7 @@
         <v>1002</v>
       </c>
       <c r="U7" s="124" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="V7" s="94"/>
     </row>
@@ -56349,7 +56524,7 @@
       <c r="A8" s="94"/>
       <c r="B8" s="112"/>
       <c r="C8" s="89" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D8" s="115">
         <v>2150</v>
@@ -56397,7 +56572,7 @@
         <v>1002</v>
       </c>
       <c r="U8" s="125" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="V8" s="94"/>
     </row>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2EA2024-AA2F-4B54-9035-29E987515FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A7DF32-AA20-4353-B164-8E6E19E306E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{BA6F5BA7-DEF0-4F0C-AF71-4A4035C8C6AA}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{8D29B9DE-C165-4562-BC70-3DC6C7AE807A}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2477,7 +2477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E98D05-86D5-45D6-9061-46BD41A52DB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2EE7E6-F500-4484-BD49-D9EAED1338D8}">
   <dimension ref="A1:FM152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -29871,7 +29871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A4662C-08C7-4190-9335-42512B6AD5D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24671343-E110-40E5-B767-1DF2D1291534}">
   <dimension ref="A1:FP157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41067,7 +41067,7 @@
       <c r="CY59" s="56"/>
       <c r="CZ59" s="56"/>
       <c r="DA59" s="58"/>
-      <c r="DB59" s="38"/>
+      <c r="DB59" s="104"/>
       <c r="DC59" s="58"/>
       <c r="DD59" s="38"/>
       <c r="DE59" s="56"/>
@@ -58564,7 +58564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A9BB2F-E303-4E7F-835C-C885EF2DBB52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53489C69-781D-4FEF-9DF9-CE470145E52C}">
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -61008,7 +61008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52D5D02-05CE-4341-8CA6-39C5F55F6F4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB731264-0189-46F9-AB4B-1A0AFD2CFCC6}">
   <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3A7DF32-AA20-4353-B164-8E6E19E306E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9022C51-020E-4F16-8D27-3C92217E00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{8D29B9DE-C165-4562-BC70-3DC6C7AE807A}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{CD52524F-D2B4-4A26-ABF2-16CAEB16D567}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2470,14 +2470,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2EE7E6-F500-4484-BD49-D9EAED1338D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61921F63-BF56-4CED-A411-3D083E00E82A}">
   <dimension ref="A1:FM152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -29871,7 +29871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24671343-E110-40E5-B767-1DF2D1291534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9234D8D4-2E68-4FCB-A8CC-190254D27A79}">
   <dimension ref="A1:FP157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58564,7 +58564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53489C69-781D-4FEF-9DF9-CE470145E52C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BB0C73-DD9C-465D-BBC4-18091A466E78}">
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -61008,7 +61008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB731264-0189-46F9-AB4B-1A0AFD2CFCC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F7E30D-3086-4EE8-BFBB-D9C03FB8149B}">
   <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DekTecSCM_SDK_2022.12\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9022C51-020E-4F16-8D27-3C92217E00F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF87079-D7F3-4DC7-81B3-499669A98AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{CD52524F-D2B4-4A26-ABF2-16CAEB16D567}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12735" xr2:uid="{95F7FB5E-7928-46CA-9CA0-BEB3CD708FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2470,14 +2470,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61921F63-BF56-4CED-A411-3D083E00E82A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CC4AB0-2EAA-4893-A4FA-0BB4F9D2AC1B}">
   <dimension ref="A1:FM152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -29871,7 +29871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9234D8D4-2E68-4FCB-A8CC-190254D27A79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DAED87-7B76-4206-8BD1-BCDFEA6E766C}">
   <dimension ref="A1:FP157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58560,11 +58560,12 @@
     <mergeCell ref="AC2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BB0C73-DD9C-465D-BBC4-18091A466E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435D0704-D7D9-45E2-97D4-6C5AB10498B3}">
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -61008,7 +61009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F7E30D-3086-4EE8-BFBB-D9C03FB8149B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2046B5-6175-4820-9726-6E7312111382}">
   <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/LinuxSDK/DTAPI/Doc/CapList.xlsx
+++ b/LinuxSDK/DTAPI/Doc/CapList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DekTecSCM_RELEASE\SW\CrossPlatform\SDK\DISTRI\WinSDK\DTAPI\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDA439F7-1B09-462C-BEB5-ABB8F7634ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82DF89E6-0D5B-4BBD-B232-4BCAB041E01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{C7483325-F68E-4701-9DFE-193B0115EED9}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{25970F50-1B67-4FED-BAAA-32DECF75AD66}"/>
   </bookViews>
   <sheets>
     <sheet name="IO Capabilities" sheetId="1" r:id="rId1"/>
@@ -2486,7 +2486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8338AF-93B0-4233-9CDB-966630784028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E59925-01E9-4661-88E1-4341FBF467D2}">
   <dimension ref="A1:FP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -30347,7 +30347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419C0F9C-0946-4637-B583-9C9E0A20CC54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9446A3-4152-4D52-863C-288F6258E313}">
   <dimension ref="A1:FS157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43554,7 +43554,7 @@
       <c r="CP69" s="76"/>
       <c r="CQ69" s="60"/>
       <c r="CR69" s="41"/>
-      <c r="CS69" s="41"/>
+      <c r="CS69" s="103"/>
       <c r="CT69" s="59"/>
       <c r="CU69" s="76"/>
       <c r="CV69" s="76"/>
@@ -59523,7 +59523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12257AD-2F75-4413-A70D-744A5F576E7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EB828B-5659-4AA9-8156-9CBACF4D00B6}">
   <dimension ref="A1:Y68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62039,7 +62039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D8AEB-A302-4E6F-8460-FA58CB153F92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72ECF310-4B11-402C-A0AF-7130778CDBDC}">
   <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
